--- a/Documents/Planification_Projet_2026.xlsx
+++ b/Documents/Planification_Projet_2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fauret.SNIRW\Projet_banc_test_self\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{449413FE-480E-4F06-8F6A-3E5CF55D7CC9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD8D071-51FB-41DC-86E5-3065EF1B824F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1935,7 +1935,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2035,32 +2035,25 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2073,12 +2066,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2086,9 +2089,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2629,12 +2630,12 @@
       <c r="Y1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="Z1" s="63">
+      <c r="Z1" s="84">
         <v>2024</v>
       </c>
-      <c r="AA1" s="64"/>
-      <c r="AB1" s="64"/>
-      <c r="AC1" s="65"/>
+      <c r="AA1" s="85"/>
+      <c r="AB1" s="85"/>
+      <c r="AC1" s="86"/>
       <c r="AD1" s="6"/>
       <c r="AE1" s="4" t="s">
         <v>2</v>
@@ -2689,10 +2690,10 @@
       <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="66"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
       <c r="I3" s="13" t="s">
         <v>5</v>
       </c>
@@ -2757,31 +2758,31 @@
         <v>25</v>
       </c>
       <c r="AD3" s="6"/>
-      <c r="AE3" s="68" t="s">
+      <c r="AE3" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="AF3" s="69"/>
-      <c r="AG3" s="69"/>
-      <c r="AH3" s="69"/>
-      <c r="AI3" s="69"/>
-      <c r="AJ3" s="69"/>
-      <c r="AK3" s="69"/>
-      <c r="AL3" s="70"/>
+      <c r="AF3" s="63"/>
+      <c r="AG3" s="63"/>
+      <c r="AH3" s="63"/>
+      <c r="AI3" s="63"/>
+      <c r="AJ3" s="63"/>
+      <c r="AK3" s="63"/>
+      <c r="AL3" s="64"/>
     </row>
     <row r="4" spans="1:38" ht="14.25" customHeight="1">
-      <c r="D4" s="66"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
       <c r="AD4" s="6"/>
-      <c r="AE4" s="71"/>
-      <c r="AF4" s="67"/>
-      <c r="AG4" s="67"/>
-      <c r="AH4" s="67"/>
-      <c r="AI4" s="67"/>
-      <c r="AJ4" s="67"/>
-      <c r="AK4" s="67"/>
-      <c r="AL4" s="72"/>
+      <c r="AE4" s="65"/>
+      <c r="AF4" s="66"/>
+      <c r="AG4" s="66"/>
+      <c r="AH4" s="66"/>
+      <c r="AI4" s="66"/>
+      <c r="AJ4" s="66"/>
+      <c r="AK4" s="66"/>
+      <c r="AL4" s="67"/>
     </row>
     <row r="5" spans="1:38" ht="14.25" customHeight="1">
       <c r="A5" s="8" t="s">
@@ -2822,20 +2823,20 @@
       <c r="AA5" s="16"/>
       <c r="AC5" s="16"/>
       <c r="AD5" s="6"/>
-      <c r="AE5" s="71"/>
-      <c r="AF5" s="67"/>
-      <c r="AG5" s="67"/>
-      <c r="AH5" s="67"/>
-      <c r="AI5" s="67"/>
-      <c r="AJ5" s="67"/>
-      <c r="AK5" s="67"/>
-      <c r="AL5" s="72"/>
+      <c r="AE5" s="65"/>
+      <c r="AF5" s="66"/>
+      <c r="AG5" s="66"/>
+      <c r="AH5" s="66"/>
+      <c r="AI5" s="66"/>
+      <c r="AJ5" s="66"/>
+      <c r="AK5" s="66"/>
+      <c r="AL5" s="67"/>
     </row>
     <row r="6" spans="1:38" ht="15" customHeight="1">
       <c r="A6" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="76"/>
+      <c r="B6" s="72"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
@@ -2863,14 +2864,14 @@
       <c r="AB6" s="17"/>
       <c r="AC6" s="17"/>
       <c r="AD6" s="6"/>
-      <c r="AE6" s="71"/>
-      <c r="AF6" s="67"/>
-      <c r="AG6" s="67"/>
-      <c r="AH6" s="67"/>
-      <c r="AI6" s="67"/>
-      <c r="AJ6" s="67"/>
-      <c r="AK6" s="67"/>
-      <c r="AL6" s="72"/>
+      <c r="AE6" s="65"/>
+      <c r="AF6" s="66"/>
+      <c r="AG6" s="66"/>
+      <c r="AH6" s="66"/>
+      <c r="AI6" s="66"/>
+      <c r="AJ6" s="66"/>
+      <c r="AK6" s="66"/>
+      <c r="AL6" s="67"/>
     </row>
     <row r="7" spans="1:38" ht="15" customHeight="1">
       <c r="A7" s="59"/>
@@ -2902,20 +2903,20 @@
       <c r="AB7" s="17"/>
       <c r="AC7" s="17"/>
       <c r="AD7" s="6"/>
-      <c r="AE7" s="71"/>
-      <c r="AF7" s="67"/>
-      <c r="AG7" s="67"/>
-      <c r="AH7" s="67"/>
-      <c r="AI7" s="67"/>
-      <c r="AJ7" s="67"/>
-      <c r="AK7" s="67"/>
-      <c r="AL7" s="72"/>
+      <c r="AE7" s="65"/>
+      <c r="AF7" s="66"/>
+      <c r="AG7" s="66"/>
+      <c r="AH7" s="66"/>
+      <c r="AI7" s="66"/>
+      <c r="AJ7" s="66"/>
+      <c r="AK7" s="66"/>
+      <c r="AL7" s="67"/>
     </row>
     <row r="8" spans="1:38" ht="15" customHeight="1">
       <c r="A8" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="60"/>
+      <c r="B8" s="73"/>
       <c r="D8" s="22"/>
       <c r="E8" s="22"/>
       <c r="F8" s="22"/>
@@ -2943,14 +2944,14 @@
       <c r="AB8" s="17"/>
       <c r="AC8" s="17"/>
       <c r="AD8" s="6"/>
-      <c r="AE8" s="71"/>
-      <c r="AF8" s="67"/>
-      <c r="AG8" s="67"/>
-      <c r="AH8" s="67"/>
-      <c r="AI8" s="67"/>
-      <c r="AJ8" s="67"/>
-      <c r="AK8" s="67"/>
-      <c r="AL8" s="72"/>
+      <c r="AE8" s="65"/>
+      <c r="AF8" s="66"/>
+      <c r="AG8" s="66"/>
+      <c r="AH8" s="66"/>
+      <c r="AI8" s="66"/>
+      <c r="AJ8" s="66"/>
+      <c r="AK8" s="66"/>
+      <c r="AL8" s="67"/>
     </row>
     <row r="9" spans="1:38" ht="15" customHeight="1">
       <c r="A9" s="59"/>
@@ -2982,20 +2983,20 @@
       <c r="AB9" s="17"/>
       <c r="AC9" s="17"/>
       <c r="AD9" s="6"/>
-      <c r="AE9" s="71"/>
-      <c r="AF9" s="67"/>
-      <c r="AG9" s="67"/>
-      <c r="AH9" s="67"/>
-      <c r="AI9" s="67"/>
-      <c r="AJ9" s="67"/>
-      <c r="AK9" s="67"/>
-      <c r="AL9" s="72"/>
+      <c r="AE9" s="65"/>
+      <c r="AF9" s="66"/>
+      <c r="AG9" s="66"/>
+      <c r="AH9" s="66"/>
+      <c r="AI9" s="66"/>
+      <c r="AJ9" s="66"/>
+      <c r="AK9" s="66"/>
+      <c r="AL9" s="67"/>
     </row>
     <row r="10" spans="1:38" ht="15" customHeight="1">
       <c r="A10" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="60"/>
+      <c r="B10" s="73"/>
       <c r="D10" s="22"/>
       <c r="E10" s="22"/>
       <c r="F10" s="22"/>
@@ -3023,14 +3024,14 @@
       <c r="AB10" s="17"/>
       <c r="AC10" s="17"/>
       <c r="AD10" s="6"/>
-      <c r="AE10" s="71"/>
-      <c r="AF10" s="67"/>
-      <c r="AG10" s="67"/>
-      <c r="AH10" s="67"/>
-      <c r="AI10" s="67"/>
-      <c r="AJ10" s="67"/>
-      <c r="AK10" s="67"/>
-      <c r="AL10" s="72"/>
+      <c r="AE10" s="65"/>
+      <c r="AF10" s="66"/>
+      <c r="AG10" s="66"/>
+      <c r="AH10" s="66"/>
+      <c r="AI10" s="66"/>
+      <c r="AJ10" s="66"/>
+      <c r="AK10" s="66"/>
+      <c r="AL10" s="67"/>
     </row>
     <row r="11" spans="1:38" ht="15" customHeight="1">
       <c r="A11" s="59"/>
@@ -3062,20 +3063,20 @@
       <c r="AB11" s="17"/>
       <c r="AC11" s="17"/>
       <c r="AD11" s="6"/>
-      <c r="AE11" s="71"/>
-      <c r="AF11" s="67"/>
-      <c r="AG11" s="67"/>
-      <c r="AH11" s="67"/>
-      <c r="AI11" s="67"/>
-      <c r="AJ11" s="67"/>
-      <c r="AK11" s="67"/>
-      <c r="AL11" s="72"/>
+      <c r="AE11" s="65"/>
+      <c r="AF11" s="66"/>
+      <c r="AG11" s="66"/>
+      <c r="AH11" s="66"/>
+      <c r="AI11" s="66"/>
+      <c r="AJ11" s="66"/>
+      <c r="AK11" s="66"/>
+      <c r="AL11" s="67"/>
     </row>
     <row r="12" spans="1:38" ht="15" customHeight="1">
       <c r="A12" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="60"/>
+      <c r="B12" s="73"/>
       <c r="D12" s="22"/>
       <c r="E12" s="22"/>
       <c r="F12" s="22"/>
@@ -3103,14 +3104,14 @@
       <c r="AB12" s="17"/>
       <c r="AC12" s="17"/>
       <c r="AD12" s="6"/>
-      <c r="AE12" s="71"/>
-      <c r="AF12" s="67"/>
-      <c r="AG12" s="67"/>
-      <c r="AH12" s="67"/>
-      <c r="AI12" s="67"/>
-      <c r="AJ12" s="67"/>
-      <c r="AK12" s="67"/>
-      <c r="AL12" s="72"/>
+      <c r="AE12" s="65"/>
+      <c r="AF12" s="66"/>
+      <c r="AG12" s="66"/>
+      <c r="AH12" s="66"/>
+      <c r="AI12" s="66"/>
+      <c r="AJ12" s="66"/>
+      <c r="AK12" s="66"/>
+      <c r="AL12" s="67"/>
     </row>
     <row r="13" spans="1:38" ht="15" customHeight="1">
       <c r="A13" s="59"/>
@@ -3142,20 +3143,20 @@
       <c r="AB13" s="17"/>
       <c r="AC13" s="17"/>
       <c r="AD13" s="6"/>
-      <c r="AE13" s="71"/>
-      <c r="AF13" s="67"/>
-      <c r="AG13" s="67"/>
-      <c r="AH13" s="67"/>
-      <c r="AI13" s="67"/>
-      <c r="AJ13" s="67"/>
-      <c r="AK13" s="67"/>
-      <c r="AL13" s="72"/>
+      <c r="AE13" s="65"/>
+      <c r="AF13" s="66"/>
+      <c r="AG13" s="66"/>
+      <c r="AH13" s="66"/>
+      <c r="AI13" s="66"/>
+      <c r="AJ13" s="66"/>
+      <c r="AK13" s="66"/>
+      <c r="AL13" s="67"/>
     </row>
     <row r="14" spans="1:38" ht="15" customHeight="1">
       <c r="A14" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="60"/>
+      <c r="B14" s="73"/>
       <c r="D14" s="22"/>
       <c r="E14" s="22"/>
       <c r="F14" s="22"/>
@@ -3183,14 +3184,14 @@
       <c r="AB14" s="17"/>
       <c r="AC14" s="17"/>
       <c r="AD14" s="6"/>
-      <c r="AE14" s="71"/>
-      <c r="AF14" s="67"/>
-      <c r="AG14" s="67"/>
-      <c r="AH14" s="67"/>
-      <c r="AI14" s="67"/>
-      <c r="AJ14" s="67"/>
-      <c r="AK14" s="67"/>
-      <c r="AL14" s="72"/>
+      <c r="AE14" s="65"/>
+      <c r="AF14" s="66"/>
+      <c r="AG14" s="66"/>
+      <c r="AH14" s="66"/>
+      <c r="AI14" s="66"/>
+      <c r="AJ14" s="66"/>
+      <c r="AK14" s="66"/>
+      <c r="AL14" s="67"/>
     </row>
     <row r="15" spans="1:38" ht="15" customHeight="1">
       <c r="A15" s="59"/>
@@ -3222,20 +3223,20 @@
       <c r="AB15" s="17"/>
       <c r="AC15" s="17"/>
       <c r="AD15" s="6"/>
-      <c r="AE15" s="71"/>
-      <c r="AF15" s="67"/>
-      <c r="AG15" s="67"/>
-      <c r="AH15" s="67"/>
-      <c r="AI15" s="67"/>
-      <c r="AJ15" s="67"/>
-      <c r="AK15" s="67"/>
-      <c r="AL15" s="72"/>
+      <c r="AE15" s="65"/>
+      <c r="AF15" s="66"/>
+      <c r="AG15" s="66"/>
+      <c r="AH15" s="66"/>
+      <c r="AI15" s="66"/>
+      <c r="AJ15" s="66"/>
+      <c r="AK15" s="66"/>
+      <c r="AL15" s="67"/>
     </row>
     <row r="16" spans="1:38" ht="15" customHeight="1">
       <c r="A16" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="61"/>
+      <c r="B16" s="60"/>
       <c r="D16" s="22"/>
       <c r="E16" s="22"/>
       <c r="F16" s="22"/>
@@ -3263,14 +3264,14 @@
       <c r="AB16" s="17"/>
       <c r="AC16" s="17"/>
       <c r="AD16" s="6"/>
-      <c r="AE16" s="71"/>
-      <c r="AF16" s="67"/>
-      <c r="AG16" s="67"/>
-      <c r="AH16" s="67"/>
-      <c r="AI16" s="67"/>
-      <c r="AJ16" s="67"/>
-      <c r="AK16" s="67"/>
-      <c r="AL16" s="72"/>
+      <c r="AE16" s="65"/>
+      <c r="AF16" s="66"/>
+      <c r="AG16" s="66"/>
+      <c r="AH16" s="66"/>
+      <c r="AI16" s="66"/>
+      <c r="AJ16" s="66"/>
+      <c r="AK16" s="66"/>
+      <c r="AL16" s="67"/>
     </row>
     <row r="17" spans="1:38" ht="15" customHeight="1">
       <c r="A17" s="59"/>
@@ -3302,20 +3303,20 @@
       <c r="AB17" s="17"/>
       <c r="AC17" s="17"/>
       <c r="AD17" s="6"/>
-      <c r="AE17" s="71"/>
-      <c r="AF17" s="67"/>
-      <c r="AG17" s="67"/>
-      <c r="AH17" s="67"/>
-      <c r="AI17" s="67"/>
-      <c r="AJ17" s="67"/>
-      <c r="AK17" s="67"/>
-      <c r="AL17" s="72"/>
+      <c r="AE17" s="65"/>
+      <c r="AF17" s="66"/>
+      <c r="AG17" s="66"/>
+      <c r="AH17" s="66"/>
+      <c r="AI17" s="66"/>
+      <c r="AJ17" s="66"/>
+      <c r="AK17" s="66"/>
+      <c r="AL17" s="67"/>
     </row>
     <row r="18" spans="1:38" ht="15" customHeight="1">
       <c r="A18" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="61"/>
+      <c r="B18" s="60"/>
       <c r="D18" s="22"/>
       <c r="E18" s="22"/>
       <c r="F18" s="22"/>
@@ -3343,14 +3344,14 @@
       <c r="AB18" s="17"/>
       <c r="AC18" s="17"/>
       <c r="AD18" s="6"/>
-      <c r="AE18" s="71"/>
-      <c r="AF18" s="67"/>
-      <c r="AG18" s="67"/>
-      <c r="AH18" s="67"/>
-      <c r="AI18" s="67"/>
-      <c r="AJ18" s="67"/>
-      <c r="AK18" s="67"/>
-      <c r="AL18" s="72"/>
+      <c r="AE18" s="65"/>
+      <c r="AF18" s="66"/>
+      <c r="AG18" s="66"/>
+      <c r="AH18" s="66"/>
+      <c r="AI18" s="66"/>
+      <c r="AJ18" s="66"/>
+      <c r="AK18" s="66"/>
+      <c r="AL18" s="67"/>
     </row>
     <row r="19" spans="1:38" ht="15" customHeight="1">
       <c r="A19" s="59"/>
@@ -3382,20 +3383,20 @@
       <c r="AB19" s="17"/>
       <c r="AC19" s="17"/>
       <c r="AD19" s="6"/>
-      <c r="AE19" s="71"/>
-      <c r="AF19" s="67"/>
-      <c r="AG19" s="67"/>
-      <c r="AH19" s="67"/>
-      <c r="AI19" s="67"/>
-      <c r="AJ19" s="67"/>
-      <c r="AK19" s="67"/>
-      <c r="AL19" s="72"/>
+      <c r="AE19" s="65"/>
+      <c r="AF19" s="66"/>
+      <c r="AG19" s="66"/>
+      <c r="AH19" s="66"/>
+      <c r="AI19" s="66"/>
+      <c r="AJ19" s="66"/>
+      <c r="AK19" s="66"/>
+      <c r="AL19" s="67"/>
     </row>
     <row r="20" spans="1:38" ht="15" customHeight="1">
       <c r="A20" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="61"/>
+      <c r="B20" s="60"/>
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
@@ -3423,14 +3424,14 @@
       <c r="AB20" s="17"/>
       <c r="AC20" s="17"/>
       <c r="AD20" s="6"/>
-      <c r="AE20" s="71"/>
-      <c r="AF20" s="67"/>
-      <c r="AG20" s="67"/>
-      <c r="AH20" s="67"/>
-      <c r="AI20" s="67"/>
-      <c r="AJ20" s="67"/>
-      <c r="AK20" s="67"/>
-      <c r="AL20" s="72"/>
+      <c r="AE20" s="65"/>
+      <c r="AF20" s="66"/>
+      <c r="AG20" s="66"/>
+      <c r="AH20" s="66"/>
+      <c r="AI20" s="66"/>
+      <c r="AJ20" s="66"/>
+      <c r="AK20" s="66"/>
+      <c r="AL20" s="67"/>
     </row>
     <row r="21" spans="1:38" ht="15" customHeight="1">
       <c r="A21" s="59"/>
@@ -3462,20 +3463,20 @@
       <c r="AB21" s="17"/>
       <c r="AC21" s="17"/>
       <c r="AD21" s="6"/>
-      <c r="AE21" s="71"/>
-      <c r="AF21" s="67"/>
-      <c r="AG21" s="67"/>
-      <c r="AH21" s="67"/>
-      <c r="AI21" s="67"/>
-      <c r="AJ21" s="67"/>
-      <c r="AK21" s="67"/>
-      <c r="AL21" s="72"/>
+      <c r="AE21" s="65"/>
+      <c r="AF21" s="66"/>
+      <c r="AG21" s="66"/>
+      <c r="AH21" s="66"/>
+      <c r="AI21" s="66"/>
+      <c r="AJ21" s="66"/>
+      <c r="AK21" s="66"/>
+      <c r="AL21" s="67"/>
     </row>
     <row r="22" spans="1:38" ht="15" customHeight="1">
       <c r="A22" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="61"/>
+      <c r="B22" s="60"/>
       <c r="D22" s="22"/>
       <c r="E22" s="22"/>
       <c r="F22" s="22"/>
@@ -3503,14 +3504,14 @@
       <c r="AB22" s="17"/>
       <c r="AC22" s="17"/>
       <c r="AD22" s="6"/>
-      <c r="AE22" s="71"/>
-      <c r="AF22" s="67"/>
-      <c r="AG22" s="67"/>
-      <c r="AH22" s="67"/>
-      <c r="AI22" s="67"/>
-      <c r="AJ22" s="67"/>
-      <c r="AK22" s="67"/>
-      <c r="AL22" s="72"/>
+      <c r="AE22" s="65"/>
+      <c r="AF22" s="66"/>
+      <c r="AG22" s="66"/>
+      <c r="AH22" s="66"/>
+      <c r="AI22" s="66"/>
+      <c r="AJ22" s="66"/>
+      <c r="AK22" s="66"/>
+      <c r="AL22" s="67"/>
     </row>
     <row r="23" spans="1:38" ht="15" customHeight="1">
       <c r="A23" s="59"/>
@@ -3542,20 +3543,20 @@
       <c r="AB23" s="17"/>
       <c r="AC23" s="17"/>
       <c r="AD23" s="6"/>
-      <c r="AE23" s="71"/>
-      <c r="AF23" s="67"/>
-      <c r="AG23" s="67"/>
-      <c r="AH23" s="67"/>
-      <c r="AI23" s="67"/>
-      <c r="AJ23" s="67"/>
-      <c r="AK23" s="67"/>
-      <c r="AL23" s="72"/>
+      <c r="AE23" s="65"/>
+      <c r="AF23" s="66"/>
+      <c r="AG23" s="66"/>
+      <c r="AH23" s="66"/>
+      <c r="AI23" s="66"/>
+      <c r="AJ23" s="66"/>
+      <c r="AK23" s="66"/>
+      <c r="AL23" s="67"/>
     </row>
     <row r="24" spans="1:38" ht="15" customHeight="1">
       <c r="A24" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="61"/>
+      <c r="B24" s="60"/>
       <c r="D24" s="22"/>
       <c r="E24" s="22"/>
       <c r="F24" s="22"/>
@@ -3583,14 +3584,14 @@
       <c r="AB24" s="17"/>
       <c r="AC24" s="17"/>
       <c r="AD24" s="6"/>
-      <c r="AE24" s="71"/>
-      <c r="AF24" s="67"/>
-      <c r="AG24" s="67"/>
-      <c r="AH24" s="67"/>
-      <c r="AI24" s="67"/>
-      <c r="AJ24" s="67"/>
-      <c r="AK24" s="67"/>
-      <c r="AL24" s="72"/>
+      <c r="AE24" s="65"/>
+      <c r="AF24" s="66"/>
+      <c r="AG24" s="66"/>
+      <c r="AH24" s="66"/>
+      <c r="AI24" s="66"/>
+      <c r="AJ24" s="66"/>
+      <c r="AK24" s="66"/>
+      <c r="AL24" s="67"/>
     </row>
     <row r="25" spans="1:38" ht="15" customHeight="1">
       <c r="A25" s="59"/>
@@ -3622,20 +3623,20 @@
       <c r="AB25" s="17"/>
       <c r="AC25" s="17"/>
       <c r="AD25" s="6"/>
-      <c r="AE25" s="71"/>
-      <c r="AF25" s="67"/>
-      <c r="AG25" s="67"/>
-      <c r="AH25" s="67"/>
-      <c r="AI25" s="67"/>
-      <c r="AJ25" s="67"/>
-      <c r="AK25" s="67"/>
-      <c r="AL25" s="72"/>
+      <c r="AE25" s="65"/>
+      <c r="AF25" s="66"/>
+      <c r="AG25" s="66"/>
+      <c r="AH25" s="66"/>
+      <c r="AI25" s="66"/>
+      <c r="AJ25" s="66"/>
+      <c r="AK25" s="66"/>
+      <c r="AL25" s="67"/>
     </row>
     <row r="26" spans="1:38" ht="15" customHeight="1">
       <c r="A26" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="61"/>
+      <c r="B26" s="60"/>
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>
       <c r="F26" s="22"/>
@@ -3663,14 +3664,14 @@
       <c r="AB26" s="17"/>
       <c r="AC26" s="17"/>
       <c r="AD26" s="6"/>
-      <c r="AE26" s="71"/>
-      <c r="AF26" s="67"/>
-      <c r="AG26" s="67"/>
-      <c r="AH26" s="67"/>
-      <c r="AI26" s="67"/>
-      <c r="AJ26" s="67"/>
-      <c r="AK26" s="67"/>
-      <c r="AL26" s="72"/>
+      <c r="AE26" s="65"/>
+      <c r="AF26" s="66"/>
+      <c r="AG26" s="66"/>
+      <c r="AH26" s="66"/>
+      <c r="AI26" s="66"/>
+      <c r="AJ26" s="66"/>
+      <c r="AK26" s="66"/>
+      <c r="AL26" s="67"/>
     </row>
     <row r="27" spans="1:38" ht="15" customHeight="1">
       <c r="A27" s="59"/>
@@ -3702,20 +3703,20 @@
       <c r="AB27" s="17"/>
       <c r="AC27" s="17"/>
       <c r="AD27" s="6"/>
-      <c r="AE27" s="71"/>
-      <c r="AF27" s="67"/>
-      <c r="AG27" s="67"/>
-      <c r="AH27" s="67"/>
-      <c r="AI27" s="67"/>
-      <c r="AJ27" s="67"/>
-      <c r="AK27" s="67"/>
-      <c r="AL27" s="72"/>
+      <c r="AE27" s="65"/>
+      <c r="AF27" s="66"/>
+      <c r="AG27" s="66"/>
+      <c r="AH27" s="66"/>
+      <c r="AI27" s="66"/>
+      <c r="AJ27" s="66"/>
+      <c r="AK27" s="66"/>
+      <c r="AL27" s="67"/>
     </row>
     <row r="28" spans="1:38" ht="15" customHeight="1">
       <c r="A28" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="61"/>
+      <c r="B28" s="60"/>
       <c r="D28" s="22"/>
       <c r="E28" s="22"/>
       <c r="F28" s="22"/>
@@ -3743,14 +3744,14 @@
       <c r="AB28" s="17"/>
       <c r="AC28" s="17"/>
       <c r="AD28" s="6"/>
-      <c r="AE28" s="71"/>
-      <c r="AF28" s="67"/>
-      <c r="AG28" s="67"/>
-      <c r="AH28" s="67"/>
-      <c r="AI28" s="67"/>
-      <c r="AJ28" s="67"/>
-      <c r="AK28" s="67"/>
-      <c r="AL28" s="72"/>
+      <c r="AE28" s="65"/>
+      <c r="AF28" s="66"/>
+      <c r="AG28" s="66"/>
+      <c r="AH28" s="66"/>
+      <c r="AI28" s="66"/>
+      <c r="AJ28" s="66"/>
+      <c r="AK28" s="66"/>
+      <c r="AL28" s="67"/>
     </row>
     <row r="29" spans="1:38" ht="15" customHeight="1">
       <c r="A29" s="59"/>
@@ -3782,20 +3783,20 @@
       <c r="AB29" s="17"/>
       <c r="AC29" s="17"/>
       <c r="AD29" s="6"/>
-      <c r="AE29" s="71"/>
-      <c r="AF29" s="67"/>
-      <c r="AG29" s="67"/>
-      <c r="AH29" s="67"/>
-      <c r="AI29" s="67"/>
-      <c r="AJ29" s="67"/>
-      <c r="AK29" s="67"/>
-      <c r="AL29" s="72"/>
+      <c r="AE29" s="65"/>
+      <c r="AF29" s="66"/>
+      <c r="AG29" s="66"/>
+      <c r="AH29" s="66"/>
+      <c r="AI29" s="66"/>
+      <c r="AJ29" s="66"/>
+      <c r="AK29" s="66"/>
+      <c r="AL29" s="67"/>
     </row>
     <row r="30" spans="1:38" ht="15" customHeight="1">
       <c r="A30" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="61"/>
+      <c r="B30" s="60"/>
       <c r="D30" s="22"/>
       <c r="E30" s="22"/>
       <c r="F30" s="22"/>
@@ -3823,14 +3824,14 @@
       <c r="AB30" s="17"/>
       <c r="AC30" s="17"/>
       <c r="AD30" s="6"/>
-      <c r="AE30" s="71"/>
-      <c r="AF30" s="67"/>
-      <c r="AG30" s="67"/>
-      <c r="AH30" s="67"/>
-      <c r="AI30" s="67"/>
-      <c r="AJ30" s="67"/>
-      <c r="AK30" s="67"/>
-      <c r="AL30" s="72"/>
+      <c r="AE30" s="65"/>
+      <c r="AF30" s="66"/>
+      <c r="AG30" s="66"/>
+      <c r="AH30" s="66"/>
+      <c r="AI30" s="66"/>
+      <c r="AJ30" s="66"/>
+      <c r="AK30" s="66"/>
+      <c r="AL30" s="67"/>
     </row>
     <row r="31" spans="1:38" ht="15" customHeight="1">
       <c r="A31" s="59"/>
@@ -3862,20 +3863,20 @@
       <c r="AB31" s="17"/>
       <c r="AC31" s="17"/>
       <c r="AD31" s="6"/>
-      <c r="AE31" s="71"/>
-      <c r="AF31" s="67"/>
-      <c r="AG31" s="67"/>
-      <c r="AH31" s="67"/>
-      <c r="AI31" s="67"/>
-      <c r="AJ31" s="67"/>
-      <c r="AK31" s="67"/>
-      <c r="AL31" s="72"/>
+      <c r="AE31" s="65"/>
+      <c r="AF31" s="66"/>
+      <c r="AG31" s="66"/>
+      <c r="AH31" s="66"/>
+      <c r="AI31" s="66"/>
+      <c r="AJ31" s="66"/>
+      <c r="AK31" s="66"/>
+      <c r="AL31" s="67"/>
     </row>
     <row r="32" spans="1:38" ht="15" customHeight="1">
       <c r="A32" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="86"/>
+      <c r="B32" s="82"/>
       <c r="D32" s="22"/>
       <c r="E32" s="22"/>
       <c r="F32" s="22"/>
@@ -3903,14 +3904,14 @@
       <c r="AB32" s="17"/>
       <c r="AC32" s="17"/>
       <c r="AD32" s="6"/>
-      <c r="AE32" s="71"/>
-      <c r="AF32" s="67"/>
-      <c r="AG32" s="67"/>
-      <c r="AH32" s="67"/>
-      <c r="AI32" s="67"/>
-      <c r="AJ32" s="67"/>
-      <c r="AK32" s="67"/>
-      <c r="AL32" s="72"/>
+      <c r="AE32" s="65"/>
+      <c r="AF32" s="66"/>
+      <c r="AG32" s="66"/>
+      <c r="AH32" s="66"/>
+      <c r="AI32" s="66"/>
+      <c r="AJ32" s="66"/>
+      <c r="AK32" s="66"/>
+      <c r="AL32" s="67"/>
     </row>
     <row r="33" spans="1:38" ht="15" customHeight="1">
       <c r="A33" s="59"/>
@@ -3942,20 +3943,20 @@
       <c r="AB33" s="17"/>
       <c r="AC33" s="17"/>
       <c r="AD33" s="6"/>
-      <c r="AE33" s="71"/>
-      <c r="AF33" s="67"/>
-      <c r="AG33" s="67"/>
-      <c r="AH33" s="67"/>
-      <c r="AI33" s="67"/>
-      <c r="AJ33" s="67"/>
-      <c r="AK33" s="67"/>
-      <c r="AL33" s="72"/>
+      <c r="AE33" s="65"/>
+      <c r="AF33" s="66"/>
+      <c r="AG33" s="66"/>
+      <c r="AH33" s="66"/>
+      <c r="AI33" s="66"/>
+      <c r="AJ33" s="66"/>
+      <c r="AK33" s="66"/>
+      <c r="AL33" s="67"/>
     </row>
     <row r="34" spans="1:38" ht="15" customHeight="1">
       <c r="A34" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="87"/>
+      <c r="B34" s="83"/>
       <c r="D34" s="22"/>
       <c r="E34" s="22"/>
       <c r="F34" s="22"/>
@@ -3983,14 +3984,14 @@
       <c r="AB34" s="17"/>
       <c r="AC34" s="17"/>
       <c r="AD34" s="6"/>
-      <c r="AE34" s="71"/>
-      <c r="AF34" s="67"/>
-      <c r="AG34" s="67"/>
-      <c r="AH34" s="67"/>
-      <c r="AI34" s="67"/>
-      <c r="AJ34" s="67"/>
-      <c r="AK34" s="67"/>
-      <c r="AL34" s="72"/>
+      <c r="AE34" s="65"/>
+      <c r="AF34" s="66"/>
+      <c r="AG34" s="66"/>
+      <c r="AH34" s="66"/>
+      <c r="AI34" s="66"/>
+      <c r="AJ34" s="66"/>
+      <c r="AK34" s="66"/>
+      <c r="AL34" s="67"/>
     </row>
     <row r="35" spans="1:38" ht="15" customHeight="1">
       <c r="A35" s="59"/>
@@ -4022,20 +4023,20 @@
       <c r="AB35" s="17"/>
       <c r="AC35" s="17"/>
       <c r="AD35" s="6"/>
-      <c r="AE35" s="73"/>
-      <c r="AF35" s="74"/>
-      <c r="AG35" s="74"/>
-      <c r="AH35" s="74"/>
-      <c r="AI35" s="74"/>
-      <c r="AJ35" s="74"/>
-      <c r="AK35" s="74"/>
-      <c r="AL35" s="75"/>
+      <c r="AE35" s="68"/>
+      <c r="AF35" s="69"/>
+      <c r="AG35" s="69"/>
+      <c r="AH35" s="69"/>
+      <c r="AI35" s="69"/>
+      <c r="AJ35" s="69"/>
+      <c r="AK35" s="69"/>
+      <c r="AL35" s="70"/>
     </row>
     <row r="36" spans="1:38" ht="15" customHeight="1">
       <c r="A36" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="61"/>
+      <c r="B36" s="60"/>
       <c r="D36" s="22"/>
       <c r="E36" s="22"/>
       <c r="F36" s="22"/>
@@ -4115,7 +4116,7 @@
       <c r="A38" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="61"/>
+      <c r="B38" s="60"/>
       <c r="D38" s="22"/>
       <c r="E38" s="22"/>
       <c r="F38" s="22"/>
@@ -4182,22 +4183,22 @@
       <c r="AB39" s="17"/>
       <c r="AC39" s="17"/>
       <c r="AD39" s="6"/>
-      <c r="AE39" s="77" t="s">
+      <c r="AE39" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="AF39" s="78"/>
-      <c r="AG39" s="78"/>
-      <c r="AH39" s="78"/>
-      <c r="AI39" s="78"/>
-      <c r="AJ39" s="78"/>
-      <c r="AK39" s="78"/>
-      <c r="AL39" s="79"/>
+      <c r="AF39" s="75"/>
+      <c r="AG39" s="75"/>
+      <c r="AH39" s="75"/>
+      <c r="AI39" s="75"/>
+      <c r="AJ39" s="75"/>
+      <c r="AK39" s="75"/>
+      <c r="AL39" s="76"/>
     </row>
     <row r="40" spans="1:38" ht="15" customHeight="1">
       <c r="A40" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="61"/>
+      <c r="B40" s="60"/>
       <c r="D40" s="22"/>
       <c r="E40" s="22"/>
       <c r="F40" s="22"/>
@@ -4225,14 +4226,14 @@
       <c r="AB40" s="17"/>
       <c r="AC40" s="17"/>
       <c r="AD40" s="6"/>
-      <c r="AE40" s="80"/>
-      <c r="AF40" s="67"/>
-      <c r="AG40" s="67"/>
-      <c r="AH40" s="67"/>
-      <c r="AI40" s="67"/>
-      <c r="AJ40" s="67"/>
-      <c r="AK40" s="67"/>
-      <c r="AL40" s="81"/>
+      <c r="AE40" s="77"/>
+      <c r="AF40" s="66"/>
+      <c r="AG40" s="66"/>
+      <c r="AH40" s="66"/>
+      <c r="AI40" s="66"/>
+      <c r="AJ40" s="66"/>
+      <c r="AK40" s="66"/>
+      <c r="AL40" s="78"/>
     </row>
     <row r="41" spans="1:38" ht="15" customHeight="1">
       <c r="A41" s="59"/>
@@ -4264,20 +4265,20 @@
       <c r="AB41" s="17"/>
       <c r="AC41" s="17"/>
       <c r="AD41" s="6"/>
-      <c r="AE41" s="80"/>
-      <c r="AF41" s="67"/>
-      <c r="AG41" s="67"/>
-      <c r="AH41" s="67"/>
-      <c r="AI41" s="67"/>
-      <c r="AJ41" s="67"/>
-      <c r="AK41" s="67"/>
-      <c r="AL41" s="81"/>
+      <c r="AE41" s="77"/>
+      <c r="AF41" s="66"/>
+      <c r="AG41" s="66"/>
+      <c r="AH41" s="66"/>
+      <c r="AI41" s="66"/>
+      <c r="AJ41" s="66"/>
+      <c r="AK41" s="66"/>
+      <c r="AL41" s="78"/>
     </row>
     <row r="42" spans="1:38" ht="15" customHeight="1">
       <c r="A42" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="B42" s="61"/>
+      <c r="B42" s="60"/>
       <c r="D42" s="22"/>
       <c r="E42" s="22"/>
       <c r="F42" s="22"/>
@@ -4305,14 +4306,14 @@
       <c r="AB42" s="17"/>
       <c r="AC42" s="17"/>
       <c r="AD42" s="6"/>
-      <c r="AE42" s="80"/>
-      <c r="AF42" s="67"/>
-      <c r="AG42" s="67"/>
-      <c r="AH42" s="67"/>
-      <c r="AI42" s="67"/>
-      <c r="AJ42" s="67"/>
-      <c r="AK42" s="67"/>
-      <c r="AL42" s="81"/>
+      <c r="AE42" s="77"/>
+      <c r="AF42" s="66"/>
+      <c r="AG42" s="66"/>
+      <c r="AH42" s="66"/>
+      <c r="AI42" s="66"/>
+      <c r="AJ42" s="66"/>
+      <c r="AK42" s="66"/>
+      <c r="AL42" s="78"/>
     </row>
     <row r="43" spans="1:38" ht="15" customHeight="1">
       <c r="A43" s="59"/>
@@ -4344,20 +4345,20 @@
       <c r="AB43" s="17"/>
       <c r="AC43" s="17"/>
       <c r="AD43" s="6"/>
-      <c r="AE43" s="80"/>
-      <c r="AF43" s="67"/>
-      <c r="AG43" s="67"/>
-      <c r="AH43" s="67"/>
-      <c r="AI43" s="67"/>
-      <c r="AJ43" s="67"/>
-      <c r="AK43" s="67"/>
-      <c r="AL43" s="81"/>
+      <c r="AE43" s="77"/>
+      <c r="AF43" s="66"/>
+      <c r="AG43" s="66"/>
+      <c r="AH43" s="66"/>
+      <c r="AI43" s="66"/>
+      <c r="AJ43" s="66"/>
+      <c r="AK43" s="66"/>
+      <c r="AL43" s="78"/>
     </row>
     <row r="44" spans="1:38" ht="15" customHeight="1">
       <c r="A44" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="B44" s="62"/>
+      <c r="B44" s="87"/>
       <c r="D44" s="22"/>
       <c r="E44" s="22"/>
       <c r="F44" s="22"/>
@@ -4385,14 +4386,14 @@
       <c r="AB44" s="17"/>
       <c r="AC44" s="17"/>
       <c r="AD44" s="6"/>
-      <c r="AE44" s="80"/>
-      <c r="AF44" s="67"/>
-      <c r="AG44" s="67"/>
-      <c r="AH44" s="67"/>
-      <c r="AI44" s="67"/>
-      <c r="AJ44" s="67"/>
-      <c r="AK44" s="67"/>
-      <c r="AL44" s="81"/>
+      <c r="AE44" s="77"/>
+      <c r="AF44" s="66"/>
+      <c r="AG44" s="66"/>
+      <c r="AH44" s="66"/>
+      <c r="AI44" s="66"/>
+      <c r="AJ44" s="66"/>
+      <c r="AK44" s="66"/>
+      <c r="AL44" s="78"/>
     </row>
     <row r="45" spans="1:38" ht="15" customHeight="1">
       <c r="A45" s="59"/>
@@ -4424,20 +4425,20 @@
       <c r="AB45" s="17"/>
       <c r="AC45" s="17"/>
       <c r="AD45" s="6"/>
-      <c r="AE45" s="80"/>
-      <c r="AF45" s="67"/>
-      <c r="AG45" s="67"/>
-      <c r="AH45" s="67"/>
-      <c r="AI45" s="67"/>
-      <c r="AJ45" s="67"/>
-      <c r="AK45" s="67"/>
-      <c r="AL45" s="81"/>
+      <c r="AE45" s="77"/>
+      <c r="AF45" s="66"/>
+      <c r="AG45" s="66"/>
+      <c r="AH45" s="66"/>
+      <c r="AI45" s="66"/>
+      <c r="AJ45" s="66"/>
+      <c r="AK45" s="66"/>
+      <c r="AL45" s="78"/>
     </row>
     <row r="46" spans="1:38" ht="15" customHeight="1">
       <c r="A46" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="61"/>
+      <c r="B46" s="60"/>
       <c r="D46" s="22"/>
       <c r="E46" s="22"/>
       <c r="F46" s="22"/>
@@ -4465,14 +4466,14 @@
       <c r="AB46" s="17"/>
       <c r="AC46" s="17"/>
       <c r="AD46" s="6"/>
-      <c r="AE46" s="80"/>
-      <c r="AF46" s="67"/>
-      <c r="AG46" s="67"/>
-      <c r="AH46" s="67"/>
-      <c r="AI46" s="67"/>
-      <c r="AJ46" s="67"/>
-      <c r="AK46" s="67"/>
-      <c r="AL46" s="81"/>
+      <c r="AE46" s="77"/>
+      <c r="AF46" s="66"/>
+      <c r="AG46" s="66"/>
+      <c r="AH46" s="66"/>
+      <c r="AI46" s="66"/>
+      <c r="AJ46" s="66"/>
+      <c r="AK46" s="66"/>
+      <c r="AL46" s="78"/>
     </row>
     <row r="47" spans="1:38" ht="15" customHeight="1">
       <c r="A47" s="59"/>
@@ -4504,20 +4505,20 @@
       <c r="AB47" s="17"/>
       <c r="AC47" s="17"/>
       <c r="AD47" s="6"/>
-      <c r="AE47" s="80"/>
-      <c r="AF47" s="67"/>
-      <c r="AG47" s="67"/>
-      <c r="AH47" s="67"/>
-      <c r="AI47" s="67"/>
-      <c r="AJ47" s="67"/>
-      <c r="AK47" s="67"/>
-      <c r="AL47" s="81"/>
+      <c r="AE47" s="77"/>
+      <c r="AF47" s="66"/>
+      <c r="AG47" s="66"/>
+      <c r="AH47" s="66"/>
+      <c r="AI47" s="66"/>
+      <c r="AJ47" s="66"/>
+      <c r="AK47" s="66"/>
+      <c r="AL47" s="78"/>
     </row>
     <row r="48" spans="1:38" ht="15" customHeight="1">
       <c r="A48" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="B48" s="61"/>
+      <c r="B48" s="60"/>
       <c r="D48" s="22"/>
       <c r="E48" s="22"/>
       <c r="F48" s="22"/>
@@ -4545,14 +4546,14 @@
       <c r="AB48" s="17"/>
       <c r="AC48" s="17"/>
       <c r="AD48" s="6"/>
-      <c r="AE48" s="80"/>
-      <c r="AF48" s="67"/>
-      <c r="AG48" s="67"/>
-      <c r="AH48" s="67"/>
-      <c r="AI48" s="67"/>
-      <c r="AJ48" s="67"/>
-      <c r="AK48" s="67"/>
-      <c r="AL48" s="81"/>
+      <c r="AE48" s="77"/>
+      <c r="AF48" s="66"/>
+      <c r="AG48" s="66"/>
+      <c r="AH48" s="66"/>
+      <c r="AI48" s="66"/>
+      <c r="AJ48" s="66"/>
+      <c r="AK48" s="66"/>
+      <c r="AL48" s="78"/>
     </row>
     <row r="49" spans="1:38" ht="15" customHeight="1">
       <c r="A49" s="59"/>
@@ -4584,20 +4585,20 @@
       <c r="AB49" s="17"/>
       <c r="AC49" s="17"/>
       <c r="AD49" s="6"/>
-      <c r="AE49" s="80"/>
-      <c r="AF49" s="67"/>
-      <c r="AG49" s="67"/>
-      <c r="AH49" s="67"/>
-      <c r="AI49" s="67"/>
-      <c r="AJ49" s="67"/>
-      <c r="AK49" s="67"/>
-      <c r="AL49" s="81"/>
+      <c r="AE49" s="77"/>
+      <c r="AF49" s="66"/>
+      <c r="AG49" s="66"/>
+      <c r="AH49" s="66"/>
+      <c r="AI49" s="66"/>
+      <c r="AJ49" s="66"/>
+      <c r="AK49" s="66"/>
+      <c r="AL49" s="78"/>
     </row>
     <row r="50" spans="1:38" ht="15" customHeight="1">
       <c r="A50" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="B50" s="61"/>
+      <c r="B50" s="60"/>
       <c r="D50" s="22"/>
       <c r="E50" s="22"/>
       <c r="F50" s="22"/>
@@ -4625,14 +4626,14 @@
       <c r="AB50" s="17"/>
       <c r="AC50" s="17"/>
       <c r="AD50" s="6"/>
-      <c r="AE50" s="80"/>
-      <c r="AF50" s="67"/>
-      <c r="AG50" s="67"/>
-      <c r="AH50" s="67"/>
-      <c r="AI50" s="67"/>
-      <c r="AJ50" s="67"/>
-      <c r="AK50" s="67"/>
-      <c r="AL50" s="81"/>
+      <c r="AE50" s="77"/>
+      <c r="AF50" s="66"/>
+      <c r="AG50" s="66"/>
+      <c r="AH50" s="66"/>
+      <c r="AI50" s="66"/>
+      <c r="AJ50" s="66"/>
+      <c r="AK50" s="66"/>
+      <c r="AL50" s="78"/>
     </row>
     <row r="51" spans="1:38" ht="15" customHeight="1">
       <c r="A51" s="59"/>
@@ -4664,20 +4665,20 @@
       <c r="AB51" s="17"/>
       <c r="AC51" s="17"/>
       <c r="AD51" s="6"/>
-      <c r="AE51" s="80"/>
-      <c r="AF51" s="67"/>
-      <c r="AG51" s="67"/>
-      <c r="AH51" s="67"/>
-      <c r="AI51" s="67"/>
-      <c r="AJ51" s="67"/>
-      <c r="AK51" s="67"/>
-      <c r="AL51" s="81"/>
+      <c r="AE51" s="77"/>
+      <c r="AF51" s="66"/>
+      <c r="AG51" s="66"/>
+      <c r="AH51" s="66"/>
+      <c r="AI51" s="66"/>
+      <c r="AJ51" s="66"/>
+      <c r="AK51" s="66"/>
+      <c r="AL51" s="78"/>
     </row>
     <row r="52" spans="1:38" ht="15" customHeight="1">
       <c r="A52" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="B52" s="61"/>
+      <c r="B52" s="60"/>
       <c r="D52" s="22"/>
       <c r="E52" s="22"/>
       <c r="F52" s="22"/>
@@ -4705,14 +4706,14 @@
       <c r="AB52" s="17"/>
       <c r="AC52" s="17"/>
       <c r="AD52" s="6"/>
-      <c r="AE52" s="80"/>
-      <c r="AF52" s="67"/>
-      <c r="AG52" s="67"/>
-      <c r="AH52" s="67"/>
-      <c r="AI52" s="67"/>
-      <c r="AJ52" s="67"/>
-      <c r="AK52" s="67"/>
-      <c r="AL52" s="81"/>
+      <c r="AE52" s="77"/>
+      <c r="AF52" s="66"/>
+      <c r="AG52" s="66"/>
+      <c r="AH52" s="66"/>
+      <c r="AI52" s="66"/>
+      <c r="AJ52" s="66"/>
+      <c r="AK52" s="66"/>
+      <c r="AL52" s="78"/>
     </row>
     <row r="53" spans="1:38" ht="15" customHeight="1">
       <c r="A53" s="59"/>
@@ -4744,20 +4745,20 @@
       <c r="AB53" s="17"/>
       <c r="AC53" s="17"/>
       <c r="AD53" s="6"/>
-      <c r="AE53" s="80"/>
-      <c r="AF53" s="67"/>
-      <c r="AG53" s="67"/>
-      <c r="AH53" s="67"/>
-      <c r="AI53" s="67"/>
-      <c r="AJ53" s="67"/>
-      <c r="AK53" s="67"/>
-      <c r="AL53" s="81"/>
+      <c r="AE53" s="77"/>
+      <c r="AF53" s="66"/>
+      <c r="AG53" s="66"/>
+      <c r="AH53" s="66"/>
+      <c r="AI53" s="66"/>
+      <c r="AJ53" s="66"/>
+      <c r="AK53" s="66"/>
+      <c r="AL53" s="78"/>
     </row>
     <row r="54" spans="1:38" ht="15" customHeight="1">
       <c r="A54" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="B54" s="61"/>
+      <c r="B54" s="60"/>
       <c r="D54" s="22"/>
       <c r="E54" s="22"/>
       <c r="F54" s="22"/>
@@ -4785,14 +4786,14 @@
       <c r="AB54" s="17"/>
       <c r="AC54" s="17"/>
       <c r="AD54" s="6"/>
-      <c r="AE54" s="80"/>
-      <c r="AF54" s="67"/>
-      <c r="AG54" s="67"/>
-      <c r="AH54" s="67"/>
-      <c r="AI54" s="67"/>
-      <c r="AJ54" s="67"/>
-      <c r="AK54" s="67"/>
-      <c r="AL54" s="81"/>
+      <c r="AE54" s="77"/>
+      <c r="AF54" s="66"/>
+      <c r="AG54" s="66"/>
+      <c r="AH54" s="66"/>
+      <c r="AI54" s="66"/>
+      <c r="AJ54" s="66"/>
+      <c r="AK54" s="66"/>
+      <c r="AL54" s="78"/>
     </row>
     <row r="55" spans="1:38" ht="15" customHeight="1">
       <c r="A55" s="59"/>
@@ -4824,20 +4825,20 @@
       <c r="AB55" s="17"/>
       <c r="AC55" s="17"/>
       <c r="AD55" s="6"/>
-      <c r="AE55" s="80"/>
-      <c r="AF55" s="67"/>
-      <c r="AG55" s="67"/>
-      <c r="AH55" s="67"/>
-      <c r="AI55" s="67"/>
-      <c r="AJ55" s="67"/>
-      <c r="AK55" s="67"/>
-      <c r="AL55" s="81"/>
+      <c r="AE55" s="77"/>
+      <c r="AF55" s="66"/>
+      <c r="AG55" s="66"/>
+      <c r="AH55" s="66"/>
+      <c r="AI55" s="66"/>
+      <c r="AJ55" s="66"/>
+      <c r="AK55" s="66"/>
+      <c r="AL55" s="78"/>
     </row>
     <row r="56" spans="1:38" ht="15" customHeight="1">
       <c r="A56" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="B56" s="61"/>
+      <c r="B56" s="60"/>
       <c r="D56" s="22"/>
       <c r="E56" s="22"/>
       <c r="F56" s="22"/>
@@ -4865,14 +4866,14 @@
       <c r="AB56" s="17"/>
       <c r="AC56" s="17"/>
       <c r="AD56" s="6"/>
-      <c r="AE56" s="82"/>
-      <c r="AF56" s="83"/>
-      <c r="AG56" s="83"/>
-      <c r="AH56" s="83"/>
-      <c r="AI56" s="83"/>
-      <c r="AJ56" s="83"/>
-      <c r="AK56" s="83"/>
-      <c r="AL56" s="84"/>
+      <c r="AE56" s="79"/>
+      <c r="AF56" s="80"/>
+      <c r="AG56" s="80"/>
+      <c r="AH56" s="80"/>
+      <c r="AI56" s="80"/>
+      <c r="AJ56" s="80"/>
+      <c r="AK56" s="80"/>
+      <c r="AL56" s="81"/>
     </row>
     <row r="57" spans="1:38" ht="15" customHeight="1">
       <c r="A57" s="59"/>
@@ -4919,7 +4920,7 @@
       <c r="A58" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="B58" s="61"/>
+      <c r="B58" s="60"/>
       <c r="D58" s="22"/>
       <c r="E58" s="22"/>
       <c r="F58" s="22"/>
@@ -5000,8 +5001,8 @@
       <c r="AL59" s="38"/>
     </row>
     <row r="60" spans="1:38" ht="15" customHeight="1">
-      <c r="A60" s="85"/>
-      <c r="B60" s="85"/>
+      <c r="A60" s="61"/>
+      <c r="B60" s="61"/>
       <c r="D60" s="22"/>
       <c r="E60" s="22"/>
       <c r="F60" s="22"/>
@@ -5082,8 +5083,8 @@
       <c r="AL61" s="38"/>
     </row>
     <row r="62" spans="1:38" ht="15" customHeight="1">
-      <c r="A62" s="85"/>
-      <c r="B62" s="85"/>
+      <c r="A62" s="61"/>
+      <c r="B62" s="61"/>
       <c r="D62" s="22"/>
       <c r="E62" s="22"/>
       <c r="F62" s="22"/>
@@ -5162,8 +5163,8 @@
       <c r="AL63" s="38"/>
     </row>
     <row r="64" spans="1:38" ht="15" customHeight="1">
-      <c r="A64" s="85"/>
-      <c r="B64" s="85"/>
+      <c r="A64" s="61"/>
+      <c r="B64" s="61"/>
       <c r="D64" s="22"/>
       <c r="E64" s="22"/>
       <c r="F64" s="22"/>
@@ -8082,25 +8083,28 @@
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
     <mergeCell ref="AE3:AL35"/>
     <mergeCell ref="D4:G4"/>
     <mergeCell ref="B6:B7"/>
@@ -8116,36 +8120,33 @@
     <mergeCell ref="B50:B51"/>
     <mergeCell ref="B52:B53"/>
     <mergeCell ref="B54:B55"/>
-    <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B44:B45"/>
     <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
     <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
     <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
     <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
     <mergeCell ref="A12:A13"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -8162,8 +8163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AK1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W16" sqref="W16"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S44" sqref="S44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -8208,12 +8209,12 @@
       <c r="X1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="Y1" s="63">
+      <c r="Y1" s="84">
         <v>2026</v>
       </c>
-      <c r="Z1" s="64"/>
-      <c r="AA1" s="64"/>
-      <c r="AB1" s="65"/>
+      <c r="Z1" s="85"/>
+      <c r="AA1" s="85"/>
+      <c r="AB1" s="86"/>
       <c r="AC1" s="6"/>
       <c r="AD1" s="4" t="s">
         <v>2</v>
@@ -8332,16 +8333,16 @@
         <v>25</v>
       </c>
       <c r="AC3" s="6"/>
-      <c r="AD3" s="68" t="s">
+      <c r="AD3" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="AE3" s="69"/>
-      <c r="AF3" s="69"/>
-      <c r="AG3" s="69"/>
-      <c r="AH3" s="69"/>
-      <c r="AI3" s="69"/>
-      <c r="AJ3" s="69"/>
-      <c r="AK3" s="70"/>
+      <c r="AE3" s="63"/>
+      <c r="AF3" s="63"/>
+      <c r="AG3" s="63"/>
+      <c r="AH3" s="63"/>
+      <c r="AI3" s="63"/>
+      <c r="AJ3" s="63"/>
+      <c r="AK3" s="64"/>
     </row>
     <row r="4" spans="1:37" ht="14.25" customHeight="1">
       <c r="F4" s="12"/>
@@ -8367,14 +8368,14 @@
       <c r="AA4" s="12"/>
       <c r="AB4" s="12"/>
       <c r="AC4" s="6"/>
-      <c r="AD4" s="71"/>
-      <c r="AE4" s="67"/>
-      <c r="AF4" s="67"/>
-      <c r="AG4" s="67"/>
-      <c r="AH4" s="67"/>
-      <c r="AI4" s="67"/>
-      <c r="AJ4" s="67"/>
-      <c r="AK4" s="72"/>
+      <c r="AD4" s="65"/>
+      <c r="AE4" s="66"/>
+      <c r="AF4" s="66"/>
+      <c r="AG4" s="66"/>
+      <c r="AH4" s="66"/>
+      <c r="AI4" s="66"/>
+      <c r="AJ4" s="66"/>
+      <c r="AK4" s="67"/>
     </row>
     <row r="5" spans="1:37" ht="14.25" customHeight="1">
       <c r="A5" s="8" t="s">
@@ -8420,20 +8421,20 @@
       <c r="AA5" s="12"/>
       <c r="AB5" s="16"/>
       <c r="AC5" s="6"/>
-      <c r="AD5" s="71"/>
-      <c r="AE5" s="67"/>
-      <c r="AF5" s="67"/>
-      <c r="AG5" s="67"/>
-      <c r="AH5" s="67"/>
-      <c r="AI5" s="67"/>
-      <c r="AJ5" s="67"/>
-      <c r="AK5" s="72"/>
+      <c r="AD5" s="65"/>
+      <c r="AE5" s="66"/>
+      <c r="AF5" s="66"/>
+      <c r="AG5" s="66"/>
+      <c r="AH5" s="66"/>
+      <c r="AI5" s="66"/>
+      <c r="AJ5" s="66"/>
+      <c r="AK5" s="67"/>
     </row>
     <row r="6" spans="1:37" ht="14.25" customHeight="1">
       <c r="A6" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="90" t="s">
+      <c r="B6" s="88" t="s">
         <v>64</v>
       </c>
       <c r="D6" s="8"/>
@@ -8465,14 +8466,14 @@
       <c r="AA6" s="17"/>
       <c r="AB6" s="17"/>
       <c r="AC6" s="6"/>
-      <c r="AD6" s="71"/>
-      <c r="AE6" s="67"/>
-      <c r="AF6" s="67"/>
-      <c r="AG6" s="67"/>
-      <c r="AH6" s="67"/>
-      <c r="AI6" s="67"/>
-      <c r="AJ6" s="67"/>
-      <c r="AK6" s="72"/>
+      <c r="AD6" s="65"/>
+      <c r="AE6" s="66"/>
+      <c r="AF6" s="66"/>
+      <c r="AG6" s="66"/>
+      <c r="AH6" s="66"/>
+      <c r="AI6" s="66"/>
+      <c r="AJ6" s="66"/>
+      <c r="AK6" s="67"/>
     </row>
     <row r="7" spans="1:37" ht="14.25" customHeight="1">
       <c r="A7" s="59"/>
@@ -8512,20 +8513,20 @@
       <c r="AA7" s="17"/>
       <c r="AB7" s="17"/>
       <c r="AC7" s="6"/>
-      <c r="AD7" s="71"/>
-      <c r="AE7" s="67"/>
-      <c r="AF7" s="67"/>
-      <c r="AG7" s="67"/>
-      <c r="AH7" s="67"/>
-      <c r="AI7" s="67"/>
-      <c r="AJ7" s="67"/>
-      <c r="AK7" s="72"/>
+      <c r="AD7" s="65"/>
+      <c r="AE7" s="66"/>
+      <c r="AF7" s="66"/>
+      <c r="AG7" s="66"/>
+      <c r="AH7" s="66"/>
+      <c r="AI7" s="66"/>
+      <c r="AJ7" s="66"/>
+      <c r="AK7" s="67"/>
     </row>
     <row r="8" spans="1:37" ht="14.25" customHeight="1">
       <c r="A8" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="89" t="s">
+      <c r="B8" s="90" t="s">
         <v>66</v>
       </c>
       <c r="D8" s="22"/>
@@ -8535,8 +8536,8 @@
         <f t="array" aca="1" ref="G8" ca="1">IF(ISBLANK(INDIRECT(ADDRESS(ROW(),1,2,TRUE()))),"",IF((INDIRECT(ADDRESS(3,COLUMN(),2,1))="g"),"g"," "))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
       <c r="J8" s="17"/>
       <c r="K8" s="17"/>
       <c r="L8" s="18"/>
@@ -8557,14 +8558,14 @@
       <c r="AA8" s="17"/>
       <c r="AB8" s="17"/>
       <c r="AC8" s="6"/>
-      <c r="AD8" s="71"/>
-      <c r="AE8" s="67"/>
-      <c r="AF8" s="67"/>
-      <c r="AG8" s="67"/>
-      <c r="AH8" s="67"/>
-      <c r="AI8" s="67"/>
-      <c r="AJ8" s="67"/>
-      <c r="AK8" s="72"/>
+      <c r="AD8" s="65"/>
+      <c r="AE8" s="66"/>
+      <c r="AF8" s="66"/>
+      <c r="AG8" s="66"/>
+      <c r="AH8" s="66"/>
+      <c r="AI8" s="66"/>
+      <c r="AJ8" s="66"/>
+      <c r="AK8" s="67"/>
     </row>
     <row r="9" spans="1:37" ht="14.25" customHeight="1">
       <c r="A9" s="59"/>
@@ -8600,20 +8601,20 @@
       <c r="AA9" s="17"/>
       <c r="AB9" s="17"/>
       <c r="AC9" s="6"/>
-      <c r="AD9" s="71"/>
-      <c r="AE9" s="67"/>
-      <c r="AF9" s="67"/>
-      <c r="AG9" s="67"/>
-      <c r="AH9" s="67"/>
-      <c r="AI9" s="67"/>
-      <c r="AJ9" s="67"/>
-      <c r="AK9" s="72"/>
+      <c r="AD9" s="65"/>
+      <c r="AE9" s="66"/>
+      <c r="AF9" s="66"/>
+      <c r="AG9" s="66"/>
+      <c r="AH9" s="66"/>
+      <c r="AI9" s="66"/>
+      <c r="AJ9" s="66"/>
+      <c r="AK9" s="67"/>
     </row>
     <row r="10" spans="1:37" ht="14.25" customHeight="1">
       <c r="A10" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="89" t="s">
+      <c r="B10" s="90" t="s">
         <v>67</v>
       </c>
       <c r="D10" s="22"/>
@@ -8623,8 +8624,8 @@
         <f t="array" aca="1" ref="G10" ca="1">IF(ISBLANK(INDIRECT(ADDRESS(ROW(),1,2,TRUE()))),"",IF((INDIRECT(ADDRESS(3,COLUMN(),2,1))="g"),"g"," "))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H10" s="17"/>
-      <c r="I10" s="12"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
       <c r="J10" s="17"/>
       <c r="K10" s="17"/>
       <c r="L10" s="18"/>
@@ -8645,14 +8646,14 @@
       <c r="AA10" s="17"/>
       <c r="AB10" s="17"/>
       <c r="AC10" s="6"/>
-      <c r="AD10" s="71"/>
-      <c r="AE10" s="67"/>
-      <c r="AF10" s="67"/>
-      <c r="AG10" s="67"/>
-      <c r="AH10" s="67"/>
-      <c r="AI10" s="67"/>
-      <c r="AJ10" s="67"/>
-      <c r="AK10" s="72"/>
+      <c r="AD10" s="65"/>
+      <c r="AE10" s="66"/>
+      <c r="AF10" s="66"/>
+      <c r="AG10" s="66"/>
+      <c r="AH10" s="66"/>
+      <c r="AI10" s="66"/>
+      <c r="AJ10" s="66"/>
+      <c r="AK10" s="67"/>
     </row>
     <row r="11" spans="1:37" ht="14.25" customHeight="1">
       <c r="A11" s="59"/>
@@ -8688,20 +8689,20 @@
       <c r="AA11" s="17"/>
       <c r="AB11" s="17"/>
       <c r="AC11" s="6"/>
-      <c r="AD11" s="71"/>
-      <c r="AE11" s="67"/>
-      <c r="AF11" s="67"/>
-      <c r="AG11" s="67"/>
-      <c r="AH11" s="67"/>
-      <c r="AI11" s="67"/>
-      <c r="AJ11" s="67"/>
-      <c r="AK11" s="72"/>
+      <c r="AD11" s="65"/>
+      <c r="AE11" s="66"/>
+      <c r="AF11" s="66"/>
+      <c r="AG11" s="66"/>
+      <c r="AH11" s="66"/>
+      <c r="AI11" s="66"/>
+      <c r="AJ11" s="66"/>
+      <c r="AK11" s="67"/>
     </row>
     <row r="12" spans="1:37" ht="14.25" customHeight="1">
       <c r="A12" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="89" t="s">
+      <c r="B12" s="90" t="s">
         <v>68</v>
       </c>
       <c r="D12" s="22"/>
@@ -8712,8 +8713,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
       <c r="K12" s="17"/>
       <c r="L12" s="18"/>
       <c r="M12" s="18"/>
@@ -8733,14 +8734,14 @@
       <c r="AA12" s="17"/>
       <c r="AB12" s="17"/>
       <c r="AC12" s="6"/>
-      <c r="AD12" s="71"/>
-      <c r="AE12" s="67"/>
-      <c r="AF12" s="67"/>
-      <c r="AG12" s="67"/>
-      <c r="AH12" s="67"/>
-      <c r="AI12" s="67"/>
-      <c r="AJ12" s="67"/>
-      <c r="AK12" s="72"/>
+      <c r="AD12" s="65"/>
+      <c r="AE12" s="66"/>
+      <c r="AF12" s="66"/>
+      <c r="AG12" s="66"/>
+      <c r="AH12" s="66"/>
+      <c r="AI12" s="66"/>
+      <c r="AJ12" s="66"/>
+      <c r="AK12" s="67"/>
     </row>
     <row r="13" spans="1:37" ht="17.25" customHeight="1">
       <c r="A13" s="59"/>
@@ -8776,20 +8777,20 @@
       <c r="AA13" s="17"/>
       <c r="AB13" s="17"/>
       <c r="AC13" s="6"/>
-      <c r="AD13" s="71"/>
-      <c r="AE13" s="67"/>
-      <c r="AF13" s="67"/>
-      <c r="AG13" s="67"/>
-      <c r="AH13" s="67"/>
-      <c r="AI13" s="67"/>
-      <c r="AJ13" s="67"/>
-      <c r="AK13" s="72"/>
+      <c r="AD13" s="65"/>
+      <c r="AE13" s="66"/>
+      <c r="AF13" s="66"/>
+      <c r="AG13" s="66"/>
+      <c r="AH13" s="66"/>
+      <c r="AI13" s="66"/>
+      <c r="AJ13" s="66"/>
+      <c r="AK13" s="67"/>
     </row>
     <row r="14" spans="1:37" ht="14.25" customHeight="1">
       <c r="A14" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="89" t="s">
+      <c r="B14" s="90" t="s">
         <v>69</v>
       </c>
       <c r="D14" s="22"/>
@@ -8801,11 +8802,11 @@
       </c>
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
       <c r="L14" s="18"/>
       <c r="M14" s="23"/>
-      <c r="N14" s="17"/>
+      <c r="N14" s="35"/>
       <c r="O14" s="17"/>
       <c r="P14" s="17"/>
       <c r="Q14" s="17"/>
@@ -8821,14 +8822,14 @@
       <c r="AA14" s="17"/>
       <c r="AB14" s="17"/>
       <c r="AC14" s="6"/>
-      <c r="AD14" s="71"/>
-      <c r="AE14" s="67"/>
-      <c r="AF14" s="67"/>
-      <c r="AG14" s="67"/>
-      <c r="AH14" s="67"/>
-      <c r="AI14" s="67"/>
-      <c r="AJ14" s="67"/>
-      <c r="AK14" s="72"/>
+      <c r="AD14" s="65"/>
+      <c r="AE14" s="66"/>
+      <c r="AF14" s="66"/>
+      <c r="AG14" s="66"/>
+      <c r="AH14" s="66"/>
+      <c r="AI14" s="66"/>
+      <c r="AJ14" s="66"/>
+      <c r="AK14" s="67"/>
     </row>
     <row r="15" spans="1:37" ht="17.25" customHeight="1">
       <c r="A15" s="59"/>
@@ -8864,20 +8865,20 @@
       <c r="AA15" s="17"/>
       <c r="AB15" s="17"/>
       <c r="AC15" s="6"/>
-      <c r="AD15" s="71"/>
-      <c r="AE15" s="67"/>
-      <c r="AF15" s="67"/>
-      <c r="AG15" s="67"/>
-      <c r="AH15" s="67"/>
-      <c r="AI15" s="67"/>
-      <c r="AJ15" s="67"/>
-      <c r="AK15" s="72"/>
+      <c r="AD15" s="65"/>
+      <c r="AE15" s="66"/>
+      <c r="AF15" s="66"/>
+      <c r="AG15" s="66"/>
+      <c r="AH15" s="66"/>
+      <c r="AI15" s="66"/>
+      <c r="AJ15" s="66"/>
+      <c r="AK15" s="67"/>
     </row>
     <row r="16" spans="1:37" ht="14.25" customHeight="1">
       <c r="A16" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="89" t="s">
+      <c r="B16" s="90" t="s">
         <v>70</v>
       </c>
       <c r="D16" s="22"/>
@@ -8893,8 +8894,8 @@
       <c r="K16" s="17"/>
       <c r="L16" s="18"/>
       <c r="M16" s="18"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
       <c r="P16" s="17"/>
       <c r="Q16" s="17"/>
       <c r="R16" s="17"/>
@@ -8909,14 +8910,14 @@
       <c r="AA16" s="17"/>
       <c r="AB16" s="17"/>
       <c r="AC16" s="6"/>
-      <c r="AD16" s="71"/>
-      <c r="AE16" s="67"/>
-      <c r="AF16" s="67"/>
-      <c r="AG16" s="67"/>
-      <c r="AH16" s="67"/>
-      <c r="AI16" s="67"/>
-      <c r="AJ16" s="67"/>
-      <c r="AK16" s="72"/>
+      <c r="AD16" s="65"/>
+      <c r="AE16" s="66"/>
+      <c r="AF16" s="66"/>
+      <c r="AG16" s="66"/>
+      <c r="AH16" s="66"/>
+      <c r="AI16" s="66"/>
+      <c r="AJ16" s="66"/>
+      <c r="AK16" s="67"/>
     </row>
     <row r="17" spans="1:37" ht="17.25" customHeight="1">
       <c r="A17" s="59"/>
@@ -8952,20 +8953,20 @@
       <c r="AA17" s="17"/>
       <c r="AB17" s="17"/>
       <c r="AC17" s="6"/>
-      <c r="AD17" s="71"/>
-      <c r="AE17" s="67"/>
-      <c r="AF17" s="67"/>
-      <c r="AG17" s="67"/>
-      <c r="AH17" s="67"/>
-      <c r="AI17" s="67"/>
-      <c r="AJ17" s="67"/>
-      <c r="AK17" s="72"/>
+      <c r="AD17" s="65"/>
+      <c r="AE17" s="66"/>
+      <c r="AF17" s="66"/>
+      <c r="AG17" s="66"/>
+      <c r="AH17" s="66"/>
+      <c r="AI17" s="66"/>
+      <c r="AJ17" s="66"/>
+      <c r="AK17" s="67"/>
     </row>
     <row r="18" spans="1:37" ht="14.25" customHeight="1">
       <c r="A18" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="88" t="s">
+      <c r="B18" s="89" t="s">
         <v>71</v>
       </c>
       <c r="D18" s="22"/>
@@ -8982,10 +8983,10 @@
       <c r="L18" s="18"/>
       <c r="M18" s="18"/>
       <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="17"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="91"/>
       <c r="S18" s="23"/>
       <c r="T18" s="18"/>
       <c r="U18" s="17"/>
@@ -8997,14 +8998,14 @@
       <c r="AA18" s="17"/>
       <c r="AB18" s="17"/>
       <c r="AC18" s="6"/>
-      <c r="AD18" s="71"/>
-      <c r="AE18" s="67"/>
-      <c r="AF18" s="67"/>
-      <c r="AG18" s="67"/>
-      <c r="AH18" s="67"/>
-      <c r="AI18" s="67"/>
-      <c r="AJ18" s="67"/>
-      <c r="AK18" s="72"/>
+      <c r="AD18" s="65"/>
+      <c r="AE18" s="66"/>
+      <c r="AF18" s="66"/>
+      <c r="AG18" s="66"/>
+      <c r="AH18" s="66"/>
+      <c r="AI18" s="66"/>
+      <c r="AJ18" s="66"/>
+      <c r="AK18" s="67"/>
     </row>
     <row r="19" spans="1:37" ht="14.25" customHeight="1">
       <c r="A19" s="59"/>
@@ -9040,20 +9041,20 @@
       <c r="AA19" s="17"/>
       <c r="AB19" s="17"/>
       <c r="AC19" s="6"/>
-      <c r="AD19" s="71"/>
-      <c r="AE19" s="67"/>
-      <c r="AF19" s="67"/>
-      <c r="AG19" s="67"/>
-      <c r="AH19" s="67"/>
-      <c r="AI19" s="67"/>
-      <c r="AJ19" s="67"/>
-      <c r="AK19" s="72"/>
+      <c r="AD19" s="65"/>
+      <c r="AE19" s="66"/>
+      <c r="AF19" s="66"/>
+      <c r="AG19" s="66"/>
+      <c r="AH19" s="66"/>
+      <c r="AI19" s="66"/>
+      <c r="AJ19" s="66"/>
+      <c r="AK19" s="67"/>
     </row>
     <row r="20" spans="1:37" ht="14.25" customHeight="1">
       <c r="A20" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="88" t="s">
+      <c r="B20" s="89" t="s">
         <v>73</v>
       </c>
       <c r="D20" s="22"/>
@@ -9072,8 +9073,8 @@
       <c r="N20" s="17"/>
       <c r="O20" s="17"/>
       <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="17"/>
+      <c r="Q20" s="35"/>
+      <c r="R20" s="35"/>
       <c r="S20" s="18"/>
       <c r="T20" s="18"/>
       <c r="U20" s="17"/>
@@ -9085,14 +9086,14 @@
       <c r="AA20" s="17"/>
       <c r="AB20" s="17"/>
       <c r="AC20" s="6"/>
-      <c r="AD20" s="71"/>
-      <c r="AE20" s="67"/>
-      <c r="AF20" s="67"/>
-      <c r="AG20" s="67"/>
-      <c r="AH20" s="67"/>
-      <c r="AI20" s="67"/>
-      <c r="AJ20" s="67"/>
-      <c r="AK20" s="72"/>
+      <c r="AD20" s="65"/>
+      <c r="AE20" s="66"/>
+      <c r="AF20" s="66"/>
+      <c r="AG20" s="66"/>
+      <c r="AH20" s="66"/>
+      <c r="AI20" s="66"/>
+      <c r="AJ20" s="66"/>
+      <c r="AK20" s="67"/>
     </row>
     <row r="21" spans="1:37" ht="14.25" customHeight="1">
       <c r="A21" s="59"/>
@@ -9128,20 +9129,20 @@
       <c r="AA21" s="17"/>
       <c r="AB21" s="17"/>
       <c r="AC21" s="6"/>
-      <c r="AD21" s="71"/>
-      <c r="AE21" s="67"/>
-      <c r="AF21" s="67"/>
-      <c r="AG21" s="67"/>
-      <c r="AH21" s="67"/>
-      <c r="AI21" s="67"/>
-      <c r="AJ21" s="67"/>
-      <c r="AK21" s="72"/>
+      <c r="AD21" s="65"/>
+      <c r="AE21" s="66"/>
+      <c r="AF21" s="66"/>
+      <c r="AG21" s="66"/>
+      <c r="AH21" s="66"/>
+      <c r="AI21" s="66"/>
+      <c r="AJ21" s="66"/>
+      <c r="AK21" s="67"/>
     </row>
     <row r="22" spans="1:37" ht="14.25" customHeight="1">
       <c r="A22" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="B22" s="89" t="s">
+      <c r="B22" s="90" t="s">
         <v>75</v>
       </c>
       <c r="D22" s="22"/>
@@ -9164,8 +9165,8 @@
       <c r="R22" s="17"/>
       <c r="S22" s="18"/>
       <c r="T22" s="18"/>
-      <c r="U22" s="17"/>
-      <c r="V22" s="17"/>
+      <c r="U22" s="35"/>
+      <c r="V22" s="35"/>
       <c r="W22" s="17"/>
       <c r="X22" s="29"/>
       <c r="Y22" s="29"/>
@@ -9173,14 +9174,14 @@
       <c r="AA22" s="17"/>
       <c r="AB22" s="17"/>
       <c r="AC22" s="6"/>
-      <c r="AD22" s="71"/>
-      <c r="AE22" s="67"/>
-      <c r="AF22" s="67"/>
-      <c r="AG22" s="67"/>
-      <c r="AH22" s="67"/>
-      <c r="AI22" s="67"/>
-      <c r="AJ22" s="67"/>
-      <c r="AK22" s="72"/>
+      <c r="AD22" s="65"/>
+      <c r="AE22" s="66"/>
+      <c r="AF22" s="66"/>
+      <c r="AG22" s="66"/>
+      <c r="AH22" s="66"/>
+      <c r="AI22" s="66"/>
+      <c r="AJ22" s="66"/>
+      <c r="AK22" s="67"/>
     </row>
     <row r="23" spans="1:37" ht="14.25" customHeight="1">
       <c r="A23" s="59"/>
@@ -9216,20 +9217,20 @@
       <c r="AA23" s="17"/>
       <c r="AB23" s="17"/>
       <c r="AC23" s="6"/>
-      <c r="AD23" s="71"/>
-      <c r="AE23" s="67"/>
-      <c r="AF23" s="67"/>
-      <c r="AG23" s="67"/>
-      <c r="AH23" s="67"/>
-      <c r="AI23" s="67"/>
-      <c r="AJ23" s="67"/>
-      <c r="AK23" s="72"/>
+      <c r="AD23" s="65"/>
+      <c r="AE23" s="66"/>
+      <c r="AF23" s="66"/>
+      <c r="AG23" s="66"/>
+      <c r="AH23" s="66"/>
+      <c r="AI23" s="66"/>
+      <c r="AJ23" s="66"/>
+      <c r="AK23" s="67"/>
     </row>
     <row r="24" spans="1:37" ht="14.25" customHeight="1">
       <c r="A24" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="B24" s="88" t="s">
+      <c r="B24" s="89" t="s">
         <v>77</v>
       </c>
       <c r="D24" s="22"/>
@@ -9253,22 +9254,22 @@
       <c r="S24" s="18"/>
       <c r="T24" s="18"/>
       <c r="U24" s="17"/>
-      <c r="V24" s="17"/>
-      <c r="W24" s="17"/>
+      <c r="V24" s="35"/>
+      <c r="W24" s="35"/>
       <c r="X24" s="29"/>
       <c r="Y24" s="29"/>
       <c r="Z24" s="17"/>
       <c r="AA24" s="17"/>
       <c r="AB24" s="17"/>
       <c r="AC24" s="6"/>
-      <c r="AD24" s="71"/>
-      <c r="AE24" s="67"/>
-      <c r="AF24" s="67"/>
-      <c r="AG24" s="67"/>
-      <c r="AH24" s="67"/>
-      <c r="AI24" s="67"/>
-      <c r="AJ24" s="67"/>
-      <c r="AK24" s="72"/>
+      <c r="AD24" s="65"/>
+      <c r="AE24" s="66"/>
+      <c r="AF24" s="66"/>
+      <c r="AG24" s="66"/>
+      <c r="AH24" s="66"/>
+      <c r="AI24" s="66"/>
+      <c r="AJ24" s="66"/>
+      <c r="AK24" s="67"/>
     </row>
     <row r="25" spans="1:37" ht="14.25" customHeight="1">
       <c r="A25" s="59"/>
@@ -9304,20 +9305,20 @@
       <c r="AA25" s="17"/>
       <c r="AB25" s="17"/>
       <c r="AC25" s="6"/>
-      <c r="AD25" s="71"/>
-      <c r="AE25" s="67"/>
-      <c r="AF25" s="67"/>
-      <c r="AG25" s="67"/>
-      <c r="AH25" s="67"/>
-      <c r="AI25" s="67"/>
-      <c r="AJ25" s="67"/>
-      <c r="AK25" s="72"/>
+      <c r="AD25" s="65"/>
+      <c r="AE25" s="66"/>
+      <c r="AF25" s="66"/>
+      <c r="AG25" s="66"/>
+      <c r="AH25" s="66"/>
+      <c r="AI25" s="66"/>
+      <c r="AJ25" s="66"/>
+      <c r="AK25" s="67"/>
     </row>
     <row r="26" spans="1:37" ht="14.25" customHeight="1">
       <c r="A26" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="B26" s="89" t="s">
+      <c r="B26" s="90" t="s">
         <v>66</v>
       </c>
       <c r="D26" s="22"/>
@@ -9327,8 +9328,8 @@
         <f t="array" aca="1" ref="G26" ca="1">IF(ISBLANK(INDIRECT(ADDRESS(ROW(),1,2,TRUE()))),"",IF((INDIRECT(ADDRESS(3,COLUMN(),2,1))="g"),"g"," "))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
       <c r="J26" s="17"/>
       <c r="K26" s="17"/>
       <c r="L26" s="31"/>
@@ -9349,14 +9350,14 @@
       <c r="AA26" s="17"/>
       <c r="AB26" s="17"/>
       <c r="AC26" s="6"/>
-      <c r="AD26" s="71"/>
-      <c r="AE26" s="67"/>
-      <c r="AF26" s="67"/>
-      <c r="AG26" s="67"/>
-      <c r="AH26" s="67"/>
-      <c r="AI26" s="67"/>
-      <c r="AJ26" s="67"/>
-      <c r="AK26" s="72"/>
+      <c r="AD26" s="65"/>
+      <c r="AE26" s="66"/>
+      <c r="AF26" s="66"/>
+      <c r="AG26" s="66"/>
+      <c r="AH26" s="66"/>
+      <c r="AI26" s="66"/>
+      <c r="AJ26" s="66"/>
+      <c r="AK26" s="67"/>
     </row>
     <row r="27" spans="1:37" ht="17.25" customHeight="1">
       <c r="A27" s="59"/>
@@ -9370,8 +9371,8 @@
         <f t="array" aca="1" ref="G27" ca="1">IF(ISBLANK(INDIRECT(ADDRESS(ROW()-1,1,2,TRUE()))),"",IF((INDIRECT(ADDRESS(3,COLUMN(),2,1))="g"),"g"," "))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
+      <c r="H27" s="91"/>
+      <c r="I27" s="91"/>
       <c r="J27" s="17"/>
       <c r="K27" s="17"/>
       <c r="L27" s="31"/>
@@ -9392,20 +9393,20 @@
       <c r="AA27" s="17"/>
       <c r="AB27" s="17"/>
       <c r="AC27" s="6"/>
-      <c r="AD27" s="71"/>
-      <c r="AE27" s="67"/>
-      <c r="AF27" s="67"/>
-      <c r="AG27" s="67"/>
-      <c r="AH27" s="67"/>
-      <c r="AI27" s="67"/>
-      <c r="AJ27" s="67"/>
-      <c r="AK27" s="72"/>
+      <c r="AD27" s="65"/>
+      <c r="AE27" s="66"/>
+      <c r="AF27" s="66"/>
+      <c r="AG27" s="66"/>
+      <c r="AH27" s="66"/>
+      <c r="AI27" s="66"/>
+      <c r="AJ27" s="66"/>
+      <c r="AK27" s="67"/>
     </row>
     <row r="28" spans="1:37" ht="14.25" customHeight="1">
       <c r="A28" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="B28" s="88" t="s">
+      <c r="B28" s="89" t="s">
         <v>80</v>
       </c>
       <c r="D28" s="22"/>
@@ -9416,7 +9417,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
+      <c r="I28" s="35"/>
       <c r="J28" s="17"/>
       <c r="K28" s="17"/>
       <c r="L28" s="18"/>
@@ -9437,14 +9438,14 @@
       <c r="AA28" s="17"/>
       <c r="AB28" s="17"/>
       <c r="AC28" s="6"/>
-      <c r="AD28" s="71"/>
-      <c r="AE28" s="67"/>
-      <c r="AF28" s="67"/>
-      <c r="AG28" s="67"/>
-      <c r="AH28" s="67"/>
-      <c r="AI28" s="67"/>
-      <c r="AJ28" s="67"/>
-      <c r="AK28" s="72"/>
+      <c r="AD28" s="65"/>
+      <c r="AE28" s="66"/>
+      <c r="AF28" s="66"/>
+      <c r="AG28" s="66"/>
+      <c r="AH28" s="66"/>
+      <c r="AI28" s="66"/>
+      <c r="AJ28" s="66"/>
+      <c r="AK28" s="67"/>
     </row>
     <row r="29" spans="1:37" ht="14.25" customHeight="1">
       <c r="A29" s="59"/>
@@ -9480,20 +9481,20 @@
       <c r="AA29" s="17"/>
       <c r="AB29" s="17"/>
       <c r="AC29" s="6"/>
-      <c r="AD29" s="71"/>
-      <c r="AE29" s="67"/>
-      <c r="AF29" s="67"/>
-      <c r="AG29" s="67"/>
-      <c r="AH29" s="67"/>
-      <c r="AI29" s="67"/>
-      <c r="AJ29" s="67"/>
-      <c r="AK29" s="72"/>
+      <c r="AD29" s="65"/>
+      <c r="AE29" s="66"/>
+      <c r="AF29" s="66"/>
+      <c r="AG29" s="66"/>
+      <c r="AH29" s="66"/>
+      <c r="AI29" s="66"/>
+      <c r="AJ29" s="66"/>
+      <c r="AK29" s="67"/>
     </row>
     <row r="30" spans="1:37" ht="14.25" customHeight="1">
       <c r="A30" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="B30" s="89" t="s">
+      <c r="B30" s="90" t="s">
         <v>69</v>
       </c>
       <c r="D30" s="22"/>
@@ -9504,8 +9505,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
       <c r="K30" s="17"/>
       <c r="L30" s="18"/>
       <c r="M30" s="18"/>
@@ -9525,14 +9526,14 @@
       <c r="AA30" s="17"/>
       <c r="AB30" s="17"/>
       <c r="AC30" s="6"/>
-      <c r="AD30" s="71"/>
-      <c r="AE30" s="67"/>
-      <c r="AF30" s="67"/>
-      <c r="AG30" s="67"/>
-      <c r="AH30" s="67"/>
-      <c r="AI30" s="67"/>
-      <c r="AJ30" s="67"/>
-      <c r="AK30" s="72"/>
+      <c r="AD30" s="65"/>
+      <c r="AE30" s="66"/>
+      <c r="AF30" s="66"/>
+      <c r="AG30" s="66"/>
+      <c r="AH30" s="66"/>
+      <c r="AI30" s="66"/>
+      <c r="AJ30" s="66"/>
+      <c r="AK30" s="67"/>
     </row>
     <row r="31" spans="1:37" ht="14.25" customHeight="1">
       <c r="A31" s="59"/>
@@ -9568,20 +9569,20 @@
       <c r="AA31" s="17"/>
       <c r="AB31" s="17"/>
       <c r="AC31" s="6"/>
-      <c r="AD31" s="73"/>
-      <c r="AE31" s="74"/>
-      <c r="AF31" s="74"/>
-      <c r="AG31" s="74"/>
-      <c r="AH31" s="74"/>
-      <c r="AI31" s="74"/>
-      <c r="AJ31" s="74"/>
-      <c r="AK31" s="75"/>
+      <c r="AD31" s="68"/>
+      <c r="AE31" s="69"/>
+      <c r="AF31" s="69"/>
+      <c r="AG31" s="69"/>
+      <c r="AH31" s="69"/>
+      <c r="AI31" s="69"/>
+      <c r="AJ31" s="69"/>
+      <c r="AK31" s="70"/>
     </row>
     <row r="32" spans="1:37" ht="14.25" customHeight="1">
       <c r="A32" s="58" t="s">
         <v>82</v>
       </c>
-      <c r="B32" s="88" t="s">
+      <c r="B32" s="89" t="s">
         <v>83</v>
       </c>
       <c r="D32" s="22"/>
@@ -9594,10 +9595,10 @@
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
       <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
+      <c r="K32" s="35"/>
       <c r="L32" s="18"/>
       <c r="M32" s="18"/>
-      <c r="N32" s="17"/>
+      <c r="N32" s="35"/>
       <c r="O32" s="17"/>
       <c r="P32" s="17"/>
       <c r="Q32" s="17"/>
@@ -9669,7 +9670,7 @@
       <c r="A34" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="B34" s="89" t="s">
+      <c r="B34" s="90" t="s">
         <v>71</v>
       </c>
       <c r="D34" s="22"/>
@@ -9686,9 +9687,9 @@
       <c r="L34" s="30"/>
       <c r="M34" s="23"/>
       <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
+      <c r="O34" s="35"/>
+      <c r="P34" s="35"/>
+      <c r="Q34" s="35"/>
       <c r="R34" s="17"/>
       <c r="S34" s="18"/>
       <c r="T34" s="18"/>
@@ -9701,14 +9702,14 @@
       <c r="AA34" s="17"/>
       <c r="AB34" s="17"/>
       <c r="AC34" s="6"/>
-      <c r="AD34" s="77"/>
-      <c r="AE34" s="78"/>
-      <c r="AF34" s="78"/>
-      <c r="AG34" s="78"/>
-      <c r="AH34" s="78"/>
-      <c r="AI34" s="78"/>
-      <c r="AJ34" s="78"/>
-      <c r="AK34" s="79"/>
+      <c r="AD34" s="74"/>
+      <c r="AE34" s="75"/>
+      <c r="AF34" s="75"/>
+      <c r="AG34" s="75"/>
+      <c r="AH34" s="75"/>
+      <c r="AI34" s="75"/>
+      <c r="AJ34" s="75"/>
+      <c r="AK34" s="76"/>
     </row>
     <row r="35" spans="1:37" ht="14.25" customHeight="1">
       <c r="A35" s="59"/>
@@ -9744,20 +9745,20 @@
       <c r="AA35" s="17"/>
       <c r="AB35" s="17"/>
       <c r="AC35" s="6"/>
-      <c r="AD35" s="80"/>
-      <c r="AE35" s="67"/>
-      <c r="AF35" s="67"/>
-      <c r="AG35" s="67"/>
-      <c r="AH35" s="67"/>
-      <c r="AI35" s="67"/>
-      <c r="AJ35" s="67"/>
-      <c r="AK35" s="81"/>
+      <c r="AD35" s="77"/>
+      <c r="AE35" s="66"/>
+      <c r="AF35" s="66"/>
+      <c r="AG35" s="66"/>
+      <c r="AH35" s="66"/>
+      <c r="AI35" s="66"/>
+      <c r="AJ35" s="66"/>
+      <c r="AK35" s="78"/>
     </row>
     <row r="36" spans="1:37" ht="14.25" customHeight="1">
       <c r="A36" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="B36" s="88" t="s">
+      <c r="B36" s="89" t="s">
         <v>73</v>
       </c>
       <c r="D36" s="22"/>
@@ -9777,10 +9778,10 @@
       <c r="O36" s="17"/>
       <c r="P36" s="17"/>
       <c r="Q36" s="17"/>
-      <c r="R36" s="17"/>
+      <c r="R36" s="35"/>
       <c r="S36" s="18"/>
       <c r="T36" s="18"/>
-      <c r="U36" s="17"/>
+      <c r="U36" s="35"/>
       <c r="V36" s="17"/>
       <c r="W36" s="17"/>
       <c r="X36" s="17"/>
@@ -9789,14 +9790,14 @@
       <c r="AA36" s="17"/>
       <c r="AB36" s="17"/>
       <c r="AC36" s="6"/>
-      <c r="AD36" s="80"/>
-      <c r="AE36" s="67"/>
-      <c r="AF36" s="67"/>
-      <c r="AG36" s="67"/>
-      <c r="AH36" s="67"/>
-      <c r="AI36" s="67"/>
-      <c r="AJ36" s="67"/>
-      <c r="AK36" s="81"/>
+      <c r="AD36" s="77"/>
+      <c r="AE36" s="66"/>
+      <c r="AF36" s="66"/>
+      <c r="AG36" s="66"/>
+      <c r="AH36" s="66"/>
+      <c r="AI36" s="66"/>
+      <c r="AJ36" s="66"/>
+      <c r="AK36" s="78"/>
     </row>
     <row r="37" spans="1:37" ht="14.25" customHeight="1">
       <c r="A37" s="59"/>
@@ -9832,20 +9833,20 @@
       <c r="AA37" s="17"/>
       <c r="AB37" s="17"/>
       <c r="AC37" s="6"/>
-      <c r="AD37" s="80"/>
-      <c r="AE37" s="67"/>
-      <c r="AF37" s="67"/>
-      <c r="AG37" s="67"/>
-      <c r="AH37" s="67"/>
-      <c r="AI37" s="67"/>
-      <c r="AJ37" s="67"/>
-      <c r="AK37" s="81"/>
+      <c r="AD37" s="77"/>
+      <c r="AE37" s="66"/>
+      <c r="AF37" s="66"/>
+      <c r="AG37" s="66"/>
+      <c r="AH37" s="66"/>
+      <c r="AI37" s="66"/>
+      <c r="AJ37" s="66"/>
+      <c r="AK37" s="78"/>
     </row>
     <row r="38" spans="1:37" ht="14.25" customHeight="1">
       <c r="A38" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="B38" s="89" t="s">
+      <c r="B38" s="90" t="s">
         <v>75</v>
       </c>
       <c r="D38" s="22"/>
@@ -9869,22 +9870,22 @@
       <c r="S38" s="18"/>
       <c r="T38" s="18"/>
       <c r="U38" s="17"/>
-      <c r="V38" s="17"/>
-      <c r="W38" s="17"/>
+      <c r="V38" s="35"/>
+      <c r="W38" s="35"/>
       <c r="X38" s="17"/>
       <c r="Y38" s="17"/>
       <c r="Z38" s="17"/>
       <c r="AA38" s="17"/>
       <c r="AB38" s="17"/>
       <c r="AC38" s="6"/>
-      <c r="AD38" s="80"/>
-      <c r="AE38" s="67"/>
-      <c r="AF38" s="67"/>
-      <c r="AG38" s="67"/>
-      <c r="AH38" s="67"/>
-      <c r="AI38" s="67"/>
-      <c r="AJ38" s="67"/>
-      <c r="AK38" s="81"/>
+      <c r="AD38" s="77"/>
+      <c r="AE38" s="66"/>
+      <c r="AF38" s="66"/>
+      <c r="AG38" s="66"/>
+      <c r="AH38" s="66"/>
+      <c r="AI38" s="66"/>
+      <c r="AJ38" s="66"/>
+      <c r="AK38" s="78"/>
     </row>
     <row r="39" spans="1:37" ht="14.25" customHeight="1">
       <c r="A39" s="59"/>
@@ -9920,20 +9921,20 @@
       <c r="AA39" s="17"/>
       <c r="AB39" s="17"/>
       <c r="AC39" s="6"/>
-      <c r="AD39" s="80"/>
-      <c r="AE39" s="67"/>
-      <c r="AF39" s="67"/>
-      <c r="AG39" s="67"/>
-      <c r="AH39" s="67"/>
-      <c r="AI39" s="67"/>
-      <c r="AJ39" s="67"/>
-      <c r="AK39" s="81"/>
+      <c r="AD39" s="77"/>
+      <c r="AE39" s="66"/>
+      <c r="AF39" s="66"/>
+      <c r="AG39" s="66"/>
+      <c r="AH39" s="66"/>
+      <c r="AI39" s="66"/>
+      <c r="AJ39" s="66"/>
+      <c r="AK39" s="78"/>
     </row>
     <row r="40" spans="1:37" ht="15" customHeight="1">
       <c r="A40" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="B40" s="88" t="s">
+      <c r="B40" s="89" t="s">
         <v>77</v>
       </c>
       <c r="D40" s="22"/>
@@ -9959,20 +9960,20 @@
       <c r="U40" s="17"/>
       <c r="V40" s="17"/>
       <c r="W40" s="17"/>
-      <c r="X40" s="17"/>
+      <c r="X40" s="35"/>
       <c r="Y40" s="17"/>
       <c r="Z40" s="17"/>
       <c r="AA40" s="17"/>
       <c r="AB40" s="17"/>
       <c r="AC40" s="6"/>
-      <c r="AD40" s="80"/>
-      <c r="AE40" s="67"/>
-      <c r="AF40" s="67"/>
-      <c r="AG40" s="67"/>
-      <c r="AH40" s="67"/>
-      <c r="AI40" s="67"/>
-      <c r="AJ40" s="67"/>
-      <c r="AK40" s="81"/>
+      <c r="AD40" s="77"/>
+      <c r="AE40" s="66"/>
+      <c r="AF40" s="66"/>
+      <c r="AG40" s="66"/>
+      <c r="AH40" s="66"/>
+      <c r="AI40" s="66"/>
+      <c r="AJ40" s="66"/>
+      <c r="AK40" s="78"/>
     </row>
     <row r="41" spans="1:37" ht="15" customHeight="1">
       <c r="A41" s="59"/>
@@ -10008,20 +10009,20 @@
       <c r="AA41" s="17"/>
       <c r="AB41" s="17"/>
       <c r="AC41" s="6"/>
-      <c r="AD41" s="80"/>
-      <c r="AE41" s="67"/>
-      <c r="AF41" s="67"/>
-      <c r="AG41" s="67"/>
-      <c r="AH41" s="67"/>
-      <c r="AI41" s="67"/>
-      <c r="AJ41" s="67"/>
-      <c r="AK41" s="81"/>
+      <c r="AD41" s="77"/>
+      <c r="AE41" s="66"/>
+      <c r="AF41" s="66"/>
+      <c r="AG41" s="66"/>
+      <c r="AH41" s="66"/>
+      <c r="AI41" s="66"/>
+      <c r="AJ41" s="66"/>
+      <c r="AK41" s="78"/>
     </row>
     <row r="42" spans="1:37" ht="15" customHeight="1">
       <c r="A42" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="B42" s="89" t="s">
+      <c r="B42" s="90" t="s">
         <v>66</v>
       </c>
       <c r="D42" s="22"/>
@@ -10031,8 +10032,8 @@
         <f t="array" aca="1" ref="G42" ca="1">IF(ISBLANK(INDIRECT(ADDRESS(ROW()-1,1,2,TRUE()))),"",IF((INDIRECT(ADDRESS(3,COLUMN(),2,1))="g"),"g"," "))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
+      <c r="H42" s="35"/>
+      <c r="I42" s="35"/>
       <c r="J42" s="17"/>
       <c r="K42" s="17"/>
       <c r="L42" s="18"/>
@@ -10053,14 +10054,14 @@
       <c r="AA42" s="17"/>
       <c r="AB42" s="17"/>
       <c r="AC42" s="6"/>
-      <c r="AD42" s="80"/>
-      <c r="AE42" s="67"/>
-      <c r="AF42" s="67"/>
-      <c r="AG42" s="67"/>
-      <c r="AH42" s="67"/>
-      <c r="AI42" s="67"/>
-      <c r="AJ42" s="67"/>
-      <c r="AK42" s="81"/>
+      <c r="AD42" s="77"/>
+      <c r="AE42" s="66"/>
+      <c r="AF42" s="66"/>
+      <c r="AG42" s="66"/>
+      <c r="AH42" s="66"/>
+      <c r="AI42" s="66"/>
+      <c r="AJ42" s="66"/>
+      <c r="AK42" s="78"/>
     </row>
     <row r="43" spans="1:37" ht="15" customHeight="1">
       <c r="A43" s="59"/>
@@ -10074,8 +10075,8 @@
         <f t="array" aca="1" ref="G43" ca="1">IF(ISBLANK(INDIRECT(ADDRESS(ROW()-1,1,2,TRUE()))),"",IF((INDIRECT(ADDRESS(3,COLUMN(),2,1))="g"),"g"," "))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
+      <c r="H43" s="91"/>
+      <c r="I43" s="91"/>
       <c r="J43" s="17"/>
       <c r="K43" s="17"/>
       <c r="L43" s="18"/>
@@ -10096,20 +10097,20 @@
       <c r="AA43" s="17"/>
       <c r="AB43" s="17"/>
       <c r="AC43" s="6"/>
-      <c r="AD43" s="80"/>
-      <c r="AE43" s="67"/>
-      <c r="AF43" s="67"/>
-      <c r="AG43" s="67"/>
-      <c r="AH43" s="67"/>
-      <c r="AI43" s="67"/>
-      <c r="AJ43" s="67"/>
-      <c r="AK43" s="81"/>
+      <c r="AD43" s="77"/>
+      <c r="AE43" s="66"/>
+      <c r="AF43" s="66"/>
+      <c r="AG43" s="66"/>
+      <c r="AH43" s="66"/>
+      <c r="AI43" s="66"/>
+      <c r="AJ43" s="66"/>
+      <c r="AK43" s="78"/>
     </row>
     <row r="44" spans="1:37" ht="14.25" customHeight="1">
       <c r="A44" s="58" t="s">
         <v>89</v>
       </c>
-      <c r="B44" s="88" t="s">
+      <c r="B44" s="89" t="s">
         <v>90</v>
       </c>
       <c r="D44" s="22"/>
@@ -10120,9 +10121,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="17"/>
-      <c r="K44" s="17"/>
+      <c r="I44" s="35"/>
+      <c r="J44" s="35"/>
+      <c r="K44" s="35"/>
       <c r="L44" s="18"/>
       <c r="M44" s="18"/>
       <c r="N44" s="17"/>
@@ -10141,14 +10142,14 @@
       <c r="AA44" s="17"/>
       <c r="AB44" s="17"/>
       <c r="AC44" s="6"/>
-      <c r="AD44" s="80"/>
-      <c r="AE44" s="67"/>
-      <c r="AF44" s="67"/>
-      <c r="AG44" s="67"/>
-      <c r="AH44" s="67"/>
-      <c r="AI44" s="67"/>
-      <c r="AJ44" s="67"/>
-      <c r="AK44" s="81"/>
+      <c r="AD44" s="77"/>
+      <c r="AE44" s="66"/>
+      <c r="AF44" s="66"/>
+      <c r="AG44" s="66"/>
+      <c r="AH44" s="66"/>
+      <c r="AI44" s="66"/>
+      <c r="AJ44" s="66"/>
+      <c r="AK44" s="78"/>
     </row>
     <row r="45" spans="1:37" ht="14.25" customHeight="1">
       <c r="A45" s="59"/>
@@ -10163,9 +10164,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="17"/>
-      <c r="K45" s="17"/>
+      <c r="I45" s="91"/>
+      <c r="J45" s="91"/>
+      <c r="K45" s="91"/>
       <c r="L45" s="18"/>
       <c r="M45" s="18"/>
       <c r="N45" s="17"/>
@@ -10184,20 +10185,20 @@
       <c r="AA45" s="17"/>
       <c r="AB45" s="17"/>
       <c r="AC45" s="6"/>
-      <c r="AD45" s="80"/>
-      <c r="AE45" s="67"/>
-      <c r="AF45" s="67"/>
-      <c r="AG45" s="67"/>
-      <c r="AH45" s="67"/>
-      <c r="AI45" s="67"/>
-      <c r="AJ45" s="67"/>
-      <c r="AK45" s="81"/>
+      <c r="AD45" s="77"/>
+      <c r="AE45" s="66"/>
+      <c r="AF45" s="66"/>
+      <c r="AG45" s="66"/>
+      <c r="AH45" s="66"/>
+      <c r="AI45" s="66"/>
+      <c r="AJ45" s="66"/>
+      <c r="AK45" s="78"/>
     </row>
     <row r="46" spans="1:37" ht="14.25" customHeight="1">
       <c r="A46" s="58" t="s">
         <v>91</v>
       </c>
-      <c r="B46" s="89" t="s">
+      <c r="B46" s="90" t="s">
         <v>67</v>
       </c>
       <c r="D46" s="22"/>
@@ -10207,9 +10208,9 @@
         <f t="array" aca="1" ref="G46" ca="1">IF(ISBLANK(INDIRECT(ADDRESS(ROW(),1,2,TRUE()))),"",IF((INDIRECT(ADDRESS(3,COLUMN(),2,1))="g"),"g"," "))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H46" s="17"/>
-      <c r="I46" s="17"/>
-      <c r="J46" s="17"/>
+      <c r="H46" s="91"/>
+      <c r="I46" s="35"/>
+      <c r="J46" s="35"/>
       <c r="K46" s="17"/>
       <c r="L46" s="18"/>
       <c r="M46" s="18"/>
@@ -10229,14 +10230,14 @@
       <c r="AA46" s="17"/>
       <c r="AB46" s="17"/>
       <c r="AC46" s="6"/>
-      <c r="AD46" s="80"/>
-      <c r="AE46" s="67"/>
-      <c r="AF46" s="67"/>
-      <c r="AG46" s="67"/>
-      <c r="AH46" s="67"/>
-      <c r="AI46" s="67"/>
-      <c r="AJ46" s="67"/>
-      <c r="AK46" s="81"/>
+      <c r="AD46" s="77"/>
+      <c r="AE46" s="66"/>
+      <c r="AF46" s="66"/>
+      <c r="AG46" s="66"/>
+      <c r="AH46" s="66"/>
+      <c r="AI46" s="66"/>
+      <c r="AJ46" s="66"/>
+      <c r="AK46" s="78"/>
     </row>
     <row r="47" spans="1:37" ht="14.25" customHeight="1">
       <c r="A47" s="59"/>
@@ -10272,20 +10273,20 @@
       <c r="AA47" s="17"/>
       <c r="AB47" s="17"/>
       <c r="AC47" s="6"/>
-      <c r="AD47" s="80"/>
-      <c r="AE47" s="67"/>
-      <c r="AF47" s="67"/>
-      <c r="AG47" s="67"/>
-      <c r="AH47" s="67"/>
-      <c r="AI47" s="67"/>
-      <c r="AJ47" s="67"/>
-      <c r="AK47" s="81"/>
+      <c r="AD47" s="77"/>
+      <c r="AE47" s="66"/>
+      <c r="AF47" s="66"/>
+      <c r="AG47" s="66"/>
+      <c r="AH47" s="66"/>
+      <c r="AI47" s="66"/>
+      <c r="AJ47" s="66"/>
+      <c r="AK47" s="78"/>
     </row>
     <row r="48" spans="1:37" ht="14.25" customHeight="1">
       <c r="A48" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="B48" s="88" t="s">
+      <c r="B48" s="89" t="s">
         <v>93</v>
       </c>
       <c r="D48" s="22"/>
@@ -10295,9 +10296,9 @@
         <f t="array" aca="1" ref="G48" ca="1">IF(ISBLANK(INDIRECT(ADDRESS(ROW(),1,2,TRUE()))),"",IF((INDIRECT(ADDRESS(3,COLUMN(),2,1))="g"),"g"," "))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H48" s="26"/>
-      <c r="I48" s="26"/>
-      <c r="J48" s="27"/>
+      <c r="H48" s="35"/>
+      <c r="I48" s="35"/>
+      <c r="J48" s="35"/>
       <c r="K48" s="17"/>
       <c r="L48" s="18"/>
       <c r="M48" s="18"/>
@@ -10317,14 +10318,14 @@
       <c r="AA48" s="17"/>
       <c r="AB48" s="17"/>
       <c r="AC48" s="6"/>
-      <c r="AD48" s="82"/>
-      <c r="AE48" s="83"/>
-      <c r="AF48" s="83"/>
-      <c r="AG48" s="83"/>
-      <c r="AH48" s="83"/>
-      <c r="AI48" s="83"/>
-      <c r="AJ48" s="83"/>
-      <c r="AK48" s="84"/>
+      <c r="AD48" s="79"/>
+      <c r="AE48" s="80"/>
+      <c r="AF48" s="80"/>
+      <c r="AG48" s="80"/>
+      <c r="AH48" s="80"/>
+      <c r="AI48" s="80"/>
+      <c r="AJ48" s="80"/>
+      <c r="AK48" s="81"/>
     </row>
     <row r="49" spans="1:37" ht="14.25" customHeight="1">
       <c r="A49" s="59"/>
@@ -10338,7 +10339,7 @@
         <f t="array" aca="1" ref="G49" ca="1">IF(ISBLANK(INDIRECT(ADDRESS(ROW()-1,1,2,TRUE()))),"",IF((INDIRECT(ADDRESS(3,COLUMN(),2,1))="g"),"g"," "))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H49" s="29"/>
+      <c r="H49" s="40"/>
       <c r="I49" s="29"/>
       <c r="J49" s="17"/>
       <c r="K49" s="17"/>
@@ -10375,7 +10376,7 @@
       <c r="A50" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="B50" s="88" t="s">
+      <c r="B50" s="89" t="s">
         <v>95</v>
       </c>
       <c r="D50" s="22"/>
@@ -10387,8 +10388,8 @@
       </c>
       <c r="H50" s="17"/>
       <c r="I50" s="17"/>
-      <c r="J50" s="17"/>
-      <c r="K50" s="17"/>
+      <c r="J50" s="35"/>
+      <c r="K50" s="35"/>
       <c r="L50" s="18"/>
       <c r="M50" s="18"/>
       <c r="N50" s="17"/>
@@ -10467,7 +10468,7 @@
       <c r="A52" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="B52" s="88" t="s">
+      <c r="B52" s="89" t="s">
         <v>97</v>
       </c>
       <c r="D52" s="22"/>
@@ -10483,9 +10484,9 @@
       <c r="K52" s="17"/>
       <c r="L52" s="18"/>
       <c r="M52" s="18"/>
-      <c r="N52" s="17"/>
-      <c r="O52" s="17"/>
-      <c r="P52" s="17"/>
+      <c r="N52" s="35"/>
+      <c r="O52" s="35"/>
+      <c r="P52" s="35"/>
       <c r="Q52" s="17"/>
       <c r="R52" s="17"/>
       <c r="S52" s="18"/>
@@ -10559,7 +10560,7 @@
       <c r="A54" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="B54" s="88" t="s">
+      <c r="B54" s="89" t="s">
         <v>99</v>
       </c>
       <c r="D54" s="22"/>
@@ -10577,9 +10578,9 @@
       <c r="M54" s="18"/>
       <c r="N54" s="17"/>
       <c r="O54" s="17"/>
-      <c r="P54" s="17"/>
-      <c r="Q54" s="17"/>
-      <c r="R54" s="17"/>
+      <c r="P54" s="35"/>
+      <c r="Q54" s="35"/>
+      <c r="R54" s="35"/>
       <c r="S54" s="18"/>
       <c r="T54" s="18"/>
       <c r="U54" s="17"/>
@@ -10649,7 +10650,7 @@
       <c r="A56" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="B56" s="88" t="s">
+      <c r="B56" s="89" t="s">
         <v>101</v>
       </c>
       <c r="D56" s="22"/>
@@ -10672,9 +10673,9 @@
       <c r="R56" s="17"/>
       <c r="S56" s="18"/>
       <c r="T56" s="18"/>
-      <c r="U56" s="17"/>
-      <c r="V56" s="17"/>
-      <c r="W56" s="17"/>
+      <c r="U56" s="35"/>
+      <c r="V56" s="35"/>
+      <c r="W56" s="35"/>
       <c r="X56" s="17"/>
       <c r="Y56" s="17"/>
       <c r="Z56" s="17"/>
@@ -10729,7 +10730,7 @@
       <c r="A58" s="58" t="s">
         <v>102</v>
       </c>
-      <c r="B58" s="88" t="s">
+      <c r="B58" s="89" t="s">
         <v>103</v>
       </c>
       <c r="G58" s="12" t="e">
@@ -10739,24 +10740,24 @@
       <c r="H58" s="17"/>
       <c r="I58" s="17"/>
       <c r="J58" s="17"/>
-      <c r="K58" s="17"/>
+      <c r="K58" s="35"/>
       <c r="L58" s="18"/>
       <c r="M58" s="18"/>
-      <c r="N58" s="17"/>
-      <c r="O58" s="17"/>
-      <c r="P58" s="17"/>
-      <c r="Q58" s="17"/>
-      <c r="R58" s="17"/>
+      <c r="N58" s="35"/>
+      <c r="O58" s="35"/>
+      <c r="P58" s="35"/>
+      <c r="Q58" s="35"/>
+      <c r="R58" s="35"/>
       <c r="S58" s="18"/>
       <c r="T58" s="18"/>
-      <c r="U58" s="17"/>
-      <c r="V58" s="17"/>
-      <c r="W58" s="17"/>
-      <c r="X58" s="17"/>
-      <c r="Y58" s="17"/>
-      <c r="Z58" s="17"/>
-      <c r="AA58" s="17"/>
-      <c r="AB58" s="17"/>
+      <c r="U58" s="35"/>
+      <c r="V58" s="35"/>
+      <c r="W58" s="35"/>
+      <c r="X58" s="35"/>
+      <c r="Y58" s="35"/>
+      <c r="Z58" s="35"/>
+      <c r="AA58" s="35"/>
+      <c r="AB58" s="35"/>
       <c r="AC58" s="6"/>
     </row>
     <row r="59" spans="1:37" ht="14.25" customHeight="1">
@@ -10802,7 +10803,7 @@
       <c r="A60" s="58" t="s">
         <v>104</v>
       </c>
-      <c r="B60" s="88" t="s">
+      <c r="B60" s="89" t="s">
         <v>105</v>
       </c>
       <c r="C60" s="12"/>
@@ -10826,14 +10827,14 @@
       <c r="R60" s="24"/>
       <c r="S60" s="28"/>
       <c r="T60" s="28"/>
-      <c r="U60" s="24"/>
-      <c r="V60" s="24"/>
-      <c r="W60" s="24"/>
-      <c r="X60" s="24"/>
-      <c r="Y60" s="24"/>
-      <c r="Z60" s="24"/>
-      <c r="AA60" s="24"/>
-      <c r="AB60" s="24"/>
+      <c r="U60" s="35"/>
+      <c r="V60" s="35"/>
+      <c r="W60" s="35"/>
+      <c r="X60" s="35"/>
+      <c r="Y60" s="35"/>
+      <c r="Z60" s="35"/>
+      <c r="AA60" s="35"/>
+      <c r="AB60" s="35"/>
       <c r="AC60" s="6"/>
     </row>
     <row r="61" spans="1:37" ht="14.25" customHeight="1">
@@ -10879,7 +10880,7 @@
       <c r="A62" s="58" t="s">
         <v>106</v>
       </c>
-      <c r="B62" s="88" t="s">
+      <c r="B62" s="89" t="s">
         <v>107</v>
       </c>
       <c r="F62" s="12"/>
@@ -10953,7 +10954,7 @@
       <c r="A64" s="58" t="s">
         <v>108</v>
       </c>
-      <c r="B64" s="88" t="s">
+      <c r="B64" s="89" t="s">
         <v>109</v>
       </c>
       <c r="D64" s="22"/>
@@ -10980,10 +10981,10 @@
       <c r="V64" s="17"/>
       <c r="W64" s="17"/>
       <c r="X64" s="17"/>
-      <c r="Y64" s="17"/>
-      <c r="Z64" s="17"/>
-      <c r="AA64" s="17"/>
-      <c r="AB64" s="17"/>
+      <c r="Y64" s="35"/>
+      <c r="Z64" s="35"/>
+      <c r="AA64" s="35"/>
+      <c r="AB64" s="35"/>
       <c r="AC64" s="6"/>
     </row>
     <row r="65" spans="1:29" ht="14.25" customHeight="1">
@@ -11029,7 +11030,7 @@
       <c r="A66" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="B66" s="88" t="s">
+      <c r="B66" s="89" t="s">
         <v>111</v>
       </c>
       <c r="D66" s="22"/>
@@ -11039,27 +11040,27 @@
         <f t="array" aca="1" ref="G66" ca="1">IF(ISBLANK(INDIRECT(ADDRESS(ROW()-1,1,2,TRUE()))),"",IF((INDIRECT(ADDRESS(3,COLUMN(),2,1))="g"),"g"," "))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H66" s="17"/>
-      <c r="I66" s="17"/>
-      <c r="J66" s="17"/>
-      <c r="K66" s="17"/>
+      <c r="H66" s="35"/>
+      <c r="I66" s="35"/>
+      <c r="J66" s="35"/>
+      <c r="K66" s="35"/>
       <c r="L66" s="18"/>
       <c r="M66" s="18"/>
-      <c r="N66" s="17"/>
-      <c r="O66" s="17"/>
-      <c r="P66" s="17"/>
-      <c r="Q66" s="17"/>
-      <c r="R66" s="17"/>
+      <c r="N66" s="35"/>
+      <c r="O66" s="35"/>
+      <c r="P66" s="35"/>
+      <c r="Q66" s="35"/>
+      <c r="R66" s="35"/>
       <c r="S66" s="18"/>
       <c r="T66" s="18"/>
-      <c r="U66" s="17"/>
-      <c r="V66" s="17"/>
-      <c r="W66" s="17"/>
-      <c r="X66" s="17"/>
-      <c r="Y66" s="17"/>
-      <c r="Z66" s="17"/>
-      <c r="AA66" s="17"/>
-      <c r="AB66" s="17"/>
+      <c r="U66" s="35"/>
+      <c r="V66" s="35"/>
+      <c r="W66" s="35"/>
+      <c r="X66" s="35"/>
+      <c r="Y66" s="35"/>
+      <c r="Z66" s="35"/>
+      <c r="AA66" s="35"/>
+      <c r="AB66" s="35"/>
       <c r="AC66" s="6"/>
     </row>
     <row r="67" spans="1:29" ht="14.25" customHeight="1">
@@ -13921,22 +13922,36 @@
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="Y1:AB1"/>
-    <mergeCell ref="AD3:AK31"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="AD34:AK48"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A44:A45"/>
     <mergeCell ref="A46:A47"/>
     <mergeCell ref="A8:A9"/>
@@ -13951,41 +13966,27 @@
     <mergeCell ref="B34:B35"/>
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="Y1:AB1"/>
+    <mergeCell ref="AD3:AK31"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="AD34:AK48"/>
+    <mergeCell ref="B32:B33"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B16:B17"/>
     <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B44:B45"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="86" orientation="portrait"/>
@@ -14043,12 +14044,12 @@
       <c r="Z1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="AA1" s="63">
+      <c r="AA1" s="84">
         <v>2024</v>
       </c>
-      <c r="AB1" s="64"/>
-      <c r="AC1" s="64"/>
-      <c r="AD1" s="65"/>
+      <c r="AB1" s="85"/>
+      <c r="AC1" s="85"/>
+      <c r="AD1" s="86"/>
       <c r="AE1" s="6"/>
       <c r="AF1" s="4" t="s">
         <v>2</v>
@@ -14104,10 +14105,10 @@
       <c r="A3" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="D3" s="66"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
       <c r="J3" s="13" t="s">
         <v>5</v>
       </c>
@@ -14172,22 +14173,22 @@
         <v>25</v>
       </c>
       <c r="AE3" s="6"/>
-      <c r="AF3" s="68" t="s">
+      <c r="AF3" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="AG3" s="69"/>
-      <c r="AH3" s="69"/>
-      <c r="AI3" s="69"/>
-      <c r="AJ3" s="69"/>
-      <c r="AK3" s="69"/>
-      <c r="AL3" s="69"/>
-      <c r="AM3" s="70"/>
+      <c r="AG3" s="63"/>
+      <c r="AH3" s="63"/>
+      <c r="AI3" s="63"/>
+      <c r="AJ3" s="63"/>
+      <c r="AK3" s="63"/>
+      <c r="AL3" s="63"/>
+      <c r="AM3" s="64"/>
     </row>
     <row r="4" spans="1:39" ht="14.25" customHeight="1">
-      <c r="D4" s="66"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
@@ -14210,14 +14211,14 @@
       <c r="AC4" s="12"/>
       <c r="AD4" s="12"/>
       <c r="AE4" s="6"/>
-      <c r="AF4" s="71"/>
-      <c r="AG4" s="67"/>
-      <c r="AH4" s="67"/>
-      <c r="AI4" s="67"/>
-      <c r="AJ4" s="67"/>
-      <c r="AK4" s="67"/>
-      <c r="AL4" s="67"/>
-      <c r="AM4" s="72"/>
+      <c r="AF4" s="65"/>
+      <c r="AG4" s="66"/>
+      <c r="AH4" s="66"/>
+      <c r="AI4" s="66"/>
+      <c r="AJ4" s="66"/>
+      <c r="AK4" s="66"/>
+      <c r="AL4" s="66"/>
+      <c r="AM4" s="67"/>
     </row>
     <row r="5" spans="1:39" ht="14.25" customHeight="1">
       <c r="A5" s="8" t="s">
@@ -14269,20 +14270,20 @@
       <c r="AC5" s="12"/>
       <c r="AD5" s="16"/>
       <c r="AE5" s="6"/>
-      <c r="AF5" s="71"/>
-      <c r="AG5" s="67"/>
-      <c r="AH5" s="67"/>
-      <c r="AI5" s="67"/>
-      <c r="AJ5" s="67"/>
-      <c r="AK5" s="67"/>
-      <c r="AL5" s="67"/>
-      <c r="AM5" s="72"/>
+      <c r="AF5" s="65"/>
+      <c r="AG5" s="66"/>
+      <c r="AH5" s="66"/>
+      <c r="AI5" s="66"/>
+      <c r="AJ5" s="66"/>
+      <c r="AK5" s="66"/>
+      <c r="AL5" s="66"/>
+      <c r="AM5" s="67"/>
     </row>
     <row r="6" spans="1:39" ht="14.25" customHeight="1">
       <c r="A6" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="76"/>
+      <c r="B6" s="72"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
@@ -14314,14 +14315,14 @@
       <c r="AC6" s="17"/>
       <c r="AD6" s="17"/>
       <c r="AE6" s="6"/>
-      <c r="AF6" s="71"/>
-      <c r="AG6" s="67"/>
-      <c r="AH6" s="67"/>
-      <c r="AI6" s="67"/>
-      <c r="AJ6" s="67"/>
-      <c r="AK6" s="67"/>
-      <c r="AL6" s="67"/>
-      <c r="AM6" s="72"/>
+      <c r="AF6" s="65"/>
+      <c r="AG6" s="66"/>
+      <c r="AH6" s="66"/>
+      <c r="AI6" s="66"/>
+      <c r="AJ6" s="66"/>
+      <c r="AK6" s="66"/>
+      <c r="AL6" s="66"/>
+      <c r="AM6" s="67"/>
     </row>
     <row r="7" spans="1:39" ht="14.25" customHeight="1">
       <c r="A7" s="59"/>
@@ -14357,20 +14358,20 @@
       <c r="AC7" s="17"/>
       <c r="AD7" s="17"/>
       <c r="AE7" s="6"/>
-      <c r="AF7" s="71"/>
-      <c r="AG7" s="67"/>
-      <c r="AH7" s="67"/>
-      <c r="AI7" s="67"/>
-      <c r="AJ7" s="67"/>
-      <c r="AK7" s="67"/>
-      <c r="AL7" s="67"/>
-      <c r="AM7" s="72"/>
+      <c r="AF7" s="65"/>
+      <c r="AG7" s="66"/>
+      <c r="AH7" s="66"/>
+      <c r="AI7" s="66"/>
+      <c r="AJ7" s="66"/>
+      <c r="AK7" s="66"/>
+      <c r="AL7" s="66"/>
+      <c r="AM7" s="67"/>
     </row>
     <row r="8" spans="1:39" ht="14.25" customHeight="1">
       <c r="A8" s="58" t="s">
         <v>120</v>
       </c>
-      <c r="B8" s="60"/>
+      <c r="B8" s="73"/>
       <c r="D8" s="22"/>
       <c r="E8" s="22"/>
       <c r="F8" s="22"/>
@@ -14402,14 +14403,14 @@
       <c r="AC8" s="17"/>
       <c r="AD8" s="17"/>
       <c r="AE8" s="6"/>
-      <c r="AF8" s="71"/>
-      <c r="AG8" s="67"/>
-      <c r="AH8" s="67"/>
-      <c r="AI8" s="67"/>
-      <c r="AJ8" s="67"/>
-      <c r="AK8" s="67"/>
-      <c r="AL8" s="67"/>
-      <c r="AM8" s="72"/>
+      <c r="AF8" s="65"/>
+      <c r="AG8" s="66"/>
+      <c r="AH8" s="66"/>
+      <c r="AI8" s="66"/>
+      <c r="AJ8" s="66"/>
+      <c r="AK8" s="66"/>
+      <c r="AL8" s="66"/>
+      <c r="AM8" s="67"/>
     </row>
     <row r="9" spans="1:39" ht="14.25" customHeight="1">
       <c r="A9" s="59"/>
@@ -14445,20 +14446,20 @@
       <c r="AC9" s="17"/>
       <c r="AD9" s="17"/>
       <c r="AE9" s="6"/>
-      <c r="AF9" s="71"/>
-      <c r="AG9" s="67"/>
-      <c r="AH9" s="67"/>
-      <c r="AI9" s="67"/>
-      <c r="AJ9" s="67"/>
-      <c r="AK9" s="67"/>
-      <c r="AL9" s="67"/>
-      <c r="AM9" s="72"/>
+      <c r="AF9" s="65"/>
+      <c r="AG9" s="66"/>
+      <c r="AH9" s="66"/>
+      <c r="AI9" s="66"/>
+      <c r="AJ9" s="66"/>
+      <c r="AK9" s="66"/>
+      <c r="AL9" s="66"/>
+      <c r="AM9" s="67"/>
     </row>
     <row r="10" spans="1:39" ht="14.25" customHeight="1">
       <c r="A10" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="B10" s="60"/>
+      <c r="B10" s="73"/>
       <c r="D10" s="22"/>
       <c r="E10" s="22"/>
       <c r="F10" s="22"/>
@@ -14490,14 +14491,14 @@
       <c r="AC10" s="17"/>
       <c r="AD10" s="17"/>
       <c r="AE10" s="6"/>
-      <c r="AF10" s="71"/>
-      <c r="AG10" s="67"/>
-      <c r="AH10" s="67"/>
-      <c r="AI10" s="67"/>
-      <c r="AJ10" s="67"/>
-      <c r="AK10" s="67"/>
-      <c r="AL10" s="67"/>
-      <c r="AM10" s="72"/>
+      <c r="AF10" s="65"/>
+      <c r="AG10" s="66"/>
+      <c r="AH10" s="66"/>
+      <c r="AI10" s="66"/>
+      <c r="AJ10" s="66"/>
+      <c r="AK10" s="66"/>
+      <c r="AL10" s="66"/>
+      <c r="AM10" s="67"/>
     </row>
     <row r="11" spans="1:39" ht="14.25" customHeight="1">
       <c r="A11" s="59"/>
@@ -14533,20 +14534,20 @@
       <c r="AC11" s="17"/>
       <c r="AD11" s="17"/>
       <c r="AE11" s="6"/>
-      <c r="AF11" s="71"/>
-      <c r="AG11" s="67"/>
-      <c r="AH11" s="67"/>
-      <c r="AI11" s="67"/>
-      <c r="AJ11" s="67"/>
-      <c r="AK11" s="67"/>
-      <c r="AL11" s="67"/>
-      <c r="AM11" s="72"/>
+      <c r="AF11" s="65"/>
+      <c r="AG11" s="66"/>
+      <c r="AH11" s="66"/>
+      <c r="AI11" s="66"/>
+      <c r="AJ11" s="66"/>
+      <c r="AK11" s="66"/>
+      <c r="AL11" s="66"/>
+      <c r="AM11" s="67"/>
     </row>
     <row r="12" spans="1:39" ht="14.25" customHeight="1">
       <c r="A12" s="58" t="s">
         <v>122</v>
       </c>
-      <c r="B12" s="60"/>
+      <c r="B12" s="73"/>
       <c r="D12" s="22"/>
       <c r="E12" s="22"/>
       <c r="F12" s="22"/>
@@ -14578,14 +14579,14 @@
       <c r="AC12" s="17"/>
       <c r="AD12" s="17"/>
       <c r="AE12" s="6"/>
-      <c r="AF12" s="71"/>
-      <c r="AG12" s="67"/>
-      <c r="AH12" s="67"/>
-      <c r="AI12" s="67"/>
-      <c r="AJ12" s="67"/>
-      <c r="AK12" s="67"/>
-      <c r="AL12" s="67"/>
-      <c r="AM12" s="72"/>
+      <c r="AF12" s="65"/>
+      <c r="AG12" s="66"/>
+      <c r="AH12" s="66"/>
+      <c r="AI12" s="66"/>
+      <c r="AJ12" s="66"/>
+      <c r="AK12" s="66"/>
+      <c r="AL12" s="66"/>
+      <c r="AM12" s="67"/>
     </row>
     <row r="13" spans="1:39" ht="14.25" customHeight="1">
       <c r="A13" s="59"/>
@@ -14621,20 +14622,20 @@
       <c r="AC13" s="17"/>
       <c r="AD13" s="17"/>
       <c r="AE13" s="6"/>
-      <c r="AF13" s="71"/>
-      <c r="AG13" s="67"/>
-      <c r="AH13" s="67"/>
-      <c r="AI13" s="67"/>
-      <c r="AJ13" s="67"/>
-      <c r="AK13" s="67"/>
-      <c r="AL13" s="67"/>
-      <c r="AM13" s="72"/>
+      <c r="AF13" s="65"/>
+      <c r="AG13" s="66"/>
+      <c r="AH13" s="66"/>
+      <c r="AI13" s="66"/>
+      <c r="AJ13" s="66"/>
+      <c r="AK13" s="66"/>
+      <c r="AL13" s="66"/>
+      <c r="AM13" s="67"/>
     </row>
     <row r="14" spans="1:39" ht="14.25" customHeight="1">
       <c r="A14" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="60"/>
+      <c r="B14" s="73"/>
       <c r="D14" s="22"/>
       <c r="E14" s="22"/>
       <c r="F14" s="22"/>
@@ -14666,14 +14667,14 @@
       <c r="AC14" s="17"/>
       <c r="AD14" s="17"/>
       <c r="AE14" s="6"/>
-      <c r="AF14" s="71"/>
-      <c r="AG14" s="67"/>
-      <c r="AH14" s="67"/>
-      <c r="AI14" s="67"/>
-      <c r="AJ14" s="67"/>
-      <c r="AK14" s="67"/>
-      <c r="AL14" s="67"/>
-      <c r="AM14" s="72"/>
+      <c r="AF14" s="65"/>
+      <c r="AG14" s="66"/>
+      <c r="AH14" s="66"/>
+      <c r="AI14" s="66"/>
+      <c r="AJ14" s="66"/>
+      <c r="AK14" s="66"/>
+      <c r="AL14" s="66"/>
+      <c r="AM14" s="67"/>
     </row>
     <row r="15" spans="1:39" ht="17.25" customHeight="1">
       <c r="A15" s="59"/>
@@ -14709,20 +14710,20 @@
       <c r="AC15" s="17"/>
       <c r="AD15" s="17"/>
       <c r="AE15" s="6"/>
-      <c r="AF15" s="71"/>
-      <c r="AG15" s="67"/>
-      <c r="AH15" s="67"/>
-      <c r="AI15" s="67"/>
-      <c r="AJ15" s="67"/>
-      <c r="AK15" s="67"/>
-      <c r="AL15" s="67"/>
-      <c r="AM15" s="72"/>
+      <c r="AF15" s="65"/>
+      <c r="AG15" s="66"/>
+      <c r="AH15" s="66"/>
+      <c r="AI15" s="66"/>
+      <c r="AJ15" s="66"/>
+      <c r="AK15" s="66"/>
+      <c r="AL15" s="66"/>
+      <c r="AM15" s="67"/>
     </row>
     <row r="16" spans="1:39" ht="14.25" customHeight="1">
       <c r="A16" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="60"/>
+      <c r="B16" s="73"/>
       <c r="D16" s="22"/>
       <c r="E16" s="22"/>
       <c r="F16" s="22"/>
@@ -14754,14 +14755,14 @@
       <c r="AC16" s="17"/>
       <c r="AD16" s="17"/>
       <c r="AE16" s="6"/>
-      <c r="AF16" s="71"/>
-      <c r="AG16" s="67"/>
-      <c r="AH16" s="67"/>
-      <c r="AI16" s="67"/>
-      <c r="AJ16" s="67"/>
-      <c r="AK16" s="67"/>
-      <c r="AL16" s="67"/>
-      <c r="AM16" s="72"/>
+      <c r="AF16" s="65"/>
+      <c r="AG16" s="66"/>
+      <c r="AH16" s="66"/>
+      <c r="AI16" s="66"/>
+      <c r="AJ16" s="66"/>
+      <c r="AK16" s="66"/>
+      <c r="AL16" s="66"/>
+      <c r="AM16" s="67"/>
     </row>
     <row r="17" spans="1:39" ht="17.25" customHeight="1">
       <c r="A17" s="59"/>
@@ -14797,20 +14798,20 @@
       <c r="AC17" s="17"/>
       <c r="AD17" s="17"/>
       <c r="AE17" s="6"/>
-      <c r="AF17" s="71"/>
-      <c r="AG17" s="67"/>
-      <c r="AH17" s="67"/>
-      <c r="AI17" s="67"/>
-      <c r="AJ17" s="67"/>
-      <c r="AK17" s="67"/>
-      <c r="AL17" s="67"/>
-      <c r="AM17" s="72"/>
+      <c r="AF17" s="65"/>
+      <c r="AG17" s="66"/>
+      <c r="AH17" s="66"/>
+      <c r="AI17" s="66"/>
+      <c r="AJ17" s="66"/>
+      <c r="AK17" s="66"/>
+      <c r="AL17" s="66"/>
+      <c r="AM17" s="67"/>
     </row>
     <row r="18" spans="1:39" ht="14.25" customHeight="1">
       <c r="A18" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="60"/>
+      <c r="B18" s="73"/>
       <c r="D18" s="22"/>
       <c r="E18" s="22"/>
       <c r="F18" s="22"/>
@@ -14842,14 +14843,14 @@
       <c r="AC18" s="17"/>
       <c r="AD18" s="17"/>
       <c r="AE18" s="6"/>
-      <c r="AF18" s="71"/>
-      <c r="AG18" s="67"/>
-      <c r="AH18" s="67"/>
-      <c r="AI18" s="67"/>
-      <c r="AJ18" s="67"/>
-      <c r="AK18" s="67"/>
-      <c r="AL18" s="67"/>
-      <c r="AM18" s="72"/>
+      <c r="AF18" s="65"/>
+      <c r="AG18" s="66"/>
+      <c r="AH18" s="66"/>
+      <c r="AI18" s="66"/>
+      <c r="AJ18" s="66"/>
+      <c r="AK18" s="66"/>
+      <c r="AL18" s="66"/>
+      <c r="AM18" s="67"/>
     </row>
     <row r="19" spans="1:39" ht="17.25" customHeight="1">
       <c r="A19" s="59"/>
@@ -14885,20 +14886,20 @@
       <c r="AC19" s="17"/>
       <c r="AD19" s="17"/>
       <c r="AE19" s="6"/>
-      <c r="AF19" s="71"/>
-      <c r="AG19" s="67"/>
-      <c r="AH19" s="67"/>
-      <c r="AI19" s="67"/>
-      <c r="AJ19" s="67"/>
-      <c r="AK19" s="67"/>
-      <c r="AL19" s="67"/>
-      <c r="AM19" s="72"/>
+      <c r="AF19" s="65"/>
+      <c r="AG19" s="66"/>
+      <c r="AH19" s="66"/>
+      <c r="AI19" s="66"/>
+      <c r="AJ19" s="66"/>
+      <c r="AK19" s="66"/>
+      <c r="AL19" s="66"/>
+      <c r="AM19" s="67"/>
     </row>
     <row r="20" spans="1:39" ht="14.25" customHeight="1">
       <c r="A20" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="61"/>
+      <c r="B20" s="60"/>
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
@@ -14930,14 +14931,14 @@
       <c r="AC20" s="17"/>
       <c r="AD20" s="17"/>
       <c r="AE20" s="6"/>
-      <c r="AF20" s="71"/>
-      <c r="AG20" s="67"/>
-      <c r="AH20" s="67"/>
-      <c r="AI20" s="67"/>
-      <c r="AJ20" s="67"/>
-      <c r="AK20" s="67"/>
-      <c r="AL20" s="67"/>
-      <c r="AM20" s="72"/>
+      <c r="AF20" s="65"/>
+      <c r="AG20" s="66"/>
+      <c r="AH20" s="66"/>
+      <c r="AI20" s="66"/>
+      <c r="AJ20" s="66"/>
+      <c r="AK20" s="66"/>
+      <c r="AL20" s="66"/>
+      <c r="AM20" s="67"/>
     </row>
     <row r="21" spans="1:39" ht="14.25" customHeight="1">
       <c r="A21" s="59"/>
@@ -14973,20 +14974,20 @@
       <c r="AC21" s="17"/>
       <c r="AD21" s="17"/>
       <c r="AE21" s="6"/>
-      <c r="AF21" s="71"/>
-      <c r="AG21" s="67"/>
-      <c r="AH21" s="67"/>
-      <c r="AI21" s="67"/>
-      <c r="AJ21" s="67"/>
-      <c r="AK21" s="67"/>
-      <c r="AL21" s="67"/>
-      <c r="AM21" s="72"/>
+      <c r="AF21" s="65"/>
+      <c r="AG21" s="66"/>
+      <c r="AH21" s="66"/>
+      <c r="AI21" s="66"/>
+      <c r="AJ21" s="66"/>
+      <c r="AK21" s="66"/>
+      <c r="AL21" s="66"/>
+      <c r="AM21" s="67"/>
     </row>
     <row r="22" spans="1:39" ht="14.25" customHeight="1">
       <c r="A22" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="61"/>
+      <c r="B22" s="60"/>
       <c r="D22" s="22"/>
       <c r="E22" s="22"/>
       <c r="F22" s="22"/>
@@ -15018,14 +15019,14 @@
       <c r="AC22" s="17"/>
       <c r="AD22" s="17"/>
       <c r="AE22" s="6"/>
-      <c r="AF22" s="71"/>
-      <c r="AG22" s="67"/>
-      <c r="AH22" s="67"/>
-      <c r="AI22" s="67"/>
-      <c r="AJ22" s="67"/>
-      <c r="AK22" s="67"/>
-      <c r="AL22" s="67"/>
-      <c r="AM22" s="72"/>
+      <c r="AF22" s="65"/>
+      <c r="AG22" s="66"/>
+      <c r="AH22" s="66"/>
+      <c r="AI22" s="66"/>
+      <c r="AJ22" s="66"/>
+      <c r="AK22" s="66"/>
+      <c r="AL22" s="66"/>
+      <c r="AM22" s="67"/>
     </row>
     <row r="23" spans="1:39" ht="14.25" customHeight="1">
       <c r="A23" s="59"/>
@@ -15061,20 +15062,20 @@
       <c r="AC23" s="17"/>
       <c r="AD23" s="17"/>
       <c r="AE23" s="6"/>
-      <c r="AF23" s="71"/>
-      <c r="AG23" s="67"/>
-      <c r="AH23" s="67"/>
-      <c r="AI23" s="67"/>
-      <c r="AJ23" s="67"/>
-      <c r="AK23" s="67"/>
-      <c r="AL23" s="67"/>
-      <c r="AM23" s="72"/>
+      <c r="AF23" s="65"/>
+      <c r="AG23" s="66"/>
+      <c r="AH23" s="66"/>
+      <c r="AI23" s="66"/>
+      <c r="AJ23" s="66"/>
+      <c r="AK23" s="66"/>
+      <c r="AL23" s="66"/>
+      <c r="AM23" s="67"/>
     </row>
     <row r="24" spans="1:39" ht="14.25" customHeight="1">
       <c r="A24" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="86"/>
+      <c r="B24" s="82"/>
       <c r="D24" s="22"/>
       <c r="E24" s="22"/>
       <c r="F24" s="22"/>
@@ -15106,14 +15107,14 @@
       <c r="AC24" s="17"/>
       <c r="AD24" s="17"/>
       <c r="AE24" s="6"/>
-      <c r="AF24" s="71"/>
-      <c r="AG24" s="67"/>
-      <c r="AH24" s="67"/>
-      <c r="AI24" s="67"/>
-      <c r="AJ24" s="67"/>
-      <c r="AK24" s="67"/>
-      <c r="AL24" s="67"/>
-      <c r="AM24" s="72"/>
+      <c r="AF24" s="65"/>
+      <c r="AG24" s="66"/>
+      <c r="AH24" s="66"/>
+      <c r="AI24" s="66"/>
+      <c r="AJ24" s="66"/>
+      <c r="AK24" s="66"/>
+      <c r="AL24" s="66"/>
+      <c r="AM24" s="67"/>
     </row>
     <row r="25" spans="1:39" ht="14.25" customHeight="1">
       <c r="A25" s="59"/>
@@ -15149,20 +15150,20 @@
       <c r="AC25" s="17"/>
       <c r="AD25" s="17"/>
       <c r="AE25" s="6"/>
-      <c r="AF25" s="71"/>
-      <c r="AG25" s="67"/>
-      <c r="AH25" s="67"/>
-      <c r="AI25" s="67"/>
-      <c r="AJ25" s="67"/>
-      <c r="AK25" s="67"/>
-      <c r="AL25" s="67"/>
-      <c r="AM25" s="72"/>
+      <c r="AF25" s="65"/>
+      <c r="AG25" s="66"/>
+      <c r="AH25" s="66"/>
+      <c r="AI25" s="66"/>
+      <c r="AJ25" s="66"/>
+      <c r="AK25" s="66"/>
+      <c r="AL25" s="66"/>
+      <c r="AM25" s="67"/>
     </row>
     <row r="26" spans="1:39" ht="14.25" customHeight="1">
       <c r="A26" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="86"/>
+      <c r="B26" s="82"/>
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>
       <c r="F26" s="22"/>
@@ -15194,14 +15195,14 @@
       <c r="AC26" s="17"/>
       <c r="AD26" s="17"/>
       <c r="AE26" s="6"/>
-      <c r="AF26" s="71"/>
-      <c r="AG26" s="67"/>
-      <c r="AH26" s="67"/>
-      <c r="AI26" s="67"/>
-      <c r="AJ26" s="67"/>
-      <c r="AK26" s="67"/>
-      <c r="AL26" s="67"/>
-      <c r="AM26" s="72"/>
+      <c r="AF26" s="65"/>
+      <c r="AG26" s="66"/>
+      <c r="AH26" s="66"/>
+      <c r="AI26" s="66"/>
+      <c r="AJ26" s="66"/>
+      <c r="AK26" s="66"/>
+      <c r="AL26" s="66"/>
+      <c r="AM26" s="67"/>
     </row>
     <row r="27" spans="1:39" ht="14.25" customHeight="1">
       <c r="A27" s="59"/>
@@ -15237,20 +15238,20 @@
       <c r="AC27" s="17"/>
       <c r="AD27" s="17"/>
       <c r="AE27" s="6"/>
-      <c r="AF27" s="71"/>
-      <c r="AG27" s="67"/>
-      <c r="AH27" s="67"/>
-      <c r="AI27" s="67"/>
-      <c r="AJ27" s="67"/>
-      <c r="AK27" s="67"/>
-      <c r="AL27" s="67"/>
-      <c r="AM27" s="72"/>
+      <c r="AF27" s="65"/>
+      <c r="AG27" s="66"/>
+      <c r="AH27" s="66"/>
+      <c r="AI27" s="66"/>
+      <c r="AJ27" s="66"/>
+      <c r="AK27" s="66"/>
+      <c r="AL27" s="66"/>
+      <c r="AM27" s="67"/>
     </row>
     <row r="28" spans="1:39" ht="14.25" customHeight="1">
       <c r="A28" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="86"/>
+      <c r="B28" s="82"/>
       <c r="D28" s="22"/>
       <c r="E28" s="22"/>
       <c r="F28" s="22"/>
@@ -15282,14 +15283,14 @@
       <c r="AC28" s="17"/>
       <c r="AD28" s="17"/>
       <c r="AE28" s="6"/>
-      <c r="AF28" s="71"/>
-      <c r="AG28" s="67"/>
-      <c r="AH28" s="67"/>
-      <c r="AI28" s="67"/>
-      <c r="AJ28" s="67"/>
-      <c r="AK28" s="67"/>
-      <c r="AL28" s="67"/>
-      <c r="AM28" s="72"/>
+      <c r="AF28" s="65"/>
+      <c r="AG28" s="66"/>
+      <c r="AH28" s="66"/>
+      <c r="AI28" s="66"/>
+      <c r="AJ28" s="66"/>
+      <c r="AK28" s="66"/>
+      <c r="AL28" s="66"/>
+      <c r="AM28" s="67"/>
     </row>
     <row r="29" spans="1:39" ht="14.25" customHeight="1">
       <c r="A29" s="59"/>
@@ -15325,20 +15326,20 @@
       <c r="AC29" s="17"/>
       <c r="AD29" s="17"/>
       <c r="AE29" s="6"/>
-      <c r="AF29" s="71"/>
-      <c r="AG29" s="67"/>
-      <c r="AH29" s="67"/>
-      <c r="AI29" s="67"/>
-      <c r="AJ29" s="67"/>
-      <c r="AK29" s="67"/>
-      <c r="AL29" s="67"/>
-      <c r="AM29" s="72"/>
+      <c r="AF29" s="65"/>
+      <c r="AG29" s="66"/>
+      <c r="AH29" s="66"/>
+      <c r="AI29" s="66"/>
+      <c r="AJ29" s="66"/>
+      <c r="AK29" s="66"/>
+      <c r="AL29" s="66"/>
+      <c r="AM29" s="67"/>
     </row>
     <row r="30" spans="1:39" ht="14.25" customHeight="1">
       <c r="A30" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="87"/>
+      <c r="B30" s="83"/>
       <c r="D30" s="22"/>
       <c r="E30" s="22"/>
       <c r="F30" s="22"/>
@@ -15370,14 +15371,14 @@
       <c r="AC30" s="17"/>
       <c r="AD30" s="17"/>
       <c r="AE30" s="6"/>
-      <c r="AF30" s="71"/>
-      <c r="AG30" s="67"/>
-      <c r="AH30" s="67"/>
-      <c r="AI30" s="67"/>
-      <c r="AJ30" s="67"/>
-      <c r="AK30" s="67"/>
-      <c r="AL30" s="67"/>
-      <c r="AM30" s="72"/>
+      <c r="AF30" s="65"/>
+      <c r="AG30" s="66"/>
+      <c r="AH30" s="66"/>
+      <c r="AI30" s="66"/>
+      <c r="AJ30" s="66"/>
+      <c r="AK30" s="66"/>
+      <c r="AL30" s="66"/>
+      <c r="AM30" s="67"/>
     </row>
     <row r="31" spans="1:39" ht="14.25" customHeight="1">
       <c r="A31" s="59"/>
@@ -15413,20 +15414,20 @@
       <c r="AC31" s="17"/>
       <c r="AD31" s="17"/>
       <c r="AE31" s="6"/>
-      <c r="AF31" s="71"/>
-      <c r="AG31" s="67"/>
-      <c r="AH31" s="67"/>
-      <c r="AI31" s="67"/>
-      <c r="AJ31" s="67"/>
-      <c r="AK31" s="67"/>
-      <c r="AL31" s="67"/>
-      <c r="AM31" s="72"/>
+      <c r="AF31" s="65"/>
+      <c r="AG31" s="66"/>
+      <c r="AH31" s="66"/>
+      <c r="AI31" s="66"/>
+      <c r="AJ31" s="66"/>
+      <c r="AK31" s="66"/>
+      <c r="AL31" s="66"/>
+      <c r="AM31" s="67"/>
     </row>
     <row r="32" spans="1:39" ht="14.25" customHeight="1">
       <c r="A32" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="87"/>
+      <c r="B32" s="83"/>
       <c r="D32" s="22"/>
       <c r="E32" s="22"/>
       <c r="F32" s="22"/>
@@ -15458,14 +15459,14 @@
       <c r="AC32" s="17"/>
       <c r="AD32" s="17"/>
       <c r="AE32" s="6"/>
-      <c r="AF32" s="71"/>
-      <c r="AG32" s="67"/>
-      <c r="AH32" s="67"/>
-      <c r="AI32" s="67"/>
-      <c r="AJ32" s="67"/>
-      <c r="AK32" s="67"/>
-      <c r="AL32" s="67"/>
-      <c r="AM32" s="72"/>
+      <c r="AF32" s="65"/>
+      <c r="AG32" s="66"/>
+      <c r="AH32" s="66"/>
+      <c r="AI32" s="66"/>
+      <c r="AJ32" s="66"/>
+      <c r="AK32" s="66"/>
+      <c r="AL32" s="66"/>
+      <c r="AM32" s="67"/>
     </row>
     <row r="33" spans="1:39" ht="14.25" customHeight="1">
       <c r="A33" s="59"/>
@@ -15501,20 +15502,20 @@
       <c r="AC33" s="17"/>
       <c r="AD33" s="17"/>
       <c r="AE33" s="6"/>
-      <c r="AF33" s="71"/>
-      <c r="AG33" s="67"/>
-      <c r="AH33" s="67"/>
-      <c r="AI33" s="67"/>
-      <c r="AJ33" s="67"/>
-      <c r="AK33" s="67"/>
-      <c r="AL33" s="67"/>
-      <c r="AM33" s="72"/>
+      <c r="AF33" s="65"/>
+      <c r="AG33" s="66"/>
+      <c r="AH33" s="66"/>
+      <c r="AI33" s="66"/>
+      <c r="AJ33" s="66"/>
+      <c r="AK33" s="66"/>
+      <c r="AL33" s="66"/>
+      <c r="AM33" s="67"/>
     </row>
     <row r="34" spans="1:39" ht="14.25" customHeight="1">
       <c r="A34" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="87"/>
+      <c r="B34" s="83"/>
       <c r="D34" s="22"/>
       <c r="E34" s="22"/>
       <c r="F34" s="22"/>
@@ -15546,14 +15547,14 @@
       <c r="AC34" s="17"/>
       <c r="AD34" s="17"/>
       <c r="AE34" s="6"/>
-      <c r="AF34" s="71"/>
-      <c r="AG34" s="67"/>
-      <c r="AH34" s="67"/>
-      <c r="AI34" s="67"/>
-      <c r="AJ34" s="67"/>
-      <c r="AK34" s="67"/>
-      <c r="AL34" s="67"/>
-      <c r="AM34" s="72"/>
+      <c r="AF34" s="65"/>
+      <c r="AG34" s="66"/>
+      <c r="AH34" s="66"/>
+      <c r="AI34" s="66"/>
+      <c r="AJ34" s="66"/>
+      <c r="AK34" s="66"/>
+      <c r="AL34" s="66"/>
+      <c r="AM34" s="67"/>
     </row>
     <row r="35" spans="1:39" ht="14.25" customHeight="1">
       <c r="A35" s="59"/>
@@ -15589,20 +15590,20 @@
       <c r="AC35" s="17"/>
       <c r="AD35" s="17"/>
       <c r="AE35" s="6"/>
-      <c r="AF35" s="71"/>
-      <c r="AG35" s="67"/>
-      <c r="AH35" s="67"/>
-      <c r="AI35" s="67"/>
-      <c r="AJ35" s="67"/>
-      <c r="AK35" s="67"/>
-      <c r="AL35" s="67"/>
-      <c r="AM35" s="72"/>
+      <c r="AF35" s="65"/>
+      <c r="AG35" s="66"/>
+      <c r="AH35" s="66"/>
+      <c r="AI35" s="66"/>
+      <c r="AJ35" s="66"/>
+      <c r="AK35" s="66"/>
+      <c r="AL35" s="66"/>
+      <c r="AM35" s="67"/>
     </row>
     <row r="36" spans="1:39" ht="14.25" customHeight="1">
       <c r="A36" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="B36" s="87"/>
+      <c r="B36" s="83"/>
       <c r="D36" s="22"/>
       <c r="E36" s="22"/>
       <c r="F36" s="22"/>
@@ -15634,14 +15635,14 @@
       <c r="AC36" s="17"/>
       <c r="AD36" s="17"/>
       <c r="AE36" s="6"/>
-      <c r="AF36" s="71"/>
-      <c r="AG36" s="67"/>
-      <c r="AH36" s="67"/>
-      <c r="AI36" s="67"/>
-      <c r="AJ36" s="67"/>
-      <c r="AK36" s="67"/>
-      <c r="AL36" s="67"/>
-      <c r="AM36" s="72"/>
+      <c r="AF36" s="65"/>
+      <c r="AG36" s="66"/>
+      <c r="AH36" s="66"/>
+      <c r="AI36" s="66"/>
+      <c r="AJ36" s="66"/>
+      <c r="AK36" s="66"/>
+      <c r="AL36" s="66"/>
+      <c r="AM36" s="67"/>
     </row>
     <row r="37" spans="1:39" ht="14.25" customHeight="1">
       <c r="A37" s="59"/>
@@ -15677,20 +15678,20 @@
       <c r="AC37" s="17"/>
       <c r="AD37" s="17"/>
       <c r="AE37" s="6"/>
-      <c r="AF37" s="73"/>
-      <c r="AG37" s="74"/>
-      <c r="AH37" s="74"/>
-      <c r="AI37" s="74"/>
-      <c r="AJ37" s="74"/>
-      <c r="AK37" s="74"/>
-      <c r="AL37" s="74"/>
-      <c r="AM37" s="75"/>
+      <c r="AF37" s="68"/>
+      <c r="AG37" s="69"/>
+      <c r="AH37" s="69"/>
+      <c r="AI37" s="69"/>
+      <c r="AJ37" s="69"/>
+      <c r="AK37" s="69"/>
+      <c r="AL37" s="69"/>
+      <c r="AM37" s="70"/>
     </row>
     <row r="38" spans="1:39" ht="14.25" customHeight="1">
       <c r="A38" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="B38" s="87"/>
+      <c r="B38" s="83"/>
       <c r="D38" s="22"/>
       <c r="E38" s="22"/>
       <c r="F38" s="22"/>
@@ -15778,7 +15779,7 @@
       <c r="A40" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="B40" s="87"/>
+      <c r="B40" s="83"/>
       <c r="D40" s="22"/>
       <c r="E40" s="22"/>
       <c r="F40" s="22"/>
@@ -15866,7 +15867,7 @@
       <c r="A42" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="B42" s="87"/>
+      <c r="B42" s="83"/>
       <c r="D42" s="22"/>
       <c r="E42" s="22"/>
       <c r="F42" s="22"/>
@@ -15954,7 +15955,7 @@
       <c r="A44" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="B44" s="87"/>
+      <c r="B44" s="83"/>
       <c r="D44" s="22"/>
       <c r="E44" s="22"/>
       <c r="F44" s="22"/>
@@ -15986,14 +15987,14 @@
       <c r="AC44" s="17"/>
       <c r="AD44" s="17"/>
       <c r="AE44" s="6"/>
-      <c r="AF44" s="77"/>
-      <c r="AG44" s="78"/>
-      <c r="AH44" s="78"/>
-      <c r="AI44" s="78"/>
-      <c r="AJ44" s="78"/>
-      <c r="AK44" s="78"/>
-      <c r="AL44" s="78"/>
-      <c r="AM44" s="79"/>
+      <c r="AF44" s="74"/>
+      <c r="AG44" s="75"/>
+      <c r="AH44" s="75"/>
+      <c r="AI44" s="75"/>
+      <c r="AJ44" s="75"/>
+      <c r="AK44" s="75"/>
+      <c r="AL44" s="75"/>
+      <c r="AM44" s="76"/>
     </row>
     <row r="45" spans="1:39" ht="18" customHeight="1">
       <c r="A45" s="59"/>
@@ -16029,20 +16030,20 @@
       <c r="AC45" s="17"/>
       <c r="AD45" s="17"/>
       <c r="AE45" s="6"/>
-      <c r="AF45" s="80"/>
-      <c r="AG45" s="67"/>
-      <c r="AH45" s="67"/>
-      <c r="AI45" s="67"/>
-      <c r="AJ45" s="67"/>
-      <c r="AK45" s="67"/>
-      <c r="AL45" s="67"/>
-      <c r="AM45" s="81"/>
+      <c r="AF45" s="77"/>
+      <c r="AG45" s="66"/>
+      <c r="AH45" s="66"/>
+      <c r="AI45" s="66"/>
+      <c r="AJ45" s="66"/>
+      <c r="AK45" s="66"/>
+      <c r="AL45" s="66"/>
+      <c r="AM45" s="78"/>
     </row>
     <row r="46" spans="1:39" ht="17.25" customHeight="1">
       <c r="A46" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="B46" s="87"/>
+      <c r="B46" s="83"/>
       <c r="D46" s="22"/>
       <c r="E46" s="22"/>
       <c r="F46" s="22"/>
@@ -16074,14 +16075,14 @@
       <c r="AC46" s="17"/>
       <c r="AD46" s="17"/>
       <c r="AE46" s="6"/>
-      <c r="AF46" s="80"/>
-      <c r="AG46" s="67"/>
-      <c r="AH46" s="67"/>
-      <c r="AI46" s="67"/>
-      <c r="AJ46" s="67"/>
-      <c r="AK46" s="67"/>
-      <c r="AL46" s="67"/>
-      <c r="AM46" s="81"/>
+      <c r="AF46" s="77"/>
+      <c r="AG46" s="66"/>
+      <c r="AH46" s="66"/>
+      <c r="AI46" s="66"/>
+      <c r="AJ46" s="66"/>
+      <c r="AK46" s="66"/>
+      <c r="AL46" s="66"/>
+      <c r="AM46" s="78"/>
     </row>
     <row r="47" spans="1:39" ht="18" customHeight="1">
       <c r="A47" s="59"/>
@@ -16117,20 +16118,20 @@
       <c r="AC47" s="17"/>
       <c r="AD47" s="17"/>
       <c r="AE47" s="6"/>
-      <c r="AF47" s="80"/>
-      <c r="AG47" s="67"/>
-      <c r="AH47" s="67"/>
-      <c r="AI47" s="67"/>
-      <c r="AJ47" s="67"/>
-      <c r="AK47" s="67"/>
-      <c r="AL47" s="67"/>
-      <c r="AM47" s="81"/>
+      <c r="AF47" s="77"/>
+      <c r="AG47" s="66"/>
+      <c r="AH47" s="66"/>
+      <c r="AI47" s="66"/>
+      <c r="AJ47" s="66"/>
+      <c r="AK47" s="66"/>
+      <c r="AL47" s="66"/>
+      <c r="AM47" s="78"/>
     </row>
     <row r="48" spans="1:39" ht="14.25" customHeight="1">
       <c r="A48" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="B48" s="87"/>
+      <c r="B48" s="83"/>
       <c r="D48" s="22"/>
       <c r="E48" s="22"/>
       <c r="F48" s="22"/>
@@ -16162,14 +16163,14 @@
       <c r="AC48" s="17"/>
       <c r="AD48" s="17"/>
       <c r="AE48" s="6"/>
-      <c r="AF48" s="80"/>
-      <c r="AG48" s="67"/>
-      <c r="AH48" s="67"/>
-      <c r="AI48" s="67"/>
-      <c r="AJ48" s="67"/>
-      <c r="AK48" s="67"/>
-      <c r="AL48" s="67"/>
-      <c r="AM48" s="81"/>
+      <c r="AF48" s="77"/>
+      <c r="AG48" s="66"/>
+      <c r="AH48" s="66"/>
+      <c r="AI48" s="66"/>
+      <c r="AJ48" s="66"/>
+      <c r="AK48" s="66"/>
+      <c r="AL48" s="66"/>
+      <c r="AM48" s="78"/>
     </row>
     <row r="49" spans="1:39" ht="14.25" customHeight="1">
       <c r="A49" s="59"/>
@@ -16205,20 +16206,20 @@
       <c r="AC49" s="17"/>
       <c r="AD49" s="17"/>
       <c r="AE49" s="6"/>
-      <c r="AF49" s="80"/>
-      <c r="AG49" s="67"/>
-      <c r="AH49" s="67"/>
-      <c r="AI49" s="67"/>
-      <c r="AJ49" s="67"/>
-      <c r="AK49" s="67"/>
-      <c r="AL49" s="67"/>
-      <c r="AM49" s="81"/>
+      <c r="AF49" s="77"/>
+      <c r="AG49" s="66"/>
+      <c r="AH49" s="66"/>
+      <c r="AI49" s="66"/>
+      <c r="AJ49" s="66"/>
+      <c r="AK49" s="66"/>
+      <c r="AL49" s="66"/>
+      <c r="AM49" s="78"/>
     </row>
     <row r="50" spans="1:39" ht="17.25" customHeight="1">
       <c r="A50" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="B50" s="87"/>
+      <c r="B50" s="83"/>
       <c r="D50" s="22"/>
       <c r="E50" s="22"/>
       <c r="F50" s="22"/>
@@ -16250,14 +16251,14 @@
       <c r="AC50" s="17"/>
       <c r="AD50" s="17"/>
       <c r="AE50" s="6"/>
-      <c r="AF50" s="80"/>
-      <c r="AG50" s="67"/>
-      <c r="AH50" s="67"/>
-      <c r="AI50" s="67"/>
-      <c r="AJ50" s="67"/>
-      <c r="AK50" s="67"/>
-      <c r="AL50" s="67"/>
-      <c r="AM50" s="81"/>
+      <c r="AF50" s="77"/>
+      <c r="AG50" s="66"/>
+      <c r="AH50" s="66"/>
+      <c r="AI50" s="66"/>
+      <c r="AJ50" s="66"/>
+      <c r="AK50" s="66"/>
+      <c r="AL50" s="66"/>
+      <c r="AM50" s="78"/>
     </row>
     <row r="51" spans="1:39" ht="18" customHeight="1">
       <c r="A51" s="59"/>
@@ -16293,20 +16294,20 @@
       <c r="AC51" s="17"/>
       <c r="AD51" s="17"/>
       <c r="AE51" s="6"/>
-      <c r="AF51" s="80"/>
-      <c r="AG51" s="67"/>
-      <c r="AH51" s="67"/>
-      <c r="AI51" s="67"/>
-      <c r="AJ51" s="67"/>
-      <c r="AK51" s="67"/>
-      <c r="AL51" s="67"/>
-      <c r="AM51" s="81"/>
+      <c r="AF51" s="77"/>
+      <c r="AG51" s="66"/>
+      <c r="AH51" s="66"/>
+      <c r="AI51" s="66"/>
+      <c r="AJ51" s="66"/>
+      <c r="AK51" s="66"/>
+      <c r="AL51" s="66"/>
+      <c r="AM51" s="78"/>
     </row>
     <row r="52" spans="1:39" ht="17.25" customHeight="1">
       <c r="A52" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="B52" s="87"/>
+      <c r="B52" s="83"/>
       <c r="D52" s="22"/>
       <c r="E52" s="22"/>
       <c r="F52" s="22"/>
@@ -16338,14 +16339,14 @@
       <c r="AC52" s="17"/>
       <c r="AD52" s="17"/>
       <c r="AE52" s="6"/>
-      <c r="AF52" s="80"/>
-      <c r="AG52" s="67"/>
-      <c r="AH52" s="67"/>
-      <c r="AI52" s="67"/>
-      <c r="AJ52" s="67"/>
-      <c r="AK52" s="67"/>
-      <c r="AL52" s="67"/>
-      <c r="AM52" s="81"/>
+      <c r="AF52" s="77"/>
+      <c r="AG52" s="66"/>
+      <c r="AH52" s="66"/>
+      <c r="AI52" s="66"/>
+      <c r="AJ52" s="66"/>
+      <c r="AK52" s="66"/>
+      <c r="AL52" s="66"/>
+      <c r="AM52" s="78"/>
     </row>
     <row r="53" spans="1:39" ht="18" customHeight="1">
       <c r="A53" s="59"/>
@@ -16381,20 +16382,20 @@
       <c r="AC53" s="17"/>
       <c r="AD53" s="17"/>
       <c r="AE53" s="6"/>
-      <c r="AF53" s="80"/>
-      <c r="AG53" s="67"/>
-      <c r="AH53" s="67"/>
-      <c r="AI53" s="67"/>
-      <c r="AJ53" s="67"/>
-      <c r="AK53" s="67"/>
-      <c r="AL53" s="67"/>
-      <c r="AM53" s="81"/>
+      <c r="AF53" s="77"/>
+      <c r="AG53" s="66"/>
+      <c r="AH53" s="66"/>
+      <c r="AI53" s="66"/>
+      <c r="AJ53" s="66"/>
+      <c r="AK53" s="66"/>
+      <c r="AL53" s="66"/>
+      <c r="AM53" s="78"/>
     </row>
     <row r="54" spans="1:39" ht="17.25" customHeight="1">
       <c r="A54" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="B54" s="87"/>
+      <c r="B54" s="83"/>
       <c r="D54" s="22"/>
       <c r="E54" s="22"/>
       <c r="F54" s="22"/>
@@ -16426,14 +16427,14 @@
       <c r="AC54" s="17"/>
       <c r="AD54" s="17"/>
       <c r="AE54" s="6"/>
-      <c r="AF54" s="80"/>
-      <c r="AG54" s="67"/>
-      <c r="AH54" s="67"/>
-      <c r="AI54" s="67"/>
-      <c r="AJ54" s="67"/>
-      <c r="AK54" s="67"/>
-      <c r="AL54" s="67"/>
-      <c r="AM54" s="81"/>
+      <c r="AF54" s="77"/>
+      <c r="AG54" s="66"/>
+      <c r="AH54" s="66"/>
+      <c r="AI54" s="66"/>
+      <c r="AJ54" s="66"/>
+      <c r="AK54" s="66"/>
+      <c r="AL54" s="66"/>
+      <c r="AM54" s="78"/>
     </row>
     <row r="55" spans="1:39" ht="18" customHeight="1">
       <c r="A55" s="59"/>
@@ -16469,20 +16470,20 @@
       <c r="AC55" s="17"/>
       <c r="AD55" s="17"/>
       <c r="AE55" s="6"/>
-      <c r="AF55" s="80"/>
-      <c r="AG55" s="67"/>
-      <c r="AH55" s="67"/>
-      <c r="AI55" s="67"/>
-      <c r="AJ55" s="67"/>
-      <c r="AK55" s="67"/>
-      <c r="AL55" s="67"/>
-      <c r="AM55" s="81"/>
+      <c r="AF55" s="77"/>
+      <c r="AG55" s="66"/>
+      <c r="AH55" s="66"/>
+      <c r="AI55" s="66"/>
+      <c r="AJ55" s="66"/>
+      <c r="AK55" s="66"/>
+      <c r="AL55" s="66"/>
+      <c r="AM55" s="78"/>
     </row>
     <row r="56" spans="1:39" ht="14.25" customHeight="1">
       <c r="A56" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="B56" s="87"/>
+      <c r="B56" s="83"/>
       <c r="D56" s="22"/>
       <c r="E56" s="22"/>
       <c r="F56" s="22"/>
@@ -16514,14 +16515,14 @@
       <c r="AC56" s="17"/>
       <c r="AD56" s="17"/>
       <c r="AE56" s="6"/>
-      <c r="AF56" s="80"/>
-      <c r="AG56" s="67"/>
-      <c r="AH56" s="67"/>
-      <c r="AI56" s="67"/>
-      <c r="AJ56" s="67"/>
-      <c r="AK56" s="67"/>
-      <c r="AL56" s="67"/>
-      <c r="AM56" s="81"/>
+      <c r="AF56" s="77"/>
+      <c r="AG56" s="66"/>
+      <c r="AH56" s="66"/>
+      <c r="AI56" s="66"/>
+      <c r="AJ56" s="66"/>
+      <c r="AK56" s="66"/>
+      <c r="AL56" s="66"/>
+      <c r="AM56" s="78"/>
     </row>
     <row r="57" spans="1:39" ht="14.25" customHeight="1">
       <c r="A57" s="59"/>
@@ -16557,20 +16558,20 @@
       <c r="AC57" s="17"/>
       <c r="AD57" s="17"/>
       <c r="AE57" s="6"/>
-      <c r="AF57" s="80"/>
-      <c r="AG57" s="67"/>
-      <c r="AH57" s="67"/>
-      <c r="AI57" s="67"/>
-      <c r="AJ57" s="67"/>
-      <c r="AK57" s="67"/>
-      <c r="AL57" s="67"/>
-      <c r="AM57" s="81"/>
+      <c r="AF57" s="77"/>
+      <c r="AG57" s="66"/>
+      <c r="AH57" s="66"/>
+      <c r="AI57" s="66"/>
+      <c r="AJ57" s="66"/>
+      <c r="AK57" s="66"/>
+      <c r="AL57" s="66"/>
+      <c r="AM57" s="78"/>
     </row>
     <row r="58" spans="1:39" ht="17.25" customHeight="1">
       <c r="A58" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="B58" s="87"/>
+      <c r="B58" s="83"/>
       <c r="D58" s="22"/>
       <c r="E58" s="22"/>
       <c r="F58" s="22"/>
@@ -16602,14 +16603,14 @@
       <c r="AC58" s="17"/>
       <c r="AD58" s="17"/>
       <c r="AE58" s="6"/>
-      <c r="AF58" s="80"/>
-      <c r="AG58" s="67"/>
-      <c r="AH58" s="67"/>
-      <c r="AI58" s="67"/>
-      <c r="AJ58" s="67"/>
-      <c r="AK58" s="67"/>
-      <c r="AL58" s="67"/>
-      <c r="AM58" s="81"/>
+      <c r="AF58" s="77"/>
+      <c r="AG58" s="66"/>
+      <c r="AH58" s="66"/>
+      <c r="AI58" s="66"/>
+      <c r="AJ58" s="66"/>
+      <c r="AK58" s="66"/>
+      <c r="AL58" s="66"/>
+      <c r="AM58" s="78"/>
     </row>
     <row r="59" spans="1:39" ht="18" customHeight="1">
       <c r="A59" s="59"/>
@@ -16645,20 +16646,20 @@
       <c r="AC59" s="17"/>
       <c r="AD59" s="17"/>
       <c r="AE59" s="6"/>
-      <c r="AF59" s="80"/>
-      <c r="AG59" s="67"/>
-      <c r="AH59" s="67"/>
-      <c r="AI59" s="67"/>
-      <c r="AJ59" s="67"/>
-      <c r="AK59" s="67"/>
-      <c r="AL59" s="67"/>
-      <c r="AM59" s="81"/>
+      <c r="AF59" s="77"/>
+      <c r="AG59" s="66"/>
+      <c r="AH59" s="66"/>
+      <c r="AI59" s="66"/>
+      <c r="AJ59" s="66"/>
+      <c r="AK59" s="66"/>
+      <c r="AL59" s="66"/>
+      <c r="AM59" s="78"/>
     </row>
     <row r="60" spans="1:39" ht="17.25" customHeight="1">
       <c r="A60" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="B60" s="87"/>
+      <c r="B60" s="83"/>
       <c r="D60" s="22"/>
       <c r="E60" s="22"/>
       <c r="F60" s="22"/>
@@ -16690,14 +16691,14 @@
       <c r="AC60" s="17"/>
       <c r="AD60" s="17"/>
       <c r="AE60" s="6"/>
-      <c r="AF60" s="80"/>
-      <c r="AG60" s="67"/>
-      <c r="AH60" s="67"/>
-      <c r="AI60" s="67"/>
-      <c r="AJ60" s="67"/>
-      <c r="AK60" s="67"/>
-      <c r="AL60" s="67"/>
-      <c r="AM60" s="81"/>
+      <c r="AF60" s="77"/>
+      <c r="AG60" s="66"/>
+      <c r="AH60" s="66"/>
+      <c r="AI60" s="66"/>
+      <c r="AJ60" s="66"/>
+      <c r="AK60" s="66"/>
+      <c r="AL60" s="66"/>
+      <c r="AM60" s="78"/>
     </row>
     <row r="61" spans="1:39" ht="18" customHeight="1">
       <c r="A61" s="59"/>
@@ -16733,20 +16734,20 @@
       <c r="AC61" s="17"/>
       <c r="AD61" s="17"/>
       <c r="AE61" s="6"/>
-      <c r="AF61" s="80"/>
-      <c r="AG61" s="67"/>
-      <c r="AH61" s="67"/>
-      <c r="AI61" s="67"/>
-      <c r="AJ61" s="67"/>
-      <c r="AK61" s="67"/>
-      <c r="AL61" s="67"/>
-      <c r="AM61" s="81"/>
+      <c r="AF61" s="77"/>
+      <c r="AG61" s="66"/>
+      <c r="AH61" s="66"/>
+      <c r="AI61" s="66"/>
+      <c r="AJ61" s="66"/>
+      <c r="AK61" s="66"/>
+      <c r="AL61" s="66"/>
+      <c r="AM61" s="78"/>
     </row>
     <row r="62" spans="1:39" ht="17.25" customHeight="1">
       <c r="A62" s="58" t="s">
         <v>82</v>
       </c>
-      <c r="B62" s="87"/>
+      <c r="B62" s="83"/>
       <c r="D62" s="22"/>
       <c r="E62" s="22"/>
       <c r="F62" s="22"/>
@@ -16778,14 +16779,14 @@
       <c r="AC62" s="17"/>
       <c r="AD62" s="17"/>
       <c r="AE62" s="6"/>
-      <c r="AF62" s="80"/>
-      <c r="AG62" s="67"/>
-      <c r="AH62" s="67"/>
-      <c r="AI62" s="67"/>
-      <c r="AJ62" s="67"/>
-      <c r="AK62" s="67"/>
-      <c r="AL62" s="67"/>
-      <c r="AM62" s="81"/>
+      <c r="AF62" s="77"/>
+      <c r="AG62" s="66"/>
+      <c r="AH62" s="66"/>
+      <c r="AI62" s="66"/>
+      <c r="AJ62" s="66"/>
+      <c r="AK62" s="66"/>
+      <c r="AL62" s="66"/>
+      <c r="AM62" s="78"/>
     </row>
     <row r="63" spans="1:39" ht="18" customHeight="1">
       <c r="A63" s="59"/>
@@ -16821,20 +16822,20 @@
       <c r="AC63" s="32"/>
       <c r="AD63" s="32"/>
       <c r="AE63" s="6"/>
-      <c r="AF63" s="80"/>
-      <c r="AG63" s="67"/>
-      <c r="AH63" s="67"/>
-      <c r="AI63" s="67"/>
-      <c r="AJ63" s="67"/>
-      <c r="AK63" s="67"/>
-      <c r="AL63" s="67"/>
-      <c r="AM63" s="81"/>
+      <c r="AF63" s="77"/>
+      <c r="AG63" s="66"/>
+      <c r="AH63" s="66"/>
+      <c r="AI63" s="66"/>
+      <c r="AJ63" s="66"/>
+      <c r="AK63" s="66"/>
+      <c r="AL63" s="66"/>
+      <c r="AM63" s="78"/>
     </row>
     <row r="64" spans="1:39" ht="17.25" customHeight="1">
       <c r="A64" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="B64" s="87"/>
+      <c r="B64" s="83"/>
       <c r="D64" s="22"/>
       <c r="E64" s="22"/>
       <c r="F64" s="22"/>
@@ -16866,14 +16867,14 @@
       <c r="AC64" s="32"/>
       <c r="AD64" s="32"/>
       <c r="AE64" s="6"/>
-      <c r="AF64" s="80"/>
-      <c r="AG64" s="67"/>
-      <c r="AH64" s="67"/>
-      <c r="AI64" s="67"/>
-      <c r="AJ64" s="67"/>
-      <c r="AK64" s="67"/>
-      <c r="AL64" s="67"/>
-      <c r="AM64" s="81"/>
+      <c r="AF64" s="77"/>
+      <c r="AG64" s="66"/>
+      <c r="AH64" s="66"/>
+      <c r="AI64" s="66"/>
+      <c r="AJ64" s="66"/>
+      <c r="AK64" s="66"/>
+      <c r="AL64" s="66"/>
+      <c r="AM64" s="78"/>
     </row>
     <row r="65" spans="1:39" ht="18" customHeight="1">
       <c r="A65" s="59"/>
@@ -16909,20 +16910,20 @@
       <c r="AC65" s="32"/>
       <c r="AD65" s="32"/>
       <c r="AE65" s="6"/>
-      <c r="AF65" s="80"/>
-      <c r="AG65" s="67"/>
-      <c r="AH65" s="67"/>
-      <c r="AI65" s="67"/>
-      <c r="AJ65" s="67"/>
-      <c r="AK65" s="67"/>
-      <c r="AL65" s="67"/>
-      <c r="AM65" s="81"/>
+      <c r="AF65" s="77"/>
+      <c r="AG65" s="66"/>
+      <c r="AH65" s="66"/>
+      <c r="AI65" s="66"/>
+      <c r="AJ65" s="66"/>
+      <c r="AK65" s="66"/>
+      <c r="AL65" s="66"/>
+      <c r="AM65" s="78"/>
     </row>
     <row r="66" spans="1:39" ht="14.25" customHeight="1">
       <c r="A66" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="B66" s="61"/>
+      <c r="B66" s="60"/>
       <c r="D66" s="22"/>
       <c r="E66" s="22"/>
       <c r="F66" s="22"/>
@@ -16954,14 +16955,14 @@
       <c r="AC66" s="17"/>
       <c r="AD66" s="17"/>
       <c r="AE66" s="6"/>
-      <c r="AF66" s="80"/>
-      <c r="AG66" s="67"/>
-      <c r="AH66" s="67"/>
-      <c r="AI66" s="67"/>
-      <c r="AJ66" s="67"/>
-      <c r="AK66" s="67"/>
-      <c r="AL66" s="67"/>
-      <c r="AM66" s="81"/>
+      <c r="AF66" s="77"/>
+      <c r="AG66" s="66"/>
+      <c r="AH66" s="66"/>
+      <c r="AI66" s="66"/>
+      <c r="AJ66" s="66"/>
+      <c r="AK66" s="66"/>
+      <c r="AL66" s="66"/>
+      <c r="AM66" s="78"/>
     </row>
     <row r="67" spans="1:39" ht="14.25" customHeight="1">
       <c r="A67" s="59"/>
@@ -16997,20 +16998,20 @@
       <c r="AC67" s="17"/>
       <c r="AD67" s="17"/>
       <c r="AE67" s="6"/>
-      <c r="AF67" s="80"/>
-      <c r="AG67" s="67"/>
-      <c r="AH67" s="67"/>
-      <c r="AI67" s="67"/>
-      <c r="AJ67" s="67"/>
-      <c r="AK67" s="67"/>
-      <c r="AL67" s="67"/>
-      <c r="AM67" s="81"/>
+      <c r="AF67" s="77"/>
+      <c r="AG67" s="66"/>
+      <c r="AH67" s="66"/>
+      <c r="AI67" s="66"/>
+      <c r="AJ67" s="66"/>
+      <c r="AK67" s="66"/>
+      <c r="AL67" s="66"/>
+      <c r="AM67" s="78"/>
     </row>
     <row r="68" spans="1:39" ht="14.25" customHeight="1">
       <c r="A68" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="B68" s="61"/>
+      <c r="B68" s="60"/>
       <c r="D68" s="22"/>
       <c r="E68" s="22"/>
       <c r="F68" s="22"/>
@@ -17042,14 +17043,14 @@
       <c r="AC68" s="17"/>
       <c r="AD68" s="17"/>
       <c r="AE68" s="6"/>
-      <c r="AF68" s="80"/>
-      <c r="AG68" s="67"/>
-      <c r="AH68" s="67"/>
-      <c r="AI68" s="67"/>
-      <c r="AJ68" s="67"/>
-      <c r="AK68" s="67"/>
-      <c r="AL68" s="67"/>
-      <c r="AM68" s="81"/>
+      <c r="AF68" s="77"/>
+      <c r="AG68" s="66"/>
+      <c r="AH68" s="66"/>
+      <c r="AI68" s="66"/>
+      <c r="AJ68" s="66"/>
+      <c r="AK68" s="66"/>
+      <c r="AL68" s="66"/>
+      <c r="AM68" s="78"/>
     </row>
     <row r="69" spans="1:39" ht="14.25" customHeight="1">
       <c r="A69" s="59"/>
@@ -17085,20 +17086,20 @@
       <c r="AC69" s="17"/>
       <c r="AD69" s="17"/>
       <c r="AE69" s="6"/>
-      <c r="AF69" s="80"/>
-      <c r="AG69" s="67"/>
-      <c r="AH69" s="67"/>
-      <c r="AI69" s="67"/>
-      <c r="AJ69" s="67"/>
-      <c r="AK69" s="67"/>
-      <c r="AL69" s="67"/>
-      <c r="AM69" s="81"/>
+      <c r="AF69" s="77"/>
+      <c r="AG69" s="66"/>
+      <c r="AH69" s="66"/>
+      <c r="AI69" s="66"/>
+      <c r="AJ69" s="66"/>
+      <c r="AK69" s="66"/>
+      <c r="AL69" s="66"/>
+      <c r="AM69" s="78"/>
     </row>
     <row r="70" spans="1:39" ht="14.25" customHeight="1">
       <c r="A70" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="B70" s="61"/>
+      <c r="B70" s="60"/>
       <c r="D70" s="22"/>
       <c r="E70" s="22"/>
       <c r="F70" s="22"/>
@@ -17130,14 +17131,14 @@
       <c r="AC70" s="17"/>
       <c r="AD70" s="17"/>
       <c r="AE70" s="6"/>
-      <c r="AF70" s="80"/>
-      <c r="AG70" s="67"/>
-      <c r="AH70" s="67"/>
-      <c r="AI70" s="67"/>
-      <c r="AJ70" s="67"/>
-      <c r="AK70" s="67"/>
-      <c r="AL70" s="67"/>
-      <c r="AM70" s="81"/>
+      <c r="AF70" s="77"/>
+      <c r="AG70" s="66"/>
+      <c r="AH70" s="66"/>
+      <c r="AI70" s="66"/>
+      <c r="AJ70" s="66"/>
+      <c r="AK70" s="66"/>
+      <c r="AL70" s="66"/>
+      <c r="AM70" s="78"/>
     </row>
     <row r="71" spans="1:39" ht="14.25" customHeight="1">
       <c r="A71" s="59"/>
@@ -17173,20 +17174,20 @@
       <c r="AC71" s="17"/>
       <c r="AD71" s="17"/>
       <c r="AE71" s="6"/>
-      <c r="AF71" s="80"/>
-      <c r="AG71" s="67"/>
-      <c r="AH71" s="67"/>
-      <c r="AI71" s="67"/>
-      <c r="AJ71" s="67"/>
-      <c r="AK71" s="67"/>
-      <c r="AL71" s="67"/>
-      <c r="AM71" s="81"/>
+      <c r="AF71" s="77"/>
+      <c r="AG71" s="66"/>
+      <c r="AH71" s="66"/>
+      <c r="AI71" s="66"/>
+      <c r="AJ71" s="66"/>
+      <c r="AK71" s="66"/>
+      <c r="AL71" s="66"/>
+      <c r="AM71" s="78"/>
     </row>
     <row r="72" spans="1:39" ht="14.25" customHeight="1">
       <c r="A72" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="B72" s="61"/>
+      <c r="B72" s="60"/>
       <c r="D72" s="22"/>
       <c r="E72" s="22"/>
       <c r="F72" s="22"/>
@@ -17218,14 +17219,14 @@
       <c r="AC72" s="17"/>
       <c r="AD72" s="17"/>
       <c r="AE72" s="6"/>
-      <c r="AF72" s="82"/>
-      <c r="AG72" s="83"/>
-      <c r="AH72" s="83"/>
-      <c r="AI72" s="83"/>
-      <c r="AJ72" s="83"/>
-      <c r="AK72" s="83"/>
-      <c r="AL72" s="83"/>
-      <c r="AM72" s="84"/>
+      <c r="AF72" s="79"/>
+      <c r="AG72" s="80"/>
+      <c r="AH72" s="80"/>
+      <c r="AI72" s="80"/>
+      <c r="AJ72" s="80"/>
+      <c r="AK72" s="80"/>
+      <c r="AL72" s="80"/>
+      <c r="AM72" s="81"/>
     </row>
     <row r="73" spans="1:39" ht="14.25" customHeight="1">
       <c r="A73" s="59"/>
@@ -17276,7 +17277,7 @@
       <c r="A74" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="B74" s="61"/>
+      <c r="B74" s="60"/>
       <c r="D74" s="22"/>
       <c r="E74" s="22"/>
       <c r="F74" s="22"/>
@@ -17365,8 +17366,8 @@
       <c r="AM75" s="38"/>
     </row>
     <row r="76" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A76" s="85"/>
-      <c r="B76" s="85"/>
+      <c r="A76" s="61"/>
+      <c r="B76" s="61"/>
       <c r="D76" s="22"/>
       <c r="E76" s="22"/>
       <c r="F76" s="22"/>
@@ -17455,8 +17456,8 @@
       <c r="AM77" s="38"/>
     </row>
     <row r="78" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A78" s="85"/>
-      <c r="B78" s="85"/>
+      <c r="A78" s="61"/>
+      <c r="B78" s="61"/>
       <c r="D78" s="22"/>
       <c r="E78" s="22"/>
       <c r="F78" s="22"/>
@@ -17543,8 +17544,8 @@
       <c r="AM79" s="38"/>
     </row>
     <row r="80" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A80" s="85"/>
-      <c r="B80" s="85"/>
+      <c r="A80" s="61"/>
+      <c r="B80" s="61"/>
       <c r="D80" s="22"/>
       <c r="E80" s="22"/>
       <c r="F80" s="22"/>
@@ -18588,6 +18589,71 @@
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="81">
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="AA1:AD1"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="AF3:AM37"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="AF44:AM72"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A62:A63"/>
     <mergeCell ref="A64:A65"/>
     <mergeCell ref="A66:A67"/>
     <mergeCell ref="A68:A69"/>
@@ -18603,72 +18669,7 @@
     <mergeCell ref="B74:B75"/>
     <mergeCell ref="B76:B77"/>
     <mergeCell ref="B78:B79"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A53"/>
     <mergeCell ref="B66:B67"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="AA1:AD1"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="AF3:AM37"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="AF44:AM72"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="86" orientation="portrait"/>

--- a/Documents/Planification_Projet_2026.xlsx
+++ b/Documents/Planification_Projet_2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fauret.SNIRW\Projet_banc_test_self\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD8D071-51FB-41DC-86E5-3065EF1B824F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9340F35C-C567-4BF0-BAD6-0B2DF7FBC49F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2030,30 +2030,38 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2072,24 +2080,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2630,12 +2630,12 @@
       <c r="Y1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="Z1" s="84">
+      <c r="Z1" s="62">
         <v>2024</v>
       </c>
-      <c r="AA1" s="85"/>
-      <c r="AB1" s="85"/>
-      <c r="AC1" s="86"/>
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="63"/>
+      <c r="AC1" s="64"/>
       <c r="AD1" s="6"/>
       <c r="AE1" s="4" t="s">
         <v>2</v>
@@ -2690,7 +2690,7 @@
       <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="71"/>
+      <c r="D3" s="65"/>
       <c r="E3" s="66"/>
       <c r="F3" s="66"/>
       <c r="G3" s="66"/>
@@ -2758,31 +2758,31 @@
         <v>25</v>
       </c>
       <c r="AD3" s="6"/>
-      <c r="AE3" s="62" t="s">
+      <c r="AE3" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="AF3" s="63"/>
-      <c r="AG3" s="63"/>
-      <c r="AH3" s="63"/>
-      <c r="AI3" s="63"/>
-      <c r="AJ3" s="63"/>
-      <c r="AK3" s="63"/>
-      <c r="AL3" s="64"/>
+      <c r="AF3" s="70"/>
+      <c r="AG3" s="70"/>
+      <c r="AH3" s="70"/>
+      <c r="AI3" s="70"/>
+      <c r="AJ3" s="70"/>
+      <c r="AK3" s="70"/>
+      <c r="AL3" s="71"/>
     </row>
     <row r="4" spans="1:38" ht="14.25" customHeight="1">
-      <c r="D4" s="71"/>
+      <c r="D4" s="65"/>
       <c r="E4" s="66"/>
       <c r="F4" s="66"/>
       <c r="G4" s="66"/>
       <c r="AD4" s="6"/>
-      <c r="AE4" s="65"/>
+      <c r="AE4" s="72"/>
       <c r="AF4" s="66"/>
       <c r="AG4" s="66"/>
       <c r="AH4" s="66"/>
       <c r="AI4" s="66"/>
       <c r="AJ4" s="66"/>
       <c r="AK4" s="66"/>
-      <c r="AL4" s="67"/>
+      <c r="AL4" s="73"/>
     </row>
     <row r="5" spans="1:38" ht="14.25" customHeight="1">
       <c r="A5" s="8" t="s">
@@ -2823,20 +2823,20 @@
       <c r="AA5" s="16"/>
       <c r="AC5" s="16"/>
       <c r="AD5" s="6"/>
-      <c r="AE5" s="65"/>
+      <c r="AE5" s="72"/>
       <c r="AF5" s="66"/>
       <c r="AG5" s="66"/>
       <c r="AH5" s="66"/>
       <c r="AI5" s="66"/>
       <c r="AJ5" s="66"/>
       <c r="AK5" s="66"/>
-      <c r="AL5" s="67"/>
+      <c r="AL5" s="73"/>
     </row>
     <row r="6" spans="1:38" ht="15" customHeight="1">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="72"/>
+      <c r="B6" s="77"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
@@ -2864,18 +2864,18 @@
       <c r="AB6" s="17"/>
       <c r="AC6" s="17"/>
       <c r="AD6" s="6"/>
-      <c r="AE6" s="65"/>
+      <c r="AE6" s="72"/>
       <c r="AF6" s="66"/>
       <c r="AG6" s="66"/>
       <c r="AH6" s="66"/>
       <c r="AI6" s="66"/>
       <c r="AJ6" s="66"/>
       <c r="AK6" s="66"/>
-      <c r="AL6" s="67"/>
+      <c r="AL6" s="73"/>
     </row>
     <row r="7" spans="1:38" ht="15" customHeight="1">
-      <c r="A7" s="59"/>
-      <c r="B7" s="59"/>
+      <c r="A7" s="60"/>
+      <c r="B7" s="60"/>
       <c r="D7" s="19"/>
       <c r="E7" s="20"/>
       <c r="F7" s="21"/>
@@ -2903,20 +2903,20 @@
       <c r="AB7" s="17"/>
       <c r="AC7" s="17"/>
       <c r="AD7" s="6"/>
-      <c r="AE7" s="65"/>
+      <c r="AE7" s="72"/>
       <c r="AF7" s="66"/>
       <c r="AG7" s="66"/>
       <c r="AH7" s="66"/>
       <c r="AI7" s="66"/>
       <c r="AJ7" s="66"/>
       <c r="AK7" s="66"/>
-      <c r="AL7" s="67"/>
+      <c r="AL7" s="73"/>
     </row>
     <row r="8" spans="1:38" ht="15" customHeight="1">
-      <c r="A8" s="58" t="s">
+      <c r="A8" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="73"/>
+      <c r="B8" s="68"/>
       <c r="D8" s="22"/>
       <c r="E8" s="22"/>
       <c r="F8" s="22"/>
@@ -2944,18 +2944,18 @@
       <c r="AB8" s="17"/>
       <c r="AC8" s="17"/>
       <c r="AD8" s="6"/>
-      <c r="AE8" s="65"/>
+      <c r="AE8" s="72"/>
       <c r="AF8" s="66"/>
       <c r="AG8" s="66"/>
       <c r="AH8" s="66"/>
       <c r="AI8" s="66"/>
       <c r="AJ8" s="66"/>
       <c r="AK8" s="66"/>
-      <c r="AL8" s="67"/>
+      <c r="AL8" s="73"/>
     </row>
     <row r="9" spans="1:38" ht="15" customHeight="1">
-      <c r="A9" s="59"/>
-      <c r="B9" s="59"/>
+      <c r="A9" s="60"/>
+      <c r="B9" s="60"/>
       <c r="D9" s="19"/>
       <c r="E9" s="20"/>
       <c r="F9" s="21"/>
@@ -2983,20 +2983,20 @@
       <c r="AB9" s="17"/>
       <c r="AC9" s="17"/>
       <c r="AD9" s="6"/>
-      <c r="AE9" s="65"/>
+      <c r="AE9" s="72"/>
       <c r="AF9" s="66"/>
       <c r="AG9" s="66"/>
       <c r="AH9" s="66"/>
       <c r="AI9" s="66"/>
       <c r="AJ9" s="66"/>
       <c r="AK9" s="66"/>
-      <c r="AL9" s="67"/>
+      <c r="AL9" s="73"/>
     </row>
     <row r="10" spans="1:38" ht="15" customHeight="1">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="73"/>
+      <c r="B10" s="68"/>
       <c r="D10" s="22"/>
       <c r="E10" s="22"/>
       <c r="F10" s="22"/>
@@ -3024,18 +3024,18 @@
       <c r="AB10" s="17"/>
       <c r="AC10" s="17"/>
       <c r="AD10" s="6"/>
-      <c r="AE10" s="65"/>
+      <c r="AE10" s="72"/>
       <c r="AF10" s="66"/>
       <c r="AG10" s="66"/>
       <c r="AH10" s="66"/>
       <c r="AI10" s="66"/>
       <c r="AJ10" s="66"/>
       <c r="AK10" s="66"/>
-      <c r="AL10" s="67"/>
+      <c r="AL10" s="73"/>
     </row>
     <row r="11" spans="1:38" ht="15" customHeight="1">
-      <c r="A11" s="59"/>
-      <c r="B11" s="59"/>
+      <c r="A11" s="60"/>
+      <c r="B11" s="60"/>
       <c r="D11" s="19"/>
       <c r="E11" s="20"/>
       <c r="F11" s="21"/>
@@ -3063,20 +3063,20 @@
       <c r="AB11" s="17"/>
       <c r="AC11" s="17"/>
       <c r="AD11" s="6"/>
-      <c r="AE11" s="65"/>
+      <c r="AE11" s="72"/>
       <c r="AF11" s="66"/>
       <c r="AG11" s="66"/>
       <c r="AH11" s="66"/>
       <c r="AI11" s="66"/>
       <c r="AJ11" s="66"/>
       <c r="AK11" s="66"/>
-      <c r="AL11" s="67"/>
+      <c r="AL11" s="73"/>
     </row>
     <row r="12" spans="1:38" ht="15" customHeight="1">
-      <c r="A12" s="58" t="s">
+      <c r="A12" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="73"/>
+      <c r="B12" s="68"/>
       <c r="D12" s="22"/>
       <c r="E12" s="22"/>
       <c r="F12" s="22"/>
@@ -3104,18 +3104,18 @@
       <c r="AB12" s="17"/>
       <c r="AC12" s="17"/>
       <c r="AD12" s="6"/>
-      <c r="AE12" s="65"/>
+      <c r="AE12" s="72"/>
       <c r="AF12" s="66"/>
       <c r="AG12" s="66"/>
       <c r="AH12" s="66"/>
       <c r="AI12" s="66"/>
       <c r="AJ12" s="66"/>
       <c r="AK12" s="66"/>
-      <c r="AL12" s="67"/>
+      <c r="AL12" s="73"/>
     </row>
     <row r="13" spans="1:38" ht="15" customHeight="1">
-      <c r="A13" s="59"/>
-      <c r="B13" s="59"/>
+      <c r="A13" s="60"/>
+      <c r="B13" s="60"/>
       <c r="D13" s="19"/>
       <c r="E13" s="20"/>
       <c r="F13" s="21"/>
@@ -3143,20 +3143,20 @@
       <c r="AB13" s="17"/>
       <c r="AC13" s="17"/>
       <c r="AD13" s="6"/>
-      <c r="AE13" s="65"/>
+      <c r="AE13" s="72"/>
       <c r="AF13" s="66"/>
       <c r="AG13" s="66"/>
       <c r="AH13" s="66"/>
       <c r="AI13" s="66"/>
       <c r="AJ13" s="66"/>
       <c r="AK13" s="66"/>
-      <c r="AL13" s="67"/>
+      <c r="AL13" s="73"/>
     </row>
     <row r="14" spans="1:38" ht="15" customHeight="1">
-      <c r="A14" s="58" t="s">
+      <c r="A14" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="73"/>
+      <c r="B14" s="68"/>
       <c r="D14" s="22"/>
       <c r="E14" s="22"/>
       <c r="F14" s="22"/>
@@ -3184,18 +3184,18 @@
       <c r="AB14" s="17"/>
       <c r="AC14" s="17"/>
       <c r="AD14" s="6"/>
-      <c r="AE14" s="65"/>
+      <c r="AE14" s="72"/>
       <c r="AF14" s="66"/>
       <c r="AG14" s="66"/>
       <c r="AH14" s="66"/>
       <c r="AI14" s="66"/>
       <c r="AJ14" s="66"/>
       <c r="AK14" s="66"/>
-      <c r="AL14" s="67"/>
+      <c r="AL14" s="73"/>
     </row>
     <row r="15" spans="1:38" ht="15" customHeight="1">
-      <c r="A15" s="59"/>
-      <c r="B15" s="59"/>
+      <c r="A15" s="60"/>
+      <c r="B15" s="60"/>
       <c r="D15" s="19"/>
       <c r="E15" s="20"/>
       <c r="F15" s="21"/>
@@ -3223,20 +3223,20 @@
       <c r="AB15" s="17"/>
       <c r="AC15" s="17"/>
       <c r="AD15" s="6"/>
-      <c r="AE15" s="65"/>
+      <c r="AE15" s="72"/>
       <c r="AF15" s="66"/>
       <c r="AG15" s="66"/>
       <c r="AH15" s="66"/>
       <c r="AI15" s="66"/>
       <c r="AJ15" s="66"/>
       <c r="AK15" s="66"/>
-      <c r="AL15" s="67"/>
+      <c r="AL15" s="73"/>
     </row>
     <row r="16" spans="1:38" ht="15" customHeight="1">
-      <c r="A16" s="58" t="s">
+      <c r="A16" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="60"/>
+      <c r="B16" s="59"/>
       <c r="D16" s="22"/>
       <c r="E16" s="22"/>
       <c r="F16" s="22"/>
@@ -3264,18 +3264,18 @@
       <c r="AB16" s="17"/>
       <c r="AC16" s="17"/>
       <c r="AD16" s="6"/>
-      <c r="AE16" s="65"/>
+      <c r="AE16" s="72"/>
       <c r="AF16" s="66"/>
       <c r="AG16" s="66"/>
       <c r="AH16" s="66"/>
       <c r="AI16" s="66"/>
       <c r="AJ16" s="66"/>
       <c r="AK16" s="66"/>
-      <c r="AL16" s="67"/>
+      <c r="AL16" s="73"/>
     </row>
     <row r="17" spans="1:38" ht="15" customHeight="1">
-      <c r="A17" s="59"/>
-      <c r="B17" s="59"/>
+      <c r="A17" s="60"/>
+      <c r="B17" s="60"/>
       <c r="D17" s="19"/>
       <c r="E17" s="20"/>
       <c r="F17" s="21"/>
@@ -3303,20 +3303,20 @@
       <c r="AB17" s="17"/>
       <c r="AC17" s="17"/>
       <c r="AD17" s="6"/>
-      <c r="AE17" s="65"/>
+      <c r="AE17" s="72"/>
       <c r="AF17" s="66"/>
       <c r="AG17" s="66"/>
       <c r="AH17" s="66"/>
       <c r="AI17" s="66"/>
       <c r="AJ17" s="66"/>
       <c r="AK17" s="66"/>
-      <c r="AL17" s="67"/>
+      <c r="AL17" s="73"/>
     </row>
     <row r="18" spans="1:38" ht="15" customHeight="1">
-      <c r="A18" s="58" t="s">
+      <c r="A18" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="60"/>
+      <c r="B18" s="59"/>
       <c r="D18" s="22"/>
       <c r="E18" s="22"/>
       <c r="F18" s="22"/>
@@ -3344,18 +3344,18 @@
       <c r="AB18" s="17"/>
       <c r="AC18" s="17"/>
       <c r="AD18" s="6"/>
-      <c r="AE18" s="65"/>
+      <c r="AE18" s="72"/>
       <c r="AF18" s="66"/>
       <c r="AG18" s="66"/>
       <c r="AH18" s="66"/>
       <c r="AI18" s="66"/>
       <c r="AJ18" s="66"/>
       <c r="AK18" s="66"/>
-      <c r="AL18" s="67"/>
+      <c r="AL18" s="73"/>
     </row>
     <row r="19" spans="1:38" ht="15" customHeight="1">
-      <c r="A19" s="59"/>
-      <c r="B19" s="59"/>
+      <c r="A19" s="60"/>
+      <c r="B19" s="60"/>
       <c r="D19" s="19"/>
       <c r="E19" s="20"/>
       <c r="F19" s="21"/>
@@ -3383,20 +3383,20 @@
       <c r="AB19" s="17"/>
       <c r="AC19" s="17"/>
       <c r="AD19" s="6"/>
-      <c r="AE19" s="65"/>
+      <c r="AE19" s="72"/>
       <c r="AF19" s="66"/>
       <c r="AG19" s="66"/>
       <c r="AH19" s="66"/>
       <c r="AI19" s="66"/>
       <c r="AJ19" s="66"/>
       <c r="AK19" s="66"/>
-      <c r="AL19" s="67"/>
+      <c r="AL19" s="73"/>
     </row>
     <row r="20" spans="1:38" ht="15" customHeight="1">
-      <c r="A20" s="58" t="s">
+      <c r="A20" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="60"/>
+      <c r="B20" s="59"/>
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
@@ -3424,18 +3424,18 @@
       <c r="AB20" s="17"/>
       <c r="AC20" s="17"/>
       <c r="AD20" s="6"/>
-      <c r="AE20" s="65"/>
+      <c r="AE20" s="72"/>
       <c r="AF20" s="66"/>
       <c r="AG20" s="66"/>
       <c r="AH20" s="66"/>
       <c r="AI20" s="66"/>
       <c r="AJ20" s="66"/>
       <c r="AK20" s="66"/>
-      <c r="AL20" s="67"/>
+      <c r="AL20" s="73"/>
     </row>
     <row r="21" spans="1:38" ht="15" customHeight="1">
-      <c r="A21" s="59"/>
-      <c r="B21" s="59"/>
+      <c r="A21" s="60"/>
+      <c r="B21" s="60"/>
       <c r="D21" s="19"/>
       <c r="E21" s="20"/>
       <c r="F21" s="21"/>
@@ -3463,20 +3463,20 @@
       <c r="AB21" s="17"/>
       <c r="AC21" s="17"/>
       <c r="AD21" s="6"/>
-      <c r="AE21" s="65"/>
+      <c r="AE21" s="72"/>
       <c r="AF21" s="66"/>
       <c r="AG21" s="66"/>
       <c r="AH21" s="66"/>
       <c r="AI21" s="66"/>
       <c r="AJ21" s="66"/>
       <c r="AK21" s="66"/>
-      <c r="AL21" s="67"/>
+      <c r="AL21" s="73"/>
     </row>
     <row r="22" spans="1:38" ht="15" customHeight="1">
-      <c r="A22" s="58" t="s">
+      <c r="A22" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="60"/>
+      <c r="B22" s="59"/>
       <c r="D22" s="22"/>
       <c r="E22" s="22"/>
       <c r="F22" s="22"/>
@@ -3504,18 +3504,18 @@
       <c r="AB22" s="17"/>
       <c r="AC22" s="17"/>
       <c r="AD22" s="6"/>
-      <c r="AE22" s="65"/>
+      <c r="AE22" s="72"/>
       <c r="AF22" s="66"/>
       <c r="AG22" s="66"/>
       <c r="AH22" s="66"/>
       <c r="AI22" s="66"/>
       <c r="AJ22" s="66"/>
       <c r="AK22" s="66"/>
-      <c r="AL22" s="67"/>
+      <c r="AL22" s="73"/>
     </row>
     <row r="23" spans="1:38" ht="15" customHeight="1">
-      <c r="A23" s="59"/>
-      <c r="B23" s="59"/>
+      <c r="A23" s="60"/>
+      <c r="B23" s="60"/>
       <c r="D23" s="19"/>
       <c r="E23" s="20"/>
       <c r="F23" s="21"/>
@@ -3543,20 +3543,20 @@
       <c r="AB23" s="17"/>
       <c r="AC23" s="17"/>
       <c r="AD23" s="6"/>
-      <c r="AE23" s="65"/>
+      <c r="AE23" s="72"/>
       <c r="AF23" s="66"/>
       <c r="AG23" s="66"/>
       <c r="AH23" s="66"/>
       <c r="AI23" s="66"/>
       <c r="AJ23" s="66"/>
       <c r="AK23" s="66"/>
-      <c r="AL23" s="67"/>
+      <c r="AL23" s="73"/>
     </row>
     <row r="24" spans="1:38" ht="15" customHeight="1">
-      <c r="A24" s="58" t="s">
+      <c r="A24" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="60"/>
+      <c r="B24" s="59"/>
       <c r="D24" s="22"/>
       <c r="E24" s="22"/>
       <c r="F24" s="22"/>
@@ -3584,18 +3584,18 @@
       <c r="AB24" s="17"/>
       <c r="AC24" s="17"/>
       <c r="AD24" s="6"/>
-      <c r="AE24" s="65"/>
+      <c r="AE24" s="72"/>
       <c r="AF24" s="66"/>
       <c r="AG24" s="66"/>
       <c r="AH24" s="66"/>
       <c r="AI24" s="66"/>
       <c r="AJ24" s="66"/>
       <c r="AK24" s="66"/>
-      <c r="AL24" s="67"/>
+      <c r="AL24" s="73"/>
     </row>
     <row r="25" spans="1:38" ht="15" customHeight="1">
-      <c r="A25" s="59"/>
-      <c r="B25" s="59"/>
+      <c r="A25" s="60"/>
+      <c r="B25" s="60"/>
       <c r="D25" s="19"/>
       <c r="E25" s="20"/>
       <c r="F25" s="21"/>
@@ -3623,20 +3623,20 @@
       <c r="AB25" s="17"/>
       <c r="AC25" s="17"/>
       <c r="AD25" s="6"/>
-      <c r="AE25" s="65"/>
+      <c r="AE25" s="72"/>
       <c r="AF25" s="66"/>
       <c r="AG25" s="66"/>
       <c r="AH25" s="66"/>
       <c r="AI25" s="66"/>
       <c r="AJ25" s="66"/>
       <c r="AK25" s="66"/>
-      <c r="AL25" s="67"/>
+      <c r="AL25" s="73"/>
     </row>
     <row r="26" spans="1:38" ht="15" customHeight="1">
-      <c r="A26" s="58" t="s">
+      <c r="A26" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="60"/>
+      <c r="B26" s="59"/>
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>
       <c r="F26" s="22"/>
@@ -3664,18 +3664,18 @@
       <c r="AB26" s="17"/>
       <c r="AC26" s="17"/>
       <c r="AD26" s="6"/>
-      <c r="AE26" s="65"/>
+      <c r="AE26" s="72"/>
       <c r="AF26" s="66"/>
       <c r="AG26" s="66"/>
       <c r="AH26" s="66"/>
       <c r="AI26" s="66"/>
       <c r="AJ26" s="66"/>
       <c r="AK26" s="66"/>
-      <c r="AL26" s="67"/>
+      <c r="AL26" s="73"/>
     </row>
     <row r="27" spans="1:38" ht="15" customHeight="1">
-      <c r="A27" s="59"/>
-      <c r="B27" s="59"/>
+      <c r="A27" s="60"/>
+      <c r="B27" s="60"/>
       <c r="D27" s="19"/>
       <c r="E27" s="20"/>
       <c r="F27" s="21"/>
@@ -3703,20 +3703,20 @@
       <c r="AB27" s="17"/>
       <c r="AC27" s="17"/>
       <c r="AD27" s="6"/>
-      <c r="AE27" s="65"/>
+      <c r="AE27" s="72"/>
       <c r="AF27" s="66"/>
       <c r="AG27" s="66"/>
       <c r="AH27" s="66"/>
       <c r="AI27" s="66"/>
       <c r="AJ27" s="66"/>
       <c r="AK27" s="66"/>
-      <c r="AL27" s="67"/>
+      <c r="AL27" s="73"/>
     </row>
     <row r="28" spans="1:38" ht="15" customHeight="1">
-      <c r="A28" s="58" t="s">
+      <c r="A28" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="60"/>
+      <c r="B28" s="59"/>
       <c r="D28" s="22"/>
       <c r="E28" s="22"/>
       <c r="F28" s="22"/>
@@ -3744,18 +3744,18 @@
       <c r="AB28" s="17"/>
       <c r="AC28" s="17"/>
       <c r="AD28" s="6"/>
-      <c r="AE28" s="65"/>
+      <c r="AE28" s="72"/>
       <c r="AF28" s="66"/>
       <c r="AG28" s="66"/>
       <c r="AH28" s="66"/>
       <c r="AI28" s="66"/>
       <c r="AJ28" s="66"/>
       <c r="AK28" s="66"/>
-      <c r="AL28" s="67"/>
+      <c r="AL28" s="73"/>
     </row>
     <row r="29" spans="1:38" ht="15" customHeight="1">
-      <c r="A29" s="59"/>
-      <c r="B29" s="59"/>
+      <c r="A29" s="60"/>
+      <c r="B29" s="60"/>
       <c r="D29" s="19"/>
       <c r="E29" s="20"/>
       <c r="F29" s="21"/>
@@ -3783,20 +3783,20 @@
       <c r="AB29" s="17"/>
       <c r="AC29" s="17"/>
       <c r="AD29" s="6"/>
-      <c r="AE29" s="65"/>
+      <c r="AE29" s="72"/>
       <c r="AF29" s="66"/>
       <c r="AG29" s="66"/>
       <c r="AH29" s="66"/>
       <c r="AI29" s="66"/>
       <c r="AJ29" s="66"/>
       <c r="AK29" s="66"/>
-      <c r="AL29" s="67"/>
+      <c r="AL29" s="73"/>
     </row>
     <row r="30" spans="1:38" ht="15" customHeight="1">
-      <c r="A30" s="58" t="s">
+      <c r="A30" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="60"/>
+      <c r="B30" s="59"/>
       <c r="D30" s="22"/>
       <c r="E30" s="22"/>
       <c r="F30" s="22"/>
@@ -3824,18 +3824,18 @@
       <c r="AB30" s="17"/>
       <c r="AC30" s="17"/>
       <c r="AD30" s="6"/>
-      <c r="AE30" s="65"/>
+      <c r="AE30" s="72"/>
       <c r="AF30" s="66"/>
       <c r="AG30" s="66"/>
       <c r="AH30" s="66"/>
       <c r="AI30" s="66"/>
       <c r="AJ30" s="66"/>
       <c r="AK30" s="66"/>
-      <c r="AL30" s="67"/>
+      <c r="AL30" s="73"/>
     </row>
     <row r="31" spans="1:38" ht="15" customHeight="1">
-      <c r="A31" s="59"/>
-      <c r="B31" s="59"/>
+      <c r="A31" s="60"/>
+      <c r="B31" s="60"/>
       <c r="D31" s="19"/>
       <c r="E31" s="20"/>
       <c r="F31" s="21"/>
@@ -3863,20 +3863,20 @@
       <c r="AB31" s="17"/>
       <c r="AC31" s="17"/>
       <c r="AD31" s="6"/>
-      <c r="AE31" s="65"/>
+      <c r="AE31" s="72"/>
       <c r="AF31" s="66"/>
       <c r="AG31" s="66"/>
       <c r="AH31" s="66"/>
       <c r="AI31" s="66"/>
       <c r="AJ31" s="66"/>
       <c r="AK31" s="66"/>
-      <c r="AL31" s="67"/>
+      <c r="AL31" s="73"/>
     </row>
     <row r="32" spans="1:38" ht="15" customHeight="1">
-      <c r="A32" s="58" t="s">
+      <c r="A32" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="82"/>
+      <c r="B32" s="86"/>
       <c r="D32" s="22"/>
       <c r="E32" s="22"/>
       <c r="F32" s="22"/>
@@ -3904,18 +3904,18 @@
       <c r="AB32" s="17"/>
       <c r="AC32" s="17"/>
       <c r="AD32" s="6"/>
-      <c r="AE32" s="65"/>
+      <c r="AE32" s="72"/>
       <c r="AF32" s="66"/>
       <c r="AG32" s="66"/>
       <c r="AH32" s="66"/>
       <c r="AI32" s="66"/>
       <c r="AJ32" s="66"/>
       <c r="AK32" s="66"/>
-      <c r="AL32" s="67"/>
+      <c r="AL32" s="73"/>
     </row>
     <row r="33" spans="1:38" ht="15" customHeight="1">
-      <c r="A33" s="59"/>
-      <c r="B33" s="59"/>
+      <c r="A33" s="60"/>
+      <c r="B33" s="60"/>
       <c r="D33" s="19"/>
       <c r="E33" s="20"/>
       <c r="F33" s="21"/>
@@ -3943,20 +3943,20 @@
       <c r="AB33" s="17"/>
       <c r="AC33" s="17"/>
       <c r="AD33" s="6"/>
-      <c r="AE33" s="65"/>
+      <c r="AE33" s="72"/>
       <c r="AF33" s="66"/>
       <c r="AG33" s="66"/>
       <c r="AH33" s="66"/>
       <c r="AI33" s="66"/>
       <c r="AJ33" s="66"/>
       <c r="AK33" s="66"/>
-      <c r="AL33" s="67"/>
+      <c r="AL33" s="73"/>
     </row>
     <row r="34" spans="1:38" ht="15" customHeight="1">
-      <c r="A34" s="58" t="s">
+      <c r="A34" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="83"/>
+      <c r="B34" s="87"/>
       <c r="D34" s="22"/>
       <c r="E34" s="22"/>
       <c r="F34" s="22"/>
@@ -3984,18 +3984,18 @@
       <c r="AB34" s="17"/>
       <c r="AC34" s="17"/>
       <c r="AD34" s="6"/>
-      <c r="AE34" s="65"/>
+      <c r="AE34" s="72"/>
       <c r="AF34" s="66"/>
       <c r="AG34" s="66"/>
       <c r="AH34" s="66"/>
       <c r="AI34" s="66"/>
       <c r="AJ34" s="66"/>
       <c r="AK34" s="66"/>
-      <c r="AL34" s="67"/>
+      <c r="AL34" s="73"/>
     </row>
     <row r="35" spans="1:38" ht="15" customHeight="1">
-      <c r="A35" s="59"/>
-      <c r="B35" s="59"/>
+      <c r="A35" s="60"/>
+      <c r="B35" s="60"/>
       <c r="D35" s="19"/>
       <c r="E35" s="20"/>
       <c r="F35" s="21"/>
@@ -4023,20 +4023,20 @@
       <c r="AB35" s="17"/>
       <c r="AC35" s="17"/>
       <c r="AD35" s="6"/>
-      <c r="AE35" s="68"/>
-      <c r="AF35" s="69"/>
-      <c r="AG35" s="69"/>
-      <c r="AH35" s="69"/>
-      <c r="AI35" s="69"/>
-      <c r="AJ35" s="69"/>
-      <c r="AK35" s="69"/>
-      <c r="AL35" s="70"/>
+      <c r="AE35" s="74"/>
+      <c r="AF35" s="75"/>
+      <c r="AG35" s="75"/>
+      <c r="AH35" s="75"/>
+      <c r="AI35" s="75"/>
+      <c r="AJ35" s="75"/>
+      <c r="AK35" s="75"/>
+      <c r="AL35" s="76"/>
     </row>
     <row r="36" spans="1:38" ht="15" customHeight="1">
-      <c r="A36" s="58" t="s">
+      <c r="A36" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="60"/>
+      <c r="B36" s="59"/>
       <c r="D36" s="22"/>
       <c r="E36" s="22"/>
       <c r="F36" s="22"/>
@@ -4074,8 +4074,8 @@
       <c r="AL36" s="6"/>
     </row>
     <row r="37" spans="1:38" ht="15" customHeight="1">
-      <c r="A37" s="59"/>
-      <c r="B37" s="59"/>
+      <c r="A37" s="60"/>
+      <c r="B37" s="60"/>
       <c r="D37" s="19"/>
       <c r="E37" s="20"/>
       <c r="F37" s="21"/>
@@ -4113,10 +4113,10 @@
       <c r="AL37" s="6"/>
     </row>
     <row r="38" spans="1:38" ht="15" customHeight="1">
-      <c r="A38" s="58" t="s">
+      <c r="A38" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="60"/>
+      <c r="B38" s="59"/>
       <c r="D38" s="22"/>
       <c r="E38" s="22"/>
       <c r="F38" s="22"/>
@@ -4154,8 +4154,8 @@
       <c r="AL38" s="6"/>
     </row>
     <row r="39" spans="1:38" ht="15" customHeight="1">
-      <c r="A39" s="59"/>
-      <c r="B39" s="59"/>
+      <c r="A39" s="60"/>
+      <c r="B39" s="60"/>
       <c r="D39" s="19"/>
       <c r="E39" s="20"/>
       <c r="F39" s="21"/>
@@ -4183,22 +4183,22 @@
       <c r="AB39" s="17"/>
       <c r="AC39" s="17"/>
       <c r="AD39" s="6"/>
-      <c r="AE39" s="74" t="s">
+      <c r="AE39" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="AF39" s="75"/>
-      <c r="AG39" s="75"/>
-      <c r="AH39" s="75"/>
-      <c r="AI39" s="75"/>
-      <c r="AJ39" s="75"/>
-      <c r="AK39" s="75"/>
-      <c r="AL39" s="76"/>
+      <c r="AF39" s="79"/>
+      <c r="AG39" s="79"/>
+      <c r="AH39" s="79"/>
+      <c r="AI39" s="79"/>
+      <c r="AJ39" s="79"/>
+      <c r="AK39" s="79"/>
+      <c r="AL39" s="80"/>
     </row>
     <row r="40" spans="1:38" ht="15" customHeight="1">
-      <c r="A40" s="58" t="s">
+      <c r="A40" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="60"/>
+      <c r="B40" s="59"/>
       <c r="D40" s="22"/>
       <c r="E40" s="22"/>
       <c r="F40" s="22"/>
@@ -4226,18 +4226,18 @@
       <c r="AB40" s="17"/>
       <c r="AC40" s="17"/>
       <c r="AD40" s="6"/>
-      <c r="AE40" s="77"/>
+      <c r="AE40" s="81"/>
       <c r="AF40" s="66"/>
       <c r="AG40" s="66"/>
       <c r="AH40" s="66"/>
       <c r="AI40" s="66"/>
       <c r="AJ40" s="66"/>
       <c r="AK40" s="66"/>
-      <c r="AL40" s="78"/>
+      <c r="AL40" s="82"/>
     </row>
     <row r="41" spans="1:38" ht="15" customHeight="1">
-      <c r="A41" s="59"/>
-      <c r="B41" s="59"/>
+      <c r="A41" s="60"/>
+      <c r="B41" s="60"/>
       <c r="D41" s="19"/>
       <c r="E41" s="20"/>
       <c r="F41" s="21"/>
@@ -4265,20 +4265,20 @@
       <c r="AB41" s="17"/>
       <c r="AC41" s="17"/>
       <c r="AD41" s="6"/>
-      <c r="AE41" s="77"/>
+      <c r="AE41" s="81"/>
       <c r="AF41" s="66"/>
       <c r="AG41" s="66"/>
       <c r="AH41" s="66"/>
       <c r="AI41" s="66"/>
       <c r="AJ41" s="66"/>
       <c r="AK41" s="66"/>
-      <c r="AL41" s="78"/>
+      <c r="AL41" s="82"/>
     </row>
     <row r="42" spans="1:38" ht="15" customHeight="1">
-      <c r="A42" s="58" t="s">
+      <c r="A42" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="B42" s="60"/>
+      <c r="B42" s="59"/>
       <c r="D42" s="22"/>
       <c r="E42" s="22"/>
       <c r="F42" s="22"/>
@@ -4306,18 +4306,18 @@
       <c r="AB42" s="17"/>
       <c r="AC42" s="17"/>
       <c r="AD42" s="6"/>
-      <c r="AE42" s="77"/>
+      <c r="AE42" s="81"/>
       <c r="AF42" s="66"/>
       <c r="AG42" s="66"/>
       <c r="AH42" s="66"/>
       <c r="AI42" s="66"/>
       <c r="AJ42" s="66"/>
       <c r="AK42" s="66"/>
-      <c r="AL42" s="78"/>
+      <c r="AL42" s="82"/>
     </row>
     <row r="43" spans="1:38" ht="15" customHeight="1">
-      <c r="A43" s="59"/>
-      <c r="B43" s="59"/>
+      <c r="A43" s="60"/>
+      <c r="B43" s="60"/>
       <c r="D43" s="19"/>
       <c r="E43" s="20"/>
       <c r="F43" s="21"/>
@@ -4345,20 +4345,20 @@
       <c r="AB43" s="17"/>
       <c r="AC43" s="17"/>
       <c r="AD43" s="6"/>
-      <c r="AE43" s="77"/>
+      <c r="AE43" s="81"/>
       <c r="AF43" s="66"/>
       <c r="AG43" s="66"/>
       <c r="AH43" s="66"/>
       <c r="AI43" s="66"/>
       <c r="AJ43" s="66"/>
       <c r="AK43" s="66"/>
-      <c r="AL43" s="78"/>
+      <c r="AL43" s="82"/>
     </row>
     <row r="44" spans="1:38" ht="15" customHeight="1">
-      <c r="A44" s="58" t="s">
+      <c r="A44" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="B44" s="87"/>
+      <c r="B44" s="67"/>
       <c r="D44" s="22"/>
       <c r="E44" s="22"/>
       <c r="F44" s="22"/>
@@ -4386,18 +4386,18 @@
       <c r="AB44" s="17"/>
       <c r="AC44" s="17"/>
       <c r="AD44" s="6"/>
-      <c r="AE44" s="77"/>
+      <c r="AE44" s="81"/>
       <c r="AF44" s="66"/>
       <c r="AG44" s="66"/>
       <c r="AH44" s="66"/>
       <c r="AI44" s="66"/>
       <c r="AJ44" s="66"/>
       <c r="AK44" s="66"/>
-      <c r="AL44" s="78"/>
+      <c r="AL44" s="82"/>
     </row>
     <row r="45" spans="1:38" ht="15" customHeight="1">
-      <c r="A45" s="59"/>
-      <c r="B45" s="59"/>
+      <c r="A45" s="60"/>
+      <c r="B45" s="60"/>
       <c r="D45" s="19"/>
       <c r="E45" s="20"/>
       <c r="F45" s="21"/>
@@ -4425,20 +4425,20 @@
       <c r="AB45" s="17"/>
       <c r="AC45" s="17"/>
       <c r="AD45" s="6"/>
-      <c r="AE45" s="77"/>
+      <c r="AE45" s="81"/>
       <c r="AF45" s="66"/>
       <c r="AG45" s="66"/>
       <c r="AH45" s="66"/>
       <c r="AI45" s="66"/>
       <c r="AJ45" s="66"/>
       <c r="AK45" s="66"/>
-      <c r="AL45" s="78"/>
+      <c r="AL45" s="82"/>
     </row>
     <row r="46" spans="1:38" ht="15" customHeight="1">
-      <c r="A46" s="58" t="s">
+      <c r="A46" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="60"/>
+      <c r="B46" s="59"/>
       <c r="D46" s="22"/>
       <c r="E46" s="22"/>
       <c r="F46" s="22"/>
@@ -4466,18 +4466,18 @@
       <c r="AB46" s="17"/>
       <c r="AC46" s="17"/>
       <c r="AD46" s="6"/>
-      <c r="AE46" s="77"/>
+      <c r="AE46" s="81"/>
       <c r="AF46" s="66"/>
       <c r="AG46" s="66"/>
       <c r="AH46" s="66"/>
       <c r="AI46" s="66"/>
       <c r="AJ46" s="66"/>
       <c r="AK46" s="66"/>
-      <c r="AL46" s="78"/>
+      <c r="AL46" s="82"/>
     </row>
     <row r="47" spans="1:38" ht="15" customHeight="1">
-      <c r="A47" s="59"/>
-      <c r="B47" s="59"/>
+      <c r="A47" s="60"/>
+      <c r="B47" s="60"/>
       <c r="D47" s="19"/>
       <c r="E47" s="20"/>
       <c r="F47" s="21"/>
@@ -4505,20 +4505,20 @@
       <c r="AB47" s="17"/>
       <c r="AC47" s="17"/>
       <c r="AD47" s="6"/>
-      <c r="AE47" s="77"/>
+      <c r="AE47" s="81"/>
       <c r="AF47" s="66"/>
       <c r="AG47" s="66"/>
       <c r="AH47" s="66"/>
       <c r="AI47" s="66"/>
       <c r="AJ47" s="66"/>
       <c r="AK47" s="66"/>
-      <c r="AL47" s="78"/>
+      <c r="AL47" s="82"/>
     </row>
     <row r="48" spans="1:38" ht="15" customHeight="1">
-      <c r="A48" s="58" t="s">
+      <c r="A48" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="B48" s="60"/>
+      <c r="B48" s="59"/>
       <c r="D48" s="22"/>
       <c r="E48" s="22"/>
       <c r="F48" s="22"/>
@@ -4546,18 +4546,18 @@
       <c r="AB48" s="17"/>
       <c r="AC48" s="17"/>
       <c r="AD48" s="6"/>
-      <c r="AE48" s="77"/>
+      <c r="AE48" s="81"/>
       <c r="AF48" s="66"/>
       <c r="AG48" s="66"/>
       <c r="AH48" s="66"/>
       <c r="AI48" s="66"/>
       <c r="AJ48" s="66"/>
       <c r="AK48" s="66"/>
-      <c r="AL48" s="78"/>
+      <c r="AL48" s="82"/>
     </row>
     <row r="49" spans="1:38" ht="15" customHeight="1">
-      <c r="A49" s="59"/>
-      <c r="B49" s="59"/>
+      <c r="A49" s="60"/>
+      <c r="B49" s="60"/>
       <c r="D49" s="19"/>
       <c r="E49" s="20"/>
       <c r="F49" s="21"/>
@@ -4585,20 +4585,20 @@
       <c r="AB49" s="17"/>
       <c r="AC49" s="17"/>
       <c r="AD49" s="6"/>
-      <c r="AE49" s="77"/>
+      <c r="AE49" s="81"/>
       <c r="AF49" s="66"/>
       <c r="AG49" s="66"/>
       <c r="AH49" s="66"/>
       <c r="AI49" s="66"/>
       <c r="AJ49" s="66"/>
       <c r="AK49" s="66"/>
-      <c r="AL49" s="78"/>
+      <c r="AL49" s="82"/>
     </row>
     <row r="50" spans="1:38" ht="15" customHeight="1">
-      <c r="A50" s="58" t="s">
+      <c r="A50" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="B50" s="60"/>
+      <c r="B50" s="59"/>
       <c r="D50" s="22"/>
       <c r="E50" s="22"/>
       <c r="F50" s="22"/>
@@ -4626,18 +4626,18 @@
       <c r="AB50" s="17"/>
       <c r="AC50" s="17"/>
       <c r="AD50" s="6"/>
-      <c r="AE50" s="77"/>
+      <c r="AE50" s="81"/>
       <c r="AF50" s="66"/>
       <c r="AG50" s="66"/>
       <c r="AH50" s="66"/>
       <c r="AI50" s="66"/>
       <c r="AJ50" s="66"/>
       <c r="AK50" s="66"/>
-      <c r="AL50" s="78"/>
+      <c r="AL50" s="82"/>
     </row>
     <row r="51" spans="1:38" ht="15" customHeight="1">
-      <c r="A51" s="59"/>
-      <c r="B51" s="59"/>
+      <c r="A51" s="60"/>
+      <c r="B51" s="60"/>
       <c r="D51" s="19"/>
       <c r="E51" s="20"/>
       <c r="F51" s="21"/>
@@ -4665,20 +4665,20 @@
       <c r="AB51" s="17"/>
       <c r="AC51" s="17"/>
       <c r="AD51" s="6"/>
-      <c r="AE51" s="77"/>
+      <c r="AE51" s="81"/>
       <c r="AF51" s="66"/>
       <c r="AG51" s="66"/>
       <c r="AH51" s="66"/>
       <c r="AI51" s="66"/>
       <c r="AJ51" s="66"/>
       <c r="AK51" s="66"/>
-      <c r="AL51" s="78"/>
+      <c r="AL51" s="82"/>
     </row>
     <row r="52" spans="1:38" ht="15" customHeight="1">
-      <c r="A52" s="58" t="s">
+      <c r="A52" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="B52" s="60"/>
+      <c r="B52" s="59"/>
       <c r="D52" s="22"/>
       <c r="E52" s="22"/>
       <c r="F52" s="22"/>
@@ -4706,18 +4706,18 @@
       <c r="AB52" s="17"/>
       <c r="AC52" s="17"/>
       <c r="AD52" s="6"/>
-      <c r="AE52" s="77"/>
+      <c r="AE52" s="81"/>
       <c r="AF52" s="66"/>
       <c r="AG52" s="66"/>
       <c r="AH52" s="66"/>
       <c r="AI52" s="66"/>
       <c r="AJ52" s="66"/>
       <c r="AK52" s="66"/>
-      <c r="AL52" s="78"/>
+      <c r="AL52" s="82"/>
     </row>
     <row r="53" spans="1:38" ht="15" customHeight="1">
-      <c r="A53" s="59"/>
-      <c r="B53" s="59"/>
+      <c r="A53" s="60"/>
+      <c r="B53" s="60"/>
       <c r="D53" s="19"/>
       <c r="E53" s="20"/>
       <c r="F53" s="21"/>
@@ -4745,20 +4745,20 @@
       <c r="AB53" s="17"/>
       <c r="AC53" s="17"/>
       <c r="AD53" s="6"/>
-      <c r="AE53" s="77"/>
+      <c r="AE53" s="81"/>
       <c r="AF53" s="66"/>
       <c r="AG53" s="66"/>
       <c r="AH53" s="66"/>
       <c r="AI53" s="66"/>
       <c r="AJ53" s="66"/>
       <c r="AK53" s="66"/>
-      <c r="AL53" s="78"/>
+      <c r="AL53" s="82"/>
     </row>
     <row r="54" spans="1:38" ht="15" customHeight="1">
-      <c r="A54" s="58" t="s">
+      <c r="A54" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="B54" s="60"/>
+      <c r="B54" s="59"/>
       <c r="D54" s="22"/>
       <c r="E54" s="22"/>
       <c r="F54" s="22"/>
@@ -4786,18 +4786,18 @@
       <c r="AB54" s="17"/>
       <c r="AC54" s="17"/>
       <c r="AD54" s="6"/>
-      <c r="AE54" s="77"/>
+      <c r="AE54" s="81"/>
       <c r="AF54" s="66"/>
       <c r="AG54" s="66"/>
       <c r="AH54" s="66"/>
       <c r="AI54" s="66"/>
       <c r="AJ54" s="66"/>
       <c r="AK54" s="66"/>
-      <c r="AL54" s="78"/>
+      <c r="AL54" s="82"/>
     </row>
     <row r="55" spans="1:38" ht="15" customHeight="1">
-      <c r="A55" s="59"/>
-      <c r="B55" s="59"/>
+      <c r="A55" s="60"/>
+      <c r="B55" s="60"/>
       <c r="D55" s="19"/>
       <c r="E55" s="20"/>
       <c r="F55" s="21"/>
@@ -4825,20 +4825,20 @@
       <c r="AB55" s="17"/>
       <c r="AC55" s="17"/>
       <c r="AD55" s="6"/>
-      <c r="AE55" s="77"/>
+      <c r="AE55" s="81"/>
       <c r="AF55" s="66"/>
       <c r="AG55" s="66"/>
       <c r="AH55" s="66"/>
       <c r="AI55" s="66"/>
       <c r="AJ55" s="66"/>
       <c r="AK55" s="66"/>
-      <c r="AL55" s="78"/>
+      <c r="AL55" s="82"/>
     </row>
     <row r="56" spans="1:38" ht="15" customHeight="1">
-      <c r="A56" s="58" t="s">
+      <c r="A56" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="B56" s="60"/>
+      <c r="B56" s="59"/>
       <c r="D56" s="22"/>
       <c r="E56" s="22"/>
       <c r="F56" s="22"/>
@@ -4866,18 +4866,18 @@
       <c r="AB56" s="17"/>
       <c r="AC56" s="17"/>
       <c r="AD56" s="6"/>
-      <c r="AE56" s="79"/>
-      <c r="AF56" s="80"/>
-      <c r="AG56" s="80"/>
-      <c r="AH56" s="80"/>
-      <c r="AI56" s="80"/>
-      <c r="AJ56" s="80"/>
-      <c r="AK56" s="80"/>
-      <c r="AL56" s="81"/>
+      <c r="AE56" s="83"/>
+      <c r="AF56" s="84"/>
+      <c r="AG56" s="84"/>
+      <c r="AH56" s="84"/>
+      <c r="AI56" s="84"/>
+      <c r="AJ56" s="84"/>
+      <c r="AK56" s="84"/>
+      <c r="AL56" s="85"/>
     </row>
     <row r="57" spans="1:38" ht="15" customHeight="1">
-      <c r="A57" s="59"/>
-      <c r="B57" s="59"/>
+      <c r="A57" s="60"/>
+      <c r="B57" s="60"/>
       <c r="D57" s="19"/>
       <c r="E57" s="20"/>
       <c r="F57" s="21"/>
@@ -4917,10 +4917,10 @@
       <c r="AL57" s="38"/>
     </row>
     <row r="58" spans="1:38" ht="15" customHeight="1">
-      <c r="A58" s="58" t="s">
+      <c r="A58" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="B58" s="60"/>
+      <c r="B58" s="59"/>
       <c r="D58" s="22"/>
       <c r="E58" s="22"/>
       <c r="F58" s="22"/>
@@ -4960,8 +4960,8 @@
       <c r="AL58" s="38"/>
     </row>
     <row r="59" spans="1:38" ht="15" customHeight="1">
-      <c r="A59" s="59"/>
-      <c r="B59" s="59"/>
+      <c r="A59" s="60"/>
+      <c r="B59" s="60"/>
       <c r="D59" s="19"/>
       <c r="E59" s="20"/>
       <c r="F59" s="21"/>
@@ -5001,8 +5001,8 @@
       <c r="AL59" s="38"/>
     </row>
     <row r="60" spans="1:38" ht="15" customHeight="1">
-      <c r="A60" s="61"/>
-      <c r="B60" s="61"/>
+      <c r="A60" s="88"/>
+      <c r="B60" s="88"/>
       <c r="D60" s="22"/>
       <c r="E60" s="22"/>
       <c r="F60" s="22"/>
@@ -5042,8 +5042,8 @@
       <c r="AL60" s="38"/>
     </row>
     <row r="61" spans="1:38" ht="15" customHeight="1">
-      <c r="A61" s="59"/>
-      <c r="B61" s="59"/>
+      <c r="A61" s="60"/>
+      <c r="B61" s="60"/>
       <c r="D61" s="19"/>
       <c r="E61" s="20"/>
       <c r="F61" s="21"/>
@@ -5083,8 +5083,8 @@
       <c r="AL61" s="38"/>
     </row>
     <row r="62" spans="1:38" ht="15" customHeight="1">
-      <c r="A62" s="61"/>
-      <c r="B62" s="61"/>
+      <c r="A62" s="88"/>
+      <c r="B62" s="88"/>
       <c r="D62" s="22"/>
       <c r="E62" s="22"/>
       <c r="F62" s="22"/>
@@ -5124,8 +5124,8 @@
       <c r="AL62" s="38"/>
     </row>
     <row r="63" spans="1:38" ht="15" customHeight="1">
-      <c r="A63" s="59"/>
-      <c r="B63" s="59"/>
+      <c r="A63" s="60"/>
+      <c r="B63" s="60"/>
       <c r="D63" s="19"/>
       <c r="E63" s="20"/>
       <c r="F63" s="21"/>
@@ -5163,8 +5163,8 @@
       <c r="AL63" s="38"/>
     </row>
     <row r="64" spans="1:38" ht="15" customHeight="1">
-      <c r="A64" s="61"/>
-      <c r="B64" s="61"/>
+      <c r="A64" s="88"/>
+      <c r="B64" s="88"/>
       <c r="D64" s="22"/>
       <c r="E64" s="22"/>
       <c r="F64" s="22"/>
@@ -5205,8 +5205,8 @@
       <c r="AL64" s="50"/>
     </row>
     <row r="65" spans="1:30" ht="15" customHeight="1">
-      <c r="A65" s="59"/>
-      <c r="B65" s="59"/>
+      <c r="A65" s="60"/>
+      <c r="B65" s="60"/>
       <c r="D65" s="19"/>
       <c r="E65" s="20"/>
       <c r="F65" s="21"/>
@@ -8083,28 +8083,32 @@
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="B60:B61"/>
     <mergeCell ref="AE3:AL35"/>
     <mergeCell ref="D4:G4"/>
     <mergeCell ref="B6:B7"/>
@@ -8121,33 +8125,29 @@
     <mergeCell ref="B52:B53"/>
     <mergeCell ref="B54:B55"/>
     <mergeCell ref="B46:B47"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
     <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A12:A13"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="86" orientation="portrait"/>
@@ -8163,8 +8163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AK1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S44" sqref="S44"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -8209,12 +8209,12 @@
       <c r="X1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="Y1" s="84">
+      <c r="Y1" s="62">
         <v>2026</v>
       </c>
-      <c r="Z1" s="85"/>
-      <c r="AA1" s="85"/>
-      <c r="AB1" s="86"/>
+      <c r="Z1" s="63"/>
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="64"/>
       <c r="AC1" s="6"/>
       <c r="AD1" s="4" t="s">
         <v>2</v>
@@ -8333,16 +8333,16 @@
         <v>25</v>
       </c>
       <c r="AC3" s="6"/>
-      <c r="AD3" s="62" t="s">
+      <c r="AD3" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="AE3" s="63"/>
-      <c r="AF3" s="63"/>
-      <c r="AG3" s="63"/>
-      <c r="AH3" s="63"/>
-      <c r="AI3" s="63"/>
-      <c r="AJ3" s="63"/>
-      <c r="AK3" s="64"/>
+      <c r="AE3" s="70"/>
+      <c r="AF3" s="70"/>
+      <c r="AG3" s="70"/>
+      <c r="AH3" s="70"/>
+      <c r="AI3" s="70"/>
+      <c r="AJ3" s="70"/>
+      <c r="AK3" s="71"/>
     </row>
     <row r="4" spans="1:37" ht="14.25" customHeight="1">
       <c r="F4" s="12"/>
@@ -8368,14 +8368,14 @@
       <c r="AA4" s="12"/>
       <c r="AB4" s="12"/>
       <c r="AC4" s="6"/>
-      <c r="AD4" s="65"/>
+      <c r="AD4" s="72"/>
       <c r="AE4" s="66"/>
       <c r="AF4" s="66"/>
       <c r="AG4" s="66"/>
       <c r="AH4" s="66"/>
       <c r="AI4" s="66"/>
       <c r="AJ4" s="66"/>
-      <c r="AK4" s="67"/>
+      <c r="AK4" s="73"/>
     </row>
     <row r="5" spans="1:37" ht="14.25" customHeight="1">
       <c r="A5" s="8" t="s">
@@ -8421,20 +8421,20 @@
       <c r="AA5" s="12"/>
       <c r="AB5" s="16"/>
       <c r="AC5" s="6"/>
-      <c r="AD5" s="65"/>
+      <c r="AD5" s="72"/>
       <c r="AE5" s="66"/>
       <c r="AF5" s="66"/>
       <c r="AG5" s="66"/>
       <c r="AH5" s="66"/>
       <c r="AI5" s="66"/>
       <c r="AJ5" s="66"/>
-      <c r="AK5" s="67"/>
+      <c r="AK5" s="73"/>
     </row>
     <row r="6" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="88" t="s">
+      <c r="B6" s="91" t="s">
         <v>64</v>
       </c>
       <c r="D6" s="8"/>
@@ -8466,18 +8466,18 @@
       <c r="AA6" s="17"/>
       <c r="AB6" s="17"/>
       <c r="AC6" s="6"/>
-      <c r="AD6" s="65"/>
+      <c r="AD6" s="72"/>
       <c r="AE6" s="66"/>
       <c r="AF6" s="66"/>
       <c r="AG6" s="66"/>
       <c r="AH6" s="66"/>
       <c r="AI6" s="66"/>
       <c r="AJ6" s="66"/>
-      <c r="AK6" s="67"/>
+      <c r="AK6" s="73"/>
     </row>
     <row r="7" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A7" s="59"/>
-      <c r="B7" s="59"/>
+      <c r="A7" s="60"/>
+      <c r="B7" s="60"/>
       <c r="D7" s="54" t="s">
         <v>65</v>
       </c>
@@ -8513,17 +8513,17 @@
       <c r="AA7" s="17"/>
       <c r="AB7" s="17"/>
       <c r="AC7" s="6"/>
-      <c r="AD7" s="65"/>
+      <c r="AD7" s="72"/>
       <c r="AE7" s="66"/>
       <c r="AF7" s="66"/>
       <c r="AG7" s="66"/>
       <c r="AH7" s="66"/>
       <c r="AI7" s="66"/>
       <c r="AJ7" s="66"/>
-      <c r="AK7" s="67"/>
+      <c r="AK7" s="73"/>
     </row>
     <row r="8" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A8" s="58" t="s">
+      <c r="A8" s="61" t="s">
         <v>52</v>
       </c>
       <c r="B8" s="90" t="s">
@@ -8558,18 +8558,18 @@
       <c r="AA8" s="17"/>
       <c r="AB8" s="17"/>
       <c r="AC8" s="6"/>
-      <c r="AD8" s="65"/>
+      <c r="AD8" s="72"/>
       <c r="AE8" s="66"/>
       <c r="AF8" s="66"/>
       <c r="AG8" s="66"/>
       <c r="AH8" s="66"/>
       <c r="AI8" s="66"/>
       <c r="AJ8" s="66"/>
-      <c r="AK8" s="67"/>
+      <c r="AK8" s="73"/>
     </row>
     <row r="9" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A9" s="59"/>
-      <c r="B9" s="59"/>
+      <c r="A9" s="60"/>
+      <c r="B9" s="60"/>
       <c r="D9" s="54" t="s">
         <v>65</v>
       </c>
@@ -8579,8 +8579,8 @@
         <f t="array" aca="1" ref="G9" ca="1">IF(ISBLANK(INDIRECT(ADDRESS(ROW()-1,1,2,TRUE()))),"",IF((INDIRECT(ADDRESS(3,COLUMN(),2,1))="g"),"g"," "))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
       <c r="J9" s="17"/>
       <c r="K9" s="17"/>
       <c r="L9" s="18"/>
@@ -8601,17 +8601,17 @@
       <c r="AA9" s="17"/>
       <c r="AB9" s="17"/>
       <c r="AC9" s="6"/>
-      <c r="AD9" s="65"/>
+      <c r="AD9" s="72"/>
       <c r="AE9" s="66"/>
       <c r="AF9" s="66"/>
       <c r="AG9" s="66"/>
       <c r="AH9" s="66"/>
       <c r="AI9" s="66"/>
       <c r="AJ9" s="66"/>
-      <c r="AK9" s="67"/>
+      <c r="AK9" s="73"/>
     </row>
     <row r="10" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="61" t="s">
         <v>53</v>
       </c>
       <c r="B10" s="90" t="s">
@@ -8646,18 +8646,18 @@
       <c r="AA10" s="17"/>
       <c r="AB10" s="17"/>
       <c r="AC10" s="6"/>
-      <c r="AD10" s="65"/>
+      <c r="AD10" s="72"/>
       <c r="AE10" s="66"/>
       <c r="AF10" s="66"/>
       <c r="AG10" s="66"/>
       <c r="AH10" s="66"/>
       <c r="AI10" s="66"/>
       <c r="AJ10" s="66"/>
-      <c r="AK10" s="67"/>
+      <c r="AK10" s="73"/>
     </row>
     <row r="11" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A11" s="59"/>
-      <c r="B11" s="59"/>
+      <c r="A11" s="60"/>
+      <c r="B11" s="60"/>
       <c r="D11" s="54" t="s">
         <v>65</v>
       </c>
@@ -8689,17 +8689,17 @@
       <c r="AA11" s="17"/>
       <c r="AB11" s="17"/>
       <c r="AC11" s="6"/>
-      <c r="AD11" s="65"/>
+      <c r="AD11" s="72"/>
       <c r="AE11" s="66"/>
       <c r="AF11" s="66"/>
       <c r="AG11" s="66"/>
       <c r="AH11" s="66"/>
       <c r="AI11" s="66"/>
       <c r="AJ11" s="66"/>
-      <c r="AK11" s="67"/>
+      <c r="AK11" s="73"/>
     </row>
     <row r="12" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A12" s="58" t="s">
+      <c r="A12" s="61" t="s">
         <v>54</v>
       </c>
       <c r="B12" s="90" t="s">
@@ -8734,18 +8734,18 @@
       <c r="AA12" s="17"/>
       <c r="AB12" s="17"/>
       <c r="AC12" s="6"/>
-      <c r="AD12" s="65"/>
+      <c r="AD12" s="72"/>
       <c r="AE12" s="66"/>
       <c r="AF12" s="66"/>
       <c r="AG12" s="66"/>
       <c r="AH12" s="66"/>
       <c r="AI12" s="66"/>
       <c r="AJ12" s="66"/>
-      <c r="AK12" s="67"/>
+      <c r="AK12" s="73"/>
     </row>
     <row r="13" spans="1:37" ht="17.25" customHeight="1">
-      <c r="A13" s="59"/>
-      <c r="B13" s="59"/>
+      <c r="A13" s="60"/>
+      <c r="B13" s="60"/>
       <c r="D13" s="54" t="s">
         <v>65</v>
       </c>
@@ -8777,17 +8777,17 @@
       <c r="AA13" s="17"/>
       <c r="AB13" s="17"/>
       <c r="AC13" s="6"/>
-      <c r="AD13" s="65"/>
+      <c r="AD13" s="72"/>
       <c r="AE13" s="66"/>
       <c r="AF13" s="66"/>
       <c r="AG13" s="66"/>
       <c r="AH13" s="66"/>
       <c r="AI13" s="66"/>
       <c r="AJ13" s="66"/>
-      <c r="AK13" s="67"/>
+      <c r="AK13" s="73"/>
     </row>
     <row r="14" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A14" s="58" t="s">
+      <c r="A14" s="61" t="s">
         <v>55</v>
       </c>
       <c r="B14" s="90" t="s">
@@ -8822,18 +8822,18 @@
       <c r="AA14" s="17"/>
       <c r="AB14" s="17"/>
       <c r="AC14" s="6"/>
-      <c r="AD14" s="65"/>
+      <c r="AD14" s="72"/>
       <c r="AE14" s="66"/>
       <c r="AF14" s="66"/>
       <c r="AG14" s="66"/>
       <c r="AH14" s="66"/>
       <c r="AI14" s="66"/>
       <c r="AJ14" s="66"/>
-      <c r="AK14" s="67"/>
+      <c r="AK14" s="73"/>
     </row>
     <row r="15" spans="1:37" ht="17.25" customHeight="1">
-      <c r="A15" s="59"/>
-      <c r="B15" s="59"/>
+      <c r="A15" s="60"/>
+      <c r="B15" s="60"/>
       <c r="D15" s="54" t="s">
         <v>65</v>
       </c>
@@ -8865,17 +8865,17 @@
       <c r="AA15" s="17"/>
       <c r="AB15" s="17"/>
       <c r="AC15" s="6"/>
-      <c r="AD15" s="65"/>
+      <c r="AD15" s="72"/>
       <c r="AE15" s="66"/>
       <c r="AF15" s="66"/>
       <c r="AG15" s="66"/>
       <c r="AH15" s="66"/>
       <c r="AI15" s="66"/>
       <c r="AJ15" s="66"/>
-      <c r="AK15" s="67"/>
+      <c r="AK15" s="73"/>
     </row>
     <row r="16" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A16" s="58" t="s">
+      <c r="A16" s="61" t="s">
         <v>56</v>
       </c>
       <c r="B16" s="90" t="s">
@@ -8910,18 +8910,18 @@
       <c r="AA16" s="17"/>
       <c r="AB16" s="17"/>
       <c r="AC16" s="6"/>
-      <c r="AD16" s="65"/>
+      <c r="AD16" s="72"/>
       <c r="AE16" s="66"/>
       <c r="AF16" s="66"/>
       <c r="AG16" s="66"/>
       <c r="AH16" s="66"/>
       <c r="AI16" s="66"/>
       <c r="AJ16" s="66"/>
-      <c r="AK16" s="67"/>
+      <c r="AK16" s="73"/>
     </row>
     <row r="17" spans="1:37" ht="17.25" customHeight="1">
-      <c r="A17" s="59"/>
-      <c r="B17" s="59"/>
+      <c r="A17" s="60"/>
+      <c r="B17" s="60"/>
       <c r="D17" s="54" t="s">
         <v>65</v>
       </c>
@@ -8953,17 +8953,17 @@
       <c r="AA17" s="17"/>
       <c r="AB17" s="17"/>
       <c r="AC17" s="6"/>
-      <c r="AD17" s="65"/>
+      <c r="AD17" s="72"/>
       <c r="AE17" s="66"/>
       <c r="AF17" s="66"/>
       <c r="AG17" s="66"/>
       <c r="AH17" s="66"/>
       <c r="AI17" s="66"/>
       <c r="AJ17" s="66"/>
-      <c r="AK17" s="67"/>
+      <c r="AK17" s="73"/>
     </row>
     <row r="18" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A18" s="58" t="s">
+      <c r="A18" s="61" t="s">
         <v>58</v>
       </c>
       <c r="B18" s="89" t="s">
@@ -8986,7 +8986,7 @@
       <c r="O18" s="35"/>
       <c r="P18" s="35"/>
       <c r="Q18" s="35"/>
-      <c r="R18" s="91"/>
+      <c r="R18" s="58"/>
       <c r="S18" s="23"/>
       <c r="T18" s="18"/>
       <c r="U18" s="17"/>
@@ -8998,18 +8998,18 @@
       <c r="AA18" s="17"/>
       <c r="AB18" s="17"/>
       <c r="AC18" s="6"/>
-      <c r="AD18" s="65"/>
+      <c r="AD18" s="72"/>
       <c r="AE18" s="66"/>
       <c r="AF18" s="66"/>
       <c r="AG18" s="66"/>
       <c r="AH18" s="66"/>
       <c r="AI18" s="66"/>
       <c r="AJ18" s="66"/>
-      <c r="AK18" s="67"/>
+      <c r="AK18" s="73"/>
     </row>
     <row r="19" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A19" s="59"/>
-      <c r="B19" s="59"/>
+      <c r="A19" s="60"/>
+      <c r="B19" s="60"/>
       <c r="D19" s="54" t="s">
         <v>65</v>
       </c>
@@ -9041,17 +9041,17 @@
       <c r="AA19" s="17"/>
       <c r="AB19" s="17"/>
       <c r="AC19" s="6"/>
-      <c r="AD19" s="65"/>
+      <c r="AD19" s="72"/>
       <c r="AE19" s="66"/>
       <c r="AF19" s="66"/>
       <c r="AG19" s="66"/>
       <c r="AH19" s="66"/>
       <c r="AI19" s="66"/>
       <c r="AJ19" s="66"/>
-      <c r="AK19" s="67"/>
+      <c r="AK19" s="73"/>
     </row>
     <row r="20" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A20" s="58" t="s">
+      <c r="A20" s="61" t="s">
         <v>72</v>
       </c>
       <c r="B20" s="89" t="s">
@@ -9086,18 +9086,18 @@
       <c r="AA20" s="17"/>
       <c r="AB20" s="17"/>
       <c r="AC20" s="6"/>
-      <c r="AD20" s="65"/>
+      <c r="AD20" s="72"/>
       <c r="AE20" s="66"/>
       <c r="AF20" s="66"/>
       <c r="AG20" s="66"/>
       <c r="AH20" s="66"/>
       <c r="AI20" s="66"/>
       <c r="AJ20" s="66"/>
-      <c r="AK20" s="67"/>
+      <c r="AK20" s="73"/>
     </row>
     <row r="21" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A21" s="59"/>
-      <c r="B21" s="59"/>
+      <c r="A21" s="60"/>
+      <c r="B21" s="60"/>
       <c r="D21" s="54" t="s">
         <v>65</v>
       </c>
@@ -9129,17 +9129,17 @@
       <c r="AA21" s="17"/>
       <c r="AB21" s="17"/>
       <c r="AC21" s="6"/>
-      <c r="AD21" s="65"/>
+      <c r="AD21" s="72"/>
       <c r="AE21" s="66"/>
       <c r="AF21" s="66"/>
       <c r="AG21" s="66"/>
       <c r="AH21" s="66"/>
       <c r="AI21" s="66"/>
       <c r="AJ21" s="66"/>
-      <c r="AK21" s="67"/>
+      <c r="AK21" s="73"/>
     </row>
     <row r="22" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A22" s="58" t="s">
+      <c r="A22" s="61" t="s">
         <v>74</v>
       </c>
       <c r="B22" s="90" t="s">
@@ -9174,18 +9174,18 @@
       <c r="AA22" s="17"/>
       <c r="AB22" s="17"/>
       <c r="AC22" s="6"/>
-      <c r="AD22" s="65"/>
+      <c r="AD22" s="72"/>
       <c r="AE22" s="66"/>
       <c r="AF22" s="66"/>
       <c r="AG22" s="66"/>
       <c r="AH22" s="66"/>
       <c r="AI22" s="66"/>
       <c r="AJ22" s="66"/>
-      <c r="AK22" s="67"/>
+      <c r="AK22" s="73"/>
     </row>
     <row r="23" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A23" s="59"/>
-      <c r="B23" s="59"/>
+      <c r="A23" s="60"/>
+      <c r="B23" s="60"/>
       <c r="D23" s="54" t="s">
         <v>65</v>
       </c>
@@ -9217,17 +9217,17 @@
       <c r="AA23" s="17"/>
       <c r="AB23" s="17"/>
       <c r="AC23" s="6"/>
-      <c r="AD23" s="65"/>
+      <c r="AD23" s="72"/>
       <c r="AE23" s="66"/>
       <c r="AF23" s="66"/>
       <c r="AG23" s="66"/>
       <c r="AH23" s="66"/>
       <c r="AI23" s="66"/>
       <c r="AJ23" s="66"/>
-      <c r="AK23" s="67"/>
+      <c r="AK23" s="73"/>
     </row>
     <row r="24" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A24" s="58" t="s">
+      <c r="A24" s="61" t="s">
         <v>76</v>
       </c>
       <c r="B24" s="89" t="s">
@@ -9262,18 +9262,18 @@
       <c r="AA24" s="17"/>
       <c r="AB24" s="17"/>
       <c r="AC24" s="6"/>
-      <c r="AD24" s="65"/>
+      <c r="AD24" s="72"/>
       <c r="AE24" s="66"/>
       <c r="AF24" s="66"/>
       <c r="AG24" s="66"/>
       <c r="AH24" s="66"/>
       <c r="AI24" s="66"/>
       <c r="AJ24" s="66"/>
-      <c r="AK24" s="67"/>
+      <c r="AK24" s="73"/>
     </row>
     <row r="25" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A25" s="59"/>
-      <c r="B25" s="59"/>
+      <c r="A25" s="60"/>
+      <c r="B25" s="60"/>
       <c r="D25" s="54" t="s">
         <v>65</v>
       </c>
@@ -9305,17 +9305,17 @@
       <c r="AA25" s="17"/>
       <c r="AB25" s="17"/>
       <c r="AC25" s="6"/>
-      <c r="AD25" s="65"/>
+      <c r="AD25" s="72"/>
       <c r="AE25" s="66"/>
       <c r="AF25" s="66"/>
       <c r="AG25" s="66"/>
       <c r="AH25" s="66"/>
       <c r="AI25" s="66"/>
       <c r="AJ25" s="66"/>
-      <c r="AK25" s="67"/>
+      <c r="AK25" s="73"/>
     </row>
     <row r="26" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A26" s="58" t="s">
+      <c r="A26" s="61" t="s">
         <v>78</v>
       </c>
       <c r="B26" s="90" t="s">
@@ -9350,18 +9350,18 @@
       <c r="AA26" s="17"/>
       <c r="AB26" s="17"/>
       <c r="AC26" s="6"/>
-      <c r="AD26" s="65"/>
+      <c r="AD26" s="72"/>
       <c r="AE26" s="66"/>
       <c r="AF26" s="66"/>
       <c r="AG26" s="66"/>
       <c r="AH26" s="66"/>
       <c r="AI26" s="66"/>
       <c r="AJ26" s="66"/>
-      <c r="AK26" s="67"/>
+      <c r="AK26" s="73"/>
     </row>
     <row r="27" spans="1:37" ht="17.25" customHeight="1">
-      <c r="A27" s="59"/>
-      <c r="B27" s="59"/>
+      <c r="A27" s="60"/>
+      <c r="B27" s="60"/>
       <c r="D27" s="19"/>
       <c r="E27" s="55" t="s">
         <v>65</v>
@@ -9371,8 +9371,8 @@
         <f t="array" aca="1" ref="G27" ca="1">IF(ISBLANK(INDIRECT(ADDRESS(ROW()-1,1,2,TRUE()))),"",IF((INDIRECT(ADDRESS(3,COLUMN(),2,1))="g"),"g"," "))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H27" s="91"/>
-      <c r="I27" s="91"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
       <c r="J27" s="17"/>
       <c r="K27" s="17"/>
       <c r="L27" s="31"/>
@@ -9393,17 +9393,17 @@
       <c r="AA27" s="17"/>
       <c r="AB27" s="17"/>
       <c r="AC27" s="6"/>
-      <c r="AD27" s="65"/>
+      <c r="AD27" s="72"/>
       <c r="AE27" s="66"/>
       <c r="AF27" s="66"/>
       <c r="AG27" s="66"/>
       <c r="AH27" s="66"/>
       <c r="AI27" s="66"/>
       <c r="AJ27" s="66"/>
-      <c r="AK27" s="67"/>
+      <c r="AK27" s="73"/>
     </row>
     <row r="28" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A28" s="58" t="s">
+      <c r="A28" s="61" t="s">
         <v>79</v>
       </c>
       <c r="B28" s="89" t="s">
@@ -9438,18 +9438,18 @@
       <c r="AA28" s="17"/>
       <c r="AB28" s="17"/>
       <c r="AC28" s="6"/>
-      <c r="AD28" s="65"/>
+      <c r="AD28" s="72"/>
       <c r="AE28" s="66"/>
       <c r="AF28" s="66"/>
       <c r="AG28" s="66"/>
       <c r="AH28" s="66"/>
       <c r="AI28" s="66"/>
       <c r="AJ28" s="66"/>
-      <c r="AK28" s="67"/>
+      <c r="AK28" s="73"/>
     </row>
     <row r="29" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A29" s="59"/>
-      <c r="B29" s="59"/>
+      <c r="A29" s="60"/>
+      <c r="B29" s="60"/>
       <c r="D29" s="19"/>
       <c r="E29" s="55" t="s">
         <v>65</v>
@@ -9481,17 +9481,17 @@
       <c r="AA29" s="17"/>
       <c r="AB29" s="17"/>
       <c r="AC29" s="6"/>
-      <c r="AD29" s="65"/>
+      <c r="AD29" s="72"/>
       <c r="AE29" s="66"/>
       <c r="AF29" s="66"/>
       <c r="AG29" s="66"/>
       <c r="AH29" s="66"/>
       <c r="AI29" s="66"/>
       <c r="AJ29" s="66"/>
-      <c r="AK29" s="67"/>
+      <c r="AK29" s="73"/>
     </row>
     <row r="30" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A30" s="58" t="s">
+      <c r="A30" s="61" t="s">
         <v>81</v>
       </c>
       <c r="B30" s="90" t="s">
@@ -9526,18 +9526,18 @@
       <c r="AA30" s="17"/>
       <c r="AB30" s="17"/>
       <c r="AC30" s="6"/>
-      <c r="AD30" s="65"/>
+      <c r="AD30" s="72"/>
       <c r="AE30" s="66"/>
       <c r="AF30" s="66"/>
       <c r="AG30" s="66"/>
       <c r="AH30" s="66"/>
       <c r="AI30" s="66"/>
       <c r="AJ30" s="66"/>
-      <c r="AK30" s="67"/>
+      <c r="AK30" s="73"/>
     </row>
     <row r="31" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A31" s="59"/>
-      <c r="B31" s="59"/>
+      <c r="A31" s="60"/>
+      <c r="B31" s="60"/>
       <c r="D31" s="19"/>
       <c r="E31" s="55" t="s">
         <v>65</v>
@@ -9569,17 +9569,17 @@
       <c r="AA31" s="17"/>
       <c r="AB31" s="17"/>
       <c r="AC31" s="6"/>
-      <c r="AD31" s="68"/>
-      <c r="AE31" s="69"/>
-      <c r="AF31" s="69"/>
-      <c r="AG31" s="69"/>
-      <c r="AH31" s="69"/>
-      <c r="AI31" s="69"/>
-      <c r="AJ31" s="69"/>
-      <c r="AK31" s="70"/>
+      <c r="AD31" s="74"/>
+      <c r="AE31" s="75"/>
+      <c r="AF31" s="75"/>
+      <c r="AG31" s="75"/>
+      <c r="AH31" s="75"/>
+      <c r="AI31" s="75"/>
+      <c r="AJ31" s="75"/>
+      <c r="AK31" s="76"/>
     </row>
     <row r="32" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A32" s="58" t="s">
+      <c r="A32" s="61" t="s">
         <v>82</v>
       </c>
       <c r="B32" s="89" t="s">
@@ -9624,8 +9624,8 @@
       <c r="AK32" s="56"/>
     </row>
     <row r="33" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A33" s="59"/>
-      <c r="B33" s="59"/>
+      <c r="A33" s="60"/>
+      <c r="B33" s="60"/>
       <c r="D33" s="19"/>
       <c r="E33" s="55" t="s">
         <v>65</v>
@@ -9667,7 +9667,7 @@
       <c r="AK33" s="56"/>
     </row>
     <row r="34" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A34" s="58" t="s">
+      <c r="A34" s="61" t="s">
         <v>84</v>
       </c>
       <c r="B34" s="90" t="s">
@@ -9702,18 +9702,18 @@
       <c r="AA34" s="17"/>
       <c r="AB34" s="17"/>
       <c r="AC34" s="6"/>
-      <c r="AD34" s="74"/>
-      <c r="AE34" s="75"/>
-      <c r="AF34" s="75"/>
-      <c r="AG34" s="75"/>
-      <c r="AH34" s="75"/>
-      <c r="AI34" s="75"/>
-      <c r="AJ34" s="75"/>
-      <c r="AK34" s="76"/>
+      <c r="AD34" s="78"/>
+      <c r="AE34" s="79"/>
+      <c r="AF34" s="79"/>
+      <c r="AG34" s="79"/>
+      <c r="AH34" s="79"/>
+      <c r="AI34" s="79"/>
+      <c r="AJ34" s="79"/>
+      <c r="AK34" s="80"/>
     </row>
     <row r="35" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A35" s="59"/>
-      <c r="B35" s="59"/>
+      <c r="A35" s="60"/>
+      <c r="B35" s="60"/>
       <c r="D35" s="19"/>
       <c r="E35" s="55" t="s">
         <v>65</v>
@@ -9745,17 +9745,17 @@
       <c r="AA35" s="17"/>
       <c r="AB35" s="17"/>
       <c r="AC35" s="6"/>
-      <c r="AD35" s="77"/>
+      <c r="AD35" s="81"/>
       <c r="AE35" s="66"/>
       <c r="AF35" s="66"/>
       <c r="AG35" s="66"/>
       <c r="AH35" s="66"/>
       <c r="AI35" s="66"/>
       <c r="AJ35" s="66"/>
-      <c r="AK35" s="78"/>
+      <c r="AK35" s="82"/>
     </row>
     <row r="36" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A36" s="58" t="s">
+      <c r="A36" s="61" t="s">
         <v>85</v>
       </c>
       <c r="B36" s="89" t="s">
@@ -9790,18 +9790,18 @@
       <c r="AA36" s="17"/>
       <c r="AB36" s="17"/>
       <c r="AC36" s="6"/>
-      <c r="AD36" s="77"/>
+      <c r="AD36" s="81"/>
       <c r="AE36" s="66"/>
       <c r="AF36" s="66"/>
       <c r="AG36" s="66"/>
       <c r="AH36" s="66"/>
       <c r="AI36" s="66"/>
       <c r="AJ36" s="66"/>
-      <c r="AK36" s="78"/>
+      <c r="AK36" s="82"/>
     </row>
     <row r="37" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A37" s="59"/>
-      <c r="B37" s="59"/>
+      <c r="A37" s="60"/>
+      <c r="B37" s="60"/>
       <c r="D37" s="19"/>
       <c r="E37" s="55" t="s">
         <v>65</v>
@@ -9833,17 +9833,17 @@
       <c r="AA37" s="17"/>
       <c r="AB37" s="17"/>
       <c r="AC37" s="6"/>
-      <c r="AD37" s="77"/>
+      <c r="AD37" s="81"/>
       <c r="AE37" s="66"/>
       <c r="AF37" s="66"/>
       <c r="AG37" s="66"/>
       <c r="AH37" s="66"/>
       <c r="AI37" s="66"/>
       <c r="AJ37" s="66"/>
-      <c r="AK37" s="78"/>
+      <c r="AK37" s="82"/>
     </row>
     <row r="38" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A38" s="58" t="s">
+      <c r="A38" s="61" t="s">
         <v>86</v>
       </c>
       <c r="B38" s="90" t="s">
@@ -9878,18 +9878,18 @@
       <c r="AA38" s="17"/>
       <c r="AB38" s="17"/>
       <c r="AC38" s="6"/>
-      <c r="AD38" s="77"/>
+      <c r="AD38" s="81"/>
       <c r="AE38" s="66"/>
       <c r="AF38" s="66"/>
       <c r="AG38" s="66"/>
       <c r="AH38" s="66"/>
       <c r="AI38" s="66"/>
       <c r="AJ38" s="66"/>
-      <c r="AK38" s="78"/>
+      <c r="AK38" s="82"/>
     </row>
     <row r="39" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A39" s="59"/>
-      <c r="B39" s="59"/>
+      <c r="A39" s="60"/>
+      <c r="B39" s="60"/>
       <c r="D39" s="19"/>
       <c r="E39" s="55" t="s">
         <v>65</v>
@@ -9921,17 +9921,17 @@
       <c r="AA39" s="17"/>
       <c r="AB39" s="17"/>
       <c r="AC39" s="6"/>
-      <c r="AD39" s="77"/>
+      <c r="AD39" s="81"/>
       <c r="AE39" s="66"/>
       <c r="AF39" s="66"/>
       <c r="AG39" s="66"/>
       <c r="AH39" s="66"/>
       <c r="AI39" s="66"/>
       <c r="AJ39" s="66"/>
-      <c r="AK39" s="78"/>
+      <c r="AK39" s="82"/>
     </row>
     <row r="40" spans="1:37" ht="15" customHeight="1">
-      <c r="A40" s="58" t="s">
+      <c r="A40" s="61" t="s">
         <v>87</v>
       </c>
       <c r="B40" s="89" t="s">
@@ -9966,18 +9966,18 @@
       <c r="AA40" s="17"/>
       <c r="AB40" s="17"/>
       <c r="AC40" s="6"/>
-      <c r="AD40" s="77"/>
+      <c r="AD40" s="81"/>
       <c r="AE40" s="66"/>
       <c r="AF40" s="66"/>
       <c r="AG40" s="66"/>
       <c r="AH40" s="66"/>
       <c r="AI40" s="66"/>
       <c r="AJ40" s="66"/>
-      <c r="AK40" s="78"/>
+      <c r="AK40" s="82"/>
     </row>
     <row r="41" spans="1:37" ht="15" customHeight="1">
-      <c r="A41" s="59"/>
-      <c r="B41" s="59"/>
+      <c r="A41" s="60"/>
+      <c r="B41" s="60"/>
       <c r="D41" s="19"/>
       <c r="E41" s="55" t="s">
         <v>65</v>
@@ -10009,17 +10009,17 @@
       <c r="AA41" s="17"/>
       <c r="AB41" s="17"/>
       <c r="AC41" s="6"/>
-      <c r="AD41" s="77"/>
+      <c r="AD41" s="81"/>
       <c r="AE41" s="66"/>
       <c r="AF41" s="66"/>
       <c r="AG41" s="66"/>
       <c r="AH41" s="66"/>
       <c r="AI41" s="66"/>
       <c r="AJ41" s="66"/>
-      <c r="AK41" s="78"/>
+      <c r="AK41" s="82"/>
     </row>
     <row r="42" spans="1:37" ht="15" customHeight="1">
-      <c r="A42" s="58" t="s">
+      <c r="A42" s="61" t="s">
         <v>88</v>
       </c>
       <c r="B42" s="90" t="s">
@@ -10054,18 +10054,18 @@
       <c r="AA42" s="17"/>
       <c r="AB42" s="17"/>
       <c r="AC42" s="6"/>
-      <c r="AD42" s="77"/>
+      <c r="AD42" s="81"/>
       <c r="AE42" s="66"/>
       <c r="AF42" s="66"/>
       <c r="AG42" s="66"/>
       <c r="AH42" s="66"/>
       <c r="AI42" s="66"/>
       <c r="AJ42" s="66"/>
-      <c r="AK42" s="78"/>
+      <c r="AK42" s="82"/>
     </row>
     <row r="43" spans="1:37" ht="15" customHeight="1">
-      <c r="A43" s="59"/>
-      <c r="B43" s="59"/>
+      <c r="A43" s="60"/>
+      <c r="B43" s="60"/>
       <c r="D43" s="19"/>
       <c r="E43" s="20"/>
       <c r="F43" s="55" t="s">
@@ -10075,8 +10075,8 @@
         <f t="array" aca="1" ref="G43" ca="1">IF(ISBLANK(INDIRECT(ADDRESS(ROW()-1,1,2,TRUE()))),"",IF((INDIRECT(ADDRESS(3,COLUMN(),2,1))="g"),"g"," "))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H43" s="91"/>
-      <c r="I43" s="91"/>
+      <c r="H43" s="40"/>
+      <c r="I43" s="40"/>
       <c r="J43" s="17"/>
       <c r="K43" s="17"/>
       <c r="L43" s="18"/>
@@ -10097,17 +10097,17 @@
       <c r="AA43" s="17"/>
       <c r="AB43" s="17"/>
       <c r="AC43" s="6"/>
-      <c r="AD43" s="77"/>
+      <c r="AD43" s="81"/>
       <c r="AE43" s="66"/>
       <c r="AF43" s="66"/>
       <c r="AG43" s="66"/>
       <c r="AH43" s="66"/>
       <c r="AI43" s="66"/>
       <c r="AJ43" s="66"/>
-      <c r="AK43" s="78"/>
+      <c r="AK43" s="82"/>
     </row>
     <row r="44" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A44" s="58" t="s">
+      <c r="A44" s="61" t="s">
         <v>89</v>
       </c>
       <c r="B44" s="89" t="s">
@@ -10142,18 +10142,18 @@
       <c r="AA44" s="17"/>
       <c r="AB44" s="17"/>
       <c r="AC44" s="6"/>
-      <c r="AD44" s="77"/>
+      <c r="AD44" s="81"/>
       <c r="AE44" s="66"/>
       <c r="AF44" s="66"/>
       <c r="AG44" s="66"/>
       <c r="AH44" s="66"/>
       <c r="AI44" s="66"/>
       <c r="AJ44" s="66"/>
-      <c r="AK44" s="78"/>
+      <c r="AK44" s="82"/>
     </row>
     <row r="45" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A45" s="59"/>
-      <c r="B45" s="59"/>
+      <c r="A45" s="60"/>
+      <c r="B45" s="60"/>
       <c r="D45" s="19"/>
       <c r="E45" s="20"/>
       <c r="F45" s="55" t="s">
@@ -10164,9 +10164,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="H45" s="17"/>
-      <c r="I45" s="91"/>
-      <c r="J45" s="91"/>
-      <c r="K45" s="91"/>
+      <c r="I45" s="58"/>
+      <c r="J45" s="58"/>
+      <c r="K45" s="58"/>
       <c r="L45" s="18"/>
       <c r="M45" s="18"/>
       <c r="N45" s="17"/>
@@ -10185,17 +10185,17 @@
       <c r="AA45" s="17"/>
       <c r="AB45" s="17"/>
       <c r="AC45" s="6"/>
-      <c r="AD45" s="77"/>
+      <c r="AD45" s="81"/>
       <c r="AE45" s="66"/>
       <c r="AF45" s="66"/>
       <c r="AG45" s="66"/>
       <c r="AH45" s="66"/>
       <c r="AI45" s="66"/>
       <c r="AJ45" s="66"/>
-      <c r="AK45" s="78"/>
+      <c r="AK45" s="82"/>
     </row>
     <row r="46" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A46" s="58" t="s">
+      <c r="A46" s="61" t="s">
         <v>91</v>
       </c>
       <c r="B46" s="90" t="s">
@@ -10208,7 +10208,7 @@
         <f t="array" aca="1" ref="G46" ca="1">IF(ISBLANK(INDIRECT(ADDRESS(ROW(),1,2,TRUE()))),"",IF((INDIRECT(ADDRESS(3,COLUMN(),2,1))="g"),"g"," "))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H46" s="91"/>
+      <c r="H46" s="58"/>
       <c r="I46" s="35"/>
       <c r="J46" s="35"/>
       <c r="K46" s="17"/>
@@ -10230,18 +10230,18 @@
       <c r="AA46" s="17"/>
       <c r="AB46" s="17"/>
       <c r="AC46" s="6"/>
-      <c r="AD46" s="77"/>
+      <c r="AD46" s="81"/>
       <c r="AE46" s="66"/>
       <c r="AF46" s="66"/>
       <c r="AG46" s="66"/>
       <c r="AH46" s="66"/>
       <c r="AI46" s="66"/>
       <c r="AJ46" s="66"/>
-      <c r="AK46" s="78"/>
+      <c r="AK46" s="82"/>
     </row>
     <row r="47" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A47" s="59"/>
-      <c r="B47" s="59"/>
+      <c r="A47" s="60"/>
+      <c r="B47" s="60"/>
       <c r="D47" s="19"/>
       <c r="E47" s="20"/>
       <c r="F47" s="55" t="s">
@@ -10273,17 +10273,17 @@
       <c r="AA47" s="17"/>
       <c r="AB47" s="17"/>
       <c r="AC47" s="6"/>
-      <c r="AD47" s="77"/>
+      <c r="AD47" s="81"/>
       <c r="AE47" s="66"/>
       <c r="AF47" s="66"/>
       <c r="AG47" s="66"/>
       <c r="AH47" s="66"/>
       <c r="AI47" s="66"/>
       <c r="AJ47" s="66"/>
-      <c r="AK47" s="78"/>
+      <c r="AK47" s="82"/>
     </row>
     <row r="48" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A48" s="58" t="s">
+      <c r="A48" s="61" t="s">
         <v>92</v>
       </c>
       <c r="B48" s="89" t="s">
@@ -10318,18 +10318,18 @@
       <c r="AA48" s="17"/>
       <c r="AB48" s="17"/>
       <c r="AC48" s="6"/>
-      <c r="AD48" s="79"/>
-      <c r="AE48" s="80"/>
-      <c r="AF48" s="80"/>
-      <c r="AG48" s="80"/>
-      <c r="AH48" s="80"/>
-      <c r="AI48" s="80"/>
-      <c r="AJ48" s="80"/>
-      <c r="AK48" s="81"/>
+      <c r="AD48" s="83"/>
+      <c r="AE48" s="84"/>
+      <c r="AF48" s="84"/>
+      <c r="AG48" s="84"/>
+      <c r="AH48" s="84"/>
+      <c r="AI48" s="84"/>
+      <c r="AJ48" s="84"/>
+      <c r="AK48" s="85"/>
     </row>
     <row r="49" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A49" s="59"/>
-      <c r="B49" s="59"/>
+      <c r="A49" s="60"/>
+      <c r="B49" s="60"/>
       <c r="D49" s="19"/>
       <c r="E49" s="20"/>
       <c r="F49" s="55" t="s">
@@ -10373,7 +10373,7 @@
       <c r="AK49" s="38"/>
     </row>
     <row r="50" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A50" s="58" t="s">
+      <c r="A50" s="61" t="s">
         <v>94</v>
       </c>
       <c r="B50" s="89" t="s">
@@ -10420,8 +10420,8 @@
       <c r="AK50" s="38"/>
     </row>
     <row r="51" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A51" s="59"/>
-      <c r="B51" s="59"/>
+      <c r="A51" s="60"/>
+      <c r="B51" s="60"/>
       <c r="D51" s="19"/>
       <c r="E51" s="20"/>
       <c r="F51" s="55" t="s">
@@ -10465,7 +10465,7 @@
       <c r="AK51" s="38"/>
     </row>
     <row r="52" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A52" s="58" t="s">
+      <c r="A52" s="61" t="s">
         <v>96</v>
       </c>
       <c r="B52" s="89" t="s">
@@ -10512,8 +10512,8 @@
       <c r="AK52" s="38"/>
     </row>
     <row r="53" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A53" s="59"/>
-      <c r="B53" s="59"/>
+      <c r="A53" s="60"/>
+      <c r="B53" s="60"/>
       <c r="D53" s="19"/>
       <c r="E53" s="20"/>
       <c r="F53" s="55" t="s">
@@ -10557,7 +10557,7 @@
       <c r="AK53" s="38"/>
     </row>
     <row r="54" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A54" s="58" t="s">
+      <c r="A54" s="61" t="s">
         <v>98</v>
       </c>
       <c r="B54" s="89" t="s">
@@ -10604,8 +10604,8 @@
       <c r="AK54" s="38"/>
     </row>
     <row r="55" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A55" s="59"/>
-      <c r="B55" s="59"/>
+      <c r="A55" s="60"/>
+      <c r="B55" s="60"/>
       <c r="D55" s="19"/>
       <c r="E55" s="20"/>
       <c r="F55" s="55" t="s">
@@ -10647,7 +10647,7 @@
       <c r="AK55" s="38"/>
     </row>
     <row r="56" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A56" s="58" t="s">
+      <c r="A56" s="61" t="s">
         <v>100</v>
       </c>
       <c r="B56" s="89" t="s">
@@ -10692,8 +10692,8 @@
       <c r="AK56" s="50"/>
     </row>
     <row r="57" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A57" s="59"/>
-      <c r="B57" s="59"/>
+      <c r="A57" s="60"/>
+      <c r="B57" s="60"/>
       <c r="D57" s="19"/>
       <c r="E57" s="20"/>
       <c r="F57" s="55" t="s">
@@ -10727,7 +10727,7 @@
       <c r="AC57" s="6"/>
     </row>
     <row r="58" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A58" s="58" t="s">
+      <c r="A58" s="61" t="s">
         <v>102</v>
       </c>
       <c r="B58" s="89" t="s">
@@ -10761,8 +10761,8 @@
       <c r="AC58" s="6"/>
     </row>
     <row r="59" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A59" s="59"/>
-      <c r="B59" s="59"/>
+      <c r="A59" s="60"/>
+      <c r="B59" s="60"/>
       <c r="D59" s="54" t="s">
         <v>65</v>
       </c>
@@ -10800,7 +10800,7 @@
       <c r="AC59" s="6"/>
     </row>
     <row r="60" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A60" s="58" t="s">
+      <c r="A60" s="61" t="s">
         <v>104</v>
       </c>
       <c r="B60" s="89" t="s">
@@ -10838,8 +10838,8 @@
       <c r="AC60" s="6"/>
     </row>
     <row r="61" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A61" s="59"/>
-      <c r="B61" s="59"/>
+      <c r="A61" s="60"/>
+      <c r="B61" s="60"/>
       <c r="D61" s="54" t="s">
         <v>65</v>
       </c>
@@ -10877,7 +10877,7 @@
       <c r="AC61" s="6"/>
     </row>
     <row r="62" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A62" s="58" t="s">
+      <c r="A62" s="61" t="s">
         <v>106</v>
       </c>
       <c r="B62" s="89" t="s">
@@ -10912,8 +10912,8 @@
       <c r="AC62" s="6"/>
     </row>
     <row r="63" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A63" s="59"/>
-      <c r="B63" s="59"/>
+      <c r="A63" s="60"/>
+      <c r="B63" s="60"/>
       <c r="D63" s="54" t="s">
         <v>65</v>
       </c>
@@ -10951,7 +10951,7 @@
       <c r="AC63" s="6"/>
     </row>
     <row r="64" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A64" s="58" t="s">
+      <c r="A64" s="61" t="s">
         <v>108</v>
       </c>
       <c r="B64" s="89" t="s">
@@ -10988,8 +10988,8 @@
       <c r="AC64" s="6"/>
     </row>
     <row r="65" spans="1:29" ht="14.25" customHeight="1">
-      <c r="A65" s="59"/>
-      <c r="B65" s="59"/>
+      <c r="A65" s="60"/>
+      <c r="B65" s="60"/>
       <c r="D65" s="54" t="s">
         <v>65</v>
       </c>
@@ -11027,7 +11027,7 @@
       <c r="AC65" s="6"/>
     </row>
     <row r="66" spans="1:29" ht="14.25" customHeight="1">
-      <c r="A66" s="58" t="s">
+      <c r="A66" s="61" t="s">
         <v>110</v>
       </c>
       <c r="B66" s="89" t="s">
@@ -11064,8 +11064,8 @@
       <c r="AC66" s="6"/>
     </row>
     <row r="67" spans="1:29" ht="14.25" customHeight="1">
-      <c r="A67" s="59"/>
-      <c r="B67" s="59"/>
+      <c r="A67" s="60"/>
+      <c r="B67" s="60"/>
       <c r="D67" s="54" t="s">
         <v>65</v>
       </c>
@@ -13922,36 +13922,25 @@
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="Y1:AB1"/>
+    <mergeCell ref="AD3:AK31"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="AD34:AK48"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="B56:B57"/>
     <mergeCell ref="A44:A45"/>
     <mergeCell ref="A46:A47"/>
     <mergeCell ref="A8:A9"/>
@@ -13968,25 +13957,36 @@
     <mergeCell ref="A42:A43"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="Y1:AB1"/>
-    <mergeCell ref="AD3:AK31"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="AD34:AK48"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B44:B45"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="86" orientation="portrait"/>
@@ -14044,12 +14044,12 @@
       <c r="Z1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="AA1" s="84">
+      <c r="AA1" s="62">
         <v>2024</v>
       </c>
-      <c r="AB1" s="85"/>
-      <c r="AC1" s="85"/>
-      <c r="AD1" s="86"/>
+      <c r="AB1" s="63"/>
+      <c r="AC1" s="63"/>
+      <c r="AD1" s="64"/>
       <c r="AE1" s="6"/>
       <c r="AF1" s="4" t="s">
         <v>2</v>
@@ -14105,7 +14105,7 @@
       <c r="A3" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="D3" s="71"/>
+      <c r="D3" s="65"/>
       <c r="E3" s="66"/>
       <c r="F3" s="66"/>
       <c r="G3" s="66"/>
@@ -14173,19 +14173,19 @@
         <v>25</v>
       </c>
       <c r="AE3" s="6"/>
-      <c r="AF3" s="62" t="s">
+      <c r="AF3" s="69" t="s">
         <v>119</v>
       </c>
-      <c r="AG3" s="63"/>
-      <c r="AH3" s="63"/>
-      <c r="AI3" s="63"/>
-      <c r="AJ3" s="63"/>
-      <c r="AK3" s="63"/>
-      <c r="AL3" s="63"/>
-      <c r="AM3" s="64"/>
+      <c r="AG3" s="70"/>
+      <c r="AH3" s="70"/>
+      <c r="AI3" s="70"/>
+      <c r="AJ3" s="70"/>
+      <c r="AK3" s="70"/>
+      <c r="AL3" s="70"/>
+      <c r="AM3" s="71"/>
     </row>
     <row r="4" spans="1:39" ht="14.25" customHeight="1">
-      <c r="D4" s="71"/>
+      <c r="D4" s="65"/>
       <c r="E4" s="66"/>
       <c r="F4" s="66"/>
       <c r="G4" s="66"/>
@@ -14211,14 +14211,14 @@
       <c r="AC4" s="12"/>
       <c r="AD4" s="12"/>
       <c r="AE4" s="6"/>
-      <c r="AF4" s="65"/>
+      <c r="AF4" s="72"/>
       <c r="AG4" s="66"/>
       <c r="AH4" s="66"/>
       <c r="AI4" s="66"/>
       <c r="AJ4" s="66"/>
       <c r="AK4" s="66"/>
       <c r="AL4" s="66"/>
-      <c r="AM4" s="67"/>
+      <c r="AM4" s="73"/>
     </row>
     <row r="5" spans="1:39" ht="14.25" customHeight="1">
       <c r="A5" s="8" t="s">
@@ -14270,20 +14270,20 @@
       <c r="AC5" s="12"/>
       <c r="AD5" s="16"/>
       <c r="AE5" s="6"/>
-      <c r="AF5" s="65"/>
+      <c r="AF5" s="72"/>
       <c r="AG5" s="66"/>
       <c r="AH5" s="66"/>
       <c r="AI5" s="66"/>
       <c r="AJ5" s="66"/>
       <c r="AK5" s="66"/>
       <c r="AL5" s="66"/>
-      <c r="AM5" s="67"/>
+      <c r="AM5" s="73"/>
     </row>
     <row r="6" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="72"/>
+      <c r="B6" s="77"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
@@ -14315,18 +14315,18 @@
       <c r="AC6" s="17"/>
       <c r="AD6" s="17"/>
       <c r="AE6" s="6"/>
-      <c r="AF6" s="65"/>
+      <c r="AF6" s="72"/>
       <c r="AG6" s="66"/>
       <c r="AH6" s="66"/>
       <c r="AI6" s="66"/>
       <c r="AJ6" s="66"/>
       <c r="AK6" s="66"/>
       <c r="AL6" s="66"/>
-      <c r="AM6" s="67"/>
+      <c r="AM6" s="73"/>
     </row>
     <row r="7" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A7" s="59"/>
-      <c r="B7" s="59"/>
+      <c r="A7" s="60"/>
+      <c r="B7" s="60"/>
       <c r="D7" s="19"/>
       <c r="E7" s="20"/>
       <c r="F7" s="21"/>
@@ -14358,20 +14358,20 @@
       <c r="AC7" s="17"/>
       <c r="AD7" s="17"/>
       <c r="AE7" s="6"/>
-      <c r="AF7" s="65"/>
+      <c r="AF7" s="72"/>
       <c r="AG7" s="66"/>
       <c r="AH7" s="66"/>
       <c r="AI7" s="66"/>
       <c r="AJ7" s="66"/>
       <c r="AK7" s="66"/>
       <c r="AL7" s="66"/>
-      <c r="AM7" s="67"/>
+      <c r="AM7" s="73"/>
     </row>
     <row r="8" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A8" s="58" t="s">
+      <c r="A8" s="61" t="s">
         <v>120</v>
       </c>
-      <c r="B8" s="73"/>
+      <c r="B8" s="68"/>
       <c r="D8" s="22"/>
       <c r="E8" s="22"/>
       <c r="F8" s="22"/>
@@ -14403,18 +14403,18 @@
       <c r="AC8" s="17"/>
       <c r="AD8" s="17"/>
       <c r="AE8" s="6"/>
-      <c r="AF8" s="65"/>
+      <c r="AF8" s="72"/>
       <c r="AG8" s="66"/>
       <c r="AH8" s="66"/>
       <c r="AI8" s="66"/>
       <c r="AJ8" s="66"/>
       <c r="AK8" s="66"/>
       <c r="AL8" s="66"/>
-      <c r="AM8" s="67"/>
+      <c r="AM8" s="73"/>
     </row>
     <row r="9" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A9" s="59"/>
-      <c r="B9" s="59"/>
+      <c r="A9" s="60"/>
+      <c r="B9" s="60"/>
       <c r="D9" s="19"/>
       <c r="E9" s="20"/>
       <c r="F9" s="21"/>
@@ -14446,20 +14446,20 @@
       <c r="AC9" s="17"/>
       <c r="AD9" s="17"/>
       <c r="AE9" s="6"/>
-      <c r="AF9" s="65"/>
+      <c r="AF9" s="72"/>
       <c r="AG9" s="66"/>
       <c r="AH9" s="66"/>
       <c r="AI9" s="66"/>
       <c r="AJ9" s="66"/>
       <c r="AK9" s="66"/>
       <c r="AL9" s="66"/>
-      <c r="AM9" s="67"/>
+      <c r="AM9" s="73"/>
     </row>
     <row r="10" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="B10" s="73"/>
+      <c r="B10" s="68"/>
       <c r="D10" s="22"/>
       <c r="E10" s="22"/>
       <c r="F10" s="22"/>
@@ -14491,18 +14491,18 @@
       <c r="AC10" s="17"/>
       <c r="AD10" s="17"/>
       <c r="AE10" s="6"/>
-      <c r="AF10" s="65"/>
+      <c r="AF10" s="72"/>
       <c r="AG10" s="66"/>
       <c r="AH10" s="66"/>
       <c r="AI10" s="66"/>
       <c r="AJ10" s="66"/>
       <c r="AK10" s="66"/>
       <c r="AL10" s="66"/>
-      <c r="AM10" s="67"/>
+      <c r="AM10" s="73"/>
     </row>
     <row r="11" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A11" s="59"/>
-      <c r="B11" s="59"/>
+      <c r="A11" s="60"/>
+      <c r="B11" s="60"/>
       <c r="D11" s="19"/>
       <c r="E11" s="20"/>
       <c r="F11" s="21"/>
@@ -14534,20 +14534,20 @@
       <c r="AC11" s="17"/>
       <c r="AD11" s="17"/>
       <c r="AE11" s="6"/>
-      <c r="AF11" s="65"/>
+      <c r="AF11" s="72"/>
       <c r="AG11" s="66"/>
       <c r="AH11" s="66"/>
       <c r="AI11" s="66"/>
       <c r="AJ11" s="66"/>
       <c r="AK11" s="66"/>
       <c r="AL11" s="66"/>
-      <c r="AM11" s="67"/>
+      <c r="AM11" s="73"/>
     </row>
     <row r="12" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A12" s="58" t="s">
+      <c r="A12" s="61" t="s">
         <v>122</v>
       </c>
-      <c r="B12" s="73"/>
+      <c r="B12" s="68"/>
       <c r="D12" s="22"/>
       <c r="E12" s="22"/>
       <c r="F12" s="22"/>
@@ -14579,18 +14579,18 @@
       <c r="AC12" s="17"/>
       <c r="AD12" s="17"/>
       <c r="AE12" s="6"/>
-      <c r="AF12" s="65"/>
+      <c r="AF12" s="72"/>
       <c r="AG12" s="66"/>
       <c r="AH12" s="66"/>
       <c r="AI12" s="66"/>
       <c r="AJ12" s="66"/>
       <c r="AK12" s="66"/>
       <c r="AL12" s="66"/>
-      <c r="AM12" s="67"/>
+      <c r="AM12" s="73"/>
     </row>
     <row r="13" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A13" s="59"/>
-      <c r="B13" s="59"/>
+      <c r="A13" s="60"/>
+      <c r="B13" s="60"/>
       <c r="D13" s="19"/>
       <c r="E13" s="20"/>
       <c r="F13" s="21"/>
@@ -14622,20 +14622,20 @@
       <c r="AC13" s="17"/>
       <c r="AD13" s="17"/>
       <c r="AE13" s="6"/>
-      <c r="AF13" s="65"/>
+      <c r="AF13" s="72"/>
       <c r="AG13" s="66"/>
       <c r="AH13" s="66"/>
       <c r="AI13" s="66"/>
       <c r="AJ13" s="66"/>
       <c r="AK13" s="66"/>
       <c r="AL13" s="66"/>
-      <c r="AM13" s="67"/>
+      <c r="AM13" s="73"/>
     </row>
     <row r="14" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A14" s="58" t="s">
+      <c r="A14" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="73"/>
+      <c r="B14" s="68"/>
       <c r="D14" s="22"/>
       <c r="E14" s="22"/>
       <c r="F14" s="22"/>
@@ -14667,18 +14667,18 @@
       <c r="AC14" s="17"/>
       <c r="AD14" s="17"/>
       <c r="AE14" s="6"/>
-      <c r="AF14" s="65"/>
+      <c r="AF14" s="72"/>
       <c r="AG14" s="66"/>
       <c r="AH14" s="66"/>
       <c r="AI14" s="66"/>
       <c r="AJ14" s="66"/>
       <c r="AK14" s="66"/>
       <c r="AL14" s="66"/>
-      <c r="AM14" s="67"/>
+      <c r="AM14" s="73"/>
     </row>
     <row r="15" spans="1:39" ht="17.25" customHeight="1">
-      <c r="A15" s="59"/>
-      <c r="B15" s="59"/>
+      <c r="A15" s="60"/>
+      <c r="B15" s="60"/>
       <c r="D15" s="19"/>
       <c r="E15" s="20"/>
       <c r="F15" s="21"/>
@@ -14710,20 +14710,20 @@
       <c r="AC15" s="17"/>
       <c r="AD15" s="17"/>
       <c r="AE15" s="6"/>
-      <c r="AF15" s="65"/>
+      <c r="AF15" s="72"/>
       <c r="AG15" s="66"/>
       <c r="AH15" s="66"/>
       <c r="AI15" s="66"/>
       <c r="AJ15" s="66"/>
       <c r="AK15" s="66"/>
       <c r="AL15" s="66"/>
-      <c r="AM15" s="67"/>
+      <c r="AM15" s="73"/>
     </row>
     <row r="16" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A16" s="58" t="s">
+      <c r="A16" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="73"/>
+      <c r="B16" s="68"/>
       <c r="D16" s="22"/>
       <c r="E16" s="22"/>
       <c r="F16" s="22"/>
@@ -14755,18 +14755,18 @@
       <c r="AC16" s="17"/>
       <c r="AD16" s="17"/>
       <c r="AE16" s="6"/>
-      <c r="AF16" s="65"/>
+      <c r="AF16" s="72"/>
       <c r="AG16" s="66"/>
       <c r="AH16" s="66"/>
       <c r="AI16" s="66"/>
       <c r="AJ16" s="66"/>
       <c r="AK16" s="66"/>
       <c r="AL16" s="66"/>
-      <c r="AM16" s="67"/>
+      <c r="AM16" s="73"/>
     </row>
     <row r="17" spans="1:39" ht="17.25" customHeight="1">
-      <c r="A17" s="59"/>
-      <c r="B17" s="59"/>
+      <c r="A17" s="60"/>
+      <c r="B17" s="60"/>
       <c r="D17" s="19"/>
       <c r="E17" s="20"/>
       <c r="F17" s="21"/>
@@ -14798,20 +14798,20 @@
       <c r="AC17" s="17"/>
       <c r="AD17" s="17"/>
       <c r="AE17" s="6"/>
-      <c r="AF17" s="65"/>
+      <c r="AF17" s="72"/>
       <c r="AG17" s="66"/>
       <c r="AH17" s="66"/>
       <c r="AI17" s="66"/>
       <c r="AJ17" s="66"/>
       <c r="AK17" s="66"/>
       <c r="AL17" s="66"/>
-      <c r="AM17" s="67"/>
+      <c r="AM17" s="73"/>
     </row>
     <row r="18" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A18" s="58" t="s">
+      <c r="A18" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="73"/>
+      <c r="B18" s="68"/>
       <c r="D18" s="22"/>
       <c r="E18" s="22"/>
       <c r="F18" s="22"/>
@@ -14843,18 +14843,18 @@
       <c r="AC18" s="17"/>
       <c r="AD18" s="17"/>
       <c r="AE18" s="6"/>
-      <c r="AF18" s="65"/>
+      <c r="AF18" s="72"/>
       <c r="AG18" s="66"/>
       <c r="AH18" s="66"/>
       <c r="AI18" s="66"/>
       <c r="AJ18" s="66"/>
       <c r="AK18" s="66"/>
       <c r="AL18" s="66"/>
-      <c r="AM18" s="67"/>
+      <c r="AM18" s="73"/>
     </row>
     <row r="19" spans="1:39" ht="17.25" customHeight="1">
-      <c r="A19" s="59"/>
-      <c r="B19" s="59"/>
+      <c r="A19" s="60"/>
+      <c r="B19" s="60"/>
       <c r="D19" s="19"/>
       <c r="E19" s="20"/>
       <c r="F19" s="21"/>
@@ -14886,20 +14886,20 @@
       <c r="AC19" s="17"/>
       <c r="AD19" s="17"/>
       <c r="AE19" s="6"/>
-      <c r="AF19" s="65"/>
+      <c r="AF19" s="72"/>
       <c r="AG19" s="66"/>
       <c r="AH19" s="66"/>
       <c r="AI19" s="66"/>
       <c r="AJ19" s="66"/>
       <c r="AK19" s="66"/>
       <c r="AL19" s="66"/>
-      <c r="AM19" s="67"/>
+      <c r="AM19" s="73"/>
     </row>
     <row r="20" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A20" s="58" t="s">
+      <c r="A20" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="60"/>
+      <c r="B20" s="59"/>
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
@@ -14931,18 +14931,18 @@
       <c r="AC20" s="17"/>
       <c r="AD20" s="17"/>
       <c r="AE20" s="6"/>
-      <c r="AF20" s="65"/>
+      <c r="AF20" s="72"/>
       <c r="AG20" s="66"/>
       <c r="AH20" s="66"/>
       <c r="AI20" s="66"/>
       <c r="AJ20" s="66"/>
       <c r="AK20" s="66"/>
       <c r="AL20" s="66"/>
-      <c r="AM20" s="67"/>
+      <c r="AM20" s="73"/>
     </row>
     <row r="21" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A21" s="59"/>
-      <c r="B21" s="59"/>
+      <c r="A21" s="60"/>
+      <c r="B21" s="60"/>
       <c r="D21" s="19"/>
       <c r="E21" s="20"/>
       <c r="F21" s="21"/>
@@ -14974,20 +14974,20 @@
       <c r="AC21" s="17"/>
       <c r="AD21" s="17"/>
       <c r="AE21" s="6"/>
-      <c r="AF21" s="65"/>
+      <c r="AF21" s="72"/>
       <c r="AG21" s="66"/>
       <c r="AH21" s="66"/>
       <c r="AI21" s="66"/>
       <c r="AJ21" s="66"/>
       <c r="AK21" s="66"/>
       <c r="AL21" s="66"/>
-      <c r="AM21" s="67"/>
+      <c r="AM21" s="73"/>
     </row>
     <row r="22" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A22" s="58" t="s">
+      <c r="A22" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="60"/>
+      <c r="B22" s="59"/>
       <c r="D22" s="22"/>
       <c r="E22" s="22"/>
       <c r="F22" s="22"/>
@@ -15019,18 +15019,18 @@
       <c r="AC22" s="17"/>
       <c r="AD22" s="17"/>
       <c r="AE22" s="6"/>
-      <c r="AF22" s="65"/>
+      <c r="AF22" s="72"/>
       <c r="AG22" s="66"/>
       <c r="AH22" s="66"/>
       <c r="AI22" s="66"/>
       <c r="AJ22" s="66"/>
       <c r="AK22" s="66"/>
       <c r="AL22" s="66"/>
-      <c r="AM22" s="67"/>
+      <c r="AM22" s="73"/>
     </row>
     <row r="23" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A23" s="59"/>
-      <c r="B23" s="59"/>
+      <c r="A23" s="60"/>
+      <c r="B23" s="60"/>
       <c r="D23" s="19"/>
       <c r="E23" s="20"/>
       <c r="F23" s="21"/>
@@ -15062,20 +15062,20 @@
       <c r="AC23" s="17"/>
       <c r="AD23" s="17"/>
       <c r="AE23" s="6"/>
-      <c r="AF23" s="65"/>
+      <c r="AF23" s="72"/>
       <c r="AG23" s="66"/>
       <c r="AH23" s="66"/>
       <c r="AI23" s="66"/>
       <c r="AJ23" s="66"/>
       <c r="AK23" s="66"/>
       <c r="AL23" s="66"/>
-      <c r="AM23" s="67"/>
+      <c r="AM23" s="73"/>
     </row>
     <row r="24" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A24" s="58" t="s">
+      <c r="A24" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="82"/>
+      <c r="B24" s="86"/>
       <c r="D24" s="22"/>
       <c r="E24" s="22"/>
       <c r="F24" s="22"/>
@@ -15107,18 +15107,18 @@
       <c r="AC24" s="17"/>
       <c r="AD24" s="17"/>
       <c r="AE24" s="6"/>
-      <c r="AF24" s="65"/>
+      <c r="AF24" s="72"/>
       <c r="AG24" s="66"/>
       <c r="AH24" s="66"/>
       <c r="AI24" s="66"/>
       <c r="AJ24" s="66"/>
       <c r="AK24" s="66"/>
       <c r="AL24" s="66"/>
-      <c r="AM24" s="67"/>
+      <c r="AM24" s="73"/>
     </row>
     <row r="25" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A25" s="59"/>
-      <c r="B25" s="59"/>
+      <c r="A25" s="60"/>
+      <c r="B25" s="60"/>
       <c r="D25" s="19"/>
       <c r="E25" s="20"/>
       <c r="F25" s="21"/>
@@ -15150,20 +15150,20 @@
       <c r="AC25" s="17"/>
       <c r="AD25" s="17"/>
       <c r="AE25" s="6"/>
-      <c r="AF25" s="65"/>
+      <c r="AF25" s="72"/>
       <c r="AG25" s="66"/>
       <c r="AH25" s="66"/>
       <c r="AI25" s="66"/>
       <c r="AJ25" s="66"/>
       <c r="AK25" s="66"/>
       <c r="AL25" s="66"/>
-      <c r="AM25" s="67"/>
+      <c r="AM25" s="73"/>
     </row>
     <row r="26" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A26" s="58" t="s">
+      <c r="A26" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="82"/>
+      <c r="B26" s="86"/>
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>
       <c r="F26" s="22"/>
@@ -15195,18 +15195,18 @@
       <c r="AC26" s="17"/>
       <c r="AD26" s="17"/>
       <c r="AE26" s="6"/>
-      <c r="AF26" s="65"/>
+      <c r="AF26" s="72"/>
       <c r="AG26" s="66"/>
       <c r="AH26" s="66"/>
       <c r="AI26" s="66"/>
       <c r="AJ26" s="66"/>
       <c r="AK26" s="66"/>
       <c r="AL26" s="66"/>
-      <c r="AM26" s="67"/>
+      <c r="AM26" s="73"/>
     </row>
     <row r="27" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A27" s="59"/>
-      <c r="B27" s="59"/>
+      <c r="A27" s="60"/>
+      <c r="B27" s="60"/>
       <c r="D27" s="19"/>
       <c r="E27" s="20"/>
       <c r="F27" s="21"/>
@@ -15238,20 +15238,20 @@
       <c r="AC27" s="17"/>
       <c r="AD27" s="17"/>
       <c r="AE27" s="6"/>
-      <c r="AF27" s="65"/>
+      <c r="AF27" s="72"/>
       <c r="AG27" s="66"/>
       <c r="AH27" s="66"/>
       <c r="AI27" s="66"/>
       <c r="AJ27" s="66"/>
       <c r="AK27" s="66"/>
       <c r="AL27" s="66"/>
-      <c r="AM27" s="67"/>
+      <c r="AM27" s="73"/>
     </row>
     <row r="28" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A28" s="58" t="s">
+      <c r="A28" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="82"/>
+      <c r="B28" s="86"/>
       <c r="D28" s="22"/>
       <c r="E28" s="22"/>
       <c r="F28" s="22"/>
@@ -15283,18 +15283,18 @@
       <c r="AC28" s="17"/>
       <c r="AD28" s="17"/>
       <c r="AE28" s="6"/>
-      <c r="AF28" s="65"/>
+      <c r="AF28" s="72"/>
       <c r="AG28" s="66"/>
       <c r="AH28" s="66"/>
       <c r="AI28" s="66"/>
       <c r="AJ28" s="66"/>
       <c r="AK28" s="66"/>
       <c r="AL28" s="66"/>
-      <c r="AM28" s="67"/>
+      <c r="AM28" s="73"/>
     </row>
     <row r="29" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A29" s="59"/>
-      <c r="B29" s="59"/>
+      <c r="A29" s="60"/>
+      <c r="B29" s="60"/>
       <c r="D29" s="19"/>
       <c r="E29" s="20"/>
       <c r="F29" s="21"/>
@@ -15326,20 +15326,20 @@
       <c r="AC29" s="17"/>
       <c r="AD29" s="17"/>
       <c r="AE29" s="6"/>
-      <c r="AF29" s="65"/>
+      <c r="AF29" s="72"/>
       <c r="AG29" s="66"/>
       <c r="AH29" s="66"/>
       <c r="AI29" s="66"/>
       <c r="AJ29" s="66"/>
       <c r="AK29" s="66"/>
       <c r="AL29" s="66"/>
-      <c r="AM29" s="67"/>
+      <c r="AM29" s="73"/>
     </row>
     <row r="30" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A30" s="58" t="s">
+      <c r="A30" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="83"/>
+      <c r="B30" s="87"/>
       <c r="D30" s="22"/>
       <c r="E30" s="22"/>
       <c r="F30" s="22"/>
@@ -15371,18 +15371,18 @@
       <c r="AC30" s="17"/>
       <c r="AD30" s="17"/>
       <c r="AE30" s="6"/>
-      <c r="AF30" s="65"/>
+      <c r="AF30" s="72"/>
       <c r="AG30" s="66"/>
       <c r="AH30" s="66"/>
       <c r="AI30" s="66"/>
       <c r="AJ30" s="66"/>
       <c r="AK30" s="66"/>
       <c r="AL30" s="66"/>
-      <c r="AM30" s="67"/>
+      <c r="AM30" s="73"/>
     </row>
     <row r="31" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A31" s="59"/>
-      <c r="B31" s="59"/>
+      <c r="A31" s="60"/>
+      <c r="B31" s="60"/>
       <c r="D31" s="19"/>
       <c r="E31" s="20"/>
       <c r="F31" s="21"/>
@@ -15414,20 +15414,20 @@
       <c r="AC31" s="17"/>
       <c r="AD31" s="17"/>
       <c r="AE31" s="6"/>
-      <c r="AF31" s="65"/>
+      <c r="AF31" s="72"/>
       <c r="AG31" s="66"/>
       <c r="AH31" s="66"/>
       <c r="AI31" s="66"/>
       <c r="AJ31" s="66"/>
       <c r="AK31" s="66"/>
       <c r="AL31" s="66"/>
-      <c r="AM31" s="67"/>
+      <c r="AM31" s="73"/>
     </row>
     <row r="32" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A32" s="58" t="s">
+      <c r="A32" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="83"/>
+      <c r="B32" s="87"/>
       <c r="D32" s="22"/>
       <c r="E32" s="22"/>
       <c r="F32" s="22"/>
@@ -15459,18 +15459,18 @@
       <c r="AC32" s="17"/>
       <c r="AD32" s="17"/>
       <c r="AE32" s="6"/>
-      <c r="AF32" s="65"/>
+      <c r="AF32" s="72"/>
       <c r="AG32" s="66"/>
       <c r="AH32" s="66"/>
       <c r="AI32" s="66"/>
       <c r="AJ32" s="66"/>
       <c r="AK32" s="66"/>
       <c r="AL32" s="66"/>
-      <c r="AM32" s="67"/>
+      <c r="AM32" s="73"/>
     </row>
     <row r="33" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A33" s="59"/>
-      <c r="B33" s="59"/>
+      <c r="A33" s="60"/>
+      <c r="B33" s="60"/>
       <c r="D33" s="19"/>
       <c r="E33" s="20"/>
       <c r="F33" s="21"/>
@@ -15502,20 +15502,20 @@
       <c r="AC33" s="17"/>
       <c r="AD33" s="17"/>
       <c r="AE33" s="6"/>
-      <c r="AF33" s="65"/>
+      <c r="AF33" s="72"/>
       <c r="AG33" s="66"/>
       <c r="AH33" s="66"/>
       <c r="AI33" s="66"/>
       <c r="AJ33" s="66"/>
       <c r="AK33" s="66"/>
       <c r="AL33" s="66"/>
-      <c r="AM33" s="67"/>
+      <c r="AM33" s="73"/>
     </row>
     <row r="34" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A34" s="58" t="s">
+      <c r="A34" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="83"/>
+      <c r="B34" s="87"/>
       <c r="D34" s="22"/>
       <c r="E34" s="22"/>
       <c r="F34" s="22"/>
@@ -15547,18 +15547,18 @@
       <c r="AC34" s="17"/>
       <c r="AD34" s="17"/>
       <c r="AE34" s="6"/>
-      <c r="AF34" s="65"/>
+      <c r="AF34" s="72"/>
       <c r="AG34" s="66"/>
       <c r="AH34" s="66"/>
       <c r="AI34" s="66"/>
       <c r="AJ34" s="66"/>
       <c r="AK34" s="66"/>
       <c r="AL34" s="66"/>
-      <c r="AM34" s="67"/>
+      <c r="AM34" s="73"/>
     </row>
     <row r="35" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A35" s="59"/>
-      <c r="B35" s="59"/>
+      <c r="A35" s="60"/>
+      <c r="B35" s="60"/>
       <c r="D35" s="19"/>
       <c r="E35" s="20"/>
       <c r="F35" s="21"/>
@@ -15590,20 +15590,20 @@
       <c r="AC35" s="17"/>
       <c r="AD35" s="17"/>
       <c r="AE35" s="6"/>
-      <c r="AF35" s="65"/>
+      <c r="AF35" s="72"/>
       <c r="AG35" s="66"/>
       <c r="AH35" s="66"/>
       <c r="AI35" s="66"/>
       <c r="AJ35" s="66"/>
       <c r="AK35" s="66"/>
       <c r="AL35" s="66"/>
-      <c r="AM35" s="67"/>
+      <c r="AM35" s="73"/>
     </row>
     <row r="36" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A36" s="58" t="s">
+      <c r="A36" s="61" t="s">
         <v>123</v>
       </c>
-      <c r="B36" s="83"/>
+      <c r="B36" s="87"/>
       <c r="D36" s="22"/>
       <c r="E36" s="22"/>
       <c r="F36" s="22"/>
@@ -15635,18 +15635,18 @@
       <c r="AC36" s="17"/>
       <c r="AD36" s="17"/>
       <c r="AE36" s="6"/>
-      <c r="AF36" s="65"/>
+      <c r="AF36" s="72"/>
       <c r="AG36" s="66"/>
       <c r="AH36" s="66"/>
       <c r="AI36" s="66"/>
       <c r="AJ36" s="66"/>
       <c r="AK36" s="66"/>
       <c r="AL36" s="66"/>
-      <c r="AM36" s="67"/>
+      <c r="AM36" s="73"/>
     </row>
     <row r="37" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A37" s="59"/>
-      <c r="B37" s="59"/>
+      <c r="A37" s="60"/>
+      <c r="B37" s="60"/>
       <c r="D37" s="19"/>
       <c r="E37" s="20"/>
       <c r="F37" s="21"/>
@@ -15678,20 +15678,20 @@
       <c r="AC37" s="17"/>
       <c r="AD37" s="17"/>
       <c r="AE37" s="6"/>
-      <c r="AF37" s="68"/>
-      <c r="AG37" s="69"/>
-      <c r="AH37" s="69"/>
-      <c r="AI37" s="69"/>
-      <c r="AJ37" s="69"/>
-      <c r="AK37" s="69"/>
-      <c r="AL37" s="69"/>
-      <c r="AM37" s="70"/>
+      <c r="AF37" s="74"/>
+      <c r="AG37" s="75"/>
+      <c r="AH37" s="75"/>
+      <c r="AI37" s="75"/>
+      <c r="AJ37" s="75"/>
+      <c r="AK37" s="75"/>
+      <c r="AL37" s="75"/>
+      <c r="AM37" s="76"/>
     </row>
     <row r="38" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A38" s="58" t="s">
+      <c r="A38" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="B38" s="83"/>
+      <c r="B38" s="87"/>
       <c r="D38" s="22"/>
       <c r="E38" s="22"/>
       <c r="F38" s="22"/>
@@ -15733,8 +15733,8 @@
       <c r="AM38" s="56"/>
     </row>
     <row r="39" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A39" s="59"/>
-      <c r="B39" s="59"/>
+      <c r="A39" s="60"/>
+      <c r="B39" s="60"/>
       <c r="D39" s="19"/>
       <c r="E39" s="20"/>
       <c r="F39" s="21"/>
@@ -15776,10 +15776,10 @@
       <c r="AM39" s="56"/>
     </row>
     <row r="40" spans="1:39" ht="17.25" customHeight="1">
-      <c r="A40" s="58" t="s">
+      <c r="A40" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="B40" s="83"/>
+      <c r="B40" s="87"/>
       <c r="D40" s="22"/>
       <c r="E40" s="22"/>
       <c r="F40" s="22"/>
@@ -15821,8 +15821,8 @@
       <c r="AM40" s="56"/>
     </row>
     <row r="41" spans="1:39" ht="18" customHeight="1">
-      <c r="A41" s="59"/>
-      <c r="B41" s="59"/>
+      <c r="A41" s="60"/>
+      <c r="B41" s="60"/>
       <c r="D41" s="19"/>
       <c r="E41" s="20"/>
       <c r="F41" s="21"/>
@@ -15864,10 +15864,10 @@
       <c r="AM41" s="56"/>
     </row>
     <row r="42" spans="1:39" ht="17.25" customHeight="1">
-      <c r="A42" s="58" t="s">
+      <c r="A42" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="B42" s="83"/>
+      <c r="B42" s="87"/>
       <c r="D42" s="22"/>
       <c r="E42" s="22"/>
       <c r="F42" s="22"/>
@@ -15909,8 +15909,8 @@
       <c r="AM42" s="56"/>
     </row>
     <row r="43" spans="1:39" ht="18" customHeight="1">
-      <c r="A43" s="59"/>
-      <c r="B43" s="59"/>
+      <c r="A43" s="60"/>
+      <c r="B43" s="60"/>
       <c r="D43" s="19"/>
       <c r="E43" s="20"/>
       <c r="F43" s="21"/>
@@ -15952,10 +15952,10 @@
       <c r="AM43" s="56"/>
     </row>
     <row r="44" spans="1:39" ht="17.25" customHeight="1">
-      <c r="A44" s="58" t="s">
+      <c r="A44" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="B44" s="83"/>
+      <c r="B44" s="87"/>
       <c r="D44" s="22"/>
       <c r="E44" s="22"/>
       <c r="F44" s="22"/>
@@ -15987,18 +15987,18 @@
       <c r="AC44" s="17"/>
       <c r="AD44" s="17"/>
       <c r="AE44" s="6"/>
-      <c r="AF44" s="74"/>
-      <c r="AG44" s="75"/>
-      <c r="AH44" s="75"/>
-      <c r="AI44" s="75"/>
-      <c r="AJ44" s="75"/>
-      <c r="AK44" s="75"/>
-      <c r="AL44" s="75"/>
-      <c r="AM44" s="76"/>
+      <c r="AF44" s="78"/>
+      <c r="AG44" s="79"/>
+      <c r="AH44" s="79"/>
+      <c r="AI44" s="79"/>
+      <c r="AJ44" s="79"/>
+      <c r="AK44" s="79"/>
+      <c r="AL44" s="79"/>
+      <c r="AM44" s="80"/>
     </row>
     <row r="45" spans="1:39" ht="18" customHeight="1">
-      <c r="A45" s="59"/>
-      <c r="B45" s="59"/>
+      <c r="A45" s="60"/>
+      <c r="B45" s="60"/>
       <c r="D45" s="19"/>
       <c r="E45" s="20"/>
       <c r="F45" s="21"/>
@@ -16030,20 +16030,20 @@
       <c r="AC45" s="17"/>
       <c r="AD45" s="17"/>
       <c r="AE45" s="6"/>
-      <c r="AF45" s="77"/>
+      <c r="AF45" s="81"/>
       <c r="AG45" s="66"/>
       <c r="AH45" s="66"/>
       <c r="AI45" s="66"/>
       <c r="AJ45" s="66"/>
       <c r="AK45" s="66"/>
       <c r="AL45" s="66"/>
-      <c r="AM45" s="78"/>
+      <c r="AM45" s="82"/>
     </row>
     <row r="46" spans="1:39" ht="17.25" customHeight="1">
-      <c r="A46" s="58" t="s">
+      <c r="A46" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="B46" s="83"/>
+      <c r="B46" s="87"/>
       <c r="D46" s="22"/>
       <c r="E46" s="22"/>
       <c r="F46" s="22"/>
@@ -16075,18 +16075,18 @@
       <c r="AC46" s="17"/>
       <c r="AD46" s="17"/>
       <c r="AE46" s="6"/>
-      <c r="AF46" s="77"/>
+      <c r="AF46" s="81"/>
       <c r="AG46" s="66"/>
       <c r="AH46" s="66"/>
       <c r="AI46" s="66"/>
       <c r="AJ46" s="66"/>
       <c r="AK46" s="66"/>
       <c r="AL46" s="66"/>
-      <c r="AM46" s="78"/>
+      <c r="AM46" s="82"/>
     </row>
     <row r="47" spans="1:39" ht="18" customHeight="1">
-      <c r="A47" s="59"/>
-      <c r="B47" s="59"/>
+      <c r="A47" s="60"/>
+      <c r="B47" s="60"/>
       <c r="D47" s="19"/>
       <c r="E47" s="20"/>
       <c r="F47" s="21"/>
@@ -16118,20 +16118,20 @@
       <c r="AC47" s="17"/>
       <c r="AD47" s="17"/>
       <c r="AE47" s="6"/>
-      <c r="AF47" s="77"/>
+      <c r="AF47" s="81"/>
       <c r="AG47" s="66"/>
       <c r="AH47" s="66"/>
       <c r="AI47" s="66"/>
       <c r="AJ47" s="66"/>
       <c r="AK47" s="66"/>
       <c r="AL47" s="66"/>
-      <c r="AM47" s="78"/>
+      <c r="AM47" s="82"/>
     </row>
     <row r="48" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A48" s="58" t="s">
+      <c r="A48" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="B48" s="83"/>
+      <c r="B48" s="87"/>
       <c r="D48" s="22"/>
       <c r="E48" s="22"/>
       <c r="F48" s="22"/>
@@ -16163,18 +16163,18 @@
       <c r="AC48" s="17"/>
       <c r="AD48" s="17"/>
       <c r="AE48" s="6"/>
-      <c r="AF48" s="77"/>
+      <c r="AF48" s="81"/>
       <c r="AG48" s="66"/>
       <c r="AH48" s="66"/>
       <c r="AI48" s="66"/>
       <c r="AJ48" s="66"/>
       <c r="AK48" s="66"/>
       <c r="AL48" s="66"/>
-      <c r="AM48" s="78"/>
+      <c r="AM48" s="82"/>
     </row>
     <row r="49" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A49" s="59"/>
-      <c r="B49" s="59"/>
+      <c r="A49" s="60"/>
+      <c r="B49" s="60"/>
       <c r="D49" s="19"/>
       <c r="E49" s="20"/>
       <c r="F49" s="21"/>
@@ -16206,20 +16206,20 @@
       <c r="AC49" s="17"/>
       <c r="AD49" s="17"/>
       <c r="AE49" s="6"/>
-      <c r="AF49" s="77"/>
+      <c r="AF49" s="81"/>
       <c r="AG49" s="66"/>
       <c r="AH49" s="66"/>
       <c r="AI49" s="66"/>
       <c r="AJ49" s="66"/>
       <c r="AK49" s="66"/>
       <c r="AL49" s="66"/>
-      <c r="AM49" s="78"/>
+      <c r="AM49" s="82"/>
     </row>
     <row r="50" spans="1:39" ht="17.25" customHeight="1">
-      <c r="A50" s="58" t="s">
+      <c r="A50" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="B50" s="83"/>
+      <c r="B50" s="87"/>
       <c r="D50" s="22"/>
       <c r="E50" s="22"/>
       <c r="F50" s="22"/>
@@ -16251,18 +16251,18 @@
       <c r="AC50" s="17"/>
       <c r="AD50" s="17"/>
       <c r="AE50" s="6"/>
-      <c r="AF50" s="77"/>
+      <c r="AF50" s="81"/>
       <c r="AG50" s="66"/>
       <c r="AH50" s="66"/>
       <c r="AI50" s="66"/>
       <c r="AJ50" s="66"/>
       <c r="AK50" s="66"/>
       <c r="AL50" s="66"/>
-      <c r="AM50" s="78"/>
+      <c r="AM50" s="82"/>
     </row>
     <row r="51" spans="1:39" ht="18" customHeight="1">
-      <c r="A51" s="59"/>
-      <c r="B51" s="59"/>
+      <c r="A51" s="60"/>
+      <c r="B51" s="60"/>
       <c r="D51" s="19"/>
       <c r="E51" s="20"/>
       <c r="F51" s="21"/>
@@ -16294,20 +16294,20 @@
       <c r="AC51" s="17"/>
       <c r="AD51" s="17"/>
       <c r="AE51" s="6"/>
-      <c r="AF51" s="77"/>
+      <c r="AF51" s="81"/>
       <c r="AG51" s="66"/>
       <c r="AH51" s="66"/>
       <c r="AI51" s="66"/>
       <c r="AJ51" s="66"/>
       <c r="AK51" s="66"/>
       <c r="AL51" s="66"/>
-      <c r="AM51" s="78"/>
+      <c r="AM51" s="82"/>
     </row>
     <row r="52" spans="1:39" ht="17.25" customHeight="1">
-      <c r="A52" s="58" t="s">
+      <c r="A52" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="B52" s="83"/>
+      <c r="B52" s="87"/>
       <c r="D52" s="22"/>
       <c r="E52" s="22"/>
       <c r="F52" s="22"/>
@@ -16339,18 +16339,18 @@
       <c r="AC52" s="17"/>
       <c r="AD52" s="17"/>
       <c r="AE52" s="6"/>
-      <c r="AF52" s="77"/>
+      <c r="AF52" s="81"/>
       <c r="AG52" s="66"/>
       <c r="AH52" s="66"/>
       <c r="AI52" s="66"/>
       <c r="AJ52" s="66"/>
       <c r="AK52" s="66"/>
       <c r="AL52" s="66"/>
-      <c r="AM52" s="78"/>
+      <c r="AM52" s="82"/>
     </row>
     <row r="53" spans="1:39" ht="18" customHeight="1">
-      <c r="A53" s="59"/>
-      <c r="B53" s="59"/>
+      <c r="A53" s="60"/>
+      <c r="B53" s="60"/>
       <c r="D53" s="19"/>
       <c r="E53" s="20"/>
       <c r="F53" s="21"/>
@@ -16382,20 +16382,20 @@
       <c r="AC53" s="17"/>
       <c r="AD53" s="17"/>
       <c r="AE53" s="6"/>
-      <c r="AF53" s="77"/>
+      <c r="AF53" s="81"/>
       <c r="AG53" s="66"/>
       <c r="AH53" s="66"/>
       <c r="AI53" s="66"/>
       <c r="AJ53" s="66"/>
       <c r="AK53" s="66"/>
       <c r="AL53" s="66"/>
-      <c r="AM53" s="78"/>
+      <c r="AM53" s="82"/>
     </row>
     <row r="54" spans="1:39" ht="17.25" customHeight="1">
-      <c r="A54" s="58" t="s">
+      <c r="A54" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="B54" s="83"/>
+      <c r="B54" s="87"/>
       <c r="D54" s="22"/>
       <c r="E54" s="22"/>
       <c r="F54" s="22"/>
@@ -16427,18 +16427,18 @@
       <c r="AC54" s="17"/>
       <c r="AD54" s="17"/>
       <c r="AE54" s="6"/>
-      <c r="AF54" s="77"/>
+      <c r="AF54" s="81"/>
       <c r="AG54" s="66"/>
       <c r="AH54" s="66"/>
       <c r="AI54" s="66"/>
       <c r="AJ54" s="66"/>
       <c r="AK54" s="66"/>
       <c r="AL54" s="66"/>
-      <c r="AM54" s="78"/>
+      <c r="AM54" s="82"/>
     </row>
     <row r="55" spans="1:39" ht="18" customHeight="1">
-      <c r="A55" s="59"/>
-      <c r="B55" s="59"/>
+      <c r="A55" s="60"/>
+      <c r="B55" s="60"/>
       <c r="D55" s="19"/>
       <c r="E55" s="20"/>
       <c r="F55" s="21"/>
@@ -16470,20 +16470,20 @@
       <c r="AC55" s="17"/>
       <c r="AD55" s="17"/>
       <c r="AE55" s="6"/>
-      <c r="AF55" s="77"/>
+      <c r="AF55" s="81"/>
       <c r="AG55" s="66"/>
       <c r="AH55" s="66"/>
       <c r="AI55" s="66"/>
       <c r="AJ55" s="66"/>
       <c r="AK55" s="66"/>
       <c r="AL55" s="66"/>
-      <c r="AM55" s="78"/>
+      <c r="AM55" s="82"/>
     </row>
     <row r="56" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A56" s="58" t="s">
+      <c r="A56" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="B56" s="83"/>
+      <c r="B56" s="87"/>
       <c r="D56" s="22"/>
       <c r="E56" s="22"/>
       <c r="F56" s="22"/>
@@ -16515,18 +16515,18 @@
       <c r="AC56" s="17"/>
       <c r="AD56" s="17"/>
       <c r="AE56" s="6"/>
-      <c r="AF56" s="77"/>
+      <c r="AF56" s="81"/>
       <c r="AG56" s="66"/>
       <c r="AH56" s="66"/>
       <c r="AI56" s="66"/>
       <c r="AJ56" s="66"/>
       <c r="AK56" s="66"/>
       <c r="AL56" s="66"/>
-      <c r="AM56" s="78"/>
+      <c r="AM56" s="82"/>
     </row>
     <row r="57" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A57" s="59"/>
-      <c r="B57" s="59"/>
+      <c r="A57" s="60"/>
+      <c r="B57" s="60"/>
       <c r="D57" s="19"/>
       <c r="E57" s="20"/>
       <c r="F57" s="21"/>
@@ -16558,20 +16558,20 @@
       <c r="AC57" s="17"/>
       <c r="AD57" s="17"/>
       <c r="AE57" s="6"/>
-      <c r="AF57" s="77"/>
+      <c r="AF57" s="81"/>
       <c r="AG57" s="66"/>
       <c r="AH57" s="66"/>
       <c r="AI57" s="66"/>
       <c r="AJ57" s="66"/>
       <c r="AK57" s="66"/>
       <c r="AL57" s="66"/>
-      <c r="AM57" s="78"/>
+      <c r="AM57" s="82"/>
     </row>
     <row r="58" spans="1:39" ht="17.25" customHeight="1">
-      <c r="A58" s="58" t="s">
+      <c r="A58" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="B58" s="83"/>
+      <c r="B58" s="87"/>
       <c r="D58" s="22"/>
       <c r="E58" s="22"/>
       <c r="F58" s="22"/>
@@ -16603,18 +16603,18 @@
       <c r="AC58" s="17"/>
       <c r="AD58" s="17"/>
       <c r="AE58" s="6"/>
-      <c r="AF58" s="77"/>
+      <c r="AF58" s="81"/>
       <c r="AG58" s="66"/>
       <c r="AH58" s="66"/>
       <c r="AI58" s="66"/>
       <c r="AJ58" s="66"/>
       <c r="AK58" s="66"/>
       <c r="AL58" s="66"/>
-      <c r="AM58" s="78"/>
+      <c r="AM58" s="82"/>
     </row>
     <row r="59" spans="1:39" ht="18" customHeight="1">
-      <c r="A59" s="59"/>
-      <c r="B59" s="59"/>
+      <c r="A59" s="60"/>
+      <c r="B59" s="60"/>
       <c r="D59" s="19"/>
       <c r="E59" s="20"/>
       <c r="F59" s="21"/>
@@ -16646,20 +16646,20 @@
       <c r="AC59" s="17"/>
       <c r="AD59" s="17"/>
       <c r="AE59" s="6"/>
-      <c r="AF59" s="77"/>
+      <c r="AF59" s="81"/>
       <c r="AG59" s="66"/>
       <c r="AH59" s="66"/>
       <c r="AI59" s="66"/>
       <c r="AJ59" s="66"/>
       <c r="AK59" s="66"/>
       <c r="AL59" s="66"/>
-      <c r="AM59" s="78"/>
+      <c r="AM59" s="82"/>
     </row>
     <row r="60" spans="1:39" ht="17.25" customHeight="1">
-      <c r="A60" s="58" t="s">
+      <c r="A60" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="B60" s="83"/>
+      <c r="B60" s="87"/>
       <c r="D60" s="22"/>
       <c r="E60" s="22"/>
       <c r="F60" s="22"/>
@@ -16691,18 +16691,18 @@
       <c r="AC60" s="17"/>
       <c r="AD60" s="17"/>
       <c r="AE60" s="6"/>
-      <c r="AF60" s="77"/>
+      <c r="AF60" s="81"/>
       <c r="AG60" s="66"/>
       <c r="AH60" s="66"/>
       <c r="AI60" s="66"/>
       <c r="AJ60" s="66"/>
       <c r="AK60" s="66"/>
       <c r="AL60" s="66"/>
-      <c r="AM60" s="78"/>
+      <c r="AM60" s="82"/>
     </row>
     <row r="61" spans="1:39" ht="18" customHeight="1">
-      <c r="A61" s="59"/>
-      <c r="B61" s="59"/>
+      <c r="A61" s="60"/>
+      <c r="B61" s="60"/>
       <c r="D61" s="19"/>
       <c r="E61" s="20"/>
       <c r="F61" s="21"/>
@@ -16734,20 +16734,20 @@
       <c r="AC61" s="17"/>
       <c r="AD61" s="17"/>
       <c r="AE61" s="6"/>
-      <c r="AF61" s="77"/>
+      <c r="AF61" s="81"/>
       <c r="AG61" s="66"/>
       <c r="AH61" s="66"/>
       <c r="AI61" s="66"/>
       <c r="AJ61" s="66"/>
       <c r="AK61" s="66"/>
       <c r="AL61" s="66"/>
-      <c r="AM61" s="78"/>
+      <c r="AM61" s="82"/>
     </row>
     <row r="62" spans="1:39" ht="17.25" customHeight="1">
-      <c r="A62" s="58" t="s">
+      <c r="A62" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="B62" s="83"/>
+      <c r="B62" s="87"/>
       <c r="D62" s="22"/>
       <c r="E62" s="22"/>
       <c r="F62" s="22"/>
@@ -16779,18 +16779,18 @@
       <c r="AC62" s="17"/>
       <c r="AD62" s="17"/>
       <c r="AE62" s="6"/>
-      <c r="AF62" s="77"/>
+      <c r="AF62" s="81"/>
       <c r="AG62" s="66"/>
       <c r="AH62" s="66"/>
       <c r="AI62" s="66"/>
       <c r="AJ62" s="66"/>
       <c r="AK62" s="66"/>
       <c r="AL62" s="66"/>
-      <c r="AM62" s="78"/>
+      <c r="AM62" s="82"/>
     </row>
     <row r="63" spans="1:39" ht="18" customHeight="1">
-      <c r="A63" s="59"/>
-      <c r="B63" s="59"/>
+      <c r="A63" s="60"/>
+      <c r="B63" s="60"/>
       <c r="D63" s="19"/>
       <c r="E63" s="20"/>
       <c r="F63" s="21"/>
@@ -16822,20 +16822,20 @@
       <c r="AC63" s="32"/>
       <c r="AD63" s="32"/>
       <c r="AE63" s="6"/>
-      <c r="AF63" s="77"/>
+      <c r="AF63" s="81"/>
       <c r="AG63" s="66"/>
       <c r="AH63" s="66"/>
       <c r="AI63" s="66"/>
       <c r="AJ63" s="66"/>
       <c r="AK63" s="66"/>
       <c r="AL63" s="66"/>
-      <c r="AM63" s="78"/>
+      <c r="AM63" s="82"/>
     </row>
     <row r="64" spans="1:39" ht="17.25" customHeight="1">
-      <c r="A64" s="58" t="s">
+      <c r="A64" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="B64" s="83"/>
+      <c r="B64" s="87"/>
       <c r="D64" s="22"/>
       <c r="E64" s="22"/>
       <c r="F64" s="22"/>
@@ -16867,18 +16867,18 @@
       <c r="AC64" s="32"/>
       <c r="AD64" s="32"/>
       <c r="AE64" s="6"/>
-      <c r="AF64" s="77"/>
+      <c r="AF64" s="81"/>
       <c r="AG64" s="66"/>
       <c r="AH64" s="66"/>
       <c r="AI64" s="66"/>
       <c r="AJ64" s="66"/>
       <c r="AK64" s="66"/>
       <c r="AL64" s="66"/>
-      <c r="AM64" s="78"/>
+      <c r="AM64" s="82"/>
     </row>
     <row r="65" spans="1:39" ht="18" customHeight="1">
-      <c r="A65" s="59"/>
-      <c r="B65" s="59"/>
+      <c r="A65" s="60"/>
+      <c r="B65" s="60"/>
       <c r="D65" s="19"/>
       <c r="E65" s="20"/>
       <c r="F65" s="21"/>
@@ -16910,20 +16910,20 @@
       <c r="AC65" s="32"/>
       <c r="AD65" s="32"/>
       <c r="AE65" s="6"/>
-      <c r="AF65" s="77"/>
+      <c r="AF65" s="81"/>
       <c r="AG65" s="66"/>
       <c r="AH65" s="66"/>
       <c r="AI65" s="66"/>
       <c r="AJ65" s="66"/>
       <c r="AK65" s="66"/>
       <c r="AL65" s="66"/>
-      <c r="AM65" s="78"/>
+      <c r="AM65" s="82"/>
     </row>
     <row r="66" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A66" s="58" t="s">
+      <c r="A66" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="B66" s="60"/>
+      <c r="B66" s="59"/>
       <c r="D66" s="22"/>
       <c r="E66" s="22"/>
       <c r="F66" s="22"/>
@@ -16955,18 +16955,18 @@
       <c r="AC66" s="17"/>
       <c r="AD66" s="17"/>
       <c r="AE66" s="6"/>
-      <c r="AF66" s="77"/>
+      <c r="AF66" s="81"/>
       <c r="AG66" s="66"/>
       <c r="AH66" s="66"/>
       <c r="AI66" s="66"/>
       <c r="AJ66" s="66"/>
       <c r="AK66" s="66"/>
       <c r="AL66" s="66"/>
-      <c r="AM66" s="78"/>
+      <c r="AM66" s="82"/>
     </row>
     <row r="67" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A67" s="59"/>
-      <c r="B67" s="59"/>
+      <c r="A67" s="60"/>
+      <c r="B67" s="60"/>
       <c r="D67" s="19"/>
       <c r="E67" s="20"/>
       <c r="F67" s="21"/>
@@ -16998,20 +16998,20 @@
       <c r="AC67" s="17"/>
       <c r="AD67" s="17"/>
       <c r="AE67" s="6"/>
-      <c r="AF67" s="77"/>
+      <c r="AF67" s="81"/>
       <c r="AG67" s="66"/>
       <c r="AH67" s="66"/>
       <c r="AI67" s="66"/>
       <c r="AJ67" s="66"/>
       <c r="AK67" s="66"/>
       <c r="AL67" s="66"/>
-      <c r="AM67" s="78"/>
+      <c r="AM67" s="82"/>
     </row>
     <row r="68" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A68" s="58" t="s">
+      <c r="A68" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="B68" s="60"/>
+      <c r="B68" s="59"/>
       <c r="D68" s="22"/>
       <c r="E68" s="22"/>
       <c r="F68" s="22"/>
@@ -17043,18 +17043,18 @@
       <c r="AC68" s="17"/>
       <c r="AD68" s="17"/>
       <c r="AE68" s="6"/>
-      <c r="AF68" s="77"/>
+      <c r="AF68" s="81"/>
       <c r="AG68" s="66"/>
       <c r="AH68" s="66"/>
       <c r="AI68" s="66"/>
       <c r="AJ68" s="66"/>
       <c r="AK68" s="66"/>
       <c r="AL68" s="66"/>
-      <c r="AM68" s="78"/>
+      <c r="AM68" s="82"/>
     </row>
     <row r="69" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A69" s="59"/>
-      <c r="B69" s="59"/>
+      <c r="A69" s="60"/>
+      <c r="B69" s="60"/>
       <c r="D69" s="19"/>
       <c r="E69" s="20"/>
       <c r="F69" s="21"/>
@@ -17086,20 +17086,20 @@
       <c r="AC69" s="17"/>
       <c r="AD69" s="17"/>
       <c r="AE69" s="6"/>
-      <c r="AF69" s="77"/>
+      <c r="AF69" s="81"/>
       <c r="AG69" s="66"/>
       <c r="AH69" s="66"/>
       <c r="AI69" s="66"/>
       <c r="AJ69" s="66"/>
       <c r="AK69" s="66"/>
       <c r="AL69" s="66"/>
-      <c r="AM69" s="78"/>
+      <c r="AM69" s="82"/>
     </row>
     <row r="70" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A70" s="58" t="s">
+      <c r="A70" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="B70" s="60"/>
+      <c r="B70" s="59"/>
       <c r="D70" s="22"/>
       <c r="E70" s="22"/>
       <c r="F70" s="22"/>
@@ -17131,18 +17131,18 @@
       <c r="AC70" s="17"/>
       <c r="AD70" s="17"/>
       <c r="AE70" s="6"/>
-      <c r="AF70" s="77"/>
+      <c r="AF70" s="81"/>
       <c r="AG70" s="66"/>
       <c r="AH70" s="66"/>
       <c r="AI70" s="66"/>
       <c r="AJ70" s="66"/>
       <c r="AK70" s="66"/>
       <c r="AL70" s="66"/>
-      <c r="AM70" s="78"/>
+      <c r="AM70" s="82"/>
     </row>
     <row r="71" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A71" s="59"/>
-      <c r="B71" s="59"/>
+      <c r="A71" s="60"/>
+      <c r="B71" s="60"/>
       <c r="D71" s="19"/>
       <c r="E71" s="20"/>
       <c r="F71" s="21"/>
@@ -17174,20 +17174,20 @@
       <c r="AC71" s="17"/>
       <c r="AD71" s="17"/>
       <c r="AE71" s="6"/>
-      <c r="AF71" s="77"/>
+      <c r="AF71" s="81"/>
       <c r="AG71" s="66"/>
       <c r="AH71" s="66"/>
       <c r="AI71" s="66"/>
       <c r="AJ71" s="66"/>
       <c r="AK71" s="66"/>
       <c r="AL71" s="66"/>
-      <c r="AM71" s="78"/>
+      <c r="AM71" s="82"/>
     </row>
     <row r="72" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A72" s="58" t="s">
+      <c r="A72" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="B72" s="60"/>
+      <c r="B72" s="59"/>
       <c r="D72" s="22"/>
       <c r="E72" s="22"/>
       <c r="F72" s="22"/>
@@ -17219,18 +17219,18 @@
       <c r="AC72" s="17"/>
       <c r="AD72" s="17"/>
       <c r="AE72" s="6"/>
-      <c r="AF72" s="79"/>
-      <c r="AG72" s="80"/>
-      <c r="AH72" s="80"/>
-      <c r="AI72" s="80"/>
-      <c r="AJ72" s="80"/>
-      <c r="AK72" s="80"/>
-      <c r="AL72" s="80"/>
-      <c r="AM72" s="81"/>
+      <c r="AF72" s="83"/>
+      <c r="AG72" s="84"/>
+      <c r="AH72" s="84"/>
+      <c r="AI72" s="84"/>
+      <c r="AJ72" s="84"/>
+      <c r="AK72" s="84"/>
+      <c r="AL72" s="84"/>
+      <c r="AM72" s="85"/>
     </row>
     <row r="73" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A73" s="59"/>
-      <c r="B73" s="59"/>
+      <c r="A73" s="60"/>
+      <c r="B73" s="60"/>
       <c r="D73" s="19"/>
       <c r="E73" s="20"/>
       <c r="F73" s="21"/>
@@ -17274,10 +17274,10 @@
       <c r="AM73" s="38"/>
     </row>
     <row r="74" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A74" s="58" t="s">
+      <c r="A74" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="B74" s="60"/>
+      <c r="B74" s="59"/>
       <c r="D74" s="22"/>
       <c r="E74" s="22"/>
       <c r="F74" s="22"/>
@@ -17321,8 +17321,8 @@
       <c r="AM74" s="38"/>
     </row>
     <row r="75" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A75" s="59"/>
-      <c r="B75" s="59"/>
+      <c r="A75" s="60"/>
+      <c r="B75" s="60"/>
       <c r="D75" s="19"/>
       <c r="E75" s="20"/>
       <c r="F75" s="21"/>
@@ -17366,8 +17366,8 @@
       <c r="AM75" s="38"/>
     </row>
     <row r="76" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A76" s="61"/>
-      <c r="B76" s="61"/>
+      <c r="A76" s="88"/>
+      <c r="B76" s="88"/>
       <c r="D76" s="22"/>
       <c r="E76" s="22"/>
       <c r="F76" s="22"/>
@@ -17411,8 +17411,8 @@
       <c r="AM76" s="38"/>
     </row>
     <row r="77" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A77" s="59"/>
-      <c r="B77" s="59"/>
+      <c r="A77" s="60"/>
+      <c r="B77" s="60"/>
       <c r="D77" s="19"/>
       <c r="E77" s="20"/>
       <c r="F77" s="21"/>
@@ -17456,8 +17456,8 @@
       <c r="AM77" s="38"/>
     </row>
     <row r="78" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A78" s="61"/>
-      <c r="B78" s="61"/>
+      <c r="A78" s="88"/>
+      <c r="B78" s="88"/>
       <c r="D78" s="22"/>
       <c r="E78" s="22"/>
       <c r="F78" s="22"/>
@@ -17501,8 +17501,8 @@
       <c r="AM78" s="38"/>
     </row>
     <row r="79" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A79" s="59"/>
-      <c r="B79" s="59"/>
+      <c r="A79" s="60"/>
+      <c r="B79" s="60"/>
       <c r="D79" s="19"/>
       <c r="E79" s="20"/>
       <c r="F79" s="21"/>
@@ -17544,8 +17544,8 @@
       <c r="AM79" s="38"/>
     </row>
     <row r="80" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A80" s="61"/>
-      <c r="B80" s="61"/>
+      <c r="A80" s="88"/>
+      <c r="B80" s="88"/>
       <c r="D80" s="22"/>
       <c r="E80" s="22"/>
       <c r="F80" s="22"/>
@@ -17587,8 +17587,8 @@
       <c r="AM80" s="50"/>
     </row>
     <row r="81" spans="1:31" ht="14.25" customHeight="1">
-      <c r="A81" s="59"/>
-      <c r="B81" s="59"/>
+      <c r="A81" s="60"/>
+      <c r="B81" s="60"/>
       <c r="D81" s="19"/>
       <c r="E81" s="20"/>
       <c r="F81" s="21"/>
@@ -18589,17 +18589,62 @@
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="AF44:AM72"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="AA1:AD1"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="AF3:AM37"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A68:A69"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="B38:B39"/>
@@ -18614,62 +18659,17 @@
     <mergeCell ref="B34:B35"/>
     <mergeCell ref="A36:A37"/>
     <mergeCell ref="B36:B37"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="AA1:AD1"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="AF3:AM37"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="AF44:AM72"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="86" orientation="portrait"/>

--- a/Documents/Planification_Projet_2026.xlsx
+++ b/Documents/Planification_Projet_2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fauret.SNIRW\Projet_banc_test_self\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9340F35C-C567-4BF0-BAD6-0B2DF7FBC49F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{474B44F3-0813-498B-8E5E-FBB7FB489C47}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1456,7 +1456,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1503,6 +1503,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF8080"/>
         <bgColor rgb="FFFF8080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1935,7 +1941,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2088,6 +2094,13 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -8163,8 +8176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AK1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -8492,7 +8505,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="H7" s="40"/>
-      <c r="I7" s="17"/>
+      <c r="I7" s="40"/>
       <c r="J7" s="17"/>
       <c r="K7" s="17"/>
       <c r="L7" s="18"/>
@@ -8614,7 +8627,7 @@
       <c r="A10" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="90" t="s">
+      <c r="B10" s="94" t="s">
         <v>67</v>
       </c>
       <c r="D10" s="22"/>
@@ -8657,7 +8670,7 @@
     </row>
     <row r="11" spans="1:37" ht="14.25" customHeight="1">
       <c r="A11" s="60"/>
-      <c r="B11" s="60"/>
+      <c r="B11" s="93"/>
       <c r="D11" s="54" t="s">
         <v>65</v>
       </c>
@@ -9416,7 +9429,7 @@
         <f t="array" aca="1" ref="G28" ca="1">IF(ISBLANK(INDIRECT(ADDRESS(ROW(),1,2,TRUE()))),"",IF((INDIRECT(ADDRESS(3,COLUMN(),2,1))="g"),"g"," "))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H28" s="17"/>
+      <c r="H28" s="35"/>
       <c r="I28" s="35"/>
       <c r="J28" s="17"/>
       <c r="K28" s="17"/>
@@ -9459,8 +9472,8 @@
         <f t="array" aca="1" ref="G29" ca="1">IF(ISBLANK(INDIRECT(ADDRESS(ROW()-1,1,2,TRUE()))),"",IF((INDIRECT(ADDRESS(3,COLUMN(),2,1))="g"),"g"," "))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
       <c r="J29" s="17"/>
       <c r="K29" s="17"/>
       <c r="L29" s="18"/>
@@ -10198,7 +10211,7 @@
       <c r="A46" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="B46" s="90" t="s">
+      <c r="B46" s="94" t="s">
         <v>67</v>
       </c>
       <c r="D46" s="22"/>
@@ -10241,7 +10254,7 @@
     </row>
     <row r="47" spans="1:37" ht="14.25" customHeight="1">
       <c r="A47" s="60"/>
-      <c r="B47" s="60"/>
+      <c r="B47" s="93"/>
       <c r="D47" s="19"/>
       <c r="E47" s="20"/>
       <c r="F47" s="55" t="s">
@@ -10286,7 +10299,7 @@
       <c r="A48" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="B48" s="89" t="s">
+      <c r="B48" s="92" t="s">
         <v>93</v>
       </c>
       <c r="D48" s="22"/>
@@ -10329,7 +10342,7 @@
     </row>
     <row r="49" spans="1:37" ht="14.25" customHeight="1">
       <c r="A49" s="60"/>
-      <c r="B49" s="60"/>
+      <c r="B49" s="93"/>
       <c r="D49" s="19"/>
       <c r="E49" s="20"/>
       <c r="F49" s="55" t="s">

--- a/Documents/Planification_Projet_2026.xlsx
+++ b/Documents/Planification_Projet_2026.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fauret.SNIRW\Projet_banc_test_self\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\lerouxe.SNIRW\Projet_banc_test_self\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{474B44F3-0813-498B-8E5E-FBB7FB489C47}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD9E84B5-981B-4FF5-874F-E7AB33EBA531}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1456,7 +1456,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1503,12 +1503,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF8080"/>
         <bgColor rgb="FFFF8080"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1941,7 +1935,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2024,25 +2018,22 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2051,12 +2042,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2080,27 +2065,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2127,9 +2105,9 @@
       <xdr:col>33</xdr:col>
       <xdr:colOff>-9525</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="38100" cy="523875"/>
+    <xdr:ext cx="47625" cy="533400"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="Shape 3">
@@ -2143,8 +2121,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5345639" y="3514861"/>
-          <a:ext cx="722" cy="530278"/>
+          <a:off x="5326950" y="3518063"/>
+          <a:ext cx="38100" cy="523875"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2221,9 +2199,9 @@
       <xdr:col>32</xdr:col>
       <xdr:colOff>-9525</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="38100" cy="523875"/>
+    <xdr:ext cx="47625" cy="533400"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="Shape 3">
@@ -2237,8 +2215,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5345639" y="3514861"/>
-          <a:ext cx="722" cy="530278"/>
+          <a:off x="5326950" y="3518063"/>
+          <a:ext cx="38100" cy="523875"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2315,9 +2293,9 @@
       <xdr:col>34</xdr:col>
       <xdr:colOff>-9525</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="38100" cy="523875"/>
+    <xdr:ext cx="47625" cy="533400"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="Shape 3">
@@ -2331,8 +2309,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5345639" y="3514861"/>
-          <a:ext cx="722" cy="530278"/>
+          <a:off x="5326950" y="3518063"/>
+          <a:ext cx="38100" cy="523875"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2643,12 +2621,12 @@
       <c r="Y1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="Z1" s="62">
+      <c r="Z1" s="59">
         <v>2024</v>
       </c>
-      <c r="AA1" s="63"/>
-      <c r="AB1" s="63"/>
-      <c r="AC1" s="64"/>
+      <c r="AA1" s="60"/>
+      <c r="AB1" s="60"/>
+      <c r="AC1" s="61"/>
       <c r="AD1" s="6"/>
       <c r="AE1" s="4" t="s">
         <v>2</v>
@@ -2703,10 +2681,10 @@
       <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="65"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
       <c r="I3" s="13" t="s">
         <v>5</v>
       </c>
@@ -2771,31 +2749,31 @@
         <v>25</v>
       </c>
       <c r="AD3" s="6"/>
-      <c r="AE3" s="69" t="s">
+      <c r="AE3" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="AF3" s="70"/>
-      <c r="AG3" s="70"/>
-      <c r="AH3" s="70"/>
-      <c r="AI3" s="70"/>
-      <c r="AJ3" s="70"/>
-      <c r="AK3" s="70"/>
-      <c r="AL3" s="71"/>
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="65"/>
+      <c r="AH3" s="65"/>
+      <c r="AI3" s="65"/>
+      <c r="AJ3" s="65"/>
+      <c r="AK3" s="65"/>
+      <c r="AL3" s="66"/>
     </row>
     <row r="4" spans="1:38" ht="14.25" customHeight="1">
-      <c r="D4" s="65"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
       <c r="AD4" s="6"/>
-      <c r="AE4" s="72"/>
-      <c r="AF4" s="66"/>
-      <c r="AG4" s="66"/>
-      <c r="AH4" s="66"/>
-      <c r="AI4" s="66"/>
-      <c r="AJ4" s="66"/>
-      <c r="AK4" s="66"/>
-      <c r="AL4" s="73"/>
+      <c r="AE4" s="67"/>
+      <c r="AF4" s="63"/>
+      <c r="AG4" s="63"/>
+      <c r="AH4" s="63"/>
+      <c r="AI4" s="63"/>
+      <c r="AJ4" s="63"/>
+      <c r="AK4" s="63"/>
+      <c r="AL4" s="68"/>
     </row>
     <row r="5" spans="1:38" ht="14.25" customHeight="1">
       <c r="A5" s="8" t="s">
@@ -2836,20 +2814,20 @@
       <c r="AA5" s="16"/>
       <c r="AC5" s="16"/>
       <c r="AD5" s="6"/>
-      <c r="AE5" s="72"/>
-      <c r="AF5" s="66"/>
-      <c r="AG5" s="66"/>
-      <c r="AH5" s="66"/>
-      <c r="AI5" s="66"/>
-      <c r="AJ5" s="66"/>
-      <c r="AK5" s="66"/>
-      <c r="AL5" s="73"/>
+      <c r="AE5" s="67"/>
+      <c r="AF5" s="63"/>
+      <c r="AG5" s="63"/>
+      <c r="AH5" s="63"/>
+      <c r="AI5" s="63"/>
+      <c r="AJ5" s="63"/>
+      <c r="AK5" s="63"/>
+      <c r="AL5" s="68"/>
     </row>
     <row r="6" spans="1:38" ht="15" customHeight="1">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="77"/>
+      <c r="B6" s="72"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
@@ -2877,18 +2855,18 @@
       <c r="AB6" s="17"/>
       <c r="AC6" s="17"/>
       <c r="AD6" s="6"/>
-      <c r="AE6" s="72"/>
-      <c r="AF6" s="66"/>
-      <c r="AG6" s="66"/>
-      <c r="AH6" s="66"/>
-      <c r="AI6" s="66"/>
-      <c r="AJ6" s="66"/>
-      <c r="AK6" s="66"/>
-      <c r="AL6" s="73"/>
+      <c r="AE6" s="67"/>
+      <c r="AF6" s="63"/>
+      <c r="AG6" s="63"/>
+      <c r="AH6" s="63"/>
+      <c r="AI6" s="63"/>
+      <c r="AJ6" s="63"/>
+      <c r="AK6" s="63"/>
+      <c r="AL6" s="68"/>
     </row>
     <row r="7" spans="1:38" ht="15" customHeight="1">
-      <c r="A7" s="60"/>
-      <c r="B7" s="60"/>
+      <c r="A7" s="55"/>
+      <c r="B7" s="55"/>
       <c r="D7" s="19"/>
       <c r="E7" s="20"/>
       <c r="F7" s="21"/>
@@ -2916,20 +2894,20 @@
       <c r="AB7" s="17"/>
       <c r="AC7" s="17"/>
       <c r="AD7" s="6"/>
-      <c r="AE7" s="72"/>
-      <c r="AF7" s="66"/>
-      <c r="AG7" s="66"/>
-      <c r="AH7" s="66"/>
-      <c r="AI7" s="66"/>
-      <c r="AJ7" s="66"/>
-      <c r="AK7" s="66"/>
-      <c r="AL7" s="73"/>
+      <c r="AE7" s="67"/>
+      <c r="AF7" s="63"/>
+      <c r="AG7" s="63"/>
+      <c r="AH7" s="63"/>
+      <c r="AI7" s="63"/>
+      <c r="AJ7" s="63"/>
+      <c r="AK7" s="63"/>
+      <c r="AL7" s="68"/>
     </row>
     <row r="8" spans="1:38" ht="15" customHeight="1">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="68"/>
+      <c r="B8" s="56"/>
       <c r="D8" s="22"/>
       <c r="E8" s="22"/>
       <c r="F8" s="22"/>
@@ -2957,18 +2935,18 @@
       <c r="AB8" s="17"/>
       <c r="AC8" s="17"/>
       <c r="AD8" s="6"/>
-      <c r="AE8" s="72"/>
-      <c r="AF8" s="66"/>
-      <c r="AG8" s="66"/>
-      <c r="AH8" s="66"/>
-      <c r="AI8" s="66"/>
-      <c r="AJ8" s="66"/>
-      <c r="AK8" s="66"/>
-      <c r="AL8" s="73"/>
+      <c r="AE8" s="67"/>
+      <c r="AF8" s="63"/>
+      <c r="AG8" s="63"/>
+      <c r="AH8" s="63"/>
+      <c r="AI8" s="63"/>
+      <c r="AJ8" s="63"/>
+      <c r="AK8" s="63"/>
+      <c r="AL8" s="68"/>
     </row>
     <row r="9" spans="1:38" ht="15" customHeight="1">
-      <c r="A9" s="60"/>
-      <c r="B9" s="60"/>
+      <c r="A9" s="55"/>
+      <c r="B9" s="55"/>
       <c r="D9" s="19"/>
       <c r="E9" s="20"/>
       <c r="F9" s="21"/>
@@ -2996,20 +2974,20 @@
       <c r="AB9" s="17"/>
       <c r="AC9" s="17"/>
       <c r="AD9" s="6"/>
-      <c r="AE9" s="72"/>
-      <c r="AF9" s="66"/>
-      <c r="AG9" s="66"/>
-      <c r="AH9" s="66"/>
-      <c r="AI9" s="66"/>
-      <c r="AJ9" s="66"/>
-      <c r="AK9" s="66"/>
-      <c r="AL9" s="73"/>
+      <c r="AE9" s="67"/>
+      <c r="AF9" s="63"/>
+      <c r="AG9" s="63"/>
+      <c r="AH9" s="63"/>
+      <c r="AI9" s="63"/>
+      <c r="AJ9" s="63"/>
+      <c r="AK9" s="63"/>
+      <c r="AL9" s="68"/>
     </row>
     <row r="10" spans="1:38" ht="15" customHeight="1">
-      <c r="A10" s="61" t="s">
+      <c r="A10" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="68"/>
+      <c r="B10" s="56"/>
       <c r="D10" s="22"/>
       <c r="E10" s="22"/>
       <c r="F10" s="22"/>
@@ -3037,18 +3015,18 @@
       <c r="AB10" s="17"/>
       <c r="AC10" s="17"/>
       <c r="AD10" s="6"/>
-      <c r="AE10" s="72"/>
-      <c r="AF10" s="66"/>
-      <c r="AG10" s="66"/>
-      <c r="AH10" s="66"/>
-      <c r="AI10" s="66"/>
-      <c r="AJ10" s="66"/>
-      <c r="AK10" s="66"/>
-      <c r="AL10" s="73"/>
+      <c r="AE10" s="67"/>
+      <c r="AF10" s="63"/>
+      <c r="AG10" s="63"/>
+      <c r="AH10" s="63"/>
+      <c r="AI10" s="63"/>
+      <c r="AJ10" s="63"/>
+      <c r="AK10" s="63"/>
+      <c r="AL10" s="68"/>
     </row>
     <row r="11" spans="1:38" ht="15" customHeight="1">
-      <c r="A11" s="60"/>
-      <c r="B11" s="60"/>
+      <c r="A11" s="55"/>
+      <c r="B11" s="55"/>
       <c r="D11" s="19"/>
       <c r="E11" s="20"/>
       <c r="F11" s="21"/>
@@ -3076,20 +3054,20 @@
       <c r="AB11" s="17"/>
       <c r="AC11" s="17"/>
       <c r="AD11" s="6"/>
-      <c r="AE11" s="72"/>
-      <c r="AF11" s="66"/>
-      <c r="AG11" s="66"/>
-      <c r="AH11" s="66"/>
-      <c r="AI11" s="66"/>
-      <c r="AJ11" s="66"/>
-      <c r="AK11" s="66"/>
-      <c r="AL11" s="73"/>
+      <c r="AE11" s="67"/>
+      <c r="AF11" s="63"/>
+      <c r="AG11" s="63"/>
+      <c r="AH11" s="63"/>
+      <c r="AI11" s="63"/>
+      <c r="AJ11" s="63"/>
+      <c r="AK11" s="63"/>
+      <c r="AL11" s="68"/>
     </row>
     <row r="12" spans="1:38" ht="15" customHeight="1">
-      <c r="A12" s="61" t="s">
+      <c r="A12" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="68"/>
+      <c r="B12" s="56"/>
       <c r="D12" s="22"/>
       <c r="E12" s="22"/>
       <c r="F12" s="22"/>
@@ -3117,18 +3095,18 @@
       <c r="AB12" s="17"/>
       <c r="AC12" s="17"/>
       <c r="AD12" s="6"/>
-      <c r="AE12" s="72"/>
-      <c r="AF12" s="66"/>
-      <c r="AG12" s="66"/>
-      <c r="AH12" s="66"/>
-      <c r="AI12" s="66"/>
-      <c r="AJ12" s="66"/>
-      <c r="AK12" s="66"/>
-      <c r="AL12" s="73"/>
+      <c r="AE12" s="67"/>
+      <c r="AF12" s="63"/>
+      <c r="AG12" s="63"/>
+      <c r="AH12" s="63"/>
+      <c r="AI12" s="63"/>
+      <c r="AJ12" s="63"/>
+      <c r="AK12" s="63"/>
+      <c r="AL12" s="68"/>
     </row>
     <row r="13" spans="1:38" ht="15" customHeight="1">
-      <c r="A13" s="60"/>
-      <c r="B13" s="60"/>
+      <c r="A13" s="55"/>
+      <c r="B13" s="55"/>
       <c r="D13" s="19"/>
       <c r="E13" s="20"/>
       <c r="F13" s="21"/>
@@ -3156,20 +3134,20 @@
       <c r="AB13" s="17"/>
       <c r="AC13" s="17"/>
       <c r="AD13" s="6"/>
-      <c r="AE13" s="72"/>
-      <c r="AF13" s="66"/>
-      <c r="AG13" s="66"/>
-      <c r="AH13" s="66"/>
-      <c r="AI13" s="66"/>
-      <c r="AJ13" s="66"/>
-      <c r="AK13" s="66"/>
-      <c r="AL13" s="73"/>
+      <c r="AE13" s="67"/>
+      <c r="AF13" s="63"/>
+      <c r="AG13" s="63"/>
+      <c r="AH13" s="63"/>
+      <c r="AI13" s="63"/>
+      <c r="AJ13" s="63"/>
+      <c r="AK13" s="63"/>
+      <c r="AL13" s="68"/>
     </row>
     <row r="14" spans="1:38" ht="15" customHeight="1">
-      <c r="A14" s="61" t="s">
+      <c r="A14" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="68"/>
+      <c r="B14" s="56"/>
       <c r="D14" s="22"/>
       <c r="E14" s="22"/>
       <c r="F14" s="22"/>
@@ -3197,18 +3175,18 @@
       <c r="AB14" s="17"/>
       <c r="AC14" s="17"/>
       <c r="AD14" s="6"/>
-      <c r="AE14" s="72"/>
-      <c r="AF14" s="66"/>
-      <c r="AG14" s="66"/>
-      <c r="AH14" s="66"/>
-      <c r="AI14" s="66"/>
-      <c r="AJ14" s="66"/>
-      <c r="AK14" s="66"/>
-      <c r="AL14" s="73"/>
+      <c r="AE14" s="67"/>
+      <c r="AF14" s="63"/>
+      <c r="AG14" s="63"/>
+      <c r="AH14" s="63"/>
+      <c r="AI14" s="63"/>
+      <c r="AJ14" s="63"/>
+      <c r="AK14" s="63"/>
+      <c r="AL14" s="68"/>
     </row>
     <row r="15" spans="1:38" ht="15" customHeight="1">
-      <c r="A15" s="60"/>
-      <c r="B15" s="60"/>
+      <c r="A15" s="55"/>
+      <c r="B15" s="55"/>
       <c r="D15" s="19"/>
       <c r="E15" s="20"/>
       <c r="F15" s="21"/>
@@ -3236,20 +3214,20 @@
       <c r="AB15" s="17"/>
       <c r="AC15" s="17"/>
       <c r="AD15" s="6"/>
-      <c r="AE15" s="72"/>
-      <c r="AF15" s="66"/>
-      <c r="AG15" s="66"/>
-      <c r="AH15" s="66"/>
-      <c r="AI15" s="66"/>
-      <c r="AJ15" s="66"/>
-      <c r="AK15" s="66"/>
-      <c r="AL15" s="73"/>
+      <c r="AE15" s="67"/>
+      <c r="AF15" s="63"/>
+      <c r="AG15" s="63"/>
+      <c r="AH15" s="63"/>
+      <c r="AI15" s="63"/>
+      <c r="AJ15" s="63"/>
+      <c r="AK15" s="63"/>
+      <c r="AL15" s="68"/>
     </row>
     <row r="16" spans="1:38" ht="15" customHeight="1">
-      <c r="A16" s="61" t="s">
+      <c r="A16" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="59"/>
+      <c r="B16" s="57"/>
       <c r="D16" s="22"/>
       <c r="E16" s="22"/>
       <c r="F16" s="22"/>
@@ -3277,18 +3255,18 @@
       <c r="AB16" s="17"/>
       <c r="AC16" s="17"/>
       <c r="AD16" s="6"/>
-      <c r="AE16" s="72"/>
-      <c r="AF16" s="66"/>
-      <c r="AG16" s="66"/>
-      <c r="AH16" s="66"/>
-      <c r="AI16" s="66"/>
-      <c r="AJ16" s="66"/>
-      <c r="AK16" s="66"/>
-      <c r="AL16" s="73"/>
+      <c r="AE16" s="67"/>
+      <c r="AF16" s="63"/>
+      <c r="AG16" s="63"/>
+      <c r="AH16" s="63"/>
+      <c r="AI16" s="63"/>
+      <c r="AJ16" s="63"/>
+      <c r="AK16" s="63"/>
+      <c r="AL16" s="68"/>
     </row>
     <row r="17" spans="1:38" ht="15" customHeight="1">
-      <c r="A17" s="60"/>
-      <c r="B17" s="60"/>
+      <c r="A17" s="55"/>
+      <c r="B17" s="55"/>
       <c r="D17" s="19"/>
       <c r="E17" s="20"/>
       <c r="F17" s="21"/>
@@ -3316,20 +3294,20 @@
       <c r="AB17" s="17"/>
       <c r="AC17" s="17"/>
       <c r="AD17" s="6"/>
-      <c r="AE17" s="72"/>
-      <c r="AF17" s="66"/>
-      <c r="AG17" s="66"/>
-      <c r="AH17" s="66"/>
-      <c r="AI17" s="66"/>
-      <c r="AJ17" s="66"/>
-      <c r="AK17" s="66"/>
-      <c r="AL17" s="73"/>
+      <c r="AE17" s="67"/>
+      <c r="AF17" s="63"/>
+      <c r="AG17" s="63"/>
+      <c r="AH17" s="63"/>
+      <c r="AI17" s="63"/>
+      <c r="AJ17" s="63"/>
+      <c r="AK17" s="63"/>
+      <c r="AL17" s="68"/>
     </row>
     <row r="18" spans="1:38" ht="15" customHeight="1">
-      <c r="A18" s="61" t="s">
+      <c r="A18" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="59"/>
+      <c r="B18" s="57"/>
       <c r="D18" s="22"/>
       <c r="E18" s="22"/>
       <c r="F18" s="22"/>
@@ -3357,18 +3335,18 @@
       <c r="AB18" s="17"/>
       <c r="AC18" s="17"/>
       <c r="AD18" s="6"/>
-      <c r="AE18" s="72"/>
-      <c r="AF18" s="66"/>
-      <c r="AG18" s="66"/>
-      <c r="AH18" s="66"/>
-      <c r="AI18" s="66"/>
-      <c r="AJ18" s="66"/>
-      <c r="AK18" s="66"/>
-      <c r="AL18" s="73"/>
+      <c r="AE18" s="67"/>
+      <c r="AF18" s="63"/>
+      <c r="AG18" s="63"/>
+      <c r="AH18" s="63"/>
+      <c r="AI18" s="63"/>
+      <c r="AJ18" s="63"/>
+      <c r="AK18" s="63"/>
+      <c r="AL18" s="68"/>
     </row>
     <row r="19" spans="1:38" ht="15" customHeight="1">
-      <c r="A19" s="60"/>
-      <c r="B19" s="60"/>
+      <c r="A19" s="55"/>
+      <c r="B19" s="55"/>
       <c r="D19" s="19"/>
       <c r="E19" s="20"/>
       <c r="F19" s="21"/>
@@ -3396,20 +3374,20 @@
       <c r="AB19" s="17"/>
       <c r="AC19" s="17"/>
       <c r="AD19" s="6"/>
-      <c r="AE19" s="72"/>
-      <c r="AF19" s="66"/>
-      <c r="AG19" s="66"/>
-      <c r="AH19" s="66"/>
-      <c r="AI19" s="66"/>
-      <c r="AJ19" s="66"/>
-      <c r="AK19" s="66"/>
-      <c r="AL19" s="73"/>
+      <c r="AE19" s="67"/>
+      <c r="AF19" s="63"/>
+      <c r="AG19" s="63"/>
+      <c r="AH19" s="63"/>
+      <c r="AI19" s="63"/>
+      <c r="AJ19" s="63"/>
+      <c r="AK19" s="63"/>
+      <c r="AL19" s="68"/>
     </row>
     <row r="20" spans="1:38" ht="15" customHeight="1">
-      <c r="A20" s="61" t="s">
+      <c r="A20" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="59"/>
+      <c r="B20" s="57"/>
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
@@ -3437,18 +3415,18 @@
       <c r="AB20" s="17"/>
       <c r="AC20" s="17"/>
       <c r="AD20" s="6"/>
-      <c r="AE20" s="72"/>
-      <c r="AF20" s="66"/>
-      <c r="AG20" s="66"/>
-      <c r="AH20" s="66"/>
-      <c r="AI20" s="66"/>
-      <c r="AJ20" s="66"/>
-      <c r="AK20" s="66"/>
-      <c r="AL20" s="73"/>
+      <c r="AE20" s="67"/>
+      <c r="AF20" s="63"/>
+      <c r="AG20" s="63"/>
+      <c r="AH20" s="63"/>
+      <c r="AI20" s="63"/>
+      <c r="AJ20" s="63"/>
+      <c r="AK20" s="63"/>
+      <c r="AL20" s="68"/>
     </row>
     <row r="21" spans="1:38" ht="15" customHeight="1">
-      <c r="A21" s="60"/>
-      <c r="B21" s="60"/>
+      <c r="A21" s="55"/>
+      <c r="B21" s="55"/>
       <c r="D21" s="19"/>
       <c r="E21" s="20"/>
       <c r="F21" s="21"/>
@@ -3476,20 +3454,20 @@
       <c r="AB21" s="17"/>
       <c r="AC21" s="17"/>
       <c r="AD21" s="6"/>
-      <c r="AE21" s="72"/>
-      <c r="AF21" s="66"/>
-      <c r="AG21" s="66"/>
-      <c r="AH21" s="66"/>
-      <c r="AI21" s="66"/>
-      <c r="AJ21" s="66"/>
-      <c r="AK21" s="66"/>
-      <c r="AL21" s="73"/>
+      <c r="AE21" s="67"/>
+      <c r="AF21" s="63"/>
+      <c r="AG21" s="63"/>
+      <c r="AH21" s="63"/>
+      <c r="AI21" s="63"/>
+      <c r="AJ21" s="63"/>
+      <c r="AK21" s="63"/>
+      <c r="AL21" s="68"/>
     </row>
     <row r="22" spans="1:38" ht="15" customHeight="1">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="59"/>
+      <c r="B22" s="57"/>
       <c r="D22" s="22"/>
       <c r="E22" s="22"/>
       <c r="F22" s="22"/>
@@ -3517,18 +3495,18 @@
       <c r="AB22" s="17"/>
       <c r="AC22" s="17"/>
       <c r="AD22" s="6"/>
-      <c r="AE22" s="72"/>
-      <c r="AF22" s="66"/>
-      <c r="AG22" s="66"/>
-      <c r="AH22" s="66"/>
-      <c r="AI22" s="66"/>
-      <c r="AJ22" s="66"/>
-      <c r="AK22" s="66"/>
-      <c r="AL22" s="73"/>
+      <c r="AE22" s="67"/>
+      <c r="AF22" s="63"/>
+      <c r="AG22" s="63"/>
+      <c r="AH22" s="63"/>
+      <c r="AI22" s="63"/>
+      <c r="AJ22" s="63"/>
+      <c r="AK22" s="63"/>
+      <c r="AL22" s="68"/>
     </row>
     <row r="23" spans="1:38" ht="15" customHeight="1">
-      <c r="A23" s="60"/>
-      <c r="B23" s="60"/>
+      <c r="A23" s="55"/>
+      <c r="B23" s="55"/>
       <c r="D23" s="19"/>
       <c r="E23" s="20"/>
       <c r="F23" s="21"/>
@@ -3556,20 +3534,20 @@
       <c r="AB23" s="17"/>
       <c r="AC23" s="17"/>
       <c r="AD23" s="6"/>
-      <c r="AE23" s="72"/>
-      <c r="AF23" s="66"/>
-      <c r="AG23" s="66"/>
-      <c r="AH23" s="66"/>
-      <c r="AI23" s="66"/>
-      <c r="AJ23" s="66"/>
-      <c r="AK23" s="66"/>
-      <c r="AL23" s="73"/>
+      <c r="AE23" s="67"/>
+      <c r="AF23" s="63"/>
+      <c r="AG23" s="63"/>
+      <c r="AH23" s="63"/>
+      <c r="AI23" s="63"/>
+      <c r="AJ23" s="63"/>
+      <c r="AK23" s="63"/>
+      <c r="AL23" s="68"/>
     </row>
     <row r="24" spans="1:38" ht="15" customHeight="1">
-      <c r="A24" s="61" t="s">
+      <c r="A24" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="59"/>
+      <c r="B24" s="57"/>
       <c r="D24" s="22"/>
       <c r="E24" s="22"/>
       <c r="F24" s="22"/>
@@ -3597,18 +3575,18 @@
       <c r="AB24" s="17"/>
       <c r="AC24" s="17"/>
       <c r="AD24" s="6"/>
-      <c r="AE24" s="72"/>
-      <c r="AF24" s="66"/>
-      <c r="AG24" s="66"/>
-      <c r="AH24" s="66"/>
-      <c r="AI24" s="66"/>
-      <c r="AJ24" s="66"/>
-      <c r="AK24" s="66"/>
-      <c r="AL24" s="73"/>
+      <c r="AE24" s="67"/>
+      <c r="AF24" s="63"/>
+      <c r="AG24" s="63"/>
+      <c r="AH24" s="63"/>
+      <c r="AI24" s="63"/>
+      <c r="AJ24" s="63"/>
+      <c r="AK24" s="63"/>
+      <c r="AL24" s="68"/>
     </row>
     <row r="25" spans="1:38" ht="15" customHeight="1">
-      <c r="A25" s="60"/>
-      <c r="B25" s="60"/>
+      <c r="A25" s="55"/>
+      <c r="B25" s="55"/>
       <c r="D25" s="19"/>
       <c r="E25" s="20"/>
       <c r="F25" s="21"/>
@@ -3636,20 +3614,20 @@
       <c r="AB25" s="17"/>
       <c r="AC25" s="17"/>
       <c r="AD25" s="6"/>
-      <c r="AE25" s="72"/>
-      <c r="AF25" s="66"/>
-      <c r="AG25" s="66"/>
-      <c r="AH25" s="66"/>
-      <c r="AI25" s="66"/>
-      <c r="AJ25" s="66"/>
-      <c r="AK25" s="66"/>
-      <c r="AL25" s="73"/>
+      <c r="AE25" s="67"/>
+      <c r="AF25" s="63"/>
+      <c r="AG25" s="63"/>
+      <c r="AH25" s="63"/>
+      <c r="AI25" s="63"/>
+      <c r="AJ25" s="63"/>
+      <c r="AK25" s="63"/>
+      <c r="AL25" s="68"/>
     </row>
     <row r="26" spans="1:38" ht="15" customHeight="1">
-      <c r="A26" s="61" t="s">
+      <c r="A26" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="59"/>
+      <c r="B26" s="57"/>
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>
       <c r="F26" s="22"/>
@@ -3677,18 +3655,18 @@
       <c r="AB26" s="17"/>
       <c r="AC26" s="17"/>
       <c r="AD26" s="6"/>
-      <c r="AE26" s="72"/>
-      <c r="AF26" s="66"/>
-      <c r="AG26" s="66"/>
-      <c r="AH26" s="66"/>
-      <c r="AI26" s="66"/>
-      <c r="AJ26" s="66"/>
-      <c r="AK26" s="66"/>
-      <c r="AL26" s="73"/>
+      <c r="AE26" s="67"/>
+      <c r="AF26" s="63"/>
+      <c r="AG26" s="63"/>
+      <c r="AH26" s="63"/>
+      <c r="AI26" s="63"/>
+      <c r="AJ26" s="63"/>
+      <c r="AK26" s="63"/>
+      <c r="AL26" s="68"/>
     </row>
     <row r="27" spans="1:38" ht="15" customHeight="1">
-      <c r="A27" s="60"/>
-      <c r="B27" s="60"/>
+      <c r="A27" s="55"/>
+      <c r="B27" s="55"/>
       <c r="D27" s="19"/>
       <c r="E27" s="20"/>
       <c r="F27" s="21"/>
@@ -3716,20 +3694,20 @@
       <c r="AB27" s="17"/>
       <c r="AC27" s="17"/>
       <c r="AD27" s="6"/>
-      <c r="AE27" s="72"/>
-      <c r="AF27" s="66"/>
-      <c r="AG27" s="66"/>
-      <c r="AH27" s="66"/>
-      <c r="AI27" s="66"/>
-      <c r="AJ27" s="66"/>
-      <c r="AK27" s="66"/>
-      <c r="AL27" s="73"/>
+      <c r="AE27" s="67"/>
+      <c r="AF27" s="63"/>
+      <c r="AG27" s="63"/>
+      <c r="AH27" s="63"/>
+      <c r="AI27" s="63"/>
+      <c r="AJ27" s="63"/>
+      <c r="AK27" s="63"/>
+      <c r="AL27" s="68"/>
     </row>
     <row r="28" spans="1:38" ht="15" customHeight="1">
-      <c r="A28" s="61" t="s">
+      <c r="A28" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="59"/>
+      <c r="B28" s="57"/>
       <c r="D28" s="22"/>
       <c r="E28" s="22"/>
       <c r="F28" s="22"/>
@@ -3757,18 +3735,18 @@
       <c r="AB28" s="17"/>
       <c r="AC28" s="17"/>
       <c r="AD28" s="6"/>
-      <c r="AE28" s="72"/>
-      <c r="AF28" s="66"/>
-      <c r="AG28" s="66"/>
-      <c r="AH28" s="66"/>
-      <c r="AI28" s="66"/>
-      <c r="AJ28" s="66"/>
-      <c r="AK28" s="66"/>
-      <c r="AL28" s="73"/>
+      <c r="AE28" s="67"/>
+      <c r="AF28" s="63"/>
+      <c r="AG28" s="63"/>
+      <c r="AH28" s="63"/>
+      <c r="AI28" s="63"/>
+      <c r="AJ28" s="63"/>
+      <c r="AK28" s="63"/>
+      <c r="AL28" s="68"/>
     </row>
     <row r="29" spans="1:38" ht="15" customHeight="1">
-      <c r="A29" s="60"/>
-      <c r="B29" s="60"/>
+      <c r="A29" s="55"/>
+      <c r="B29" s="55"/>
       <c r="D29" s="19"/>
       <c r="E29" s="20"/>
       <c r="F29" s="21"/>
@@ -3796,20 +3774,20 @@
       <c r="AB29" s="17"/>
       <c r="AC29" s="17"/>
       <c r="AD29" s="6"/>
-      <c r="AE29" s="72"/>
-      <c r="AF29" s="66"/>
-      <c r="AG29" s="66"/>
-      <c r="AH29" s="66"/>
-      <c r="AI29" s="66"/>
-      <c r="AJ29" s="66"/>
-      <c r="AK29" s="66"/>
-      <c r="AL29" s="73"/>
+      <c r="AE29" s="67"/>
+      <c r="AF29" s="63"/>
+      <c r="AG29" s="63"/>
+      <c r="AH29" s="63"/>
+      <c r="AI29" s="63"/>
+      <c r="AJ29" s="63"/>
+      <c r="AK29" s="63"/>
+      <c r="AL29" s="68"/>
     </row>
     <row r="30" spans="1:38" ht="15" customHeight="1">
-      <c r="A30" s="61" t="s">
+      <c r="A30" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="59"/>
+      <c r="B30" s="57"/>
       <c r="D30" s="22"/>
       <c r="E30" s="22"/>
       <c r="F30" s="22"/>
@@ -3837,18 +3815,18 @@
       <c r="AB30" s="17"/>
       <c r="AC30" s="17"/>
       <c r="AD30" s="6"/>
-      <c r="AE30" s="72"/>
-      <c r="AF30" s="66"/>
-      <c r="AG30" s="66"/>
-      <c r="AH30" s="66"/>
-      <c r="AI30" s="66"/>
-      <c r="AJ30" s="66"/>
-      <c r="AK30" s="66"/>
-      <c r="AL30" s="73"/>
+      <c r="AE30" s="67"/>
+      <c r="AF30" s="63"/>
+      <c r="AG30" s="63"/>
+      <c r="AH30" s="63"/>
+      <c r="AI30" s="63"/>
+      <c r="AJ30" s="63"/>
+      <c r="AK30" s="63"/>
+      <c r="AL30" s="68"/>
     </row>
     <row r="31" spans="1:38" ht="15" customHeight="1">
-      <c r="A31" s="60"/>
-      <c r="B31" s="60"/>
+      <c r="A31" s="55"/>
+      <c r="B31" s="55"/>
       <c r="D31" s="19"/>
       <c r="E31" s="20"/>
       <c r="F31" s="21"/>
@@ -3876,20 +3854,20 @@
       <c r="AB31" s="17"/>
       <c r="AC31" s="17"/>
       <c r="AD31" s="6"/>
-      <c r="AE31" s="72"/>
-      <c r="AF31" s="66"/>
-      <c r="AG31" s="66"/>
-      <c r="AH31" s="66"/>
-      <c r="AI31" s="66"/>
-      <c r="AJ31" s="66"/>
-      <c r="AK31" s="66"/>
-      <c r="AL31" s="73"/>
+      <c r="AE31" s="67"/>
+      <c r="AF31" s="63"/>
+      <c r="AG31" s="63"/>
+      <c r="AH31" s="63"/>
+      <c r="AI31" s="63"/>
+      <c r="AJ31" s="63"/>
+      <c r="AK31" s="63"/>
+      <c r="AL31" s="68"/>
     </row>
     <row r="32" spans="1:38" ht="15" customHeight="1">
-      <c r="A32" s="61" t="s">
+      <c r="A32" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="86"/>
+      <c r="B32" s="82"/>
       <c r="D32" s="22"/>
       <c r="E32" s="22"/>
       <c r="F32" s="22"/>
@@ -3917,18 +3895,18 @@
       <c r="AB32" s="17"/>
       <c r="AC32" s="17"/>
       <c r="AD32" s="6"/>
-      <c r="AE32" s="72"/>
-      <c r="AF32" s="66"/>
-      <c r="AG32" s="66"/>
-      <c r="AH32" s="66"/>
-      <c r="AI32" s="66"/>
-      <c r="AJ32" s="66"/>
-      <c r="AK32" s="66"/>
-      <c r="AL32" s="73"/>
+      <c r="AE32" s="67"/>
+      <c r="AF32" s="63"/>
+      <c r="AG32" s="63"/>
+      <c r="AH32" s="63"/>
+      <c r="AI32" s="63"/>
+      <c r="AJ32" s="63"/>
+      <c r="AK32" s="63"/>
+      <c r="AL32" s="68"/>
     </row>
     <row r="33" spans="1:38" ht="15" customHeight="1">
-      <c r="A33" s="60"/>
-      <c r="B33" s="60"/>
+      <c r="A33" s="55"/>
+      <c r="B33" s="55"/>
       <c r="D33" s="19"/>
       <c r="E33" s="20"/>
       <c r="F33" s="21"/>
@@ -3956,20 +3934,20 @@
       <c r="AB33" s="17"/>
       <c r="AC33" s="17"/>
       <c r="AD33" s="6"/>
-      <c r="AE33" s="72"/>
-      <c r="AF33" s="66"/>
-      <c r="AG33" s="66"/>
-      <c r="AH33" s="66"/>
-      <c r="AI33" s="66"/>
-      <c r="AJ33" s="66"/>
-      <c r="AK33" s="66"/>
-      <c r="AL33" s="73"/>
+      <c r="AE33" s="67"/>
+      <c r="AF33" s="63"/>
+      <c r="AG33" s="63"/>
+      <c r="AH33" s="63"/>
+      <c r="AI33" s="63"/>
+      <c r="AJ33" s="63"/>
+      <c r="AK33" s="63"/>
+      <c r="AL33" s="68"/>
     </row>
     <row r="34" spans="1:38" ht="15" customHeight="1">
-      <c r="A34" s="61" t="s">
+      <c r="A34" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="87"/>
+      <c r="B34" s="83"/>
       <c r="D34" s="22"/>
       <c r="E34" s="22"/>
       <c r="F34" s="22"/>
@@ -3997,18 +3975,18 @@
       <c r="AB34" s="17"/>
       <c r="AC34" s="17"/>
       <c r="AD34" s="6"/>
-      <c r="AE34" s="72"/>
-      <c r="AF34" s="66"/>
-      <c r="AG34" s="66"/>
-      <c r="AH34" s="66"/>
-      <c r="AI34" s="66"/>
-      <c r="AJ34" s="66"/>
-      <c r="AK34" s="66"/>
-      <c r="AL34" s="73"/>
+      <c r="AE34" s="67"/>
+      <c r="AF34" s="63"/>
+      <c r="AG34" s="63"/>
+      <c r="AH34" s="63"/>
+      <c r="AI34" s="63"/>
+      <c r="AJ34" s="63"/>
+      <c r="AK34" s="63"/>
+      <c r="AL34" s="68"/>
     </row>
     <row r="35" spans="1:38" ht="15" customHeight="1">
-      <c r="A35" s="60"/>
-      <c r="B35" s="60"/>
+      <c r="A35" s="55"/>
+      <c r="B35" s="55"/>
       <c r="D35" s="19"/>
       <c r="E35" s="20"/>
       <c r="F35" s="21"/>
@@ -4036,20 +4014,20 @@
       <c r="AB35" s="17"/>
       <c r="AC35" s="17"/>
       <c r="AD35" s="6"/>
-      <c r="AE35" s="74"/>
-      <c r="AF35" s="75"/>
-      <c r="AG35" s="75"/>
-      <c r="AH35" s="75"/>
-      <c r="AI35" s="75"/>
-      <c r="AJ35" s="75"/>
-      <c r="AK35" s="75"/>
-      <c r="AL35" s="76"/>
+      <c r="AE35" s="69"/>
+      <c r="AF35" s="70"/>
+      <c r="AG35" s="70"/>
+      <c r="AH35" s="70"/>
+      <c r="AI35" s="70"/>
+      <c r="AJ35" s="70"/>
+      <c r="AK35" s="70"/>
+      <c r="AL35" s="71"/>
     </row>
     <row r="36" spans="1:38" ht="15" customHeight="1">
-      <c r="A36" s="61" t="s">
+      <c r="A36" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="59"/>
+      <c r="B36" s="57"/>
       <c r="D36" s="22"/>
       <c r="E36" s="22"/>
       <c r="F36" s="22"/>
@@ -4087,8 +4065,8 @@
       <c r="AL36" s="6"/>
     </row>
     <row r="37" spans="1:38" ht="15" customHeight="1">
-      <c r="A37" s="60"/>
-      <c r="B37" s="60"/>
+      <c r="A37" s="55"/>
+      <c r="B37" s="55"/>
       <c r="D37" s="19"/>
       <c r="E37" s="20"/>
       <c r="F37" s="21"/>
@@ -4126,10 +4104,10 @@
       <c r="AL37" s="6"/>
     </row>
     <row r="38" spans="1:38" ht="15" customHeight="1">
-      <c r="A38" s="61" t="s">
+      <c r="A38" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="59"/>
+      <c r="B38" s="57"/>
       <c r="D38" s="22"/>
       <c r="E38" s="22"/>
       <c r="F38" s="22"/>
@@ -4167,8 +4145,8 @@
       <c r="AL38" s="6"/>
     </row>
     <row r="39" spans="1:38" ht="15" customHeight="1">
-      <c r="A39" s="60"/>
-      <c r="B39" s="60"/>
+      <c r="A39" s="55"/>
+      <c r="B39" s="55"/>
       <c r="D39" s="19"/>
       <c r="E39" s="20"/>
       <c r="F39" s="21"/>
@@ -4196,22 +4174,22 @@
       <c r="AB39" s="17"/>
       <c r="AC39" s="17"/>
       <c r="AD39" s="6"/>
-      <c r="AE39" s="78" t="s">
+      <c r="AE39" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="AF39" s="79"/>
-      <c r="AG39" s="79"/>
-      <c r="AH39" s="79"/>
-      <c r="AI39" s="79"/>
-      <c r="AJ39" s="79"/>
-      <c r="AK39" s="79"/>
-      <c r="AL39" s="80"/>
+      <c r="AF39" s="74"/>
+      <c r="AG39" s="74"/>
+      <c r="AH39" s="74"/>
+      <c r="AI39" s="74"/>
+      <c r="AJ39" s="74"/>
+      <c r="AK39" s="74"/>
+      <c r="AL39" s="75"/>
     </row>
     <row r="40" spans="1:38" ht="15" customHeight="1">
-      <c r="A40" s="61" t="s">
+      <c r="A40" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="59"/>
+      <c r="B40" s="57"/>
       <c r="D40" s="22"/>
       <c r="E40" s="22"/>
       <c r="F40" s="22"/>
@@ -4239,18 +4217,18 @@
       <c r="AB40" s="17"/>
       <c r="AC40" s="17"/>
       <c r="AD40" s="6"/>
-      <c r="AE40" s="81"/>
-      <c r="AF40" s="66"/>
-      <c r="AG40" s="66"/>
-      <c r="AH40" s="66"/>
-      <c r="AI40" s="66"/>
-      <c r="AJ40" s="66"/>
-      <c r="AK40" s="66"/>
-      <c r="AL40" s="82"/>
+      <c r="AE40" s="76"/>
+      <c r="AF40" s="63"/>
+      <c r="AG40" s="63"/>
+      <c r="AH40" s="63"/>
+      <c r="AI40" s="63"/>
+      <c r="AJ40" s="63"/>
+      <c r="AK40" s="63"/>
+      <c r="AL40" s="77"/>
     </row>
     <row r="41" spans="1:38" ht="15" customHeight="1">
-      <c r="A41" s="60"/>
-      <c r="B41" s="60"/>
+      <c r="A41" s="55"/>
+      <c r="B41" s="55"/>
       <c r="D41" s="19"/>
       <c r="E41" s="20"/>
       <c r="F41" s="21"/>
@@ -4278,20 +4256,20 @@
       <c r="AB41" s="17"/>
       <c r="AC41" s="17"/>
       <c r="AD41" s="6"/>
-      <c r="AE41" s="81"/>
-      <c r="AF41" s="66"/>
-      <c r="AG41" s="66"/>
-      <c r="AH41" s="66"/>
-      <c r="AI41" s="66"/>
-      <c r="AJ41" s="66"/>
-      <c r="AK41" s="66"/>
-      <c r="AL41" s="82"/>
+      <c r="AE41" s="76"/>
+      <c r="AF41" s="63"/>
+      <c r="AG41" s="63"/>
+      <c r="AH41" s="63"/>
+      <c r="AI41" s="63"/>
+      <c r="AJ41" s="63"/>
+      <c r="AK41" s="63"/>
+      <c r="AL41" s="77"/>
     </row>
     <row r="42" spans="1:38" ht="15" customHeight="1">
-      <c r="A42" s="61" t="s">
+      <c r="A42" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="B42" s="59"/>
+      <c r="B42" s="57"/>
       <c r="D42" s="22"/>
       <c r="E42" s="22"/>
       <c r="F42" s="22"/>
@@ -4319,18 +4297,18 @@
       <c r="AB42" s="17"/>
       <c r="AC42" s="17"/>
       <c r="AD42" s="6"/>
-      <c r="AE42" s="81"/>
-      <c r="AF42" s="66"/>
-      <c r="AG42" s="66"/>
-      <c r="AH42" s="66"/>
-      <c r="AI42" s="66"/>
-      <c r="AJ42" s="66"/>
-      <c r="AK42" s="66"/>
-      <c r="AL42" s="82"/>
+      <c r="AE42" s="76"/>
+      <c r="AF42" s="63"/>
+      <c r="AG42" s="63"/>
+      <c r="AH42" s="63"/>
+      <c r="AI42" s="63"/>
+      <c r="AJ42" s="63"/>
+      <c r="AK42" s="63"/>
+      <c r="AL42" s="77"/>
     </row>
     <row r="43" spans="1:38" ht="15" customHeight="1">
-      <c r="A43" s="60"/>
-      <c r="B43" s="60"/>
+      <c r="A43" s="55"/>
+      <c r="B43" s="55"/>
       <c r="D43" s="19"/>
       <c r="E43" s="20"/>
       <c r="F43" s="21"/>
@@ -4358,20 +4336,20 @@
       <c r="AB43" s="17"/>
       <c r="AC43" s="17"/>
       <c r="AD43" s="6"/>
-      <c r="AE43" s="81"/>
-      <c r="AF43" s="66"/>
-      <c r="AG43" s="66"/>
-      <c r="AH43" s="66"/>
-      <c r="AI43" s="66"/>
-      <c r="AJ43" s="66"/>
-      <c r="AK43" s="66"/>
-      <c r="AL43" s="82"/>
+      <c r="AE43" s="76"/>
+      <c r="AF43" s="63"/>
+      <c r="AG43" s="63"/>
+      <c r="AH43" s="63"/>
+      <c r="AI43" s="63"/>
+      <c r="AJ43" s="63"/>
+      <c r="AK43" s="63"/>
+      <c r="AL43" s="77"/>
     </row>
     <row r="44" spans="1:38" ht="15" customHeight="1">
-      <c r="A44" s="61" t="s">
+      <c r="A44" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="B44" s="67"/>
+      <c r="B44" s="58"/>
       <c r="D44" s="22"/>
       <c r="E44" s="22"/>
       <c r="F44" s="22"/>
@@ -4399,18 +4377,18 @@
       <c r="AB44" s="17"/>
       <c r="AC44" s="17"/>
       <c r="AD44" s="6"/>
-      <c r="AE44" s="81"/>
-      <c r="AF44" s="66"/>
-      <c r="AG44" s="66"/>
-      <c r="AH44" s="66"/>
-      <c r="AI44" s="66"/>
-      <c r="AJ44" s="66"/>
-      <c r="AK44" s="66"/>
-      <c r="AL44" s="82"/>
+      <c r="AE44" s="76"/>
+      <c r="AF44" s="63"/>
+      <c r="AG44" s="63"/>
+      <c r="AH44" s="63"/>
+      <c r="AI44" s="63"/>
+      <c r="AJ44" s="63"/>
+      <c r="AK44" s="63"/>
+      <c r="AL44" s="77"/>
     </row>
     <row r="45" spans="1:38" ht="15" customHeight="1">
-      <c r="A45" s="60"/>
-      <c r="B45" s="60"/>
+      <c r="A45" s="55"/>
+      <c r="B45" s="55"/>
       <c r="D45" s="19"/>
       <c r="E45" s="20"/>
       <c r="F45" s="21"/>
@@ -4438,20 +4416,20 @@
       <c r="AB45" s="17"/>
       <c r="AC45" s="17"/>
       <c r="AD45" s="6"/>
-      <c r="AE45" s="81"/>
-      <c r="AF45" s="66"/>
-      <c r="AG45" s="66"/>
-      <c r="AH45" s="66"/>
-      <c r="AI45" s="66"/>
-      <c r="AJ45" s="66"/>
-      <c r="AK45" s="66"/>
-      <c r="AL45" s="82"/>
+      <c r="AE45" s="76"/>
+      <c r="AF45" s="63"/>
+      <c r="AG45" s="63"/>
+      <c r="AH45" s="63"/>
+      <c r="AI45" s="63"/>
+      <c r="AJ45" s="63"/>
+      <c r="AK45" s="63"/>
+      <c r="AL45" s="77"/>
     </row>
     <row r="46" spans="1:38" ht="15" customHeight="1">
-      <c r="A46" s="61" t="s">
+      <c r="A46" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="59"/>
+      <c r="B46" s="57"/>
       <c r="D46" s="22"/>
       <c r="E46" s="22"/>
       <c r="F46" s="22"/>
@@ -4479,18 +4457,18 @@
       <c r="AB46" s="17"/>
       <c r="AC46" s="17"/>
       <c r="AD46" s="6"/>
-      <c r="AE46" s="81"/>
-      <c r="AF46" s="66"/>
-      <c r="AG46" s="66"/>
-      <c r="AH46" s="66"/>
-      <c r="AI46" s="66"/>
-      <c r="AJ46" s="66"/>
-      <c r="AK46" s="66"/>
-      <c r="AL46" s="82"/>
+      <c r="AE46" s="76"/>
+      <c r="AF46" s="63"/>
+      <c r="AG46" s="63"/>
+      <c r="AH46" s="63"/>
+      <c r="AI46" s="63"/>
+      <c r="AJ46" s="63"/>
+      <c r="AK46" s="63"/>
+      <c r="AL46" s="77"/>
     </row>
     <row r="47" spans="1:38" ht="15" customHeight="1">
-      <c r="A47" s="60"/>
-      <c r="B47" s="60"/>
+      <c r="A47" s="55"/>
+      <c r="B47" s="55"/>
       <c r="D47" s="19"/>
       <c r="E47" s="20"/>
       <c r="F47" s="21"/>
@@ -4518,20 +4496,20 @@
       <c r="AB47" s="17"/>
       <c r="AC47" s="17"/>
       <c r="AD47" s="6"/>
-      <c r="AE47" s="81"/>
-      <c r="AF47" s="66"/>
-      <c r="AG47" s="66"/>
-      <c r="AH47" s="66"/>
-      <c r="AI47" s="66"/>
-      <c r="AJ47" s="66"/>
-      <c r="AK47" s="66"/>
-      <c r="AL47" s="82"/>
+      <c r="AE47" s="76"/>
+      <c r="AF47" s="63"/>
+      <c r="AG47" s="63"/>
+      <c r="AH47" s="63"/>
+      <c r="AI47" s="63"/>
+      <c r="AJ47" s="63"/>
+      <c r="AK47" s="63"/>
+      <c r="AL47" s="77"/>
     </row>
     <row r="48" spans="1:38" ht="15" customHeight="1">
-      <c r="A48" s="61" t="s">
+      <c r="A48" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="B48" s="59"/>
+      <c r="B48" s="57"/>
       <c r="D48" s="22"/>
       <c r="E48" s="22"/>
       <c r="F48" s="22"/>
@@ -4559,18 +4537,18 @@
       <c r="AB48" s="17"/>
       <c r="AC48" s="17"/>
       <c r="AD48" s="6"/>
-      <c r="AE48" s="81"/>
-      <c r="AF48" s="66"/>
-      <c r="AG48" s="66"/>
-      <c r="AH48" s="66"/>
-      <c r="AI48" s="66"/>
-      <c r="AJ48" s="66"/>
-      <c r="AK48" s="66"/>
-      <c r="AL48" s="82"/>
+      <c r="AE48" s="76"/>
+      <c r="AF48" s="63"/>
+      <c r="AG48" s="63"/>
+      <c r="AH48" s="63"/>
+      <c r="AI48" s="63"/>
+      <c r="AJ48" s="63"/>
+      <c r="AK48" s="63"/>
+      <c r="AL48" s="77"/>
     </row>
     <row r="49" spans="1:38" ht="15" customHeight="1">
-      <c r="A49" s="60"/>
-      <c r="B49" s="60"/>
+      <c r="A49" s="55"/>
+      <c r="B49" s="55"/>
       <c r="D49" s="19"/>
       <c r="E49" s="20"/>
       <c r="F49" s="21"/>
@@ -4598,20 +4576,20 @@
       <c r="AB49" s="17"/>
       <c r="AC49" s="17"/>
       <c r="AD49" s="6"/>
-      <c r="AE49" s="81"/>
-      <c r="AF49" s="66"/>
-      <c r="AG49" s="66"/>
-      <c r="AH49" s="66"/>
-      <c r="AI49" s="66"/>
-      <c r="AJ49" s="66"/>
-      <c r="AK49" s="66"/>
-      <c r="AL49" s="82"/>
+      <c r="AE49" s="76"/>
+      <c r="AF49" s="63"/>
+      <c r="AG49" s="63"/>
+      <c r="AH49" s="63"/>
+      <c r="AI49" s="63"/>
+      <c r="AJ49" s="63"/>
+      <c r="AK49" s="63"/>
+      <c r="AL49" s="77"/>
     </row>
     <row r="50" spans="1:38" ht="15" customHeight="1">
-      <c r="A50" s="61" t="s">
+      <c r="A50" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="B50" s="59"/>
+      <c r="B50" s="57"/>
       <c r="D50" s="22"/>
       <c r="E50" s="22"/>
       <c r="F50" s="22"/>
@@ -4639,18 +4617,18 @@
       <c r="AB50" s="17"/>
       <c r="AC50" s="17"/>
       <c r="AD50" s="6"/>
-      <c r="AE50" s="81"/>
-      <c r="AF50" s="66"/>
-      <c r="AG50" s="66"/>
-      <c r="AH50" s="66"/>
-      <c r="AI50" s="66"/>
-      <c r="AJ50" s="66"/>
-      <c r="AK50" s="66"/>
-      <c r="AL50" s="82"/>
+      <c r="AE50" s="76"/>
+      <c r="AF50" s="63"/>
+      <c r="AG50" s="63"/>
+      <c r="AH50" s="63"/>
+      <c r="AI50" s="63"/>
+      <c r="AJ50" s="63"/>
+      <c r="AK50" s="63"/>
+      <c r="AL50" s="77"/>
     </row>
     <row r="51" spans="1:38" ht="15" customHeight="1">
-      <c r="A51" s="60"/>
-      <c r="B51" s="60"/>
+      <c r="A51" s="55"/>
+      <c r="B51" s="55"/>
       <c r="D51" s="19"/>
       <c r="E51" s="20"/>
       <c r="F51" s="21"/>
@@ -4678,20 +4656,20 @@
       <c r="AB51" s="17"/>
       <c r="AC51" s="17"/>
       <c r="AD51" s="6"/>
-      <c r="AE51" s="81"/>
-      <c r="AF51" s="66"/>
-      <c r="AG51" s="66"/>
-      <c r="AH51" s="66"/>
-      <c r="AI51" s="66"/>
-      <c r="AJ51" s="66"/>
-      <c r="AK51" s="66"/>
-      <c r="AL51" s="82"/>
+      <c r="AE51" s="76"/>
+      <c r="AF51" s="63"/>
+      <c r="AG51" s="63"/>
+      <c r="AH51" s="63"/>
+      <c r="AI51" s="63"/>
+      <c r="AJ51" s="63"/>
+      <c r="AK51" s="63"/>
+      <c r="AL51" s="77"/>
     </row>
     <row r="52" spans="1:38" ht="15" customHeight="1">
-      <c r="A52" s="61" t="s">
+      <c r="A52" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="B52" s="59"/>
+      <c r="B52" s="57"/>
       <c r="D52" s="22"/>
       <c r="E52" s="22"/>
       <c r="F52" s="22"/>
@@ -4719,18 +4697,18 @@
       <c r="AB52" s="17"/>
       <c r="AC52" s="17"/>
       <c r="AD52" s="6"/>
-      <c r="AE52" s="81"/>
-      <c r="AF52" s="66"/>
-      <c r="AG52" s="66"/>
-      <c r="AH52" s="66"/>
-      <c r="AI52" s="66"/>
-      <c r="AJ52" s="66"/>
-      <c r="AK52" s="66"/>
-      <c r="AL52" s="82"/>
+      <c r="AE52" s="76"/>
+      <c r="AF52" s="63"/>
+      <c r="AG52" s="63"/>
+      <c r="AH52" s="63"/>
+      <c r="AI52" s="63"/>
+      <c r="AJ52" s="63"/>
+      <c r="AK52" s="63"/>
+      <c r="AL52" s="77"/>
     </row>
     <row r="53" spans="1:38" ht="15" customHeight="1">
-      <c r="A53" s="60"/>
-      <c r="B53" s="60"/>
+      <c r="A53" s="55"/>
+      <c r="B53" s="55"/>
       <c r="D53" s="19"/>
       <c r="E53" s="20"/>
       <c r="F53" s="21"/>
@@ -4758,20 +4736,20 @@
       <c r="AB53" s="17"/>
       <c r="AC53" s="17"/>
       <c r="AD53" s="6"/>
-      <c r="AE53" s="81"/>
-      <c r="AF53" s="66"/>
-      <c r="AG53" s="66"/>
-      <c r="AH53" s="66"/>
-      <c r="AI53" s="66"/>
-      <c r="AJ53" s="66"/>
-      <c r="AK53" s="66"/>
-      <c r="AL53" s="82"/>
+      <c r="AE53" s="76"/>
+      <c r="AF53" s="63"/>
+      <c r="AG53" s="63"/>
+      <c r="AH53" s="63"/>
+      <c r="AI53" s="63"/>
+      <c r="AJ53" s="63"/>
+      <c r="AK53" s="63"/>
+      <c r="AL53" s="77"/>
     </row>
     <row r="54" spans="1:38" ht="15" customHeight="1">
-      <c r="A54" s="61" t="s">
+      <c r="A54" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="B54" s="59"/>
+      <c r="B54" s="57"/>
       <c r="D54" s="22"/>
       <c r="E54" s="22"/>
       <c r="F54" s="22"/>
@@ -4799,18 +4777,18 @@
       <c r="AB54" s="17"/>
       <c r="AC54" s="17"/>
       <c r="AD54" s="6"/>
-      <c r="AE54" s="81"/>
-      <c r="AF54" s="66"/>
-      <c r="AG54" s="66"/>
-      <c r="AH54" s="66"/>
-      <c r="AI54" s="66"/>
-      <c r="AJ54" s="66"/>
-      <c r="AK54" s="66"/>
-      <c r="AL54" s="82"/>
+      <c r="AE54" s="76"/>
+      <c r="AF54" s="63"/>
+      <c r="AG54" s="63"/>
+      <c r="AH54" s="63"/>
+      <c r="AI54" s="63"/>
+      <c r="AJ54" s="63"/>
+      <c r="AK54" s="63"/>
+      <c r="AL54" s="77"/>
     </row>
     <row r="55" spans="1:38" ht="15" customHeight="1">
-      <c r="A55" s="60"/>
-      <c r="B55" s="60"/>
+      <c r="A55" s="55"/>
+      <c r="B55" s="55"/>
       <c r="D55" s="19"/>
       <c r="E55" s="20"/>
       <c r="F55" s="21"/>
@@ -4838,20 +4816,20 @@
       <c r="AB55" s="17"/>
       <c r="AC55" s="17"/>
       <c r="AD55" s="6"/>
-      <c r="AE55" s="81"/>
-      <c r="AF55" s="66"/>
-      <c r="AG55" s="66"/>
-      <c r="AH55" s="66"/>
-      <c r="AI55" s="66"/>
-      <c r="AJ55" s="66"/>
-      <c r="AK55" s="66"/>
-      <c r="AL55" s="82"/>
+      <c r="AE55" s="76"/>
+      <c r="AF55" s="63"/>
+      <c r="AG55" s="63"/>
+      <c r="AH55" s="63"/>
+      <c r="AI55" s="63"/>
+      <c r="AJ55" s="63"/>
+      <c r="AK55" s="63"/>
+      <c r="AL55" s="77"/>
     </row>
     <row r="56" spans="1:38" ht="15" customHeight="1">
-      <c r="A56" s="61" t="s">
+      <c r="A56" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="B56" s="59"/>
+      <c r="B56" s="57"/>
       <c r="D56" s="22"/>
       <c r="E56" s="22"/>
       <c r="F56" s="22"/>
@@ -4879,18 +4857,18 @@
       <c r="AB56" s="17"/>
       <c r="AC56" s="17"/>
       <c r="AD56" s="6"/>
-      <c r="AE56" s="83"/>
-      <c r="AF56" s="84"/>
-      <c r="AG56" s="84"/>
-      <c r="AH56" s="84"/>
-      <c r="AI56" s="84"/>
-      <c r="AJ56" s="84"/>
-      <c r="AK56" s="84"/>
-      <c r="AL56" s="85"/>
+      <c r="AE56" s="78"/>
+      <c r="AF56" s="79"/>
+      <c r="AG56" s="79"/>
+      <c r="AH56" s="79"/>
+      <c r="AI56" s="79"/>
+      <c r="AJ56" s="79"/>
+      <c r="AK56" s="79"/>
+      <c r="AL56" s="80"/>
     </row>
     <row r="57" spans="1:38" ht="15" customHeight="1">
-      <c r="A57" s="60"/>
-      <c r="B57" s="60"/>
+      <c r="A57" s="55"/>
+      <c r="B57" s="55"/>
       <c r="D57" s="19"/>
       <c r="E57" s="20"/>
       <c r="F57" s="21"/>
@@ -4930,10 +4908,10 @@
       <c r="AL57" s="38"/>
     </row>
     <row r="58" spans="1:38" ht="15" customHeight="1">
-      <c r="A58" s="61" t="s">
+      <c r="A58" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="B58" s="59"/>
+      <c r="B58" s="57"/>
       <c r="D58" s="22"/>
       <c r="E58" s="22"/>
       <c r="F58" s="22"/>
@@ -4973,8 +4951,8 @@
       <c r="AL58" s="38"/>
     </row>
     <row r="59" spans="1:38" ht="15" customHeight="1">
-      <c r="A59" s="60"/>
-      <c r="B59" s="60"/>
+      <c r="A59" s="55"/>
+      <c r="B59" s="55"/>
       <c r="D59" s="19"/>
       <c r="E59" s="20"/>
       <c r="F59" s="21"/>
@@ -5014,8 +4992,8 @@
       <c r="AL59" s="38"/>
     </row>
     <row r="60" spans="1:38" ht="15" customHeight="1">
-      <c r="A60" s="88"/>
-      <c r="B60" s="88"/>
+      <c r="A60" s="81"/>
+      <c r="B60" s="81"/>
       <c r="D60" s="22"/>
       <c r="E60" s="22"/>
       <c r="F60" s="22"/>
@@ -5055,8 +5033,8 @@
       <c r="AL60" s="38"/>
     </row>
     <row r="61" spans="1:38" ht="15" customHeight="1">
-      <c r="A61" s="60"/>
-      <c r="B61" s="60"/>
+      <c r="A61" s="55"/>
+      <c r="B61" s="55"/>
       <c r="D61" s="19"/>
       <c r="E61" s="20"/>
       <c r="F61" s="21"/>
@@ -5096,8 +5074,8 @@
       <c r="AL61" s="38"/>
     </row>
     <row r="62" spans="1:38" ht="15" customHeight="1">
-      <c r="A62" s="88"/>
-      <c r="B62" s="88"/>
+      <c r="A62" s="81"/>
+      <c r="B62" s="81"/>
       <c r="D62" s="22"/>
       <c r="E62" s="22"/>
       <c r="F62" s="22"/>
@@ -5137,8 +5115,8 @@
       <c r="AL62" s="38"/>
     </row>
     <row r="63" spans="1:38" ht="15" customHeight="1">
-      <c r="A63" s="60"/>
-      <c r="B63" s="60"/>
+      <c r="A63" s="55"/>
+      <c r="B63" s="55"/>
       <c r="D63" s="19"/>
       <c r="E63" s="20"/>
       <c r="F63" s="21"/>
@@ -5176,8 +5154,8 @@
       <c r="AL63" s="38"/>
     </row>
     <row r="64" spans="1:38" ht="15" customHeight="1">
-      <c r="A64" s="88"/>
-      <c r="B64" s="88"/>
+      <c r="A64" s="81"/>
+      <c r="B64" s="81"/>
       <c r="D64" s="22"/>
       <c r="E64" s="22"/>
       <c r="F64" s="22"/>
@@ -5218,8 +5196,8 @@
       <c r="AL64" s="50"/>
     </row>
     <row r="65" spans="1:30" ht="15" customHeight="1">
-      <c r="A65" s="60"/>
-      <c r="B65" s="60"/>
+      <c r="A65" s="55"/>
+      <c r="B65" s="55"/>
       <c r="D65" s="19"/>
       <c r="E65" s="20"/>
       <c r="F65" s="21"/>
@@ -8096,20 +8074,13 @@
     </row>
   </sheetData>
   <mergeCells count="65">
+    <mergeCell ref="A48:A49"/>
     <mergeCell ref="A50:A51"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A40:A41"/>
     <mergeCell ref="A42:A43"/>
     <mergeCell ref="A44:A45"/>
     <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A52:A53"/>
     <mergeCell ref="A54:A55"/>
     <mergeCell ref="A56:A57"/>
@@ -8137,17 +8108,12 @@
     <mergeCell ref="B50:B51"/>
     <mergeCell ref="B52:B53"/>
     <mergeCell ref="B54:B55"/>
-    <mergeCell ref="B46:B47"/>
     <mergeCell ref="Z1:AC1"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="B40:B41"/>
     <mergeCell ref="B42:B43"/>
     <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B46:B47"/>
     <mergeCell ref="B48:B49"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:B25"/>
@@ -8160,7 +8126,19 @@
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A12:A13"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="86" orientation="portrait"/>
@@ -8176,8 +8154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AK1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AC5" sqref="AC5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -8194,7 +8172,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B1" s="1"/>
@@ -8222,12 +8200,12 @@
       <c r="X1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="Y1" s="62">
+      <c r="Y1" s="59">
         <v>2026</v>
       </c>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="63"/>
-      <c r="AB1" s="64"/>
+      <c r="Z1" s="60"/>
+      <c r="AA1" s="60"/>
+      <c r="AB1" s="61"/>
       <c r="AC1" s="6"/>
       <c r="AD1" s="4" t="s">
         <v>2</v>
@@ -8260,7 +8238,7 @@
       <c r="S2" s="9"/>
       <c r="T2" s="9"/>
       <c r="U2" s="9"/>
-      <c r="V2" s="53"/>
+      <c r="V2" s="9"/>
       <c r="W2" s="9"/>
       <c r="X2" s="9"/>
       <c r="Y2" s="9"/>
@@ -8346,16 +8324,16 @@
         <v>25</v>
       </c>
       <c r="AC3" s="6"/>
-      <c r="AD3" s="69" t="s">
+      <c r="AD3" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="AE3" s="70"/>
-      <c r="AF3" s="70"/>
-      <c r="AG3" s="70"/>
-      <c r="AH3" s="70"/>
-      <c r="AI3" s="70"/>
-      <c r="AJ3" s="70"/>
-      <c r="AK3" s="71"/>
+      <c r="AE3" s="65"/>
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="65"/>
+      <c r="AH3" s="65"/>
+      <c r="AI3" s="65"/>
+      <c r="AJ3" s="65"/>
+      <c r="AK3" s="66"/>
     </row>
     <row r="4" spans="1:37" ht="14.25" customHeight="1">
       <c r="F4" s="12"/>
@@ -8381,14 +8359,14 @@
       <c r="AA4" s="12"/>
       <c r="AB4" s="12"/>
       <c r="AC4" s="6"/>
-      <c r="AD4" s="72"/>
-      <c r="AE4" s="66"/>
-      <c r="AF4" s="66"/>
-      <c r="AG4" s="66"/>
-      <c r="AH4" s="66"/>
-      <c r="AI4" s="66"/>
-      <c r="AJ4" s="66"/>
-      <c r="AK4" s="73"/>
+      <c r="AD4" s="67"/>
+      <c r="AE4" s="63"/>
+      <c r="AF4" s="63"/>
+      <c r="AG4" s="63"/>
+      <c r="AH4" s="63"/>
+      <c r="AI4" s="63"/>
+      <c r="AJ4" s="63"/>
+      <c r="AK4" s="68"/>
     </row>
     <row r="5" spans="1:37" ht="14.25" customHeight="1">
       <c r="A5" s="8" t="s">
@@ -8434,20 +8412,20 @@
       <c r="AA5" s="12"/>
       <c r="AB5" s="16"/>
       <c r="AC5" s="6"/>
-      <c r="AD5" s="72"/>
-      <c r="AE5" s="66"/>
-      <c r="AF5" s="66"/>
-      <c r="AG5" s="66"/>
-      <c r="AH5" s="66"/>
-      <c r="AI5" s="66"/>
-      <c r="AJ5" s="66"/>
-      <c r="AK5" s="73"/>
+      <c r="AD5" s="67"/>
+      <c r="AE5" s="63"/>
+      <c r="AF5" s="63"/>
+      <c r="AG5" s="63"/>
+      <c r="AH5" s="63"/>
+      <c r="AI5" s="63"/>
+      <c r="AJ5" s="63"/>
+      <c r="AK5" s="68"/>
     </row>
     <row r="6" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="91" t="s">
+      <c r="B6" s="86" t="s">
         <v>64</v>
       </c>
       <c r="D6" s="8"/>
@@ -8479,25 +8457,25 @@
       <c r="AA6" s="17"/>
       <c r="AB6" s="17"/>
       <c r="AC6" s="6"/>
-      <c r="AD6" s="72"/>
-      <c r="AE6" s="66"/>
-      <c r="AF6" s="66"/>
-      <c r="AG6" s="66"/>
-      <c r="AH6" s="66"/>
-      <c r="AI6" s="66"/>
-      <c r="AJ6" s="66"/>
-      <c r="AK6" s="73"/>
+      <c r="AD6" s="67"/>
+      <c r="AE6" s="63"/>
+      <c r="AF6" s="63"/>
+      <c r="AG6" s="63"/>
+      <c r="AH6" s="63"/>
+      <c r="AI6" s="63"/>
+      <c r="AJ6" s="63"/>
+      <c r="AK6" s="68"/>
     </row>
     <row r="7" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A7" s="60"/>
-      <c r="B7" s="60"/>
-      <c r="D7" s="54" t="s">
+      <c r="A7" s="55"/>
+      <c r="B7" s="55"/>
+      <c r="D7" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="55" t="s">
+      <c r="E7" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="F7" s="55" t="s">
+      <c r="F7" s="20" t="s">
         <v>65</v>
       </c>
       <c r="G7" s="12" t="e">
@@ -8526,20 +8504,20 @@
       <c r="AA7" s="17"/>
       <c r="AB7" s="17"/>
       <c r="AC7" s="6"/>
-      <c r="AD7" s="72"/>
-      <c r="AE7" s="66"/>
-      <c r="AF7" s="66"/>
-      <c r="AG7" s="66"/>
-      <c r="AH7" s="66"/>
-      <c r="AI7" s="66"/>
-      <c r="AJ7" s="66"/>
-      <c r="AK7" s="73"/>
+      <c r="AD7" s="67"/>
+      <c r="AE7" s="63"/>
+      <c r="AF7" s="63"/>
+      <c r="AG7" s="63"/>
+      <c r="AH7" s="63"/>
+      <c r="AI7" s="63"/>
+      <c r="AJ7" s="63"/>
+      <c r="AK7" s="68"/>
     </row>
     <row r="8" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="90" t="s">
+      <c r="B8" s="84" t="s">
         <v>66</v>
       </c>
       <c r="D8" s="22"/>
@@ -8571,23 +8549,23 @@
       <c r="AA8" s="17"/>
       <c r="AB8" s="17"/>
       <c r="AC8" s="6"/>
-      <c r="AD8" s="72"/>
-      <c r="AE8" s="66"/>
-      <c r="AF8" s="66"/>
-      <c r="AG8" s="66"/>
-      <c r="AH8" s="66"/>
-      <c r="AI8" s="66"/>
-      <c r="AJ8" s="66"/>
-      <c r="AK8" s="73"/>
+      <c r="AD8" s="67"/>
+      <c r="AE8" s="63"/>
+      <c r="AF8" s="63"/>
+      <c r="AG8" s="63"/>
+      <c r="AH8" s="63"/>
+      <c r="AI8" s="63"/>
+      <c r="AJ8" s="63"/>
+      <c r="AK8" s="68"/>
     </row>
     <row r="9" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A9" s="60"/>
-      <c r="B9" s="60"/>
-      <c r="D9" s="54" t="s">
+      <c r="A9" s="55"/>
+      <c r="B9" s="55"/>
+      <c r="D9" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
       <c r="G9" s="12" t="e">
         <f t="array" aca="1" ref="G9" ca="1">IF(ISBLANK(INDIRECT(ADDRESS(ROW()-1,1,2,TRUE()))),"",IF((INDIRECT(ADDRESS(3,COLUMN(),2,1))="g"),"g"," "))</f>
         <v>#VALUE!</v>
@@ -8614,20 +8592,20 @@
       <c r="AA9" s="17"/>
       <c r="AB9" s="17"/>
       <c r="AC9" s="6"/>
-      <c r="AD9" s="72"/>
-      <c r="AE9" s="66"/>
-      <c r="AF9" s="66"/>
-      <c r="AG9" s="66"/>
-      <c r="AH9" s="66"/>
-      <c r="AI9" s="66"/>
-      <c r="AJ9" s="66"/>
-      <c r="AK9" s="73"/>
+      <c r="AD9" s="67"/>
+      <c r="AE9" s="63"/>
+      <c r="AF9" s="63"/>
+      <c r="AG9" s="63"/>
+      <c r="AH9" s="63"/>
+      <c r="AI9" s="63"/>
+      <c r="AJ9" s="63"/>
+      <c r="AK9" s="68"/>
     </row>
     <row r="10" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A10" s="61" t="s">
+      <c r="A10" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="94" t="s">
+      <c r="B10" s="84" t="s">
         <v>67</v>
       </c>
       <c r="D10" s="22"/>
@@ -8659,29 +8637,29 @@
       <c r="AA10" s="17"/>
       <c r="AB10" s="17"/>
       <c r="AC10" s="6"/>
-      <c r="AD10" s="72"/>
-      <c r="AE10" s="66"/>
-      <c r="AF10" s="66"/>
-      <c r="AG10" s="66"/>
-      <c r="AH10" s="66"/>
-      <c r="AI10" s="66"/>
-      <c r="AJ10" s="66"/>
-      <c r="AK10" s="73"/>
+      <c r="AD10" s="67"/>
+      <c r="AE10" s="63"/>
+      <c r="AF10" s="63"/>
+      <c r="AG10" s="63"/>
+      <c r="AH10" s="63"/>
+      <c r="AI10" s="63"/>
+      <c r="AJ10" s="63"/>
+      <c r="AK10" s="68"/>
     </row>
     <row r="11" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A11" s="60"/>
-      <c r="B11" s="93"/>
-      <c r="D11" s="54" t="s">
+      <c r="A11" s="55"/>
+      <c r="B11" s="55"/>
+      <c r="D11" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="55"/>
+      <c r="E11" s="20"/>
       <c r="F11" s="20"/>
       <c r="G11" s="12" t="e">
         <f t="array" aca="1" ref="G11" ca="1">IF(ISBLANK(INDIRECT(ADDRESS(ROW()-1,1,2,TRUE()))),"",IF((INDIRECT(ADDRESS(3,COLUMN(),2,1))="g"),"g"," "))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
+      <c r="I11" s="40"/>
       <c r="J11" s="17"/>
       <c r="K11" s="17"/>
       <c r="L11" s="18"/>
@@ -8702,20 +8680,20 @@
       <c r="AA11" s="17"/>
       <c r="AB11" s="17"/>
       <c r="AC11" s="6"/>
-      <c r="AD11" s="72"/>
-      <c r="AE11" s="66"/>
-      <c r="AF11" s="66"/>
-      <c r="AG11" s="66"/>
-      <c r="AH11" s="66"/>
-      <c r="AI11" s="66"/>
-      <c r="AJ11" s="66"/>
-      <c r="AK11" s="73"/>
+      <c r="AD11" s="67"/>
+      <c r="AE11" s="63"/>
+      <c r="AF11" s="63"/>
+      <c r="AG11" s="63"/>
+      <c r="AH11" s="63"/>
+      <c r="AI11" s="63"/>
+      <c r="AJ11" s="63"/>
+      <c r="AK11" s="68"/>
     </row>
     <row r="12" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A12" s="61" t="s">
+      <c r="A12" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="90" t="s">
+      <c r="B12" s="84" t="s">
         <v>68</v>
       </c>
       <c r="D12" s="22"/>
@@ -8747,29 +8725,29 @@
       <c r="AA12" s="17"/>
       <c r="AB12" s="17"/>
       <c r="AC12" s="6"/>
-      <c r="AD12" s="72"/>
-      <c r="AE12" s="66"/>
-      <c r="AF12" s="66"/>
-      <c r="AG12" s="66"/>
-      <c r="AH12" s="66"/>
-      <c r="AI12" s="66"/>
-      <c r="AJ12" s="66"/>
-      <c r="AK12" s="73"/>
+      <c r="AD12" s="67"/>
+      <c r="AE12" s="63"/>
+      <c r="AF12" s="63"/>
+      <c r="AG12" s="63"/>
+      <c r="AH12" s="63"/>
+      <c r="AI12" s="63"/>
+      <c r="AJ12" s="63"/>
+      <c r="AK12" s="68"/>
     </row>
     <row r="13" spans="1:37" ht="17.25" customHeight="1">
-      <c r="A13" s="60"/>
-      <c r="B13" s="60"/>
-      <c r="D13" s="54" t="s">
+      <c r="A13" s="55"/>
+      <c r="B13" s="55"/>
+      <c r="D13" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="55"/>
+      <c r="E13" s="20"/>
       <c r="F13" s="20"/>
       <c r="G13" s="12" t="e">
         <f t="array" aca="1" ref="G13" ca="1">IF(ISBLANK(INDIRECT(ADDRESS(ROW()-1,1,2,TRUE()))),"",IF((INDIRECT(ADDRESS(3,COLUMN(),2,1))="g"),"g"," "))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
+      <c r="I13" s="40"/>
       <c r="J13" s="17"/>
       <c r="K13" s="17"/>
       <c r="L13" s="18"/>
@@ -8790,20 +8768,20 @@
       <c r="AA13" s="17"/>
       <c r="AB13" s="17"/>
       <c r="AC13" s="6"/>
-      <c r="AD13" s="72"/>
-      <c r="AE13" s="66"/>
-      <c r="AF13" s="66"/>
-      <c r="AG13" s="66"/>
-      <c r="AH13" s="66"/>
-      <c r="AI13" s="66"/>
-      <c r="AJ13" s="66"/>
-      <c r="AK13" s="73"/>
+      <c r="AD13" s="67"/>
+      <c r="AE13" s="63"/>
+      <c r="AF13" s="63"/>
+      <c r="AG13" s="63"/>
+      <c r="AH13" s="63"/>
+      <c r="AI13" s="63"/>
+      <c r="AJ13" s="63"/>
+      <c r="AK13" s="68"/>
     </row>
     <row r="14" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A14" s="61" t="s">
+      <c r="A14" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="90" t="s">
+      <c r="B14" s="84" t="s">
         <v>69</v>
       </c>
       <c r="D14" s="22"/>
@@ -8835,29 +8813,29 @@
       <c r="AA14" s="17"/>
       <c r="AB14" s="17"/>
       <c r="AC14" s="6"/>
-      <c r="AD14" s="72"/>
-      <c r="AE14" s="66"/>
-      <c r="AF14" s="66"/>
-      <c r="AG14" s="66"/>
-      <c r="AH14" s="66"/>
-      <c r="AI14" s="66"/>
-      <c r="AJ14" s="66"/>
-      <c r="AK14" s="73"/>
+      <c r="AD14" s="67"/>
+      <c r="AE14" s="63"/>
+      <c r="AF14" s="63"/>
+      <c r="AG14" s="63"/>
+      <c r="AH14" s="63"/>
+      <c r="AI14" s="63"/>
+      <c r="AJ14" s="63"/>
+      <c r="AK14" s="68"/>
     </row>
     <row r="15" spans="1:37" ht="17.25" customHeight="1">
-      <c r="A15" s="60"/>
-      <c r="B15" s="60"/>
-      <c r="D15" s="54" t="s">
+      <c r="A15" s="55"/>
+      <c r="B15" s="55"/>
+      <c r="D15" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E15" s="55"/>
+      <c r="E15" s="20"/>
       <c r="F15" s="20"/>
       <c r="G15" s="12" t="e">
         <f t="array" aca="1" ref="G15" ca="1">IF(ISBLANK(INDIRECT(ADDRESS(ROW()-1,1,2,TRUE()))),"",IF((INDIRECT(ADDRESS(3,COLUMN(),2,1))="g"),"g"," "))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
+      <c r="I15" s="40"/>
       <c r="J15" s="17"/>
       <c r="K15" s="17"/>
       <c r="L15" s="18"/>
@@ -8878,20 +8856,20 @@
       <c r="AA15" s="17"/>
       <c r="AB15" s="17"/>
       <c r="AC15" s="6"/>
-      <c r="AD15" s="72"/>
-      <c r="AE15" s="66"/>
-      <c r="AF15" s="66"/>
-      <c r="AG15" s="66"/>
-      <c r="AH15" s="66"/>
-      <c r="AI15" s="66"/>
-      <c r="AJ15" s="66"/>
-      <c r="AK15" s="73"/>
+      <c r="AD15" s="67"/>
+      <c r="AE15" s="63"/>
+      <c r="AF15" s="63"/>
+      <c r="AG15" s="63"/>
+      <c r="AH15" s="63"/>
+      <c r="AI15" s="63"/>
+      <c r="AJ15" s="63"/>
+      <c r="AK15" s="68"/>
     </row>
     <row r="16" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A16" s="61" t="s">
+      <c r="A16" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="90" t="s">
+      <c r="B16" s="84" t="s">
         <v>70</v>
       </c>
       <c r="D16" s="22"/>
@@ -8923,22 +8901,22 @@
       <c r="AA16" s="17"/>
       <c r="AB16" s="17"/>
       <c r="AC16" s="6"/>
-      <c r="AD16" s="72"/>
-      <c r="AE16" s="66"/>
-      <c r="AF16" s="66"/>
-      <c r="AG16" s="66"/>
-      <c r="AH16" s="66"/>
-      <c r="AI16" s="66"/>
-      <c r="AJ16" s="66"/>
-      <c r="AK16" s="73"/>
+      <c r="AD16" s="67"/>
+      <c r="AE16" s="63"/>
+      <c r="AF16" s="63"/>
+      <c r="AG16" s="63"/>
+      <c r="AH16" s="63"/>
+      <c r="AI16" s="63"/>
+      <c r="AJ16" s="63"/>
+      <c r="AK16" s="68"/>
     </row>
     <row r="17" spans="1:37" ht="17.25" customHeight="1">
-      <c r="A17" s="60"/>
-      <c r="B17" s="60"/>
-      <c r="D17" s="54" t="s">
+      <c r="A17" s="55"/>
+      <c r="B17" s="55"/>
+      <c r="D17" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="55"/>
+      <c r="E17" s="20"/>
       <c r="F17" s="20"/>
       <c r="G17" s="12" t="e">
         <f t="array" aca="1" ref="G17" ca="1">IF(ISBLANK(INDIRECT(ADDRESS(ROW()-1,1,2,TRUE()))),"",IF((INDIRECT(ADDRESS(3,COLUMN(),2,1))="g"),"g"," "))</f>
@@ -8966,20 +8944,20 @@
       <c r="AA17" s="17"/>
       <c r="AB17" s="17"/>
       <c r="AC17" s="6"/>
-      <c r="AD17" s="72"/>
-      <c r="AE17" s="66"/>
-      <c r="AF17" s="66"/>
-      <c r="AG17" s="66"/>
-      <c r="AH17" s="66"/>
-      <c r="AI17" s="66"/>
-      <c r="AJ17" s="66"/>
-      <c r="AK17" s="73"/>
+      <c r="AD17" s="67"/>
+      <c r="AE17" s="63"/>
+      <c r="AF17" s="63"/>
+      <c r="AG17" s="63"/>
+      <c r="AH17" s="63"/>
+      <c r="AI17" s="63"/>
+      <c r="AJ17" s="63"/>
+      <c r="AK17" s="68"/>
     </row>
     <row r="18" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A18" s="61" t="s">
+      <c r="A18" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="89" t="s">
+      <c r="B18" s="85" t="s">
         <v>71</v>
       </c>
       <c r="D18" s="22"/>
@@ -8999,7 +8977,7 @@
       <c r="O18" s="35"/>
       <c r="P18" s="35"/>
       <c r="Q18" s="35"/>
-      <c r="R18" s="58"/>
+      <c r="R18" s="25"/>
       <c r="S18" s="23"/>
       <c r="T18" s="18"/>
       <c r="U18" s="17"/>
@@ -9011,22 +8989,22 @@
       <c r="AA18" s="17"/>
       <c r="AB18" s="17"/>
       <c r="AC18" s="6"/>
-      <c r="AD18" s="72"/>
-      <c r="AE18" s="66"/>
-      <c r="AF18" s="66"/>
-      <c r="AG18" s="66"/>
-      <c r="AH18" s="66"/>
-      <c r="AI18" s="66"/>
-      <c r="AJ18" s="66"/>
-      <c r="AK18" s="73"/>
+      <c r="AD18" s="67"/>
+      <c r="AE18" s="63"/>
+      <c r="AF18" s="63"/>
+      <c r="AG18" s="63"/>
+      <c r="AH18" s="63"/>
+      <c r="AI18" s="63"/>
+      <c r="AJ18" s="63"/>
+      <c r="AK18" s="68"/>
     </row>
     <row r="19" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A19" s="60"/>
-      <c r="B19" s="60"/>
-      <c r="D19" s="54" t="s">
+      <c r="A19" s="55"/>
+      <c r="B19" s="55"/>
+      <c r="D19" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="55"/>
+      <c r="E19" s="20"/>
       <c r="F19" s="20"/>
       <c r="G19" s="12" t="e">
         <f t="array" aca="1" ref="G19" ca="1">IF(ISBLANK(INDIRECT(ADDRESS(ROW()-1,1,2,TRUE()))),"",IF((INDIRECT(ADDRESS(3,COLUMN(),2,1))="g"),"g"," "))</f>
@@ -9054,20 +9032,20 @@
       <c r="AA19" s="17"/>
       <c r="AB19" s="17"/>
       <c r="AC19" s="6"/>
-      <c r="AD19" s="72"/>
-      <c r="AE19" s="66"/>
-      <c r="AF19" s="66"/>
-      <c r="AG19" s="66"/>
-      <c r="AH19" s="66"/>
-      <c r="AI19" s="66"/>
-      <c r="AJ19" s="66"/>
-      <c r="AK19" s="73"/>
+      <c r="AD19" s="67"/>
+      <c r="AE19" s="63"/>
+      <c r="AF19" s="63"/>
+      <c r="AG19" s="63"/>
+      <c r="AH19" s="63"/>
+      <c r="AI19" s="63"/>
+      <c r="AJ19" s="63"/>
+      <c r="AK19" s="68"/>
     </row>
     <row r="20" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A20" s="61" t="s">
+      <c r="A20" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="89" t="s">
+      <c r="B20" s="85" t="s">
         <v>73</v>
       </c>
       <c r="D20" s="22"/>
@@ -9099,22 +9077,22 @@
       <c r="AA20" s="17"/>
       <c r="AB20" s="17"/>
       <c r="AC20" s="6"/>
-      <c r="AD20" s="72"/>
-      <c r="AE20" s="66"/>
-      <c r="AF20" s="66"/>
-      <c r="AG20" s="66"/>
-      <c r="AH20" s="66"/>
-      <c r="AI20" s="66"/>
-      <c r="AJ20" s="66"/>
-      <c r="AK20" s="73"/>
+      <c r="AD20" s="67"/>
+      <c r="AE20" s="63"/>
+      <c r="AF20" s="63"/>
+      <c r="AG20" s="63"/>
+      <c r="AH20" s="63"/>
+      <c r="AI20" s="63"/>
+      <c r="AJ20" s="63"/>
+      <c r="AK20" s="68"/>
     </row>
     <row r="21" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A21" s="60"/>
-      <c r="B21" s="60"/>
-      <c r="D21" s="54" t="s">
+      <c r="A21" s="55"/>
+      <c r="B21" s="55"/>
+      <c r="D21" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="55"/>
+      <c r="E21" s="20"/>
       <c r="F21" s="20"/>
       <c r="G21" s="12" t="e">
         <f t="array" aca="1" ref="G21" ca="1">IF(ISBLANK(INDIRECT(ADDRESS(ROW()-1,1,2,TRUE()))),"",IF((INDIRECT(ADDRESS(3,COLUMN(),2,1))="g"),"g"," "))</f>
@@ -9142,20 +9120,20 @@
       <c r="AA21" s="17"/>
       <c r="AB21" s="17"/>
       <c r="AC21" s="6"/>
-      <c r="AD21" s="72"/>
-      <c r="AE21" s="66"/>
-      <c r="AF21" s="66"/>
-      <c r="AG21" s="66"/>
-      <c r="AH21" s="66"/>
-      <c r="AI21" s="66"/>
-      <c r="AJ21" s="66"/>
-      <c r="AK21" s="73"/>
+      <c r="AD21" s="67"/>
+      <c r="AE21" s="63"/>
+      <c r="AF21" s="63"/>
+      <c r="AG21" s="63"/>
+      <c r="AH21" s="63"/>
+      <c r="AI21" s="63"/>
+      <c r="AJ21" s="63"/>
+      <c r="AK21" s="68"/>
     </row>
     <row r="22" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="B22" s="90" t="s">
+      <c r="B22" s="84" t="s">
         <v>75</v>
       </c>
       <c r="D22" s="22"/>
@@ -9187,22 +9165,22 @@
       <c r="AA22" s="17"/>
       <c r="AB22" s="17"/>
       <c r="AC22" s="6"/>
-      <c r="AD22" s="72"/>
-      <c r="AE22" s="66"/>
-      <c r="AF22" s="66"/>
-      <c r="AG22" s="66"/>
-      <c r="AH22" s="66"/>
-      <c r="AI22" s="66"/>
-      <c r="AJ22" s="66"/>
-      <c r="AK22" s="73"/>
+      <c r="AD22" s="67"/>
+      <c r="AE22" s="63"/>
+      <c r="AF22" s="63"/>
+      <c r="AG22" s="63"/>
+      <c r="AH22" s="63"/>
+      <c r="AI22" s="63"/>
+      <c r="AJ22" s="63"/>
+      <c r="AK22" s="68"/>
     </row>
     <row r="23" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A23" s="60"/>
-      <c r="B23" s="60"/>
-      <c r="D23" s="54" t="s">
+      <c r="A23" s="55"/>
+      <c r="B23" s="55"/>
+      <c r="D23" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E23" s="55"/>
+      <c r="E23" s="20"/>
       <c r="F23" s="20"/>
       <c r="G23" s="12" t="e">
         <f t="array" aca="1" ref="G23" ca="1">IF(ISBLANK(INDIRECT(ADDRESS(ROW()-1,1,2,TRUE()))),"",IF((INDIRECT(ADDRESS(3,COLUMN(),2,1))="g"),"g"," "))</f>
@@ -9230,20 +9208,20 @@
       <c r="AA23" s="17"/>
       <c r="AB23" s="17"/>
       <c r="AC23" s="6"/>
-      <c r="AD23" s="72"/>
-      <c r="AE23" s="66"/>
-      <c r="AF23" s="66"/>
-      <c r="AG23" s="66"/>
-      <c r="AH23" s="66"/>
-      <c r="AI23" s="66"/>
-      <c r="AJ23" s="66"/>
-      <c r="AK23" s="73"/>
+      <c r="AD23" s="67"/>
+      <c r="AE23" s="63"/>
+      <c r="AF23" s="63"/>
+      <c r="AG23" s="63"/>
+      <c r="AH23" s="63"/>
+      <c r="AI23" s="63"/>
+      <c r="AJ23" s="63"/>
+      <c r="AK23" s="68"/>
     </row>
     <row r="24" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A24" s="61" t="s">
+      <c r="A24" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="B24" s="89" t="s">
+      <c r="B24" s="85" t="s">
         <v>77</v>
       </c>
       <c r="D24" s="22"/>
@@ -9275,22 +9253,22 @@
       <c r="AA24" s="17"/>
       <c r="AB24" s="17"/>
       <c r="AC24" s="6"/>
-      <c r="AD24" s="72"/>
-      <c r="AE24" s="66"/>
-      <c r="AF24" s="66"/>
-      <c r="AG24" s="66"/>
-      <c r="AH24" s="66"/>
-      <c r="AI24" s="66"/>
-      <c r="AJ24" s="66"/>
-      <c r="AK24" s="73"/>
+      <c r="AD24" s="67"/>
+      <c r="AE24" s="63"/>
+      <c r="AF24" s="63"/>
+      <c r="AG24" s="63"/>
+      <c r="AH24" s="63"/>
+      <c r="AI24" s="63"/>
+      <c r="AJ24" s="63"/>
+      <c r="AK24" s="68"/>
     </row>
     <row r="25" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A25" s="60"/>
-      <c r="B25" s="60"/>
-      <c r="D25" s="54" t="s">
+      <c r="A25" s="55"/>
+      <c r="B25" s="55"/>
+      <c r="D25" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E25" s="55"/>
+      <c r="E25" s="20"/>
       <c r="F25" s="20"/>
       <c r="G25" s="12" t="e">
         <f t="array" aca="1" ref="G25" ca="1">IF(ISBLANK(INDIRECT(ADDRESS(ROW()-1,1,2,TRUE()))),"",IF((INDIRECT(ADDRESS(3,COLUMN(),2,1))="g"),"g"," "))</f>
@@ -9318,20 +9296,20 @@
       <c r="AA25" s="17"/>
       <c r="AB25" s="17"/>
       <c r="AC25" s="6"/>
-      <c r="AD25" s="72"/>
-      <c r="AE25" s="66"/>
-      <c r="AF25" s="66"/>
-      <c r="AG25" s="66"/>
-      <c r="AH25" s="66"/>
-      <c r="AI25" s="66"/>
-      <c r="AJ25" s="66"/>
-      <c r="AK25" s="73"/>
+      <c r="AD25" s="67"/>
+      <c r="AE25" s="63"/>
+      <c r="AF25" s="63"/>
+      <c r="AG25" s="63"/>
+      <c r="AH25" s="63"/>
+      <c r="AI25" s="63"/>
+      <c r="AJ25" s="63"/>
+      <c r="AK25" s="68"/>
     </row>
     <row r="26" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A26" s="61" t="s">
+      <c r="A26" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="B26" s="90" t="s">
+      <c r="B26" s="84" t="s">
         <v>66</v>
       </c>
       <c r="D26" s="22"/>
@@ -9363,20 +9341,20 @@
       <c r="AA26" s="17"/>
       <c r="AB26" s="17"/>
       <c r="AC26" s="6"/>
-      <c r="AD26" s="72"/>
-      <c r="AE26" s="66"/>
-      <c r="AF26" s="66"/>
-      <c r="AG26" s="66"/>
-      <c r="AH26" s="66"/>
-      <c r="AI26" s="66"/>
-      <c r="AJ26" s="66"/>
-      <c r="AK26" s="73"/>
+      <c r="AD26" s="67"/>
+      <c r="AE26" s="63"/>
+      <c r="AF26" s="63"/>
+      <c r="AG26" s="63"/>
+      <c r="AH26" s="63"/>
+      <c r="AI26" s="63"/>
+      <c r="AJ26" s="63"/>
+      <c r="AK26" s="68"/>
     </row>
     <row r="27" spans="1:37" ht="17.25" customHeight="1">
-      <c r="A27" s="60"/>
-      <c r="B27" s="60"/>
+      <c r="A27" s="55"/>
+      <c r="B27" s="55"/>
       <c r="D27" s="19"/>
-      <c r="E27" s="55" t="s">
+      <c r="E27" s="20" t="s">
         <v>65</v>
       </c>
       <c r="F27" s="20"/>
@@ -9406,20 +9384,20 @@
       <c r="AA27" s="17"/>
       <c r="AB27" s="17"/>
       <c r="AC27" s="6"/>
-      <c r="AD27" s="72"/>
-      <c r="AE27" s="66"/>
-      <c r="AF27" s="66"/>
-      <c r="AG27" s="66"/>
-      <c r="AH27" s="66"/>
-      <c r="AI27" s="66"/>
-      <c r="AJ27" s="66"/>
-      <c r="AK27" s="73"/>
+      <c r="AD27" s="67"/>
+      <c r="AE27" s="63"/>
+      <c r="AF27" s="63"/>
+      <c r="AG27" s="63"/>
+      <c r="AH27" s="63"/>
+      <c r="AI27" s="63"/>
+      <c r="AJ27" s="63"/>
+      <c r="AK27" s="68"/>
     </row>
     <row r="28" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A28" s="61" t="s">
+      <c r="A28" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="B28" s="89" t="s">
+      <c r="B28" s="85" t="s">
         <v>80</v>
       </c>
       <c r="D28" s="22"/>
@@ -9451,20 +9429,20 @@
       <c r="AA28" s="17"/>
       <c r="AB28" s="17"/>
       <c r="AC28" s="6"/>
-      <c r="AD28" s="72"/>
-      <c r="AE28" s="66"/>
-      <c r="AF28" s="66"/>
-      <c r="AG28" s="66"/>
-      <c r="AH28" s="66"/>
-      <c r="AI28" s="66"/>
-      <c r="AJ28" s="66"/>
-      <c r="AK28" s="73"/>
+      <c r="AD28" s="67"/>
+      <c r="AE28" s="63"/>
+      <c r="AF28" s="63"/>
+      <c r="AG28" s="63"/>
+      <c r="AH28" s="63"/>
+      <c r="AI28" s="63"/>
+      <c r="AJ28" s="63"/>
+      <c r="AK28" s="68"/>
     </row>
     <row r="29" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A29" s="60"/>
-      <c r="B29" s="60"/>
+      <c r="A29" s="55"/>
+      <c r="B29" s="55"/>
       <c r="D29" s="19"/>
-      <c r="E29" s="55" t="s">
+      <c r="E29" s="20" t="s">
         <v>65</v>
       </c>
       <c r="F29" s="20"/>
@@ -9494,20 +9472,20 @@
       <c r="AA29" s="17"/>
       <c r="AB29" s="17"/>
       <c r="AC29" s="6"/>
-      <c r="AD29" s="72"/>
-      <c r="AE29" s="66"/>
-      <c r="AF29" s="66"/>
-      <c r="AG29" s="66"/>
-      <c r="AH29" s="66"/>
-      <c r="AI29" s="66"/>
-      <c r="AJ29" s="66"/>
-      <c r="AK29" s="73"/>
+      <c r="AD29" s="67"/>
+      <c r="AE29" s="63"/>
+      <c r="AF29" s="63"/>
+      <c r="AG29" s="63"/>
+      <c r="AH29" s="63"/>
+      <c r="AI29" s="63"/>
+      <c r="AJ29" s="63"/>
+      <c r="AK29" s="68"/>
     </row>
     <row r="30" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A30" s="61" t="s">
+      <c r="A30" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="B30" s="90" t="s">
+      <c r="B30" s="84" t="s">
         <v>69</v>
       </c>
       <c r="D30" s="22"/>
@@ -9539,20 +9517,20 @@
       <c r="AA30" s="17"/>
       <c r="AB30" s="17"/>
       <c r="AC30" s="6"/>
-      <c r="AD30" s="72"/>
-      <c r="AE30" s="66"/>
-      <c r="AF30" s="66"/>
-      <c r="AG30" s="66"/>
-      <c r="AH30" s="66"/>
-      <c r="AI30" s="66"/>
-      <c r="AJ30" s="66"/>
-      <c r="AK30" s="73"/>
+      <c r="AD30" s="67"/>
+      <c r="AE30" s="63"/>
+      <c r="AF30" s="63"/>
+      <c r="AG30" s="63"/>
+      <c r="AH30" s="63"/>
+      <c r="AI30" s="63"/>
+      <c r="AJ30" s="63"/>
+      <c r="AK30" s="68"/>
     </row>
     <row r="31" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A31" s="60"/>
-      <c r="B31" s="60"/>
+      <c r="A31" s="55"/>
+      <c r="B31" s="55"/>
       <c r="D31" s="19"/>
-      <c r="E31" s="55" t="s">
+      <c r="E31" s="20" t="s">
         <v>65</v>
       </c>
       <c r="F31" s="20"/>
@@ -9561,7 +9539,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
+      <c r="I31" s="40"/>
       <c r="J31" s="17"/>
       <c r="K31" s="17"/>
       <c r="L31" s="18"/>
@@ -9582,20 +9560,20 @@
       <c r="AA31" s="17"/>
       <c r="AB31" s="17"/>
       <c r="AC31" s="6"/>
-      <c r="AD31" s="74"/>
-      <c r="AE31" s="75"/>
-      <c r="AF31" s="75"/>
-      <c r="AG31" s="75"/>
-      <c r="AH31" s="75"/>
-      <c r="AI31" s="75"/>
-      <c r="AJ31" s="75"/>
-      <c r="AK31" s="76"/>
+      <c r="AD31" s="69"/>
+      <c r="AE31" s="70"/>
+      <c r="AF31" s="70"/>
+      <c r="AG31" s="70"/>
+      <c r="AH31" s="70"/>
+      <c r="AI31" s="70"/>
+      <c r="AJ31" s="70"/>
+      <c r="AK31" s="71"/>
     </row>
     <row r="32" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A32" s="61" t="s">
+      <c r="A32" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="B32" s="89" t="s">
+      <c r="B32" s="85" t="s">
         <v>83</v>
       </c>
       <c r="D32" s="22"/>
@@ -9627,20 +9605,20 @@
       <c r="AA32" s="17"/>
       <c r="AB32" s="17"/>
       <c r="AC32" s="6"/>
-      <c r="AD32" s="56"/>
-      <c r="AE32" s="56"/>
-      <c r="AF32" s="56"/>
-      <c r="AG32" s="56"/>
-      <c r="AH32" s="56"/>
-      <c r="AI32" s="56"/>
-      <c r="AJ32" s="56"/>
-      <c r="AK32" s="56"/>
+      <c r="AD32" s="52"/>
+      <c r="AE32" s="52"/>
+      <c r="AF32" s="52"/>
+      <c r="AG32" s="52"/>
+      <c r="AH32" s="52"/>
+      <c r="AI32" s="52"/>
+      <c r="AJ32" s="52"/>
+      <c r="AK32" s="52"/>
     </row>
     <row r="33" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A33" s="60"/>
-      <c r="B33" s="60"/>
+      <c r="A33" s="55"/>
+      <c r="B33" s="55"/>
       <c r="D33" s="19"/>
-      <c r="E33" s="55" t="s">
+      <c r="E33" s="20" t="s">
         <v>65</v>
       </c>
       <c r="F33" s="20"/>
@@ -9670,20 +9648,20 @@
       <c r="AA33" s="17"/>
       <c r="AB33" s="17"/>
       <c r="AC33" s="6"/>
-      <c r="AD33" s="56"/>
-      <c r="AE33" s="56"/>
-      <c r="AF33" s="56"/>
-      <c r="AG33" s="56"/>
-      <c r="AH33" s="56"/>
-      <c r="AI33" s="56"/>
-      <c r="AJ33" s="56"/>
-      <c r="AK33" s="56"/>
+      <c r="AD33" s="52"/>
+      <c r="AE33" s="52"/>
+      <c r="AF33" s="52"/>
+      <c r="AG33" s="52"/>
+      <c r="AH33" s="52"/>
+      <c r="AI33" s="52"/>
+      <c r="AJ33" s="52"/>
+      <c r="AK33" s="52"/>
     </row>
     <row r="34" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A34" s="61" t="s">
+      <c r="A34" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="B34" s="90" t="s">
+      <c r="B34" s="84" t="s">
         <v>71</v>
       </c>
       <c r="D34" s="22"/>
@@ -9715,20 +9693,20 @@
       <c r="AA34" s="17"/>
       <c r="AB34" s="17"/>
       <c r="AC34" s="6"/>
-      <c r="AD34" s="78"/>
-      <c r="AE34" s="79"/>
-      <c r="AF34" s="79"/>
-      <c r="AG34" s="79"/>
-      <c r="AH34" s="79"/>
-      <c r="AI34" s="79"/>
-      <c r="AJ34" s="79"/>
-      <c r="AK34" s="80"/>
+      <c r="AD34" s="73"/>
+      <c r="AE34" s="74"/>
+      <c r="AF34" s="74"/>
+      <c r="AG34" s="74"/>
+      <c r="AH34" s="74"/>
+      <c r="AI34" s="74"/>
+      <c r="AJ34" s="74"/>
+      <c r="AK34" s="75"/>
     </row>
     <row r="35" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A35" s="60"/>
-      <c r="B35" s="60"/>
+      <c r="A35" s="55"/>
+      <c r="B35" s="55"/>
       <c r="D35" s="19"/>
-      <c r="E35" s="55" t="s">
+      <c r="E35" s="20" t="s">
         <v>65</v>
       </c>
       <c r="F35" s="20"/>
@@ -9758,20 +9736,20 @@
       <c r="AA35" s="17"/>
       <c r="AB35" s="17"/>
       <c r="AC35" s="6"/>
-      <c r="AD35" s="81"/>
-      <c r="AE35" s="66"/>
-      <c r="AF35" s="66"/>
-      <c r="AG35" s="66"/>
-      <c r="AH35" s="66"/>
-      <c r="AI35" s="66"/>
-      <c r="AJ35" s="66"/>
-      <c r="AK35" s="82"/>
+      <c r="AD35" s="76"/>
+      <c r="AE35" s="63"/>
+      <c r="AF35" s="63"/>
+      <c r="AG35" s="63"/>
+      <c r="AH35" s="63"/>
+      <c r="AI35" s="63"/>
+      <c r="AJ35" s="63"/>
+      <c r="AK35" s="77"/>
     </row>
     <row r="36" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A36" s="61" t="s">
+      <c r="A36" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="B36" s="89" t="s">
+      <c r="B36" s="85" t="s">
         <v>73</v>
       </c>
       <c r="D36" s="22"/>
@@ -9803,20 +9781,20 @@
       <c r="AA36" s="17"/>
       <c r="AB36" s="17"/>
       <c r="AC36" s="6"/>
-      <c r="AD36" s="81"/>
-      <c r="AE36" s="66"/>
-      <c r="AF36" s="66"/>
-      <c r="AG36" s="66"/>
-      <c r="AH36" s="66"/>
-      <c r="AI36" s="66"/>
-      <c r="AJ36" s="66"/>
-      <c r="AK36" s="82"/>
+      <c r="AD36" s="76"/>
+      <c r="AE36" s="63"/>
+      <c r="AF36" s="63"/>
+      <c r="AG36" s="63"/>
+      <c r="AH36" s="63"/>
+      <c r="AI36" s="63"/>
+      <c r="AJ36" s="63"/>
+      <c r="AK36" s="77"/>
     </row>
     <row r="37" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A37" s="60"/>
-      <c r="B37" s="60"/>
+      <c r="A37" s="55"/>
+      <c r="B37" s="55"/>
       <c r="D37" s="19"/>
-      <c r="E37" s="55" t="s">
+      <c r="E37" s="20" t="s">
         <v>65</v>
       </c>
       <c r="F37" s="20"/>
@@ -9846,20 +9824,20 @@
       <c r="AA37" s="17"/>
       <c r="AB37" s="17"/>
       <c r="AC37" s="6"/>
-      <c r="AD37" s="81"/>
-      <c r="AE37" s="66"/>
-      <c r="AF37" s="66"/>
-      <c r="AG37" s="66"/>
-      <c r="AH37" s="66"/>
-      <c r="AI37" s="66"/>
-      <c r="AJ37" s="66"/>
-      <c r="AK37" s="82"/>
+      <c r="AD37" s="76"/>
+      <c r="AE37" s="63"/>
+      <c r="AF37" s="63"/>
+      <c r="AG37" s="63"/>
+      <c r="AH37" s="63"/>
+      <c r="AI37" s="63"/>
+      <c r="AJ37" s="63"/>
+      <c r="AK37" s="77"/>
     </row>
     <row r="38" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A38" s="61" t="s">
+      <c r="A38" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="B38" s="90" t="s">
+      <c r="B38" s="84" t="s">
         <v>75</v>
       </c>
       <c r="D38" s="22"/>
@@ -9891,20 +9869,20 @@
       <c r="AA38" s="17"/>
       <c r="AB38" s="17"/>
       <c r="AC38" s="6"/>
-      <c r="AD38" s="81"/>
-      <c r="AE38" s="66"/>
-      <c r="AF38" s="66"/>
-      <c r="AG38" s="66"/>
-      <c r="AH38" s="66"/>
-      <c r="AI38" s="66"/>
-      <c r="AJ38" s="66"/>
-      <c r="AK38" s="82"/>
+      <c r="AD38" s="76"/>
+      <c r="AE38" s="63"/>
+      <c r="AF38" s="63"/>
+      <c r="AG38" s="63"/>
+      <c r="AH38" s="63"/>
+      <c r="AI38" s="63"/>
+      <c r="AJ38" s="63"/>
+      <c r="AK38" s="77"/>
     </row>
     <row r="39" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A39" s="60"/>
-      <c r="B39" s="60"/>
+      <c r="A39" s="55"/>
+      <c r="B39" s="55"/>
       <c r="D39" s="19"/>
-      <c r="E39" s="55" t="s">
+      <c r="E39" s="20" t="s">
         <v>65</v>
       </c>
       <c r="F39" s="20"/>
@@ -9934,20 +9912,20 @@
       <c r="AA39" s="17"/>
       <c r="AB39" s="17"/>
       <c r="AC39" s="6"/>
-      <c r="AD39" s="81"/>
-      <c r="AE39" s="66"/>
-      <c r="AF39" s="66"/>
-      <c r="AG39" s="66"/>
-      <c r="AH39" s="66"/>
-      <c r="AI39" s="66"/>
-      <c r="AJ39" s="66"/>
-      <c r="AK39" s="82"/>
+      <c r="AD39" s="76"/>
+      <c r="AE39" s="63"/>
+      <c r="AF39" s="63"/>
+      <c r="AG39" s="63"/>
+      <c r="AH39" s="63"/>
+      <c r="AI39" s="63"/>
+      <c r="AJ39" s="63"/>
+      <c r="AK39" s="77"/>
     </row>
     <row r="40" spans="1:37" ht="15" customHeight="1">
-      <c r="A40" s="61" t="s">
+      <c r="A40" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="B40" s="89" t="s">
+      <c r="B40" s="85" t="s">
         <v>77</v>
       </c>
       <c r="D40" s="22"/>
@@ -9979,20 +9957,20 @@
       <c r="AA40" s="17"/>
       <c r="AB40" s="17"/>
       <c r="AC40" s="6"/>
-      <c r="AD40" s="81"/>
-      <c r="AE40" s="66"/>
-      <c r="AF40" s="66"/>
-      <c r="AG40" s="66"/>
-      <c r="AH40" s="66"/>
-      <c r="AI40" s="66"/>
-      <c r="AJ40" s="66"/>
-      <c r="AK40" s="82"/>
+      <c r="AD40" s="76"/>
+      <c r="AE40" s="63"/>
+      <c r="AF40" s="63"/>
+      <c r="AG40" s="63"/>
+      <c r="AH40" s="63"/>
+      <c r="AI40" s="63"/>
+      <c r="AJ40" s="63"/>
+      <c r="AK40" s="77"/>
     </row>
     <row r="41" spans="1:37" ht="15" customHeight="1">
-      <c r="A41" s="60"/>
-      <c r="B41" s="60"/>
+      <c r="A41" s="55"/>
+      <c r="B41" s="55"/>
       <c r="D41" s="19"/>
-      <c r="E41" s="55" t="s">
+      <c r="E41" s="20" t="s">
         <v>65</v>
       </c>
       <c r="F41" s="20"/>
@@ -10022,20 +10000,20 @@
       <c r="AA41" s="17"/>
       <c r="AB41" s="17"/>
       <c r="AC41" s="6"/>
-      <c r="AD41" s="81"/>
-      <c r="AE41" s="66"/>
-      <c r="AF41" s="66"/>
-      <c r="AG41" s="66"/>
-      <c r="AH41" s="66"/>
-      <c r="AI41" s="66"/>
-      <c r="AJ41" s="66"/>
-      <c r="AK41" s="82"/>
+      <c r="AD41" s="76"/>
+      <c r="AE41" s="63"/>
+      <c r="AF41" s="63"/>
+      <c r="AG41" s="63"/>
+      <c r="AH41" s="63"/>
+      <c r="AI41" s="63"/>
+      <c r="AJ41" s="63"/>
+      <c r="AK41" s="77"/>
     </row>
     <row r="42" spans="1:37" ht="15" customHeight="1">
-      <c r="A42" s="61" t="s">
+      <c r="A42" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="B42" s="90" t="s">
+      <c r="B42" s="84" t="s">
         <v>66</v>
       </c>
       <c r="D42" s="22"/>
@@ -10067,21 +10045,21 @@
       <c r="AA42" s="17"/>
       <c r="AB42" s="17"/>
       <c r="AC42" s="6"/>
-      <c r="AD42" s="81"/>
-      <c r="AE42" s="66"/>
-      <c r="AF42" s="66"/>
-      <c r="AG42" s="66"/>
-      <c r="AH42" s="66"/>
-      <c r="AI42" s="66"/>
-      <c r="AJ42" s="66"/>
-      <c r="AK42" s="82"/>
+      <c r="AD42" s="76"/>
+      <c r="AE42" s="63"/>
+      <c r="AF42" s="63"/>
+      <c r="AG42" s="63"/>
+      <c r="AH42" s="63"/>
+      <c r="AI42" s="63"/>
+      <c r="AJ42" s="63"/>
+      <c r="AK42" s="77"/>
     </row>
     <row r="43" spans="1:37" ht="15" customHeight="1">
-      <c r="A43" s="60"/>
-      <c r="B43" s="60"/>
+      <c r="A43" s="55"/>
+      <c r="B43" s="55"/>
       <c r="D43" s="19"/>
       <c r="E43" s="20"/>
-      <c r="F43" s="55" t="s">
+      <c r="F43" s="20" t="s">
         <v>65</v>
       </c>
       <c r="G43" s="12" t="e">
@@ -10110,20 +10088,20 @@
       <c r="AA43" s="17"/>
       <c r="AB43" s="17"/>
       <c r="AC43" s="6"/>
-      <c r="AD43" s="81"/>
-      <c r="AE43" s="66"/>
-      <c r="AF43" s="66"/>
-      <c r="AG43" s="66"/>
-      <c r="AH43" s="66"/>
-      <c r="AI43" s="66"/>
-      <c r="AJ43" s="66"/>
-      <c r="AK43" s="82"/>
+      <c r="AD43" s="76"/>
+      <c r="AE43" s="63"/>
+      <c r="AF43" s="63"/>
+      <c r="AG43" s="63"/>
+      <c r="AH43" s="63"/>
+      <c r="AI43" s="63"/>
+      <c r="AJ43" s="63"/>
+      <c r="AK43" s="77"/>
     </row>
     <row r="44" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A44" s="61" t="s">
+      <c r="A44" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="B44" s="89" t="s">
+      <c r="B44" s="85" t="s">
         <v>90</v>
       </c>
       <c r="D44" s="22"/>
@@ -10155,21 +10133,21 @@
       <c r="AA44" s="17"/>
       <c r="AB44" s="17"/>
       <c r="AC44" s="6"/>
-      <c r="AD44" s="81"/>
-      <c r="AE44" s="66"/>
-      <c r="AF44" s="66"/>
-      <c r="AG44" s="66"/>
-      <c r="AH44" s="66"/>
-      <c r="AI44" s="66"/>
-      <c r="AJ44" s="66"/>
-      <c r="AK44" s="82"/>
+      <c r="AD44" s="76"/>
+      <c r="AE44" s="63"/>
+      <c r="AF44" s="63"/>
+      <c r="AG44" s="63"/>
+      <c r="AH44" s="63"/>
+      <c r="AI44" s="63"/>
+      <c r="AJ44" s="63"/>
+      <c r="AK44" s="77"/>
     </row>
     <row r="45" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A45" s="60"/>
-      <c r="B45" s="60"/>
+      <c r="A45" s="55"/>
+      <c r="B45" s="55"/>
       <c r="D45" s="19"/>
       <c r="E45" s="20"/>
-      <c r="F45" s="55" t="s">
+      <c r="F45" s="20" t="s">
         <v>65</v>
       </c>
       <c r="G45" s="12" t="e">
@@ -10177,9 +10155,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="H45" s="17"/>
-      <c r="I45" s="58"/>
-      <c r="J45" s="58"/>
-      <c r="K45" s="58"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="25"/>
+      <c r="K45" s="25"/>
       <c r="L45" s="18"/>
       <c r="M45" s="18"/>
       <c r="N45" s="17"/>
@@ -10198,20 +10176,20 @@
       <c r="AA45" s="17"/>
       <c r="AB45" s="17"/>
       <c r="AC45" s="6"/>
-      <c r="AD45" s="81"/>
-      <c r="AE45" s="66"/>
-      <c r="AF45" s="66"/>
-      <c r="AG45" s="66"/>
-      <c r="AH45" s="66"/>
-      <c r="AI45" s="66"/>
-      <c r="AJ45" s="66"/>
-      <c r="AK45" s="82"/>
+      <c r="AD45" s="76"/>
+      <c r="AE45" s="63"/>
+      <c r="AF45" s="63"/>
+      <c r="AG45" s="63"/>
+      <c r="AH45" s="63"/>
+      <c r="AI45" s="63"/>
+      <c r="AJ45" s="63"/>
+      <c r="AK45" s="77"/>
     </row>
     <row r="46" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A46" s="61" t="s">
+      <c r="A46" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="B46" s="94" t="s">
+      <c r="B46" s="84" t="s">
         <v>67</v>
       </c>
       <c r="D46" s="22"/>
@@ -10221,7 +10199,7 @@
         <f t="array" aca="1" ref="G46" ca="1">IF(ISBLANK(INDIRECT(ADDRESS(ROW(),1,2,TRUE()))),"",IF((INDIRECT(ADDRESS(3,COLUMN(),2,1))="g"),"g"," "))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H46" s="58"/>
+      <c r="H46" s="25"/>
       <c r="I46" s="35"/>
       <c r="J46" s="35"/>
       <c r="K46" s="17"/>
@@ -10243,21 +10221,21 @@
       <c r="AA46" s="17"/>
       <c r="AB46" s="17"/>
       <c r="AC46" s="6"/>
-      <c r="AD46" s="81"/>
-      <c r="AE46" s="66"/>
-      <c r="AF46" s="66"/>
-      <c r="AG46" s="66"/>
-      <c r="AH46" s="66"/>
-      <c r="AI46" s="66"/>
-      <c r="AJ46" s="66"/>
-      <c r="AK46" s="82"/>
+      <c r="AD46" s="76"/>
+      <c r="AE46" s="63"/>
+      <c r="AF46" s="63"/>
+      <c r="AG46" s="63"/>
+      <c r="AH46" s="63"/>
+      <c r="AI46" s="63"/>
+      <c r="AJ46" s="63"/>
+      <c r="AK46" s="77"/>
     </row>
     <row r="47" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A47" s="60"/>
-      <c r="B47" s="93"/>
+      <c r="A47" s="55"/>
+      <c r="B47" s="55"/>
       <c r="D47" s="19"/>
       <c r="E47" s="20"/>
-      <c r="F47" s="55" t="s">
+      <c r="F47" s="20" t="s">
         <v>65</v>
       </c>
       <c r="G47" s="12" t="e">
@@ -10286,20 +10264,20 @@
       <c r="AA47" s="17"/>
       <c r="AB47" s="17"/>
       <c r="AC47" s="6"/>
-      <c r="AD47" s="81"/>
-      <c r="AE47" s="66"/>
-      <c r="AF47" s="66"/>
-      <c r="AG47" s="66"/>
-      <c r="AH47" s="66"/>
-      <c r="AI47" s="66"/>
-      <c r="AJ47" s="66"/>
-      <c r="AK47" s="82"/>
+      <c r="AD47" s="76"/>
+      <c r="AE47" s="63"/>
+      <c r="AF47" s="63"/>
+      <c r="AG47" s="63"/>
+      <c r="AH47" s="63"/>
+      <c r="AI47" s="63"/>
+      <c r="AJ47" s="63"/>
+      <c r="AK47" s="77"/>
     </row>
     <row r="48" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A48" s="61" t="s">
+      <c r="A48" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="B48" s="92" t="s">
+      <c r="B48" s="85" t="s">
         <v>93</v>
       </c>
       <c r="D48" s="22"/>
@@ -10331,21 +10309,21 @@
       <c r="AA48" s="17"/>
       <c r="AB48" s="17"/>
       <c r="AC48" s="6"/>
-      <c r="AD48" s="83"/>
-      <c r="AE48" s="84"/>
-      <c r="AF48" s="84"/>
-      <c r="AG48" s="84"/>
-      <c r="AH48" s="84"/>
-      <c r="AI48" s="84"/>
-      <c r="AJ48" s="84"/>
-      <c r="AK48" s="85"/>
+      <c r="AD48" s="78"/>
+      <c r="AE48" s="79"/>
+      <c r="AF48" s="79"/>
+      <c r="AG48" s="79"/>
+      <c r="AH48" s="79"/>
+      <c r="AI48" s="79"/>
+      <c r="AJ48" s="79"/>
+      <c r="AK48" s="80"/>
     </row>
     <row r="49" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A49" s="60"/>
-      <c r="B49" s="93"/>
+      <c r="A49" s="55"/>
+      <c r="B49" s="55"/>
       <c r="D49" s="19"/>
       <c r="E49" s="20"/>
-      <c r="F49" s="55" t="s">
+      <c r="F49" s="20" t="s">
         <v>65</v>
       </c>
       <c r="G49" s="12" t="e">
@@ -10386,10 +10364,10 @@
       <c r="AK49" s="38"/>
     </row>
     <row r="50" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A50" s="61" t="s">
+      <c r="A50" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="B50" s="89" t="s">
+      <c r="B50" s="85" t="s">
         <v>95</v>
       </c>
       <c r="D50" s="22"/>
@@ -10433,11 +10411,11 @@
       <c r="AK50" s="38"/>
     </row>
     <row r="51" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A51" s="60"/>
-      <c r="B51" s="60"/>
+      <c r="A51" s="55"/>
+      <c r="B51" s="55"/>
       <c r="D51" s="19"/>
       <c r="E51" s="20"/>
-      <c r="F51" s="55" t="s">
+      <c r="F51" s="20" t="s">
         <v>65</v>
       </c>
       <c r="G51" s="12" t="e">
@@ -10478,10 +10456,10 @@
       <c r="AK51" s="38"/>
     </row>
     <row r="52" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A52" s="61" t="s">
+      <c r="A52" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="B52" s="89" t="s">
+      <c r="B52" s="85" t="s">
         <v>97</v>
       </c>
       <c r="D52" s="22"/>
@@ -10525,11 +10503,11 @@
       <c r="AK52" s="38"/>
     </row>
     <row r="53" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A53" s="60"/>
-      <c r="B53" s="60"/>
+      <c r="A53" s="55"/>
+      <c r="B53" s="55"/>
       <c r="D53" s="19"/>
       <c r="E53" s="20"/>
-      <c r="F53" s="55" t="s">
+      <c r="F53" s="20" t="s">
         <v>65</v>
       </c>
       <c r="G53" s="12" t="e">
@@ -10570,10 +10548,10 @@
       <c r="AK53" s="38"/>
     </row>
     <row r="54" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A54" s="61" t="s">
+      <c r="A54" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="B54" s="89" t="s">
+      <c r="B54" s="85" t="s">
         <v>99</v>
       </c>
       <c r="D54" s="22"/>
@@ -10617,11 +10595,11 @@
       <c r="AK54" s="38"/>
     </row>
     <row r="55" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A55" s="60"/>
-      <c r="B55" s="60"/>
+      <c r="A55" s="55"/>
+      <c r="B55" s="55"/>
       <c r="D55" s="19"/>
       <c r="E55" s="20"/>
-      <c r="F55" s="55" t="s">
+      <c r="F55" s="20" t="s">
         <v>65</v>
       </c>
       <c r="G55" s="12" t="e">
@@ -10660,10 +10638,10 @@
       <c r="AK55" s="38"/>
     </row>
     <row r="56" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A56" s="61" t="s">
+      <c r="A56" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="B56" s="89" t="s">
+      <c r="B56" s="85" t="s">
         <v>101</v>
       </c>
       <c r="D56" s="22"/>
@@ -10705,11 +10683,11 @@
       <c r="AK56" s="50"/>
     </row>
     <row r="57" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A57" s="60"/>
-      <c r="B57" s="60"/>
+      <c r="A57" s="55"/>
+      <c r="B57" s="55"/>
       <c r="D57" s="19"/>
       <c r="E57" s="20"/>
-      <c r="F57" s="55" t="s">
+      <c r="F57" s="20" t="s">
         <v>65</v>
       </c>
       <c r="G57" s="12" t="e">
@@ -10740,10 +10718,10 @@
       <c r="AC57" s="6"/>
     </row>
     <row r="58" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A58" s="61" t="s">
+      <c r="A58" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="B58" s="89" t="s">
+      <c r="B58" s="85" t="s">
         <v>103</v>
       </c>
       <c r="G58" s="12" t="e">
@@ -10774,15 +10752,15 @@
       <c r="AC58" s="6"/>
     </row>
     <row r="59" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A59" s="60"/>
-      <c r="B59" s="60"/>
-      <c r="D59" s="54" t="s">
+      <c r="A59" s="55"/>
+      <c r="B59" s="55"/>
+      <c r="D59" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E59" s="55" t="s">
+      <c r="E59" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="F59" s="55" t="s">
+      <c r="F59" s="20" t="s">
         <v>65</v>
       </c>
       <c r="G59" s="12" t="e">
@@ -10813,10 +10791,10 @@
       <c r="AC59" s="6"/>
     </row>
     <row r="60" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A60" s="61" t="s">
+      <c r="A60" s="54" t="s">
         <v>104</v>
       </c>
-      <c r="B60" s="89" t="s">
+      <c r="B60" s="85" t="s">
         <v>105</v>
       </c>
       <c r="C60" s="12"/>
@@ -10851,15 +10829,15 @@
       <c r="AC60" s="6"/>
     </row>
     <row r="61" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A61" s="60"/>
-      <c r="B61" s="60"/>
-      <c r="D61" s="54" t="s">
+      <c r="A61" s="55"/>
+      <c r="B61" s="55"/>
+      <c r="D61" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E61" s="55" t="s">
+      <c r="E61" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="F61" s="55" t="s">
+      <c r="F61" s="20" t="s">
         <v>65</v>
       </c>
       <c r="G61" s="12" t="e">
@@ -10890,10 +10868,10 @@
       <c r="AC61" s="6"/>
     </row>
     <row r="62" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A62" s="61" t="s">
+      <c r="A62" s="54" t="s">
         <v>106</v>
       </c>
-      <c r="B62" s="89" t="s">
+      <c r="B62" s="85" t="s">
         <v>107</v>
       </c>
       <c r="F62" s="12"/>
@@ -10925,15 +10903,15 @@
       <c r="AC62" s="6"/>
     </row>
     <row r="63" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A63" s="60"/>
-      <c r="B63" s="60"/>
-      <c r="D63" s="54" t="s">
+      <c r="A63" s="55"/>
+      <c r="B63" s="55"/>
+      <c r="D63" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E63" s="55" t="s">
+      <c r="E63" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="F63" s="55" t="s">
+      <c r="F63" s="20" t="s">
         <v>65</v>
       </c>
       <c r="G63" s="12" t="e">
@@ -10964,10 +10942,10 @@
       <c r="AC63" s="6"/>
     </row>
     <row r="64" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A64" s="61" t="s">
+      <c r="A64" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="B64" s="89" t="s">
+      <c r="B64" s="85" t="s">
         <v>109</v>
       </c>
       <c r="D64" s="22"/>
@@ -11001,15 +10979,15 @@
       <c r="AC64" s="6"/>
     </row>
     <row r="65" spans="1:29" ht="14.25" customHeight="1">
-      <c r="A65" s="60"/>
-      <c r="B65" s="60"/>
-      <c r="D65" s="54" t="s">
+      <c r="A65" s="55"/>
+      <c r="B65" s="55"/>
+      <c r="D65" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E65" s="55" t="s">
+      <c r="E65" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="F65" s="55" t="s">
+      <c r="F65" s="20" t="s">
         <v>65</v>
       </c>
       <c r="G65" s="12" t="e">
@@ -11040,10 +11018,10 @@
       <c r="AC65" s="6"/>
     </row>
     <row r="66" spans="1:29" ht="14.25" customHeight="1">
-      <c r="A66" s="61" t="s">
+      <c r="A66" s="54" t="s">
         <v>110</v>
       </c>
-      <c r="B66" s="89" t="s">
+      <c r="B66" s="85" t="s">
         <v>111</v>
       </c>
       <c r="D66" s="22"/>
@@ -11077,15 +11055,15 @@
       <c r="AC66" s="6"/>
     </row>
     <row r="67" spans="1:29" ht="14.25" customHeight="1">
-      <c r="A67" s="60"/>
-      <c r="B67" s="60"/>
-      <c r="D67" s="54" t="s">
+      <c r="A67" s="55"/>
+      <c r="B67" s="55"/>
+      <c r="D67" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E67" s="55" t="s">
+      <c r="E67" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="F67" s="55" t="s">
+      <c r="F67" s="20" t="s">
         <v>65</v>
       </c>
       <c r="G67" s="12" t="e">
@@ -11125,10 +11103,10 @@
       <c r="F70" s="12"/>
     </row>
     <row r="71" spans="1:29" ht="14.25" customHeight="1">
-      <c r="A71" s="57" t="s">
+      <c r="A71" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="B71" s="57" t="s">
+      <c r="B71" s="53" t="s">
         <v>113</v>
       </c>
       <c r="F71" s="12"/>
@@ -11143,10 +11121,10 @@
       <c r="F72" s="12"/>
     </row>
     <row r="73" spans="1:29" ht="14.25" customHeight="1">
-      <c r="A73" s="57" t="s">
+      <c r="A73" s="53" t="s">
         <v>116</v>
       </c>
-      <c r="B73" s="57" t="s">
+      <c r="B73" s="53" t="s">
         <v>117</v>
       </c>
       <c r="F73" s="12"/>
@@ -11252,7 +11230,7 @@
     </row>
     <row r="107" spans="6:12" ht="14.25" customHeight="1">
       <c r="F107" s="12"/>
-      <c r="L107" s="57"/>
+      <c r="L107" s="53"/>
     </row>
     <row r="108" spans="6:12" ht="14.25" customHeight="1">
       <c r="F108" s="12"/>
@@ -13935,71 +13913,71 @@
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="Y1:AB1"/>
-    <mergeCell ref="AD3:AK31"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="AD34:AK48"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B58:B59"/>
     <mergeCell ref="B60:B61"/>
     <mergeCell ref="B62:B63"/>
     <mergeCell ref="B64:B65"/>
     <mergeCell ref="B66:B67"/>
+    <mergeCell ref="A54:A55"/>
     <mergeCell ref="A56:A57"/>
     <mergeCell ref="A58:A59"/>
     <mergeCell ref="A60:A61"/>
     <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="AD34:AK48"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
     <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="AD3:AK31"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A36:A37"/>
     <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="Y1:AB1"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="A34:A35"/>
     <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
     <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
     <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B24:B25"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B44:B45"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="86" orientation="portrait"/>
@@ -14057,12 +14035,12 @@
       <c r="Z1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="AA1" s="62">
+      <c r="AA1" s="59">
         <v>2024</v>
       </c>
-      <c r="AB1" s="63"/>
-      <c r="AC1" s="63"/>
-      <c r="AD1" s="64"/>
+      <c r="AB1" s="60"/>
+      <c r="AC1" s="60"/>
+      <c r="AD1" s="61"/>
       <c r="AE1" s="6"/>
       <c r="AF1" s="4" t="s">
         <v>2</v>
@@ -14118,10 +14096,10 @@
       <c r="A3" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="D3" s="65"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
       <c r="J3" s="13" t="s">
         <v>5</v>
       </c>
@@ -14186,22 +14164,22 @@
         <v>25</v>
       </c>
       <c r="AE3" s="6"/>
-      <c r="AF3" s="69" t="s">
+      <c r="AF3" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="AG3" s="70"/>
-      <c r="AH3" s="70"/>
-      <c r="AI3" s="70"/>
-      <c r="AJ3" s="70"/>
-      <c r="AK3" s="70"/>
-      <c r="AL3" s="70"/>
-      <c r="AM3" s="71"/>
+      <c r="AG3" s="65"/>
+      <c r="AH3" s="65"/>
+      <c r="AI3" s="65"/>
+      <c r="AJ3" s="65"/>
+      <c r="AK3" s="65"/>
+      <c r="AL3" s="65"/>
+      <c r="AM3" s="66"/>
     </row>
     <row r="4" spans="1:39" ht="14.25" customHeight="1">
-      <c r="D4" s="65"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
@@ -14224,14 +14202,14 @@
       <c r="AC4" s="12"/>
       <c r="AD4" s="12"/>
       <c r="AE4" s="6"/>
-      <c r="AF4" s="72"/>
-      <c r="AG4" s="66"/>
-      <c r="AH4" s="66"/>
-      <c r="AI4" s="66"/>
-      <c r="AJ4" s="66"/>
-      <c r="AK4" s="66"/>
-      <c r="AL4" s="66"/>
-      <c r="AM4" s="73"/>
+      <c r="AF4" s="67"/>
+      <c r="AG4" s="63"/>
+      <c r="AH4" s="63"/>
+      <c r="AI4" s="63"/>
+      <c r="AJ4" s="63"/>
+      <c r="AK4" s="63"/>
+      <c r="AL4" s="63"/>
+      <c r="AM4" s="68"/>
     </row>
     <row r="5" spans="1:39" ht="14.25" customHeight="1">
       <c r="A5" s="8" t="s">
@@ -14283,20 +14261,20 @@
       <c r="AC5" s="12"/>
       <c r="AD5" s="16"/>
       <c r="AE5" s="6"/>
-      <c r="AF5" s="72"/>
-      <c r="AG5" s="66"/>
-      <c r="AH5" s="66"/>
-      <c r="AI5" s="66"/>
-      <c r="AJ5" s="66"/>
-      <c r="AK5" s="66"/>
-      <c r="AL5" s="66"/>
-      <c r="AM5" s="73"/>
+      <c r="AF5" s="67"/>
+      <c r="AG5" s="63"/>
+      <c r="AH5" s="63"/>
+      <c r="AI5" s="63"/>
+      <c r="AJ5" s="63"/>
+      <c r="AK5" s="63"/>
+      <c r="AL5" s="63"/>
+      <c r="AM5" s="68"/>
     </row>
     <row r="6" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="77"/>
+      <c r="B6" s="72"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
@@ -14328,18 +14306,18 @@
       <c r="AC6" s="17"/>
       <c r="AD6" s="17"/>
       <c r="AE6" s="6"/>
-      <c r="AF6" s="72"/>
-      <c r="AG6" s="66"/>
-      <c r="AH6" s="66"/>
-      <c r="AI6" s="66"/>
-      <c r="AJ6" s="66"/>
-      <c r="AK6" s="66"/>
-      <c r="AL6" s="66"/>
-      <c r="AM6" s="73"/>
+      <c r="AF6" s="67"/>
+      <c r="AG6" s="63"/>
+      <c r="AH6" s="63"/>
+      <c r="AI6" s="63"/>
+      <c r="AJ6" s="63"/>
+      <c r="AK6" s="63"/>
+      <c r="AL6" s="63"/>
+      <c r="AM6" s="68"/>
     </row>
     <row r="7" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A7" s="60"/>
-      <c r="B7" s="60"/>
+      <c r="A7" s="55"/>
+      <c r="B7" s="55"/>
       <c r="D7" s="19"/>
       <c r="E7" s="20"/>
       <c r="F7" s="21"/>
@@ -14371,20 +14349,20 @@
       <c r="AC7" s="17"/>
       <c r="AD7" s="17"/>
       <c r="AE7" s="6"/>
-      <c r="AF7" s="72"/>
-      <c r="AG7" s="66"/>
-      <c r="AH7" s="66"/>
-      <c r="AI7" s="66"/>
-      <c r="AJ7" s="66"/>
-      <c r="AK7" s="66"/>
-      <c r="AL7" s="66"/>
-      <c r="AM7" s="73"/>
+      <c r="AF7" s="67"/>
+      <c r="AG7" s="63"/>
+      <c r="AH7" s="63"/>
+      <c r="AI7" s="63"/>
+      <c r="AJ7" s="63"/>
+      <c r="AK7" s="63"/>
+      <c r="AL7" s="63"/>
+      <c r="AM7" s="68"/>
     </row>
     <row r="8" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="B8" s="68"/>
+      <c r="B8" s="56"/>
       <c r="D8" s="22"/>
       <c r="E8" s="22"/>
       <c r="F8" s="22"/>
@@ -14416,18 +14394,18 @@
       <c r="AC8" s="17"/>
       <c r="AD8" s="17"/>
       <c r="AE8" s="6"/>
-      <c r="AF8" s="72"/>
-      <c r="AG8" s="66"/>
-      <c r="AH8" s="66"/>
-      <c r="AI8" s="66"/>
-      <c r="AJ8" s="66"/>
-      <c r="AK8" s="66"/>
-      <c r="AL8" s="66"/>
-      <c r="AM8" s="73"/>
+      <c r="AF8" s="67"/>
+      <c r="AG8" s="63"/>
+      <c r="AH8" s="63"/>
+      <c r="AI8" s="63"/>
+      <c r="AJ8" s="63"/>
+      <c r="AK8" s="63"/>
+      <c r="AL8" s="63"/>
+      <c r="AM8" s="68"/>
     </row>
     <row r="9" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A9" s="60"/>
-      <c r="B9" s="60"/>
+      <c r="A9" s="55"/>
+      <c r="B9" s="55"/>
       <c r="D9" s="19"/>
       <c r="E9" s="20"/>
       <c r="F9" s="21"/>
@@ -14459,20 +14437,20 @@
       <c r="AC9" s="17"/>
       <c r="AD9" s="17"/>
       <c r="AE9" s="6"/>
-      <c r="AF9" s="72"/>
-      <c r="AG9" s="66"/>
-      <c r="AH9" s="66"/>
-      <c r="AI9" s="66"/>
-      <c r="AJ9" s="66"/>
-      <c r="AK9" s="66"/>
-      <c r="AL9" s="66"/>
-      <c r="AM9" s="73"/>
+      <c r="AF9" s="67"/>
+      <c r="AG9" s="63"/>
+      <c r="AH9" s="63"/>
+      <c r="AI9" s="63"/>
+      <c r="AJ9" s="63"/>
+      <c r="AK9" s="63"/>
+      <c r="AL9" s="63"/>
+      <c r="AM9" s="68"/>
     </row>
     <row r="10" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A10" s="61" t="s">
+      <c r="A10" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="B10" s="68"/>
+      <c r="B10" s="56"/>
       <c r="D10" s="22"/>
       <c r="E10" s="22"/>
       <c r="F10" s="22"/>
@@ -14504,18 +14482,18 @@
       <c r="AC10" s="17"/>
       <c r="AD10" s="17"/>
       <c r="AE10" s="6"/>
-      <c r="AF10" s="72"/>
-      <c r="AG10" s="66"/>
-      <c r="AH10" s="66"/>
-      <c r="AI10" s="66"/>
-      <c r="AJ10" s="66"/>
-      <c r="AK10" s="66"/>
-      <c r="AL10" s="66"/>
-      <c r="AM10" s="73"/>
+      <c r="AF10" s="67"/>
+      <c r="AG10" s="63"/>
+      <c r="AH10" s="63"/>
+      <c r="AI10" s="63"/>
+      <c r="AJ10" s="63"/>
+      <c r="AK10" s="63"/>
+      <c r="AL10" s="63"/>
+      <c r="AM10" s="68"/>
     </row>
     <row r="11" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A11" s="60"/>
-      <c r="B11" s="60"/>
+      <c r="A11" s="55"/>
+      <c r="B11" s="55"/>
       <c r="D11" s="19"/>
       <c r="E11" s="20"/>
       <c r="F11" s="21"/>
@@ -14547,20 +14525,20 @@
       <c r="AC11" s="17"/>
       <c r="AD11" s="17"/>
       <c r="AE11" s="6"/>
-      <c r="AF11" s="72"/>
-      <c r="AG11" s="66"/>
-      <c r="AH11" s="66"/>
-      <c r="AI11" s="66"/>
-      <c r="AJ11" s="66"/>
-      <c r="AK11" s="66"/>
-      <c r="AL11" s="66"/>
-      <c r="AM11" s="73"/>
+      <c r="AF11" s="67"/>
+      <c r="AG11" s="63"/>
+      <c r="AH11" s="63"/>
+      <c r="AI11" s="63"/>
+      <c r="AJ11" s="63"/>
+      <c r="AK11" s="63"/>
+      <c r="AL11" s="63"/>
+      <c r="AM11" s="68"/>
     </row>
     <row r="12" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A12" s="61" t="s">
+      <c r="A12" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="B12" s="68"/>
+      <c r="B12" s="56"/>
       <c r="D12" s="22"/>
       <c r="E12" s="22"/>
       <c r="F12" s="22"/>
@@ -14592,18 +14570,18 @@
       <c r="AC12" s="17"/>
       <c r="AD12" s="17"/>
       <c r="AE12" s="6"/>
-      <c r="AF12" s="72"/>
-      <c r="AG12" s="66"/>
-      <c r="AH12" s="66"/>
-      <c r="AI12" s="66"/>
-      <c r="AJ12" s="66"/>
-      <c r="AK12" s="66"/>
-      <c r="AL12" s="66"/>
-      <c r="AM12" s="73"/>
+      <c r="AF12" s="67"/>
+      <c r="AG12" s="63"/>
+      <c r="AH12" s="63"/>
+      <c r="AI12" s="63"/>
+      <c r="AJ12" s="63"/>
+      <c r="AK12" s="63"/>
+      <c r="AL12" s="63"/>
+      <c r="AM12" s="68"/>
     </row>
     <row r="13" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A13" s="60"/>
-      <c r="B13" s="60"/>
+      <c r="A13" s="55"/>
+      <c r="B13" s="55"/>
       <c r="D13" s="19"/>
       <c r="E13" s="20"/>
       <c r="F13" s="21"/>
@@ -14635,20 +14613,20 @@
       <c r="AC13" s="17"/>
       <c r="AD13" s="17"/>
       <c r="AE13" s="6"/>
-      <c r="AF13" s="72"/>
-      <c r="AG13" s="66"/>
-      <c r="AH13" s="66"/>
-      <c r="AI13" s="66"/>
-      <c r="AJ13" s="66"/>
-      <c r="AK13" s="66"/>
-      <c r="AL13" s="66"/>
-      <c r="AM13" s="73"/>
+      <c r="AF13" s="67"/>
+      <c r="AG13" s="63"/>
+      <c r="AH13" s="63"/>
+      <c r="AI13" s="63"/>
+      <c r="AJ13" s="63"/>
+      <c r="AK13" s="63"/>
+      <c r="AL13" s="63"/>
+      <c r="AM13" s="68"/>
     </row>
     <row r="14" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A14" s="61" t="s">
+      <c r="A14" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="68"/>
+      <c r="B14" s="56"/>
       <c r="D14" s="22"/>
       <c r="E14" s="22"/>
       <c r="F14" s="22"/>
@@ -14680,18 +14658,18 @@
       <c r="AC14" s="17"/>
       <c r="AD14" s="17"/>
       <c r="AE14" s="6"/>
-      <c r="AF14" s="72"/>
-      <c r="AG14" s="66"/>
-      <c r="AH14" s="66"/>
-      <c r="AI14" s="66"/>
-      <c r="AJ14" s="66"/>
-      <c r="AK14" s="66"/>
-      <c r="AL14" s="66"/>
-      <c r="AM14" s="73"/>
+      <c r="AF14" s="67"/>
+      <c r="AG14" s="63"/>
+      <c r="AH14" s="63"/>
+      <c r="AI14" s="63"/>
+      <c r="AJ14" s="63"/>
+      <c r="AK14" s="63"/>
+      <c r="AL14" s="63"/>
+      <c r="AM14" s="68"/>
     </row>
     <row r="15" spans="1:39" ht="17.25" customHeight="1">
-      <c r="A15" s="60"/>
-      <c r="B15" s="60"/>
+      <c r="A15" s="55"/>
+      <c r="B15" s="55"/>
       <c r="D15" s="19"/>
       <c r="E15" s="20"/>
       <c r="F15" s="21"/>
@@ -14723,20 +14701,20 @@
       <c r="AC15" s="17"/>
       <c r="AD15" s="17"/>
       <c r="AE15" s="6"/>
-      <c r="AF15" s="72"/>
-      <c r="AG15" s="66"/>
-      <c r="AH15" s="66"/>
-      <c r="AI15" s="66"/>
-      <c r="AJ15" s="66"/>
-      <c r="AK15" s="66"/>
-      <c r="AL15" s="66"/>
-      <c r="AM15" s="73"/>
+      <c r="AF15" s="67"/>
+      <c r="AG15" s="63"/>
+      <c r="AH15" s="63"/>
+      <c r="AI15" s="63"/>
+      <c r="AJ15" s="63"/>
+      <c r="AK15" s="63"/>
+      <c r="AL15" s="63"/>
+      <c r="AM15" s="68"/>
     </row>
     <row r="16" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A16" s="61" t="s">
+      <c r="A16" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="68"/>
+      <c r="B16" s="56"/>
       <c r="D16" s="22"/>
       <c r="E16" s="22"/>
       <c r="F16" s="22"/>
@@ -14768,18 +14746,18 @@
       <c r="AC16" s="17"/>
       <c r="AD16" s="17"/>
       <c r="AE16" s="6"/>
-      <c r="AF16" s="72"/>
-      <c r="AG16" s="66"/>
-      <c r="AH16" s="66"/>
-      <c r="AI16" s="66"/>
-      <c r="AJ16" s="66"/>
-      <c r="AK16" s="66"/>
-      <c r="AL16" s="66"/>
-      <c r="AM16" s="73"/>
+      <c r="AF16" s="67"/>
+      <c r="AG16" s="63"/>
+      <c r="AH16" s="63"/>
+      <c r="AI16" s="63"/>
+      <c r="AJ16" s="63"/>
+      <c r="AK16" s="63"/>
+      <c r="AL16" s="63"/>
+      <c r="AM16" s="68"/>
     </row>
     <row r="17" spans="1:39" ht="17.25" customHeight="1">
-      <c r="A17" s="60"/>
-      <c r="B17" s="60"/>
+      <c r="A17" s="55"/>
+      <c r="B17" s="55"/>
       <c r="D17" s="19"/>
       <c r="E17" s="20"/>
       <c r="F17" s="21"/>
@@ -14811,20 +14789,20 @@
       <c r="AC17" s="17"/>
       <c r="AD17" s="17"/>
       <c r="AE17" s="6"/>
-      <c r="AF17" s="72"/>
-      <c r="AG17" s="66"/>
-      <c r="AH17" s="66"/>
-      <c r="AI17" s="66"/>
-      <c r="AJ17" s="66"/>
-      <c r="AK17" s="66"/>
-      <c r="AL17" s="66"/>
-      <c r="AM17" s="73"/>
+      <c r="AF17" s="67"/>
+      <c r="AG17" s="63"/>
+      <c r="AH17" s="63"/>
+      <c r="AI17" s="63"/>
+      <c r="AJ17" s="63"/>
+      <c r="AK17" s="63"/>
+      <c r="AL17" s="63"/>
+      <c r="AM17" s="68"/>
     </row>
     <row r="18" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A18" s="61" t="s">
+      <c r="A18" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="68"/>
+      <c r="B18" s="56"/>
       <c r="D18" s="22"/>
       <c r="E18" s="22"/>
       <c r="F18" s="22"/>
@@ -14856,18 +14834,18 @@
       <c r="AC18" s="17"/>
       <c r="AD18" s="17"/>
       <c r="AE18" s="6"/>
-      <c r="AF18" s="72"/>
-      <c r="AG18" s="66"/>
-      <c r="AH18" s="66"/>
-      <c r="AI18" s="66"/>
-      <c r="AJ18" s="66"/>
-      <c r="AK18" s="66"/>
-      <c r="AL18" s="66"/>
-      <c r="AM18" s="73"/>
+      <c r="AF18" s="67"/>
+      <c r="AG18" s="63"/>
+      <c r="AH18" s="63"/>
+      <c r="AI18" s="63"/>
+      <c r="AJ18" s="63"/>
+      <c r="AK18" s="63"/>
+      <c r="AL18" s="63"/>
+      <c r="AM18" s="68"/>
     </row>
     <row r="19" spans="1:39" ht="17.25" customHeight="1">
-      <c r="A19" s="60"/>
-      <c r="B19" s="60"/>
+      <c r="A19" s="55"/>
+      <c r="B19" s="55"/>
       <c r="D19" s="19"/>
       <c r="E19" s="20"/>
       <c r="F19" s="21"/>
@@ -14899,20 +14877,20 @@
       <c r="AC19" s="17"/>
       <c r="AD19" s="17"/>
       <c r="AE19" s="6"/>
-      <c r="AF19" s="72"/>
-      <c r="AG19" s="66"/>
-      <c r="AH19" s="66"/>
-      <c r="AI19" s="66"/>
-      <c r="AJ19" s="66"/>
-      <c r="AK19" s="66"/>
-      <c r="AL19" s="66"/>
-      <c r="AM19" s="73"/>
+      <c r="AF19" s="67"/>
+      <c r="AG19" s="63"/>
+      <c r="AH19" s="63"/>
+      <c r="AI19" s="63"/>
+      <c r="AJ19" s="63"/>
+      <c r="AK19" s="63"/>
+      <c r="AL19" s="63"/>
+      <c r="AM19" s="68"/>
     </row>
     <row r="20" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A20" s="61" t="s">
+      <c r="A20" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="59"/>
+      <c r="B20" s="57"/>
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
@@ -14944,18 +14922,18 @@
       <c r="AC20" s="17"/>
       <c r="AD20" s="17"/>
       <c r="AE20" s="6"/>
-      <c r="AF20" s="72"/>
-      <c r="AG20" s="66"/>
-      <c r="AH20" s="66"/>
-      <c r="AI20" s="66"/>
-      <c r="AJ20" s="66"/>
-      <c r="AK20" s="66"/>
-      <c r="AL20" s="66"/>
-      <c r="AM20" s="73"/>
+      <c r="AF20" s="67"/>
+      <c r="AG20" s="63"/>
+      <c r="AH20" s="63"/>
+      <c r="AI20" s="63"/>
+      <c r="AJ20" s="63"/>
+      <c r="AK20" s="63"/>
+      <c r="AL20" s="63"/>
+      <c r="AM20" s="68"/>
     </row>
     <row r="21" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A21" s="60"/>
-      <c r="B21" s="60"/>
+      <c r="A21" s="55"/>
+      <c r="B21" s="55"/>
       <c r="D21" s="19"/>
       <c r="E21" s="20"/>
       <c r="F21" s="21"/>
@@ -14987,20 +14965,20 @@
       <c r="AC21" s="17"/>
       <c r="AD21" s="17"/>
       <c r="AE21" s="6"/>
-      <c r="AF21" s="72"/>
-      <c r="AG21" s="66"/>
-      <c r="AH21" s="66"/>
-      <c r="AI21" s="66"/>
-      <c r="AJ21" s="66"/>
-      <c r="AK21" s="66"/>
-      <c r="AL21" s="66"/>
-      <c r="AM21" s="73"/>
+      <c r="AF21" s="67"/>
+      <c r="AG21" s="63"/>
+      <c r="AH21" s="63"/>
+      <c r="AI21" s="63"/>
+      <c r="AJ21" s="63"/>
+      <c r="AK21" s="63"/>
+      <c r="AL21" s="63"/>
+      <c r="AM21" s="68"/>
     </row>
     <row r="22" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="59"/>
+      <c r="B22" s="57"/>
       <c r="D22" s="22"/>
       <c r="E22" s="22"/>
       <c r="F22" s="22"/>
@@ -15032,18 +15010,18 @@
       <c r="AC22" s="17"/>
       <c r="AD22" s="17"/>
       <c r="AE22" s="6"/>
-      <c r="AF22" s="72"/>
-      <c r="AG22" s="66"/>
-      <c r="AH22" s="66"/>
-      <c r="AI22" s="66"/>
-      <c r="AJ22" s="66"/>
-      <c r="AK22" s="66"/>
-      <c r="AL22" s="66"/>
-      <c r="AM22" s="73"/>
+      <c r="AF22" s="67"/>
+      <c r="AG22" s="63"/>
+      <c r="AH22" s="63"/>
+      <c r="AI22" s="63"/>
+      <c r="AJ22" s="63"/>
+      <c r="AK22" s="63"/>
+      <c r="AL22" s="63"/>
+      <c r="AM22" s="68"/>
     </row>
     <row r="23" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A23" s="60"/>
-      <c r="B23" s="60"/>
+      <c r="A23" s="55"/>
+      <c r="B23" s="55"/>
       <c r="D23" s="19"/>
       <c r="E23" s="20"/>
       <c r="F23" s="21"/>
@@ -15075,20 +15053,20 @@
       <c r="AC23" s="17"/>
       <c r="AD23" s="17"/>
       <c r="AE23" s="6"/>
-      <c r="AF23" s="72"/>
-      <c r="AG23" s="66"/>
-      <c r="AH23" s="66"/>
-      <c r="AI23" s="66"/>
-      <c r="AJ23" s="66"/>
-      <c r="AK23" s="66"/>
-      <c r="AL23" s="66"/>
-      <c r="AM23" s="73"/>
+      <c r="AF23" s="67"/>
+      <c r="AG23" s="63"/>
+      <c r="AH23" s="63"/>
+      <c r="AI23" s="63"/>
+      <c r="AJ23" s="63"/>
+      <c r="AK23" s="63"/>
+      <c r="AL23" s="63"/>
+      <c r="AM23" s="68"/>
     </row>
     <row r="24" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A24" s="61" t="s">
+      <c r="A24" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="86"/>
+      <c r="B24" s="82"/>
       <c r="D24" s="22"/>
       <c r="E24" s="22"/>
       <c r="F24" s="22"/>
@@ -15120,18 +15098,18 @@
       <c r="AC24" s="17"/>
       <c r="AD24" s="17"/>
       <c r="AE24" s="6"/>
-      <c r="AF24" s="72"/>
-      <c r="AG24" s="66"/>
-      <c r="AH24" s="66"/>
-      <c r="AI24" s="66"/>
-      <c r="AJ24" s="66"/>
-      <c r="AK24" s="66"/>
-      <c r="AL24" s="66"/>
-      <c r="AM24" s="73"/>
+      <c r="AF24" s="67"/>
+      <c r="AG24" s="63"/>
+      <c r="AH24" s="63"/>
+      <c r="AI24" s="63"/>
+      <c r="AJ24" s="63"/>
+      <c r="AK24" s="63"/>
+      <c r="AL24" s="63"/>
+      <c r="AM24" s="68"/>
     </row>
     <row r="25" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A25" s="60"/>
-      <c r="B25" s="60"/>
+      <c r="A25" s="55"/>
+      <c r="B25" s="55"/>
       <c r="D25" s="19"/>
       <c r="E25" s="20"/>
       <c r="F25" s="21"/>
@@ -15163,20 +15141,20 @@
       <c r="AC25" s="17"/>
       <c r="AD25" s="17"/>
       <c r="AE25" s="6"/>
-      <c r="AF25" s="72"/>
-      <c r="AG25" s="66"/>
-      <c r="AH25" s="66"/>
-      <c r="AI25" s="66"/>
-      <c r="AJ25" s="66"/>
-      <c r="AK25" s="66"/>
-      <c r="AL25" s="66"/>
-      <c r="AM25" s="73"/>
+      <c r="AF25" s="67"/>
+      <c r="AG25" s="63"/>
+      <c r="AH25" s="63"/>
+      <c r="AI25" s="63"/>
+      <c r="AJ25" s="63"/>
+      <c r="AK25" s="63"/>
+      <c r="AL25" s="63"/>
+      <c r="AM25" s="68"/>
     </row>
     <row r="26" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A26" s="61" t="s">
+      <c r="A26" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="86"/>
+      <c r="B26" s="82"/>
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>
       <c r="F26" s="22"/>
@@ -15208,18 +15186,18 @@
       <c r="AC26" s="17"/>
       <c r="AD26" s="17"/>
       <c r="AE26" s="6"/>
-      <c r="AF26" s="72"/>
-      <c r="AG26" s="66"/>
-      <c r="AH26" s="66"/>
-      <c r="AI26" s="66"/>
-      <c r="AJ26" s="66"/>
-      <c r="AK26" s="66"/>
-      <c r="AL26" s="66"/>
-      <c r="AM26" s="73"/>
+      <c r="AF26" s="67"/>
+      <c r="AG26" s="63"/>
+      <c r="AH26" s="63"/>
+      <c r="AI26" s="63"/>
+      <c r="AJ26" s="63"/>
+      <c r="AK26" s="63"/>
+      <c r="AL26" s="63"/>
+      <c r="AM26" s="68"/>
     </row>
     <row r="27" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A27" s="60"/>
-      <c r="B27" s="60"/>
+      <c r="A27" s="55"/>
+      <c r="B27" s="55"/>
       <c r="D27" s="19"/>
       <c r="E27" s="20"/>
       <c r="F27" s="21"/>
@@ -15251,20 +15229,20 @@
       <c r="AC27" s="17"/>
       <c r="AD27" s="17"/>
       <c r="AE27" s="6"/>
-      <c r="AF27" s="72"/>
-      <c r="AG27" s="66"/>
-      <c r="AH27" s="66"/>
-      <c r="AI27" s="66"/>
-      <c r="AJ27" s="66"/>
-      <c r="AK27" s="66"/>
-      <c r="AL27" s="66"/>
-      <c r="AM27" s="73"/>
+      <c r="AF27" s="67"/>
+      <c r="AG27" s="63"/>
+      <c r="AH27" s="63"/>
+      <c r="AI27" s="63"/>
+      <c r="AJ27" s="63"/>
+      <c r="AK27" s="63"/>
+      <c r="AL27" s="63"/>
+      <c r="AM27" s="68"/>
     </row>
     <row r="28" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A28" s="61" t="s">
+      <c r="A28" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="86"/>
+      <c r="B28" s="82"/>
       <c r="D28" s="22"/>
       <c r="E28" s="22"/>
       <c r="F28" s="22"/>
@@ -15296,18 +15274,18 @@
       <c r="AC28" s="17"/>
       <c r="AD28" s="17"/>
       <c r="AE28" s="6"/>
-      <c r="AF28" s="72"/>
-      <c r="AG28" s="66"/>
-      <c r="AH28" s="66"/>
-      <c r="AI28" s="66"/>
-      <c r="AJ28" s="66"/>
-      <c r="AK28" s="66"/>
-      <c r="AL28" s="66"/>
-      <c r="AM28" s="73"/>
+      <c r="AF28" s="67"/>
+      <c r="AG28" s="63"/>
+      <c r="AH28" s="63"/>
+      <c r="AI28" s="63"/>
+      <c r="AJ28" s="63"/>
+      <c r="AK28" s="63"/>
+      <c r="AL28" s="63"/>
+      <c r="AM28" s="68"/>
     </row>
     <row r="29" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A29" s="60"/>
-      <c r="B29" s="60"/>
+      <c r="A29" s="55"/>
+      <c r="B29" s="55"/>
       <c r="D29" s="19"/>
       <c r="E29" s="20"/>
       <c r="F29" s="21"/>
@@ -15339,20 +15317,20 @@
       <c r="AC29" s="17"/>
       <c r="AD29" s="17"/>
       <c r="AE29" s="6"/>
-      <c r="AF29" s="72"/>
-      <c r="AG29" s="66"/>
-      <c r="AH29" s="66"/>
-      <c r="AI29" s="66"/>
-      <c r="AJ29" s="66"/>
-      <c r="AK29" s="66"/>
-      <c r="AL29" s="66"/>
-      <c r="AM29" s="73"/>
+      <c r="AF29" s="67"/>
+      <c r="AG29" s="63"/>
+      <c r="AH29" s="63"/>
+      <c r="AI29" s="63"/>
+      <c r="AJ29" s="63"/>
+      <c r="AK29" s="63"/>
+      <c r="AL29" s="63"/>
+      <c r="AM29" s="68"/>
     </row>
     <row r="30" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A30" s="61" t="s">
+      <c r="A30" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="87"/>
+      <c r="B30" s="83"/>
       <c r="D30" s="22"/>
       <c r="E30" s="22"/>
       <c r="F30" s="22"/>
@@ -15384,18 +15362,18 @@
       <c r="AC30" s="17"/>
       <c r="AD30" s="17"/>
       <c r="AE30" s="6"/>
-      <c r="AF30" s="72"/>
-      <c r="AG30" s="66"/>
-      <c r="AH30" s="66"/>
-      <c r="AI30" s="66"/>
-      <c r="AJ30" s="66"/>
-      <c r="AK30" s="66"/>
-      <c r="AL30" s="66"/>
-      <c r="AM30" s="73"/>
+      <c r="AF30" s="67"/>
+      <c r="AG30" s="63"/>
+      <c r="AH30" s="63"/>
+      <c r="AI30" s="63"/>
+      <c r="AJ30" s="63"/>
+      <c r="AK30" s="63"/>
+      <c r="AL30" s="63"/>
+      <c r="AM30" s="68"/>
     </row>
     <row r="31" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A31" s="60"/>
-      <c r="B31" s="60"/>
+      <c r="A31" s="55"/>
+      <c r="B31" s="55"/>
       <c r="D31" s="19"/>
       <c r="E31" s="20"/>
       <c r="F31" s="21"/>
@@ -15427,20 +15405,20 @@
       <c r="AC31" s="17"/>
       <c r="AD31" s="17"/>
       <c r="AE31" s="6"/>
-      <c r="AF31" s="72"/>
-      <c r="AG31" s="66"/>
-      <c r="AH31" s="66"/>
-      <c r="AI31" s="66"/>
-      <c r="AJ31" s="66"/>
-      <c r="AK31" s="66"/>
-      <c r="AL31" s="66"/>
-      <c r="AM31" s="73"/>
+      <c r="AF31" s="67"/>
+      <c r="AG31" s="63"/>
+      <c r="AH31" s="63"/>
+      <c r="AI31" s="63"/>
+      <c r="AJ31" s="63"/>
+      <c r="AK31" s="63"/>
+      <c r="AL31" s="63"/>
+      <c r="AM31" s="68"/>
     </row>
     <row r="32" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A32" s="61" t="s">
+      <c r="A32" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="87"/>
+      <c r="B32" s="83"/>
       <c r="D32" s="22"/>
       <c r="E32" s="22"/>
       <c r="F32" s="22"/>
@@ -15472,18 +15450,18 @@
       <c r="AC32" s="17"/>
       <c r="AD32" s="17"/>
       <c r="AE32" s="6"/>
-      <c r="AF32" s="72"/>
-      <c r="AG32" s="66"/>
-      <c r="AH32" s="66"/>
-      <c r="AI32" s="66"/>
-      <c r="AJ32" s="66"/>
-      <c r="AK32" s="66"/>
-      <c r="AL32" s="66"/>
-      <c r="AM32" s="73"/>
+      <c r="AF32" s="67"/>
+      <c r="AG32" s="63"/>
+      <c r="AH32" s="63"/>
+      <c r="AI32" s="63"/>
+      <c r="AJ32" s="63"/>
+      <c r="AK32" s="63"/>
+      <c r="AL32" s="63"/>
+      <c r="AM32" s="68"/>
     </row>
     <row r="33" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A33" s="60"/>
-      <c r="B33" s="60"/>
+      <c r="A33" s="55"/>
+      <c r="B33" s="55"/>
       <c r="D33" s="19"/>
       <c r="E33" s="20"/>
       <c r="F33" s="21"/>
@@ -15515,20 +15493,20 @@
       <c r="AC33" s="17"/>
       <c r="AD33" s="17"/>
       <c r="AE33" s="6"/>
-      <c r="AF33" s="72"/>
-      <c r="AG33" s="66"/>
-      <c r="AH33" s="66"/>
-      <c r="AI33" s="66"/>
-      <c r="AJ33" s="66"/>
-      <c r="AK33" s="66"/>
-      <c r="AL33" s="66"/>
-      <c r="AM33" s="73"/>
+      <c r="AF33" s="67"/>
+      <c r="AG33" s="63"/>
+      <c r="AH33" s="63"/>
+      <c r="AI33" s="63"/>
+      <c r="AJ33" s="63"/>
+      <c r="AK33" s="63"/>
+      <c r="AL33" s="63"/>
+      <c r="AM33" s="68"/>
     </row>
     <row r="34" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A34" s="61" t="s">
+      <c r="A34" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="87"/>
+      <c r="B34" s="83"/>
       <c r="D34" s="22"/>
       <c r="E34" s="22"/>
       <c r="F34" s="22"/>
@@ -15560,18 +15538,18 @@
       <c r="AC34" s="17"/>
       <c r="AD34" s="17"/>
       <c r="AE34" s="6"/>
-      <c r="AF34" s="72"/>
-      <c r="AG34" s="66"/>
-      <c r="AH34" s="66"/>
-      <c r="AI34" s="66"/>
-      <c r="AJ34" s="66"/>
-      <c r="AK34" s="66"/>
-      <c r="AL34" s="66"/>
-      <c r="AM34" s="73"/>
+      <c r="AF34" s="67"/>
+      <c r="AG34" s="63"/>
+      <c r="AH34" s="63"/>
+      <c r="AI34" s="63"/>
+      <c r="AJ34" s="63"/>
+      <c r="AK34" s="63"/>
+      <c r="AL34" s="63"/>
+      <c r="AM34" s="68"/>
     </row>
     <row r="35" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A35" s="60"/>
-      <c r="B35" s="60"/>
+      <c r="A35" s="55"/>
+      <c r="B35" s="55"/>
       <c r="D35" s="19"/>
       <c r="E35" s="20"/>
       <c r="F35" s="21"/>
@@ -15603,20 +15581,20 @@
       <c r="AC35" s="17"/>
       <c r="AD35" s="17"/>
       <c r="AE35" s="6"/>
-      <c r="AF35" s="72"/>
-      <c r="AG35" s="66"/>
-      <c r="AH35" s="66"/>
-      <c r="AI35" s="66"/>
-      <c r="AJ35" s="66"/>
-      <c r="AK35" s="66"/>
-      <c r="AL35" s="66"/>
-      <c r="AM35" s="73"/>
+      <c r="AF35" s="67"/>
+      <c r="AG35" s="63"/>
+      <c r="AH35" s="63"/>
+      <c r="AI35" s="63"/>
+      <c r="AJ35" s="63"/>
+      <c r="AK35" s="63"/>
+      <c r="AL35" s="63"/>
+      <c r="AM35" s="68"/>
     </row>
     <row r="36" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A36" s="61" t="s">
+      <c r="A36" s="54" t="s">
         <v>123</v>
       </c>
-      <c r="B36" s="87"/>
+      <c r="B36" s="83"/>
       <c r="D36" s="22"/>
       <c r="E36" s="22"/>
       <c r="F36" s="22"/>
@@ -15648,18 +15626,18 @@
       <c r="AC36" s="17"/>
       <c r="AD36" s="17"/>
       <c r="AE36" s="6"/>
-      <c r="AF36" s="72"/>
-      <c r="AG36" s="66"/>
-      <c r="AH36" s="66"/>
-      <c r="AI36" s="66"/>
-      <c r="AJ36" s="66"/>
-      <c r="AK36" s="66"/>
-      <c r="AL36" s="66"/>
-      <c r="AM36" s="73"/>
+      <c r="AF36" s="67"/>
+      <c r="AG36" s="63"/>
+      <c r="AH36" s="63"/>
+      <c r="AI36" s="63"/>
+      <c r="AJ36" s="63"/>
+      <c r="AK36" s="63"/>
+      <c r="AL36" s="63"/>
+      <c r="AM36" s="68"/>
     </row>
     <row r="37" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A37" s="60"/>
-      <c r="B37" s="60"/>
+      <c r="A37" s="55"/>
+      <c r="B37" s="55"/>
       <c r="D37" s="19"/>
       <c r="E37" s="20"/>
       <c r="F37" s="21"/>
@@ -15691,20 +15669,20 @@
       <c r="AC37" s="17"/>
       <c r="AD37" s="17"/>
       <c r="AE37" s="6"/>
-      <c r="AF37" s="74"/>
-      <c r="AG37" s="75"/>
-      <c r="AH37" s="75"/>
-      <c r="AI37" s="75"/>
-      <c r="AJ37" s="75"/>
-      <c r="AK37" s="75"/>
-      <c r="AL37" s="75"/>
-      <c r="AM37" s="76"/>
+      <c r="AF37" s="69"/>
+      <c r="AG37" s="70"/>
+      <c r="AH37" s="70"/>
+      <c r="AI37" s="70"/>
+      <c r="AJ37" s="70"/>
+      <c r="AK37" s="70"/>
+      <c r="AL37" s="70"/>
+      <c r="AM37" s="71"/>
     </row>
     <row r="38" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A38" s="61" t="s">
+      <c r="A38" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="B38" s="87"/>
+      <c r="B38" s="83"/>
       <c r="D38" s="22"/>
       <c r="E38" s="22"/>
       <c r="F38" s="22"/>
@@ -15736,18 +15714,18 @@
       <c r="AC38" s="17"/>
       <c r="AD38" s="17"/>
       <c r="AE38" s="6"/>
-      <c r="AF38" s="56"/>
-      <c r="AG38" s="56"/>
-      <c r="AH38" s="56"/>
-      <c r="AI38" s="56"/>
-      <c r="AJ38" s="56"/>
-      <c r="AK38" s="56"/>
-      <c r="AL38" s="56"/>
-      <c r="AM38" s="56"/>
+      <c r="AF38" s="52"/>
+      <c r="AG38" s="52"/>
+      <c r="AH38" s="52"/>
+      <c r="AI38" s="52"/>
+      <c r="AJ38" s="52"/>
+      <c r="AK38" s="52"/>
+      <c r="AL38" s="52"/>
+      <c r="AM38" s="52"/>
     </row>
     <row r="39" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A39" s="60"/>
-      <c r="B39" s="60"/>
+      <c r="A39" s="55"/>
+      <c r="B39" s="55"/>
       <c r="D39" s="19"/>
       <c r="E39" s="20"/>
       <c r="F39" s="21"/>
@@ -15779,20 +15757,20 @@
       <c r="AC39" s="17"/>
       <c r="AD39" s="17"/>
       <c r="AE39" s="6"/>
-      <c r="AF39" s="56"/>
-      <c r="AG39" s="56"/>
-      <c r="AH39" s="56"/>
-      <c r="AI39" s="56"/>
-      <c r="AJ39" s="56"/>
-      <c r="AK39" s="56"/>
-      <c r="AL39" s="56"/>
-      <c r="AM39" s="56"/>
+      <c r="AF39" s="52"/>
+      <c r="AG39" s="52"/>
+      <c r="AH39" s="52"/>
+      <c r="AI39" s="52"/>
+      <c r="AJ39" s="52"/>
+      <c r="AK39" s="52"/>
+      <c r="AL39" s="52"/>
+      <c r="AM39" s="52"/>
     </row>
     <row r="40" spans="1:39" ht="17.25" customHeight="1">
-      <c r="A40" s="61" t="s">
+      <c r="A40" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="B40" s="87"/>
+      <c r="B40" s="83"/>
       <c r="D40" s="22"/>
       <c r="E40" s="22"/>
       <c r="F40" s="22"/>
@@ -15824,18 +15802,18 @@
       <c r="AC40" s="17"/>
       <c r="AD40" s="17"/>
       <c r="AE40" s="6"/>
-      <c r="AF40" s="56"/>
-      <c r="AG40" s="56"/>
-      <c r="AH40" s="56"/>
-      <c r="AI40" s="56"/>
-      <c r="AJ40" s="56"/>
-      <c r="AK40" s="56"/>
-      <c r="AL40" s="56"/>
-      <c r="AM40" s="56"/>
+      <c r="AF40" s="52"/>
+      <c r="AG40" s="52"/>
+      <c r="AH40" s="52"/>
+      <c r="AI40" s="52"/>
+      <c r="AJ40" s="52"/>
+      <c r="AK40" s="52"/>
+      <c r="AL40" s="52"/>
+      <c r="AM40" s="52"/>
     </row>
     <row r="41" spans="1:39" ht="18" customHeight="1">
-      <c r="A41" s="60"/>
-      <c r="B41" s="60"/>
+      <c r="A41" s="55"/>
+      <c r="B41" s="55"/>
       <c r="D41" s="19"/>
       <c r="E41" s="20"/>
       <c r="F41" s="21"/>
@@ -15867,20 +15845,20 @@
       <c r="AC41" s="17"/>
       <c r="AD41" s="17"/>
       <c r="AE41" s="6"/>
-      <c r="AF41" s="56"/>
-      <c r="AG41" s="56"/>
-      <c r="AH41" s="56"/>
-      <c r="AI41" s="56"/>
-      <c r="AJ41" s="56"/>
-      <c r="AK41" s="56"/>
-      <c r="AL41" s="56"/>
-      <c r="AM41" s="56"/>
+      <c r="AF41" s="52"/>
+      <c r="AG41" s="52"/>
+      <c r="AH41" s="52"/>
+      <c r="AI41" s="52"/>
+      <c r="AJ41" s="52"/>
+      <c r="AK41" s="52"/>
+      <c r="AL41" s="52"/>
+      <c r="AM41" s="52"/>
     </row>
     <row r="42" spans="1:39" ht="17.25" customHeight="1">
-      <c r="A42" s="61" t="s">
+      <c r="A42" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="B42" s="87"/>
+      <c r="B42" s="83"/>
       <c r="D42" s="22"/>
       <c r="E42" s="22"/>
       <c r="F42" s="22"/>
@@ -15912,18 +15890,18 @@
       <c r="AC42" s="17"/>
       <c r="AD42" s="17"/>
       <c r="AE42" s="6"/>
-      <c r="AF42" s="56"/>
-      <c r="AG42" s="56"/>
-      <c r="AH42" s="56"/>
-      <c r="AI42" s="56"/>
-      <c r="AJ42" s="56"/>
-      <c r="AK42" s="56"/>
-      <c r="AL42" s="56"/>
-      <c r="AM42" s="56"/>
+      <c r="AF42" s="52"/>
+      <c r="AG42" s="52"/>
+      <c r="AH42" s="52"/>
+      <c r="AI42" s="52"/>
+      <c r="AJ42" s="52"/>
+      <c r="AK42" s="52"/>
+      <c r="AL42" s="52"/>
+      <c r="AM42" s="52"/>
     </row>
     <row r="43" spans="1:39" ht="18" customHeight="1">
-      <c r="A43" s="60"/>
-      <c r="B43" s="60"/>
+      <c r="A43" s="55"/>
+      <c r="B43" s="55"/>
       <c r="D43" s="19"/>
       <c r="E43" s="20"/>
       <c r="F43" s="21"/>
@@ -15955,20 +15933,20 @@
       <c r="AC43" s="17"/>
       <c r="AD43" s="17"/>
       <c r="AE43" s="6"/>
-      <c r="AF43" s="56"/>
-      <c r="AG43" s="56"/>
-      <c r="AH43" s="56"/>
-      <c r="AI43" s="56"/>
-      <c r="AJ43" s="56"/>
-      <c r="AK43" s="56"/>
-      <c r="AL43" s="56"/>
-      <c r="AM43" s="56"/>
+      <c r="AF43" s="52"/>
+      <c r="AG43" s="52"/>
+      <c r="AH43" s="52"/>
+      <c r="AI43" s="52"/>
+      <c r="AJ43" s="52"/>
+      <c r="AK43" s="52"/>
+      <c r="AL43" s="52"/>
+      <c r="AM43" s="52"/>
     </row>
     <row r="44" spans="1:39" ht="17.25" customHeight="1">
-      <c r="A44" s="61" t="s">
+      <c r="A44" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="B44" s="87"/>
+      <c r="B44" s="83"/>
       <c r="D44" s="22"/>
       <c r="E44" s="22"/>
       <c r="F44" s="22"/>
@@ -16000,18 +15978,18 @@
       <c r="AC44" s="17"/>
       <c r="AD44" s="17"/>
       <c r="AE44" s="6"/>
-      <c r="AF44" s="78"/>
-      <c r="AG44" s="79"/>
-      <c r="AH44" s="79"/>
-      <c r="AI44" s="79"/>
-      <c r="AJ44" s="79"/>
-      <c r="AK44" s="79"/>
-      <c r="AL44" s="79"/>
-      <c r="AM44" s="80"/>
+      <c r="AF44" s="73"/>
+      <c r="AG44" s="74"/>
+      <c r="AH44" s="74"/>
+      <c r="AI44" s="74"/>
+      <c r="AJ44" s="74"/>
+      <c r="AK44" s="74"/>
+      <c r="AL44" s="74"/>
+      <c r="AM44" s="75"/>
     </row>
     <row r="45" spans="1:39" ht="18" customHeight="1">
-      <c r="A45" s="60"/>
-      <c r="B45" s="60"/>
+      <c r="A45" s="55"/>
+      <c r="B45" s="55"/>
       <c r="D45" s="19"/>
       <c r="E45" s="20"/>
       <c r="F45" s="21"/>
@@ -16043,20 +16021,20 @@
       <c r="AC45" s="17"/>
       <c r="AD45" s="17"/>
       <c r="AE45" s="6"/>
-      <c r="AF45" s="81"/>
-      <c r="AG45" s="66"/>
-      <c r="AH45" s="66"/>
-      <c r="AI45" s="66"/>
-      <c r="AJ45" s="66"/>
-      <c r="AK45" s="66"/>
-      <c r="AL45" s="66"/>
-      <c r="AM45" s="82"/>
+      <c r="AF45" s="76"/>
+      <c r="AG45" s="63"/>
+      <c r="AH45" s="63"/>
+      <c r="AI45" s="63"/>
+      <c r="AJ45" s="63"/>
+      <c r="AK45" s="63"/>
+      <c r="AL45" s="63"/>
+      <c r="AM45" s="77"/>
     </row>
     <row r="46" spans="1:39" ht="17.25" customHeight="1">
-      <c r="A46" s="61" t="s">
+      <c r="A46" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="B46" s="87"/>
+      <c r="B46" s="83"/>
       <c r="D46" s="22"/>
       <c r="E46" s="22"/>
       <c r="F46" s="22"/>
@@ -16088,18 +16066,18 @@
       <c r="AC46" s="17"/>
       <c r="AD46" s="17"/>
       <c r="AE46" s="6"/>
-      <c r="AF46" s="81"/>
-      <c r="AG46" s="66"/>
-      <c r="AH46" s="66"/>
-      <c r="AI46" s="66"/>
-      <c r="AJ46" s="66"/>
-      <c r="AK46" s="66"/>
-      <c r="AL46" s="66"/>
-      <c r="AM46" s="82"/>
+      <c r="AF46" s="76"/>
+      <c r="AG46" s="63"/>
+      <c r="AH46" s="63"/>
+      <c r="AI46" s="63"/>
+      <c r="AJ46" s="63"/>
+      <c r="AK46" s="63"/>
+      <c r="AL46" s="63"/>
+      <c r="AM46" s="77"/>
     </row>
     <row r="47" spans="1:39" ht="18" customHeight="1">
-      <c r="A47" s="60"/>
-      <c r="B47" s="60"/>
+      <c r="A47" s="55"/>
+      <c r="B47" s="55"/>
       <c r="D47" s="19"/>
       <c r="E47" s="20"/>
       <c r="F47" s="21"/>
@@ -16131,20 +16109,20 @@
       <c r="AC47" s="17"/>
       <c r="AD47" s="17"/>
       <c r="AE47" s="6"/>
-      <c r="AF47" s="81"/>
-      <c r="AG47" s="66"/>
-      <c r="AH47" s="66"/>
-      <c r="AI47" s="66"/>
-      <c r="AJ47" s="66"/>
-      <c r="AK47" s="66"/>
-      <c r="AL47" s="66"/>
-      <c r="AM47" s="82"/>
+      <c r="AF47" s="76"/>
+      <c r="AG47" s="63"/>
+      <c r="AH47" s="63"/>
+      <c r="AI47" s="63"/>
+      <c r="AJ47" s="63"/>
+      <c r="AK47" s="63"/>
+      <c r="AL47" s="63"/>
+      <c r="AM47" s="77"/>
     </row>
     <row r="48" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A48" s="61" t="s">
+      <c r="A48" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="B48" s="87"/>
+      <c r="B48" s="83"/>
       <c r="D48" s="22"/>
       <c r="E48" s="22"/>
       <c r="F48" s="22"/>
@@ -16176,18 +16154,18 @@
       <c r="AC48" s="17"/>
       <c r="AD48" s="17"/>
       <c r="AE48" s="6"/>
-      <c r="AF48" s="81"/>
-      <c r="AG48" s="66"/>
-      <c r="AH48" s="66"/>
-      <c r="AI48" s="66"/>
-      <c r="AJ48" s="66"/>
-      <c r="AK48" s="66"/>
-      <c r="AL48" s="66"/>
-      <c r="AM48" s="82"/>
+      <c r="AF48" s="76"/>
+      <c r="AG48" s="63"/>
+      <c r="AH48" s="63"/>
+      <c r="AI48" s="63"/>
+      <c r="AJ48" s="63"/>
+      <c r="AK48" s="63"/>
+      <c r="AL48" s="63"/>
+      <c r="AM48" s="77"/>
     </row>
     <row r="49" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A49" s="60"/>
-      <c r="B49" s="60"/>
+      <c r="A49" s="55"/>
+      <c r="B49" s="55"/>
       <c r="D49" s="19"/>
       <c r="E49" s="20"/>
       <c r="F49" s="21"/>
@@ -16219,20 +16197,20 @@
       <c r="AC49" s="17"/>
       <c r="AD49" s="17"/>
       <c r="AE49" s="6"/>
-      <c r="AF49" s="81"/>
-      <c r="AG49" s="66"/>
-      <c r="AH49" s="66"/>
-      <c r="AI49" s="66"/>
-      <c r="AJ49" s="66"/>
-      <c r="AK49" s="66"/>
-      <c r="AL49" s="66"/>
-      <c r="AM49" s="82"/>
+      <c r="AF49" s="76"/>
+      <c r="AG49" s="63"/>
+      <c r="AH49" s="63"/>
+      <c r="AI49" s="63"/>
+      <c r="AJ49" s="63"/>
+      <c r="AK49" s="63"/>
+      <c r="AL49" s="63"/>
+      <c r="AM49" s="77"/>
     </row>
     <row r="50" spans="1:39" ht="17.25" customHeight="1">
-      <c r="A50" s="61" t="s">
+      <c r="A50" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="B50" s="87"/>
+      <c r="B50" s="83"/>
       <c r="D50" s="22"/>
       <c r="E50" s="22"/>
       <c r="F50" s="22"/>
@@ -16264,18 +16242,18 @@
       <c r="AC50" s="17"/>
       <c r="AD50" s="17"/>
       <c r="AE50" s="6"/>
-      <c r="AF50" s="81"/>
-      <c r="AG50" s="66"/>
-      <c r="AH50" s="66"/>
-      <c r="AI50" s="66"/>
-      <c r="AJ50" s="66"/>
-      <c r="AK50" s="66"/>
-      <c r="AL50" s="66"/>
-      <c r="AM50" s="82"/>
+      <c r="AF50" s="76"/>
+      <c r="AG50" s="63"/>
+      <c r="AH50" s="63"/>
+      <c r="AI50" s="63"/>
+      <c r="AJ50" s="63"/>
+      <c r="AK50" s="63"/>
+      <c r="AL50" s="63"/>
+      <c r="AM50" s="77"/>
     </row>
     <row r="51" spans="1:39" ht="18" customHeight="1">
-      <c r="A51" s="60"/>
-      <c r="B51" s="60"/>
+      <c r="A51" s="55"/>
+      <c r="B51" s="55"/>
       <c r="D51" s="19"/>
       <c r="E51" s="20"/>
       <c r="F51" s="21"/>
@@ -16307,20 +16285,20 @@
       <c r="AC51" s="17"/>
       <c r="AD51" s="17"/>
       <c r="AE51" s="6"/>
-      <c r="AF51" s="81"/>
-      <c r="AG51" s="66"/>
-      <c r="AH51" s="66"/>
-      <c r="AI51" s="66"/>
-      <c r="AJ51" s="66"/>
-      <c r="AK51" s="66"/>
-      <c r="AL51" s="66"/>
-      <c r="AM51" s="82"/>
+      <c r="AF51" s="76"/>
+      <c r="AG51" s="63"/>
+      <c r="AH51" s="63"/>
+      <c r="AI51" s="63"/>
+      <c r="AJ51" s="63"/>
+      <c r="AK51" s="63"/>
+      <c r="AL51" s="63"/>
+      <c r="AM51" s="77"/>
     </row>
     <row r="52" spans="1:39" ht="17.25" customHeight="1">
-      <c r="A52" s="61" t="s">
+      <c r="A52" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="B52" s="87"/>
+      <c r="B52" s="83"/>
       <c r="D52" s="22"/>
       <c r="E52" s="22"/>
       <c r="F52" s="22"/>
@@ -16352,18 +16330,18 @@
       <c r="AC52" s="17"/>
       <c r="AD52" s="17"/>
       <c r="AE52" s="6"/>
-      <c r="AF52" s="81"/>
-      <c r="AG52" s="66"/>
-      <c r="AH52" s="66"/>
-      <c r="AI52" s="66"/>
-      <c r="AJ52" s="66"/>
-      <c r="AK52" s="66"/>
-      <c r="AL52" s="66"/>
-      <c r="AM52" s="82"/>
+      <c r="AF52" s="76"/>
+      <c r="AG52" s="63"/>
+      <c r="AH52" s="63"/>
+      <c r="AI52" s="63"/>
+      <c r="AJ52" s="63"/>
+      <c r="AK52" s="63"/>
+      <c r="AL52" s="63"/>
+      <c r="AM52" s="77"/>
     </row>
     <row r="53" spans="1:39" ht="18" customHeight="1">
-      <c r="A53" s="60"/>
-      <c r="B53" s="60"/>
+      <c r="A53" s="55"/>
+      <c r="B53" s="55"/>
       <c r="D53" s="19"/>
       <c r="E53" s="20"/>
       <c r="F53" s="21"/>
@@ -16395,20 +16373,20 @@
       <c r="AC53" s="17"/>
       <c r="AD53" s="17"/>
       <c r="AE53" s="6"/>
-      <c r="AF53" s="81"/>
-      <c r="AG53" s="66"/>
-      <c r="AH53" s="66"/>
-      <c r="AI53" s="66"/>
-      <c r="AJ53" s="66"/>
-      <c r="AK53" s="66"/>
-      <c r="AL53" s="66"/>
-      <c r="AM53" s="82"/>
+      <c r="AF53" s="76"/>
+      <c r="AG53" s="63"/>
+      <c r="AH53" s="63"/>
+      <c r="AI53" s="63"/>
+      <c r="AJ53" s="63"/>
+      <c r="AK53" s="63"/>
+      <c r="AL53" s="63"/>
+      <c r="AM53" s="77"/>
     </row>
     <row r="54" spans="1:39" ht="17.25" customHeight="1">
-      <c r="A54" s="61" t="s">
+      <c r="A54" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="B54" s="87"/>
+      <c r="B54" s="83"/>
       <c r="D54" s="22"/>
       <c r="E54" s="22"/>
       <c r="F54" s="22"/>
@@ -16440,18 +16418,18 @@
       <c r="AC54" s="17"/>
       <c r="AD54" s="17"/>
       <c r="AE54" s="6"/>
-      <c r="AF54" s="81"/>
-      <c r="AG54" s="66"/>
-      <c r="AH54" s="66"/>
-      <c r="AI54" s="66"/>
-      <c r="AJ54" s="66"/>
-      <c r="AK54" s="66"/>
-      <c r="AL54" s="66"/>
-      <c r="AM54" s="82"/>
+      <c r="AF54" s="76"/>
+      <c r="AG54" s="63"/>
+      <c r="AH54" s="63"/>
+      <c r="AI54" s="63"/>
+      <c r="AJ54" s="63"/>
+      <c r="AK54" s="63"/>
+      <c r="AL54" s="63"/>
+      <c r="AM54" s="77"/>
     </row>
     <row r="55" spans="1:39" ht="18" customHeight="1">
-      <c r="A55" s="60"/>
-      <c r="B55" s="60"/>
+      <c r="A55" s="55"/>
+      <c r="B55" s="55"/>
       <c r="D55" s="19"/>
       <c r="E55" s="20"/>
       <c r="F55" s="21"/>
@@ -16483,20 +16461,20 @@
       <c r="AC55" s="17"/>
       <c r="AD55" s="17"/>
       <c r="AE55" s="6"/>
-      <c r="AF55" s="81"/>
-      <c r="AG55" s="66"/>
-      <c r="AH55" s="66"/>
-      <c r="AI55" s="66"/>
-      <c r="AJ55" s="66"/>
-      <c r="AK55" s="66"/>
-      <c r="AL55" s="66"/>
-      <c r="AM55" s="82"/>
+      <c r="AF55" s="76"/>
+      <c r="AG55" s="63"/>
+      <c r="AH55" s="63"/>
+      <c r="AI55" s="63"/>
+      <c r="AJ55" s="63"/>
+      <c r="AK55" s="63"/>
+      <c r="AL55" s="63"/>
+      <c r="AM55" s="77"/>
     </row>
     <row r="56" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A56" s="61" t="s">
+      <c r="A56" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="B56" s="87"/>
+      <c r="B56" s="83"/>
       <c r="D56" s="22"/>
       <c r="E56" s="22"/>
       <c r="F56" s="22"/>
@@ -16528,18 +16506,18 @@
       <c r="AC56" s="17"/>
       <c r="AD56" s="17"/>
       <c r="AE56" s="6"/>
-      <c r="AF56" s="81"/>
-      <c r="AG56" s="66"/>
-      <c r="AH56" s="66"/>
-      <c r="AI56" s="66"/>
-      <c r="AJ56" s="66"/>
-      <c r="AK56" s="66"/>
-      <c r="AL56" s="66"/>
-      <c r="AM56" s="82"/>
+      <c r="AF56" s="76"/>
+      <c r="AG56" s="63"/>
+      <c r="AH56" s="63"/>
+      <c r="AI56" s="63"/>
+      <c r="AJ56" s="63"/>
+      <c r="AK56" s="63"/>
+      <c r="AL56" s="63"/>
+      <c r="AM56" s="77"/>
     </row>
     <row r="57" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A57" s="60"/>
-      <c r="B57" s="60"/>
+      <c r="A57" s="55"/>
+      <c r="B57" s="55"/>
       <c r="D57" s="19"/>
       <c r="E57" s="20"/>
       <c r="F57" s="21"/>
@@ -16571,20 +16549,20 @@
       <c r="AC57" s="17"/>
       <c r="AD57" s="17"/>
       <c r="AE57" s="6"/>
-      <c r="AF57" s="81"/>
-      <c r="AG57" s="66"/>
-      <c r="AH57" s="66"/>
-      <c r="AI57" s="66"/>
-      <c r="AJ57" s="66"/>
-      <c r="AK57" s="66"/>
-      <c r="AL57" s="66"/>
-      <c r="AM57" s="82"/>
+      <c r="AF57" s="76"/>
+      <c r="AG57" s="63"/>
+      <c r="AH57" s="63"/>
+      <c r="AI57" s="63"/>
+      <c r="AJ57" s="63"/>
+      <c r="AK57" s="63"/>
+      <c r="AL57" s="63"/>
+      <c r="AM57" s="77"/>
     </row>
     <row r="58" spans="1:39" ht="17.25" customHeight="1">
-      <c r="A58" s="61" t="s">
+      <c r="A58" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="B58" s="87"/>
+      <c r="B58" s="83"/>
       <c r="D58" s="22"/>
       <c r="E58" s="22"/>
       <c r="F58" s="22"/>
@@ -16616,18 +16594,18 @@
       <c r="AC58" s="17"/>
       <c r="AD58" s="17"/>
       <c r="AE58" s="6"/>
-      <c r="AF58" s="81"/>
-      <c r="AG58" s="66"/>
-      <c r="AH58" s="66"/>
-      <c r="AI58" s="66"/>
-      <c r="AJ58" s="66"/>
-      <c r="AK58" s="66"/>
-      <c r="AL58" s="66"/>
-      <c r="AM58" s="82"/>
+      <c r="AF58" s="76"/>
+      <c r="AG58" s="63"/>
+      <c r="AH58" s="63"/>
+      <c r="AI58" s="63"/>
+      <c r="AJ58" s="63"/>
+      <c r="AK58" s="63"/>
+      <c r="AL58" s="63"/>
+      <c r="AM58" s="77"/>
     </row>
     <row r="59" spans="1:39" ht="18" customHeight="1">
-      <c r="A59" s="60"/>
-      <c r="B59" s="60"/>
+      <c r="A59" s="55"/>
+      <c r="B59" s="55"/>
       <c r="D59" s="19"/>
       <c r="E59" s="20"/>
       <c r="F59" s="21"/>
@@ -16659,20 +16637,20 @@
       <c r="AC59" s="17"/>
       <c r="AD59" s="17"/>
       <c r="AE59" s="6"/>
-      <c r="AF59" s="81"/>
-      <c r="AG59" s="66"/>
-      <c r="AH59" s="66"/>
-      <c r="AI59" s="66"/>
-      <c r="AJ59" s="66"/>
-      <c r="AK59" s="66"/>
-      <c r="AL59" s="66"/>
-      <c r="AM59" s="82"/>
+      <c r="AF59" s="76"/>
+      <c r="AG59" s="63"/>
+      <c r="AH59" s="63"/>
+      <c r="AI59" s="63"/>
+      <c r="AJ59" s="63"/>
+      <c r="AK59" s="63"/>
+      <c r="AL59" s="63"/>
+      <c r="AM59" s="77"/>
     </row>
     <row r="60" spans="1:39" ht="17.25" customHeight="1">
-      <c r="A60" s="61" t="s">
+      <c r="A60" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="B60" s="87"/>
+      <c r="B60" s="83"/>
       <c r="D60" s="22"/>
       <c r="E60" s="22"/>
       <c r="F60" s="22"/>
@@ -16704,18 +16682,18 @@
       <c r="AC60" s="17"/>
       <c r="AD60" s="17"/>
       <c r="AE60" s="6"/>
-      <c r="AF60" s="81"/>
-      <c r="AG60" s="66"/>
-      <c r="AH60" s="66"/>
-      <c r="AI60" s="66"/>
-      <c r="AJ60" s="66"/>
-      <c r="AK60" s="66"/>
-      <c r="AL60" s="66"/>
-      <c r="AM60" s="82"/>
+      <c r="AF60" s="76"/>
+      <c r="AG60" s="63"/>
+      <c r="AH60" s="63"/>
+      <c r="AI60" s="63"/>
+      <c r="AJ60" s="63"/>
+      <c r="AK60" s="63"/>
+      <c r="AL60" s="63"/>
+      <c r="AM60" s="77"/>
     </row>
     <row r="61" spans="1:39" ht="18" customHeight="1">
-      <c r="A61" s="60"/>
-      <c r="B61" s="60"/>
+      <c r="A61" s="55"/>
+      <c r="B61" s="55"/>
       <c r="D61" s="19"/>
       <c r="E61" s="20"/>
       <c r="F61" s="21"/>
@@ -16747,20 +16725,20 @@
       <c r="AC61" s="17"/>
       <c r="AD61" s="17"/>
       <c r="AE61" s="6"/>
-      <c r="AF61" s="81"/>
-      <c r="AG61" s="66"/>
-      <c r="AH61" s="66"/>
-      <c r="AI61" s="66"/>
-      <c r="AJ61" s="66"/>
-      <c r="AK61" s="66"/>
-      <c r="AL61" s="66"/>
-      <c r="AM61" s="82"/>
+      <c r="AF61" s="76"/>
+      <c r="AG61" s="63"/>
+      <c r="AH61" s="63"/>
+      <c r="AI61" s="63"/>
+      <c r="AJ61" s="63"/>
+      <c r="AK61" s="63"/>
+      <c r="AL61" s="63"/>
+      <c r="AM61" s="77"/>
     </row>
     <row r="62" spans="1:39" ht="17.25" customHeight="1">
-      <c r="A62" s="61" t="s">
+      <c r="A62" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="B62" s="87"/>
+      <c r="B62" s="83"/>
       <c r="D62" s="22"/>
       <c r="E62" s="22"/>
       <c r="F62" s="22"/>
@@ -16792,18 +16770,18 @@
       <c r="AC62" s="17"/>
       <c r="AD62" s="17"/>
       <c r="AE62" s="6"/>
-      <c r="AF62" s="81"/>
-      <c r="AG62" s="66"/>
-      <c r="AH62" s="66"/>
-      <c r="AI62" s="66"/>
-      <c r="AJ62" s="66"/>
-      <c r="AK62" s="66"/>
-      <c r="AL62" s="66"/>
-      <c r="AM62" s="82"/>
+      <c r="AF62" s="76"/>
+      <c r="AG62" s="63"/>
+      <c r="AH62" s="63"/>
+      <c r="AI62" s="63"/>
+      <c r="AJ62" s="63"/>
+      <c r="AK62" s="63"/>
+      <c r="AL62" s="63"/>
+      <c r="AM62" s="77"/>
     </row>
     <row r="63" spans="1:39" ht="18" customHeight="1">
-      <c r="A63" s="60"/>
-      <c r="B63" s="60"/>
+      <c r="A63" s="55"/>
+      <c r="B63" s="55"/>
       <c r="D63" s="19"/>
       <c r="E63" s="20"/>
       <c r="F63" s="21"/>
@@ -16835,20 +16813,20 @@
       <c r="AC63" s="32"/>
       <c r="AD63" s="32"/>
       <c r="AE63" s="6"/>
-      <c r="AF63" s="81"/>
-      <c r="AG63" s="66"/>
-      <c r="AH63" s="66"/>
-      <c r="AI63" s="66"/>
-      <c r="AJ63" s="66"/>
-      <c r="AK63" s="66"/>
-      <c r="AL63" s="66"/>
-      <c r="AM63" s="82"/>
+      <c r="AF63" s="76"/>
+      <c r="AG63" s="63"/>
+      <c r="AH63" s="63"/>
+      <c r="AI63" s="63"/>
+      <c r="AJ63" s="63"/>
+      <c r="AK63" s="63"/>
+      <c r="AL63" s="63"/>
+      <c r="AM63" s="77"/>
     </row>
     <row r="64" spans="1:39" ht="17.25" customHeight="1">
-      <c r="A64" s="61" t="s">
+      <c r="A64" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="B64" s="87"/>
+      <c r="B64" s="83"/>
       <c r="D64" s="22"/>
       <c r="E64" s="22"/>
       <c r="F64" s="22"/>
@@ -16880,18 +16858,18 @@
       <c r="AC64" s="32"/>
       <c r="AD64" s="32"/>
       <c r="AE64" s="6"/>
-      <c r="AF64" s="81"/>
-      <c r="AG64" s="66"/>
-      <c r="AH64" s="66"/>
-      <c r="AI64" s="66"/>
-      <c r="AJ64" s="66"/>
-      <c r="AK64" s="66"/>
-      <c r="AL64" s="66"/>
-      <c r="AM64" s="82"/>
+      <c r="AF64" s="76"/>
+      <c r="AG64" s="63"/>
+      <c r="AH64" s="63"/>
+      <c r="AI64" s="63"/>
+      <c r="AJ64" s="63"/>
+      <c r="AK64" s="63"/>
+      <c r="AL64" s="63"/>
+      <c r="AM64" s="77"/>
     </row>
     <row r="65" spans="1:39" ht="18" customHeight="1">
-      <c r="A65" s="60"/>
-      <c r="B65" s="60"/>
+      <c r="A65" s="55"/>
+      <c r="B65" s="55"/>
       <c r="D65" s="19"/>
       <c r="E65" s="20"/>
       <c r="F65" s="21"/>
@@ -16923,20 +16901,20 @@
       <c r="AC65" s="32"/>
       <c r="AD65" s="32"/>
       <c r="AE65" s="6"/>
-      <c r="AF65" s="81"/>
-      <c r="AG65" s="66"/>
-      <c r="AH65" s="66"/>
-      <c r="AI65" s="66"/>
-      <c r="AJ65" s="66"/>
-      <c r="AK65" s="66"/>
-      <c r="AL65" s="66"/>
-      <c r="AM65" s="82"/>
+      <c r="AF65" s="76"/>
+      <c r="AG65" s="63"/>
+      <c r="AH65" s="63"/>
+      <c r="AI65" s="63"/>
+      <c r="AJ65" s="63"/>
+      <c r="AK65" s="63"/>
+      <c r="AL65" s="63"/>
+      <c r="AM65" s="77"/>
     </row>
     <row r="66" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A66" s="61" t="s">
+      <c r="A66" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="B66" s="59"/>
+      <c r="B66" s="57"/>
       <c r="D66" s="22"/>
       <c r="E66" s="22"/>
       <c r="F66" s="22"/>
@@ -16968,18 +16946,18 @@
       <c r="AC66" s="17"/>
       <c r="AD66" s="17"/>
       <c r="AE66" s="6"/>
-      <c r="AF66" s="81"/>
-      <c r="AG66" s="66"/>
-      <c r="AH66" s="66"/>
-      <c r="AI66" s="66"/>
-      <c r="AJ66" s="66"/>
-      <c r="AK66" s="66"/>
-      <c r="AL66" s="66"/>
-      <c r="AM66" s="82"/>
+      <c r="AF66" s="76"/>
+      <c r="AG66" s="63"/>
+      <c r="AH66" s="63"/>
+      <c r="AI66" s="63"/>
+      <c r="AJ66" s="63"/>
+      <c r="AK66" s="63"/>
+      <c r="AL66" s="63"/>
+      <c r="AM66" s="77"/>
     </row>
     <row r="67" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A67" s="60"/>
-      <c r="B67" s="60"/>
+      <c r="A67" s="55"/>
+      <c r="B67" s="55"/>
       <c r="D67" s="19"/>
       <c r="E67" s="20"/>
       <c r="F67" s="21"/>
@@ -17011,20 +16989,20 @@
       <c r="AC67" s="17"/>
       <c r="AD67" s="17"/>
       <c r="AE67" s="6"/>
-      <c r="AF67" s="81"/>
-      <c r="AG67" s="66"/>
-      <c r="AH67" s="66"/>
-      <c r="AI67" s="66"/>
-      <c r="AJ67" s="66"/>
-      <c r="AK67" s="66"/>
-      <c r="AL67" s="66"/>
-      <c r="AM67" s="82"/>
+      <c r="AF67" s="76"/>
+      <c r="AG67" s="63"/>
+      <c r="AH67" s="63"/>
+      <c r="AI67" s="63"/>
+      <c r="AJ67" s="63"/>
+      <c r="AK67" s="63"/>
+      <c r="AL67" s="63"/>
+      <c r="AM67" s="77"/>
     </row>
     <row r="68" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A68" s="61" t="s">
+      <c r="A68" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="B68" s="59"/>
+      <c r="B68" s="57"/>
       <c r="D68" s="22"/>
       <c r="E68" s="22"/>
       <c r="F68" s="22"/>
@@ -17056,18 +17034,18 @@
       <c r="AC68" s="17"/>
       <c r="AD68" s="17"/>
       <c r="AE68" s="6"/>
-      <c r="AF68" s="81"/>
-      <c r="AG68" s="66"/>
-      <c r="AH68" s="66"/>
-      <c r="AI68" s="66"/>
-      <c r="AJ68" s="66"/>
-      <c r="AK68" s="66"/>
-      <c r="AL68" s="66"/>
-      <c r="AM68" s="82"/>
+      <c r="AF68" s="76"/>
+      <c r="AG68" s="63"/>
+      <c r="AH68" s="63"/>
+      <c r="AI68" s="63"/>
+      <c r="AJ68" s="63"/>
+      <c r="AK68" s="63"/>
+      <c r="AL68" s="63"/>
+      <c r="AM68" s="77"/>
     </row>
     <row r="69" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A69" s="60"/>
-      <c r="B69" s="60"/>
+      <c r="A69" s="55"/>
+      <c r="B69" s="55"/>
       <c r="D69" s="19"/>
       <c r="E69" s="20"/>
       <c r="F69" s="21"/>
@@ -17099,20 +17077,20 @@
       <c r="AC69" s="17"/>
       <c r="AD69" s="17"/>
       <c r="AE69" s="6"/>
-      <c r="AF69" s="81"/>
-      <c r="AG69" s="66"/>
-      <c r="AH69" s="66"/>
-      <c r="AI69" s="66"/>
-      <c r="AJ69" s="66"/>
-      <c r="AK69" s="66"/>
-      <c r="AL69" s="66"/>
-      <c r="AM69" s="82"/>
+      <c r="AF69" s="76"/>
+      <c r="AG69" s="63"/>
+      <c r="AH69" s="63"/>
+      <c r="AI69" s="63"/>
+      <c r="AJ69" s="63"/>
+      <c r="AK69" s="63"/>
+      <c r="AL69" s="63"/>
+      <c r="AM69" s="77"/>
     </row>
     <row r="70" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A70" s="61" t="s">
+      <c r="A70" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="B70" s="59"/>
+      <c r="B70" s="57"/>
       <c r="D70" s="22"/>
       <c r="E70" s="22"/>
       <c r="F70" s="22"/>
@@ -17144,18 +17122,18 @@
       <c r="AC70" s="17"/>
       <c r="AD70" s="17"/>
       <c r="AE70" s="6"/>
-      <c r="AF70" s="81"/>
-      <c r="AG70" s="66"/>
-      <c r="AH70" s="66"/>
-      <c r="AI70" s="66"/>
-      <c r="AJ70" s="66"/>
-      <c r="AK70" s="66"/>
-      <c r="AL70" s="66"/>
-      <c r="AM70" s="82"/>
+      <c r="AF70" s="76"/>
+      <c r="AG70" s="63"/>
+      <c r="AH70" s="63"/>
+      <c r="AI70" s="63"/>
+      <c r="AJ70" s="63"/>
+      <c r="AK70" s="63"/>
+      <c r="AL70" s="63"/>
+      <c r="AM70" s="77"/>
     </row>
     <row r="71" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A71" s="60"/>
-      <c r="B71" s="60"/>
+      <c r="A71" s="55"/>
+      <c r="B71" s="55"/>
       <c r="D71" s="19"/>
       <c r="E71" s="20"/>
       <c r="F71" s="21"/>
@@ -17187,20 +17165,20 @@
       <c r="AC71" s="17"/>
       <c r="AD71" s="17"/>
       <c r="AE71" s="6"/>
-      <c r="AF71" s="81"/>
-      <c r="AG71" s="66"/>
-      <c r="AH71" s="66"/>
-      <c r="AI71" s="66"/>
-      <c r="AJ71" s="66"/>
-      <c r="AK71" s="66"/>
-      <c r="AL71" s="66"/>
-      <c r="AM71" s="82"/>
+      <c r="AF71" s="76"/>
+      <c r="AG71" s="63"/>
+      <c r="AH71" s="63"/>
+      <c r="AI71" s="63"/>
+      <c r="AJ71" s="63"/>
+      <c r="AK71" s="63"/>
+      <c r="AL71" s="63"/>
+      <c r="AM71" s="77"/>
     </row>
     <row r="72" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A72" s="61" t="s">
+      <c r="A72" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="B72" s="59"/>
+      <c r="B72" s="57"/>
       <c r="D72" s="22"/>
       <c r="E72" s="22"/>
       <c r="F72" s="22"/>
@@ -17232,18 +17210,18 @@
       <c r="AC72" s="17"/>
       <c r="AD72" s="17"/>
       <c r="AE72" s="6"/>
-      <c r="AF72" s="83"/>
-      <c r="AG72" s="84"/>
-      <c r="AH72" s="84"/>
-      <c r="AI72" s="84"/>
-      <c r="AJ72" s="84"/>
-      <c r="AK72" s="84"/>
-      <c r="AL72" s="84"/>
-      <c r="AM72" s="85"/>
+      <c r="AF72" s="78"/>
+      <c r="AG72" s="79"/>
+      <c r="AH72" s="79"/>
+      <c r="AI72" s="79"/>
+      <c r="AJ72" s="79"/>
+      <c r="AK72" s="79"/>
+      <c r="AL72" s="79"/>
+      <c r="AM72" s="80"/>
     </row>
     <row r="73" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A73" s="60"/>
-      <c r="B73" s="60"/>
+      <c r="A73" s="55"/>
+      <c r="B73" s="55"/>
       <c r="D73" s="19"/>
       <c r="E73" s="20"/>
       <c r="F73" s="21"/>
@@ -17287,10 +17265,10 @@
       <c r="AM73" s="38"/>
     </row>
     <row r="74" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A74" s="61" t="s">
+      <c r="A74" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="B74" s="59"/>
+      <c r="B74" s="57"/>
       <c r="D74" s="22"/>
       <c r="E74" s="22"/>
       <c r="F74" s="22"/>
@@ -17334,8 +17312,8 @@
       <c r="AM74" s="38"/>
     </row>
     <row r="75" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A75" s="60"/>
-      <c r="B75" s="60"/>
+      <c r="A75" s="55"/>
+      <c r="B75" s="55"/>
       <c r="D75" s="19"/>
       <c r="E75" s="20"/>
       <c r="F75" s="21"/>
@@ -17379,8 +17357,8 @@
       <c r="AM75" s="38"/>
     </row>
     <row r="76" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A76" s="88"/>
-      <c r="B76" s="88"/>
+      <c r="A76" s="81"/>
+      <c r="B76" s="81"/>
       <c r="D76" s="22"/>
       <c r="E76" s="22"/>
       <c r="F76" s="22"/>
@@ -17424,8 +17402,8 @@
       <c r="AM76" s="38"/>
     </row>
     <row r="77" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A77" s="60"/>
-      <c r="B77" s="60"/>
+      <c r="A77" s="55"/>
+      <c r="B77" s="55"/>
       <c r="D77" s="19"/>
       <c r="E77" s="20"/>
       <c r="F77" s="21"/>
@@ -17469,8 +17447,8 @@
       <c r="AM77" s="38"/>
     </row>
     <row r="78" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A78" s="88"/>
-      <c r="B78" s="88"/>
+      <c r="A78" s="81"/>
+      <c r="B78" s="81"/>
       <c r="D78" s="22"/>
       <c r="E78" s="22"/>
       <c r="F78" s="22"/>
@@ -17514,8 +17492,8 @@
       <c r="AM78" s="38"/>
     </row>
     <row r="79" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A79" s="60"/>
-      <c r="B79" s="60"/>
+      <c r="A79" s="55"/>
+      <c r="B79" s="55"/>
       <c r="D79" s="19"/>
       <c r="E79" s="20"/>
       <c r="F79" s="21"/>
@@ -17557,8 +17535,8 @@
       <c r="AM79" s="38"/>
     </row>
     <row r="80" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A80" s="88"/>
-      <c r="B80" s="88"/>
+      <c r="A80" s="81"/>
+      <c r="B80" s="81"/>
       <c r="D80" s="22"/>
       <c r="E80" s="22"/>
       <c r="F80" s="22"/>
@@ -17600,8 +17578,8 @@
       <c r="AM80" s="50"/>
     </row>
     <row r="81" spans="1:31" ht="14.25" customHeight="1">
-      <c r="A81" s="60"/>
-      <c r="B81" s="60"/>
+      <c r="A81" s="55"/>
+      <c r="B81" s="55"/>
       <c r="D81" s="19"/>
       <c r="E81" s="20"/>
       <c r="F81" s="21"/>
@@ -18602,6 +18580,9 @@
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="81">
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A68:A69"/>
     <mergeCell ref="A70:A71"/>
     <mergeCell ref="B80:B81"/>
     <mergeCell ref="A72:A73"/>
@@ -18609,22 +18590,32 @@
     <mergeCell ref="A76:A77"/>
     <mergeCell ref="A78:A79"/>
     <mergeCell ref="A80:A81"/>
+    <mergeCell ref="B64:B65"/>
     <mergeCell ref="B72:B73"/>
     <mergeCell ref="B74:B75"/>
     <mergeCell ref="B76:B77"/>
     <mergeCell ref="B78:B79"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A62:A63"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A46:A47"/>
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="A50:A51"/>
     <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="AA1:AD1"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="AF3:AM37"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
     <mergeCell ref="AF44:AM72"/>
     <mergeCell ref="B70:B71"/>
     <mergeCell ref="B46:B47"/>
@@ -18633,50 +18624,37 @@
     <mergeCell ref="B52:B53"/>
     <mergeCell ref="B54:B55"/>
     <mergeCell ref="B56:B57"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="AA1:AD1"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="AF3:AM37"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A32:A33"/>
     <mergeCell ref="B32:B33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
     <mergeCell ref="A42:A43"/>
     <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="A40:A41"/>
     <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B45"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="B16:B17"/>

--- a/Documents/Planification_Projet_2026.xlsx
+++ b/Documents/Planification_Projet_2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\lerouxe.SNIRW\Projet_banc_test_self\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD9E84B5-981B-4FF5-874F-E7AB33EBA531}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55649459-8598-4EBA-B1E7-E6DEA77B3838}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SRC" sheetId="1" r:id="rId1"/>
@@ -2022,18 +2022,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2042,6 +2036,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2065,13 +2065,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2621,12 +2621,12 @@
       <c r="Y1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="Z1" s="59">
+      <c r="Z1" s="57">
         <v>2024</v>
       </c>
-      <c r="AA1" s="60"/>
-      <c r="AB1" s="60"/>
-      <c r="AC1" s="61"/>
+      <c r="AA1" s="58"/>
+      <c r="AB1" s="58"/>
+      <c r="AC1" s="59"/>
       <c r="AD1" s="6"/>
       <c r="AE1" s="4" t="s">
         <v>2</v>
@@ -2681,10 +2681,10 @@
       <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="62"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
       <c r="I3" s="13" t="s">
         <v>5</v>
       </c>
@@ -2761,18 +2761,18 @@
       <c r="AL3" s="66"/>
     </row>
     <row r="4" spans="1:38" ht="14.25" customHeight="1">
-      <c r="D4" s="62"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
       <c r="AD4" s="6"/>
       <c r="AE4" s="67"/>
-      <c r="AF4" s="63"/>
-      <c r="AG4" s="63"/>
-      <c r="AH4" s="63"/>
-      <c r="AI4" s="63"/>
-      <c r="AJ4" s="63"/>
-      <c r="AK4" s="63"/>
+      <c r="AF4" s="61"/>
+      <c r="AG4" s="61"/>
+      <c r="AH4" s="61"/>
+      <c r="AI4" s="61"/>
+      <c r="AJ4" s="61"/>
+      <c r="AK4" s="61"/>
       <c r="AL4" s="68"/>
     </row>
     <row r="5" spans="1:38" ht="14.25" customHeight="1">
@@ -2815,16 +2815,16 @@
       <c r="AC5" s="16"/>
       <c r="AD5" s="6"/>
       <c r="AE5" s="67"/>
-      <c r="AF5" s="63"/>
-      <c r="AG5" s="63"/>
-      <c r="AH5" s="63"/>
-      <c r="AI5" s="63"/>
-      <c r="AJ5" s="63"/>
-      <c r="AK5" s="63"/>
+      <c r="AF5" s="61"/>
+      <c r="AG5" s="61"/>
+      <c r="AH5" s="61"/>
+      <c r="AI5" s="61"/>
+      <c r="AJ5" s="61"/>
+      <c r="AK5" s="61"/>
       <c r="AL5" s="68"/>
     </row>
     <row r="6" spans="1:38" ht="15" customHeight="1">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="56" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="72"/>
@@ -2856,12 +2856,12 @@
       <c r="AC6" s="17"/>
       <c r="AD6" s="6"/>
       <c r="AE6" s="67"/>
-      <c r="AF6" s="63"/>
-      <c r="AG6" s="63"/>
-      <c r="AH6" s="63"/>
-      <c r="AI6" s="63"/>
-      <c r="AJ6" s="63"/>
-      <c r="AK6" s="63"/>
+      <c r="AF6" s="61"/>
+      <c r="AG6" s="61"/>
+      <c r="AH6" s="61"/>
+      <c r="AI6" s="61"/>
+      <c r="AJ6" s="61"/>
+      <c r="AK6" s="61"/>
       <c r="AL6" s="68"/>
     </row>
     <row r="7" spans="1:38" ht="15" customHeight="1">
@@ -2895,19 +2895,19 @@
       <c r="AC7" s="17"/>
       <c r="AD7" s="6"/>
       <c r="AE7" s="67"/>
-      <c r="AF7" s="63"/>
-      <c r="AG7" s="63"/>
-      <c r="AH7" s="63"/>
-      <c r="AI7" s="63"/>
-      <c r="AJ7" s="63"/>
-      <c r="AK7" s="63"/>
+      <c r="AF7" s="61"/>
+      <c r="AG7" s="61"/>
+      <c r="AH7" s="61"/>
+      <c r="AI7" s="61"/>
+      <c r="AJ7" s="61"/>
+      <c r="AK7" s="61"/>
       <c r="AL7" s="68"/>
     </row>
     <row r="8" spans="1:38" ht="15" customHeight="1">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="56"/>
+      <c r="B8" s="63"/>
       <c r="D8" s="22"/>
       <c r="E8" s="22"/>
       <c r="F8" s="22"/>
@@ -2936,12 +2936,12 @@
       <c r="AC8" s="17"/>
       <c r="AD8" s="6"/>
       <c r="AE8" s="67"/>
-      <c r="AF8" s="63"/>
-      <c r="AG8" s="63"/>
-      <c r="AH8" s="63"/>
-      <c r="AI8" s="63"/>
-      <c r="AJ8" s="63"/>
-      <c r="AK8" s="63"/>
+      <c r="AF8" s="61"/>
+      <c r="AG8" s="61"/>
+      <c r="AH8" s="61"/>
+      <c r="AI8" s="61"/>
+      <c r="AJ8" s="61"/>
+      <c r="AK8" s="61"/>
       <c r="AL8" s="68"/>
     </row>
     <row r="9" spans="1:38" ht="15" customHeight="1">
@@ -2975,19 +2975,19 @@
       <c r="AC9" s="17"/>
       <c r="AD9" s="6"/>
       <c r="AE9" s="67"/>
-      <c r="AF9" s="63"/>
-      <c r="AG9" s="63"/>
-      <c r="AH9" s="63"/>
-      <c r="AI9" s="63"/>
-      <c r="AJ9" s="63"/>
-      <c r="AK9" s="63"/>
+      <c r="AF9" s="61"/>
+      <c r="AG9" s="61"/>
+      <c r="AH9" s="61"/>
+      <c r="AI9" s="61"/>
+      <c r="AJ9" s="61"/>
+      <c r="AK9" s="61"/>
       <c r="AL9" s="68"/>
     </row>
     <row r="10" spans="1:38" ht="15" customHeight="1">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="56"/>
+      <c r="B10" s="63"/>
       <c r="D10" s="22"/>
       <c r="E10" s="22"/>
       <c r="F10" s="22"/>
@@ -3016,12 +3016,12 @@
       <c r="AC10" s="17"/>
       <c r="AD10" s="6"/>
       <c r="AE10" s="67"/>
-      <c r="AF10" s="63"/>
-      <c r="AG10" s="63"/>
-      <c r="AH10" s="63"/>
-      <c r="AI10" s="63"/>
-      <c r="AJ10" s="63"/>
-      <c r="AK10" s="63"/>
+      <c r="AF10" s="61"/>
+      <c r="AG10" s="61"/>
+      <c r="AH10" s="61"/>
+      <c r="AI10" s="61"/>
+      <c r="AJ10" s="61"/>
+      <c r="AK10" s="61"/>
       <c r="AL10" s="68"/>
     </row>
     <row r="11" spans="1:38" ht="15" customHeight="1">
@@ -3055,19 +3055,19 @@
       <c r="AC11" s="17"/>
       <c r="AD11" s="6"/>
       <c r="AE11" s="67"/>
-      <c r="AF11" s="63"/>
-      <c r="AG11" s="63"/>
-      <c r="AH11" s="63"/>
-      <c r="AI11" s="63"/>
-      <c r="AJ11" s="63"/>
-      <c r="AK11" s="63"/>
+      <c r="AF11" s="61"/>
+      <c r="AG11" s="61"/>
+      <c r="AH11" s="61"/>
+      <c r="AI11" s="61"/>
+      <c r="AJ11" s="61"/>
+      <c r="AK11" s="61"/>
       <c r="AL11" s="68"/>
     </row>
     <row r="12" spans="1:38" ht="15" customHeight="1">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="56"/>
+      <c r="B12" s="63"/>
       <c r="D12" s="22"/>
       <c r="E12" s="22"/>
       <c r="F12" s="22"/>
@@ -3096,12 +3096,12 @@
       <c r="AC12" s="17"/>
       <c r="AD12" s="6"/>
       <c r="AE12" s="67"/>
-      <c r="AF12" s="63"/>
-      <c r="AG12" s="63"/>
-      <c r="AH12" s="63"/>
-      <c r="AI12" s="63"/>
-      <c r="AJ12" s="63"/>
-      <c r="AK12" s="63"/>
+      <c r="AF12" s="61"/>
+      <c r="AG12" s="61"/>
+      <c r="AH12" s="61"/>
+      <c r="AI12" s="61"/>
+      <c r="AJ12" s="61"/>
+      <c r="AK12" s="61"/>
       <c r="AL12" s="68"/>
     </row>
     <row r="13" spans="1:38" ht="15" customHeight="1">
@@ -3135,19 +3135,19 @@
       <c r="AC13" s="17"/>
       <c r="AD13" s="6"/>
       <c r="AE13" s="67"/>
-      <c r="AF13" s="63"/>
-      <c r="AG13" s="63"/>
-      <c r="AH13" s="63"/>
-      <c r="AI13" s="63"/>
-      <c r="AJ13" s="63"/>
-      <c r="AK13" s="63"/>
+      <c r="AF13" s="61"/>
+      <c r="AG13" s="61"/>
+      <c r="AH13" s="61"/>
+      <c r="AI13" s="61"/>
+      <c r="AJ13" s="61"/>
+      <c r="AK13" s="61"/>
       <c r="AL13" s="68"/>
     </row>
     <row r="14" spans="1:38" ht="15" customHeight="1">
-      <c r="A14" s="54" t="s">
+      <c r="A14" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="56"/>
+      <c r="B14" s="63"/>
       <c r="D14" s="22"/>
       <c r="E14" s="22"/>
       <c r="F14" s="22"/>
@@ -3176,12 +3176,12 @@
       <c r="AC14" s="17"/>
       <c r="AD14" s="6"/>
       <c r="AE14" s="67"/>
-      <c r="AF14" s="63"/>
-      <c r="AG14" s="63"/>
-      <c r="AH14" s="63"/>
-      <c r="AI14" s="63"/>
-      <c r="AJ14" s="63"/>
-      <c r="AK14" s="63"/>
+      <c r="AF14" s="61"/>
+      <c r="AG14" s="61"/>
+      <c r="AH14" s="61"/>
+      <c r="AI14" s="61"/>
+      <c r="AJ14" s="61"/>
+      <c r="AK14" s="61"/>
       <c r="AL14" s="68"/>
     </row>
     <row r="15" spans="1:38" ht="15" customHeight="1">
@@ -3215,19 +3215,19 @@
       <c r="AC15" s="17"/>
       <c r="AD15" s="6"/>
       <c r="AE15" s="67"/>
-      <c r="AF15" s="63"/>
-      <c r="AG15" s="63"/>
-      <c r="AH15" s="63"/>
-      <c r="AI15" s="63"/>
-      <c r="AJ15" s="63"/>
-      <c r="AK15" s="63"/>
+      <c r="AF15" s="61"/>
+      <c r="AG15" s="61"/>
+      <c r="AH15" s="61"/>
+      <c r="AI15" s="61"/>
+      <c r="AJ15" s="61"/>
+      <c r="AK15" s="61"/>
       <c r="AL15" s="68"/>
     </row>
     <row r="16" spans="1:38" ht="15" customHeight="1">
-      <c r="A16" s="54" t="s">
+      <c r="A16" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="57"/>
+      <c r="B16" s="54"/>
       <c r="D16" s="22"/>
       <c r="E16" s="22"/>
       <c r="F16" s="22"/>
@@ -3256,12 +3256,12 @@
       <c r="AC16" s="17"/>
       <c r="AD16" s="6"/>
       <c r="AE16" s="67"/>
-      <c r="AF16" s="63"/>
-      <c r="AG16" s="63"/>
-      <c r="AH16" s="63"/>
-      <c r="AI16" s="63"/>
-      <c r="AJ16" s="63"/>
-      <c r="AK16" s="63"/>
+      <c r="AF16" s="61"/>
+      <c r="AG16" s="61"/>
+      <c r="AH16" s="61"/>
+      <c r="AI16" s="61"/>
+      <c r="AJ16" s="61"/>
+      <c r="AK16" s="61"/>
       <c r="AL16" s="68"/>
     </row>
     <row r="17" spans="1:38" ht="15" customHeight="1">
@@ -3295,19 +3295,19 @@
       <c r="AC17" s="17"/>
       <c r="AD17" s="6"/>
       <c r="AE17" s="67"/>
-      <c r="AF17" s="63"/>
-      <c r="AG17" s="63"/>
-      <c r="AH17" s="63"/>
-      <c r="AI17" s="63"/>
-      <c r="AJ17" s="63"/>
-      <c r="AK17" s="63"/>
+      <c r="AF17" s="61"/>
+      <c r="AG17" s="61"/>
+      <c r="AH17" s="61"/>
+      <c r="AI17" s="61"/>
+      <c r="AJ17" s="61"/>
+      <c r="AK17" s="61"/>
       <c r="AL17" s="68"/>
     </row>
     <row r="18" spans="1:38" ht="15" customHeight="1">
-      <c r="A18" s="54" t="s">
+      <c r="A18" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="57"/>
+      <c r="B18" s="54"/>
       <c r="D18" s="22"/>
       <c r="E18" s="22"/>
       <c r="F18" s="22"/>
@@ -3336,12 +3336,12 @@
       <c r="AC18" s="17"/>
       <c r="AD18" s="6"/>
       <c r="AE18" s="67"/>
-      <c r="AF18" s="63"/>
-      <c r="AG18" s="63"/>
-      <c r="AH18" s="63"/>
-      <c r="AI18" s="63"/>
-      <c r="AJ18" s="63"/>
-      <c r="AK18" s="63"/>
+      <c r="AF18" s="61"/>
+      <c r="AG18" s="61"/>
+      <c r="AH18" s="61"/>
+      <c r="AI18" s="61"/>
+      <c r="AJ18" s="61"/>
+      <c r="AK18" s="61"/>
       <c r="AL18" s="68"/>
     </row>
     <row r="19" spans="1:38" ht="15" customHeight="1">
@@ -3375,19 +3375,19 @@
       <c r="AC19" s="17"/>
       <c r="AD19" s="6"/>
       <c r="AE19" s="67"/>
-      <c r="AF19" s="63"/>
-      <c r="AG19" s="63"/>
-      <c r="AH19" s="63"/>
-      <c r="AI19" s="63"/>
-      <c r="AJ19" s="63"/>
-      <c r="AK19" s="63"/>
+      <c r="AF19" s="61"/>
+      <c r="AG19" s="61"/>
+      <c r="AH19" s="61"/>
+      <c r="AI19" s="61"/>
+      <c r="AJ19" s="61"/>
+      <c r="AK19" s="61"/>
       <c r="AL19" s="68"/>
     </row>
     <row r="20" spans="1:38" ht="15" customHeight="1">
-      <c r="A20" s="54" t="s">
+      <c r="A20" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="57"/>
+      <c r="B20" s="54"/>
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
@@ -3416,12 +3416,12 @@
       <c r="AC20" s="17"/>
       <c r="AD20" s="6"/>
       <c r="AE20" s="67"/>
-      <c r="AF20" s="63"/>
-      <c r="AG20" s="63"/>
-      <c r="AH20" s="63"/>
-      <c r="AI20" s="63"/>
-      <c r="AJ20" s="63"/>
-      <c r="AK20" s="63"/>
+      <c r="AF20" s="61"/>
+      <c r="AG20" s="61"/>
+      <c r="AH20" s="61"/>
+      <c r="AI20" s="61"/>
+      <c r="AJ20" s="61"/>
+      <c r="AK20" s="61"/>
       <c r="AL20" s="68"/>
     </row>
     <row r="21" spans="1:38" ht="15" customHeight="1">
@@ -3455,19 +3455,19 @@
       <c r="AC21" s="17"/>
       <c r="AD21" s="6"/>
       <c r="AE21" s="67"/>
-      <c r="AF21" s="63"/>
-      <c r="AG21" s="63"/>
-      <c r="AH21" s="63"/>
-      <c r="AI21" s="63"/>
-      <c r="AJ21" s="63"/>
-      <c r="AK21" s="63"/>
+      <c r="AF21" s="61"/>
+      <c r="AG21" s="61"/>
+      <c r="AH21" s="61"/>
+      <c r="AI21" s="61"/>
+      <c r="AJ21" s="61"/>
+      <c r="AK21" s="61"/>
       <c r="AL21" s="68"/>
     </row>
     <row r="22" spans="1:38" ht="15" customHeight="1">
-      <c r="A22" s="54" t="s">
+      <c r="A22" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="57"/>
+      <c r="B22" s="54"/>
       <c r="D22" s="22"/>
       <c r="E22" s="22"/>
       <c r="F22" s="22"/>
@@ -3496,12 +3496,12 @@
       <c r="AC22" s="17"/>
       <c r="AD22" s="6"/>
       <c r="AE22" s="67"/>
-      <c r="AF22" s="63"/>
-      <c r="AG22" s="63"/>
-      <c r="AH22" s="63"/>
-      <c r="AI22" s="63"/>
-      <c r="AJ22" s="63"/>
-      <c r="AK22" s="63"/>
+      <c r="AF22" s="61"/>
+      <c r="AG22" s="61"/>
+      <c r="AH22" s="61"/>
+      <c r="AI22" s="61"/>
+      <c r="AJ22" s="61"/>
+      <c r="AK22" s="61"/>
       <c r="AL22" s="68"/>
     </row>
     <row r="23" spans="1:38" ht="15" customHeight="1">
@@ -3535,19 +3535,19 @@
       <c r="AC23" s="17"/>
       <c r="AD23" s="6"/>
       <c r="AE23" s="67"/>
-      <c r="AF23" s="63"/>
-      <c r="AG23" s="63"/>
-      <c r="AH23" s="63"/>
-      <c r="AI23" s="63"/>
-      <c r="AJ23" s="63"/>
-      <c r="AK23" s="63"/>
+      <c r="AF23" s="61"/>
+      <c r="AG23" s="61"/>
+      <c r="AH23" s="61"/>
+      <c r="AI23" s="61"/>
+      <c r="AJ23" s="61"/>
+      <c r="AK23" s="61"/>
       <c r="AL23" s="68"/>
     </row>
     <row r="24" spans="1:38" ht="15" customHeight="1">
-      <c r="A24" s="54" t="s">
+      <c r="A24" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="57"/>
+      <c r="B24" s="54"/>
       <c r="D24" s="22"/>
       <c r="E24" s="22"/>
       <c r="F24" s="22"/>
@@ -3576,12 +3576,12 @@
       <c r="AC24" s="17"/>
       <c r="AD24" s="6"/>
       <c r="AE24" s="67"/>
-      <c r="AF24" s="63"/>
-      <c r="AG24" s="63"/>
-      <c r="AH24" s="63"/>
-      <c r="AI24" s="63"/>
-      <c r="AJ24" s="63"/>
-      <c r="AK24" s="63"/>
+      <c r="AF24" s="61"/>
+      <c r="AG24" s="61"/>
+      <c r="AH24" s="61"/>
+      <c r="AI24" s="61"/>
+      <c r="AJ24" s="61"/>
+      <c r="AK24" s="61"/>
       <c r="AL24" s="68"/>
     </row>
     <row r="25" spans="1:38" ht="15" customHeight="1">
@@ -3615,19 +3615,19 @@
       <c r="AC25" s="17"/>
       <c r="AD25" s="6"/>
       <c r="AE25" s="67"/>
-      <c r="AF25" s="63"/>
-      <c r="AG25" s="63"/>
-      <c r="AH25" s="63"/>
-      <c r="AI25" s="63"/>
-      <c r="AJ25" s="63"/>
-      <c r="AK25" s="63"/>
+      <c r="AF25" s="61"/>
+      <c r="AG25" s="61"/>
+      <c r="AH25" s="61"/>
+      <c r="AI25" s="61"/>
+      <c r="AJ25" s="61"/>
+      <c r="AK25" s="61"/>
       <c r="AL25" s="68"/>
     </row>
     <row r="26" spans="1:38" ht="15" customHeight="1">
-      <c r="A26" s="54" t="s">
+      <c r="A26" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="57"/>
+      <c r="B26" s="54"/>
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>
       <c r="F26" s="22"/>
@@ -3656,12 +3656,12 @@
       <c r="AC26" s="17"/>
       <c r="AD26" s="6"/>
       <c r="AE26" s="67"/>
-      <c r="AF26" s="63"/>
-      <c r="AG26" s="63"/>
-      <c r="AH26" s="63"/>
-      <c r="AI26" s="63"/>
-      <c r="AJ26" s="63"/>
-      <c r="AK26" s="63"/>
+      <c r="AF26" s="61"/>
+      <c r="AG26" s="61"/>
+      <c r="AH26" s="61"/>
+      <c r="AI26" s="61"/>
+      <c r="AJ26" s="61"/>
+      <c r="AK26" s="61"/>
       <c r="AL26" s="68"/>
     </row>
     <row r="27" spans="1:38" ht="15" customHeight="1">
@@ -3695,19 +3695,19 @@
       <c r="AC27" s="17"/>
       <c r="AD27" s="6"/>
       <c r="AE27" s="67"/>
-      <c r="AF27" s="63"/>
-      <c r="AG27" s="63"/>
-      <c r="AH27" s="63"/>
-      <c r="AI27" s="63"/>
-      <c r="AJ27" s="63"/>
-      <c r="AK27" s="63"/>
+      <c r="AF27" s="61"/>
+      <c r="AG27" s="61"/>
+      <c r="AH27" s="61"/>
+      <c r="AI27" s="61"/>
+      <c r="AJ27" s="61"/>
+      <c r="AK27" s="61"/>
       <c r="AL27" s="68"/>
     </row>
     <row r="28" spans="1:38" ht="15" customHeight="1">
-      <c r="A28" s="54" t="s">
+      <c r="A28" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="57"/>
+      <c r="B28" s="54"/>
       <c r="D28" s="22"/>
       <c r="E28" s="22"/>
       <c r="F28" s="22"/>
@@ -3736,12 +3736,12 @@
       <c r="AC28" s="17"/>
       <c r="AD28" s="6"/>
       <c r="AE28" s="67"/>
-      <c r="AF28" s="63"/>
-      <c r="AG28" s="63"/>
-      <c r="AH28" s="63"/>
-      <c r="AI28" s="63"/>
-      <c r="AJ28" s="63"/>
-      <c r="AK28" s="63"/>
+      <c r="AF28" s="61"/>
+      <c r="AG28" s="61"/>
+      <c r="AH28" s="61"/>
+      <c r="AI28" s="61"/>
+      <c r="AJ28" s="61"/>
+      <c r="AK28" s="61"/>
       <c r="AL28" s="68"/>
     </row>
     <row r="29" spans="1:38" ht="15" customHeight="1">
@@ -3775,19 +3775,19 @@
       <c r="AC29" s="17"/>
       <c r="AD29" s="6"/>
       <c r="AE29" s="67"/>
-      <c r="AF29" s="63"/>
-      <c r="AG29" s="63"/>
-      <c r="AH29" s="63"/>
-      <c r="AI29" s="63"/>
-      <c r="AJ29" s="63"/>
-      <c r="AK29" s="63"/>
+      <c r="AF29" s="61"/>
+      <c r="AG29" s="61"/>
+      <c r="AH29" s="61"/>
+      <c r="AI29" s="61"/>
+      <c r="AJ29" s="61"/>
+      <c r="AK29" s="61"/>
       <c r="AL29" s="68"/>
     </row>
     <row r="30" spans="1:38" ht="15" customHeight="1">
-      <c r="A30" s="54" t="s">
+      <c r="A30" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="57"/>
+      <c r="B30" s="54"/>
       <c r="D30" s="22"/>
       <c r="E30" s="22"/>
       <c r="F30" s="22"/>
@@ -3816,12 +3816,12 @@
       <c r="AC30" s="17"/>
       <c r="AD30" s="6"/>
       <c r="AE30" s="67"/>
-      <c r="AF30" s="63"/>
-      <c r="AG30" s="63"/>
-      <c r="AH30" s="63"/>
-      <c r="AI30" s="63"/>
-      <c r="AJ30" s="63"/>
-      <c r="AK30" s="63"/>
+      <c r="AF30" s="61"/>
+      <c r="AG30" s="61"/>
+      <c r="AH30" s="61"/>
+      <c r="AI30" s="61"/>
+      <c r="AJ30" s="61"/>
+      <c r="AK30" s="61"/>
       <c r="AL30" s="68"/>
     </row>
     <row r="31" spans="1:38" ht="15" customHeight="1">
@@ -3855,19 +3855,19 @@
       <c r="AC31" s="17"/>
       <c r="AD31" s="6"/>
       <c r="AE31" s="67"/>
-      <c r="AF31" s="63"/>
-      <c r="AG31" s="63"/>
-      <c r="AH31" s="63"/>
-      <c r="AI31" s="63"/>
-      <c r="AJ31" s="63"/>
-      <c r="AK31" s="63"/>
+      <c r="AF31" s="61"/>
+      <c r="AG31" s="61"/>
+      <c r="AH31" s="61"/>
+      <c r="AI31" s="61"/>
+      <c r="AJ31" s="61"/>
+      <c r="AK31" s="61"/>
       <c r="AL31" s="68"/>
     </row>
     <row r="32" spans="1:38" ht="15" customHeight="1">
-      <c r="A32" s="54" t="s">
+      <c r="A32" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="82"/>
+      <c r="B32" s="81"/>
       <c r="D32" s="22"/>
       <c r="E32" s="22"/>
       <c r="F32" s="22"/>
@@ -3896,12 +3896,12 @@
       <c r="AC32" s="17"/>
       <c r="AD32" s="6"/>
       <c r="AE32" s="67"/>
-      <c r="AF32" s="63"/>
-      <c r="AG32" s="63"/>
-      <c r="AH32" s="63"/>
-      <c r="AI32" s="63"/>
-      <c r="AJ32" s="63"/>
-      <c r="AK32" s="63"/>
+      <c r="AF32" s="61"/>
+      <c r="AG32" s="61"/>
+      <c r="AH32" s="61"/>
+      <c r="AI32" s="61"/>
+      <c r="AJ32" s="61"/>
+      <c r="AK32" s="61"/>
       <c r="AL32" s="68"/>
     </row>
     <row r="33" spans="1:38" ht="15" customHeight="1">
@@ -3935,19 +3935,19 @@
       <c r="AC33" s="17"/>
       <c r="AD33" s="6"/>
       <c r="AE33" s="67"/>
-      <c r="AF33" s="63"/>
-      <c r="AG33" s="63"/>
-      <c r="AH33" s="63"/>
-      <c r="AI33" s="63"/>
-      <c r="AJ33" s="63"/>
-      <c r="AK33" s="63"/>
+      <c r="AF33" s="61"/>
+      <c r="AG33" s="61"/>
+      <c r="AH33" s="61"/>
+      <c r="AI33" s="61"/>
+      <c r="AJ33" s="61"/>
+      <c r="AK33" s="61"/>
       <c r="AL33" s="68"/>
     </row>
     <row r="34" spans="1:38" ht="15" customHeight="1">
-      <c r="A34" s="54" t="s">
+      <c r="A34" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="83"/>
+      <c r="B34" s="82"/>
       <c r="D34" s="22"/>
       <c r="E34" s="22"/>
       <c r="F34" s="22"/>
@@ -3976,12 +3976,12 @@
       <c r="AC34" s="17"/>
       <c r="AD34" s="6"/>
       <c r="AE34" s="67"/>
-      <c r="AF34" s="63"/>
-      <c r="AG34" s="63"/>
-      <c r="AH34" s="63"/>
-      <c r="AI34" s="63"/>
-      <c r="AJ34" s="63"/>
-      <c r="AK34" s="63"/>
+      <c r="AF34" s="61"/>
+      <c r="AG34" s="61"/>
+      <c r="AH34" s="61"/>
+      <c r="AI34" s="61"/>
+      <c r="AJ34" s="61"/>
+      <c r="AK34" s="61"/>
       <c r="AL34" s="68"/>
     </row>
     <row r="35" spans="1:38" ht="15" customHeight="1">
@@ -4024,10 +4024,10 @@
       <c r="AL35" s="71"/>
     </row>
     <row r="36" spans="1:38" ht="15" customHeight="1">
-      <c r="A36" s="54" t="s">
+      <c r="A36" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="57"/>
+      <c r="B36" s="54"/>
       <c r="D36" s="22"/>
       <c r="E36" s="22"/>
       <c r="F36" s="22"/>
@@ -4104,10 +4104,10 @@
       <c r="AL37" s="6"/>
     </row>
     <row r="38" spans="1:38" ht="15" customHeight="1">
-      <c r="A38" s="54" t="s">
+      <c r="A38" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="57"/>
+      <c r="B38" s="54"/>
       <c r="D38" s="22"/>
       <c r="E38" s="22"/>
       <c r="F38" s="22"/>
@@ -4186,10 +4186,10 @@
       <c r="AL39" s="75"/>
     </row>
     <row r="40" spans="1:38" ht="15" customHeight="1">
-      <c r="A40" s="54" t="s">
+      <c r="A40" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="57"/>
+      <c r="B40" s="54"/>
       <c r="D40" s="22"/>
       <c r="E40" s="22"/>
       <c r="F40" s="22"/>
@@ -4218,12 +4218,12 @@
       <c r="AC40" s="17"/>
       <c r="AD40" s="6"/>
       <c r="AE40" s="76"/>
-      <c r="AF40" s="63"/>
-      <c r="AG40" s="63"/>
-      <c r="AH40" s="63"/>
-      <c r="AI40" s="63"/>
-      <c r="AJ40" s="63"/>
-      <c r="AK40" s="63"/>
+      <c r="AF40" s="61"/>
+      <c r="AG40" s="61"/>
+      <c r="AH40" s="61"/>
+      <c r="AI40" s="61"/>
+      <c r="AJ40" s="61"/>
+      <c r="AK40" s="61"/>
       <c r="AL40" s="77"/>
     </row>
     <row r="41" spans="1:38" ht="15" customHeight="1">
@@ -4257,19 +4257,19 @@
       <c r="AC41" s="17"/>
       <c r="AD41" s="6"/>
       <c r="AE41" s="76"/>
-      <c r="AF41" s="63"/>
-      <c r="AG41" s="63"/>
-      <c r="AH41" s="63"/>
-      <c r="AI41" s="63"/>
-      <c r="AJ41" s="63"/>
-      <c r="AK41" s="63"/>
+      <c r="AF41" s="61"/>
+      <c r="AG41" s="61"/>
+      <c r="AH41" s="61"/>
+      <c r="AI41" s="61"/>
+      <c r="AJ41" s="61"/>
+      <c r="AK41" s="61"/>
       <c r="AL41" s="77"/>
     </row>
     <row r="42" spans="1:38" ht="15" customHeight="1">
-      <c r="A42" s="54" t="s">
+      <c r="A42" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="B42" s="57"/>
+      <c r="B42" s="54"/>
       <c r="D42" s="22"/>
       <c r="E42" s="22"/>
       <c r="F42" s="22"/>
@@ -4298,12 +4298,12 @@
       <c r="AC42" s="17"/>
       <c r="AD42" s="6"/>
       <c r="AE42" s="76"/>
-      <c r="AF42" s="63"/>
-      <c r="AG42" s="63"/>
-      <c r="AH42" s="63"/>
-      <c r="AI42" s="63"/>
-      <c r="AJ42" s="63"/>
-      <c r="AK42" s="63"/>
+      <c r="AF42" s="61"/>
+      <c r="AG42" s="61"/>
+      <c r="AH42" s="61"/>
+      <c r="AI42" s="61"/>
+      <c r="AJ42" s="61"/>
+      <c r="AK42" s="61"/>
       <c r="AL42" s="77"/>
     </row>
     <row r="43" spans="1:38" ht="15" customHeight="1">
@@ -4337,19 +4337,19 @@
       <c r="AC43" s="17"/>
       <c r="AD43" s="6"/>
       <c r="AE43" s="76"/>
-      <c r="AF43" s="63"/>
-      <c r="AG43" s="63"/>
-      <c r="AH43" s="63"/>
-      <c r="AI43" s="63"/>
-      <c r="AJ43" s="63"/>
-      <c r="AK43" s="63"/>
+      <c r="AF43" s="61"/>
+      <c r="AG43" s="61"/>
+      <c r="AH43" s="61"/>
+      <c r="AI43" s="61"/>
+      <c r="AJ43" s="61"/>
+      <c r="AK43" s="61"/>
       <c r="AL43" s="77"/>
     </row>
     <row r="44" spans="1:38" ht="15" customHeight="1">
-      <c r="A44" s="54" t="s">
+      <c r="A44" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="B44" s="58"/>
+      <c r="B44" s="62"/>
       <c r="D44" s="22"/>
       <c r="E44" s="22"/>
       <c r="F44" s="22"/>
@@ -4378,12 +4378,12 @@
       <c r="AC44" s="17"/>
       <c r="AD44" s="6"/>
       <c r="AE44" s="76"/>
-      <c r="AF44" s="63"/>
-      <c r="AG44" s="63"/>
-      <c r="AH44" s="63"/>
-      <c r="AI44" s="63"/>
-      <c r="AJ44" s="63"/>
-      <c r="AK44" s="63"/>
+      <c r="AF44" s="61"/>
+      <c r="AG44" s="61"/>
+      <c r="AH44" s="61"/>
+      <c r="AI44" s="61"/>
+      <c r="AJ44" s="61"/>
+      <c r="AK44" s="61"/>
       <c r="AL44" s="77"/>
     </row>
     <row r="45" spans="1:38" ht="15" customHeight="1">
@@ -4417,19 +4417,19 @@
       <c r="AC45" s="17"/>
       <c r="AD45" s="6"/>
       <c r="AE45" s="76"/>
-      <c r="AF45" s="63"/>
-      <c r="AG45" s="63"/>
-      <c r="AH45" s="63"/>
-      <c r="AI45" s="63"/>
-      <c r="AJ45" s="63"/>
-      <c r="AK45" s="63"/>
+      <c r="AF45" s="61"/>
+      <c r="AG45" s="61"/>
+      <c r="AH45" s="61"/>
+      <c r="AI45" s="61"/>
+      <c r="AJ45" s="61"/>
+      <c r="AK45" s="61"/>
       <c r="AL45" s="77"/>
     </row>
     <row r="46" spans="1:38" ht="15" customHeight="1">
-      <c r="A46" s="54" t="s">
+      <c r="A46" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="57"/>
+      <c r="B46" s="54"/>
       <c r="D46" s="22"/>
       <c r="E46" s="22"/>
       <c r="F46" s="22"/>
@@ -4458,12 +4458,12 @@
       <c r="AC46" s="17"/>
       <c r="AD46" s="6"/>
       <c r="AE46" s="76"/>
-      <c r="AF46" s="63"/>
-      <c r="AG46" s="63"/>
-      <c r="AH46" s="63"/>
-      <c r="AI46" s="63"/>
-      <c r="AJ46" s="63"/>
-      <c r="AK46" s="63"/>
+      <c r="AF46" s="61"/>
+      <c r="AG46" s="61"/>
+      <c r="AH46" s="61"/>
+      <c r="AI46" s="61"/>
+      <c r="AJ46" s="61"/>
+      <c r="AK46" s="61"/>
       <c r="AL46" s="77"/>
     </row>
     <row r="47" spans="1:38" ht="15" customHeight="1">
@@ -4497,19 +4497,19 @@
       <c r="AC47" s="17"/>
       <c r="AD47" s="6"/>
       <c r="AE47" s="76"/>
-      <c r="AF47" s="63"/>
-      <c r="AG47" s="63"/>
-      <c r="AH47" s="63"/>
-      <c r="AI47" s="63"/>
-      <c r="AJ47" s="63"/>
-      <c r="AK47" s="63"/>
+      <c r="AF47" s="61"/>
+      <c r="AG47" s="61"/>
+      <c r="AH47" s="61"/>
+      <c r="AI47" s="61"/>
+      <c r="AJ47" s="61"/>
+      <c r="AK47" s="61"/>
       <c r="AL47" s="77"/>
     </row>
     <row r="48" spans="1:38" ht="15" customHeight="1">
-      <c r="A48" s="54" t="s">
+      <c r="A48" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="B48" s="57"/>
+      <c r="B48" s="54"/>
       <c r="D48" s="22"/>
       <c r="E48" s="22"/>
       <c r="F48" s="22"/>
@@ -4538,12 +4538,12 @@
       <c r="AC48" s="17"/>
       <c r="AD48" s="6"/>
       <c r="AE48" s="76"/>
-      <c r="AF48" s="63"/>
-      <c r="AG48" s="63"/>
-      <c r="AH48" s="63"/>
-      <c r="AI48" s="63"/>
-      <c r="AJ48" s="63"/>
-      <c r="AK48" s="63"/>
+      <c r="AF48" s="61"/>
+      <c r="AG48" s="61"/>
+      <c r="AH48" s="61"/>
+      <c r="AI48" s="61"/>
+      <c r="AJ48" s="61"/>
+      <c r="AK48" s="61"/>
       <c r="AL48" s="77"/>
     </row>
     <row r="49" spans="1:38" ht="15" customHeight="1">
@@ -4577,19 +4577,19 @@
       <c r="AC49" s="17"/>
       <c r="AD49" s="6"/>
       <c r="AE49" s="76"/>
-      <c r="AF49" s="63"/>
-      <c r="AG49" s="63"/>
-      <c r="AH49" s="63"/>
-      <c r="AI49" s="63"/>
-      <c r="AJ49" s="63"/>
-      <c r="AK49" s="63"/>
+      <c r="AF49" s="61"/>
+      <c r="AG49" s="61"/>
+      <c r="AH49" s="61"/>
+      <c r="AI49" s="61"/>
+      <c r="AJ49" s="61"/>
+      <c r="AK49" s="61"/>
       <c r="AL49" s="77"/>
     </row>
     <row r="50" spans="1:38" ht="15" customHeight="1">
-      <c r="A50" s="54" t="s">
+      <c r="A50" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="B50" s="57"/>
+      <c r="B50" s="54"/>
       <c r="D50" s="22"/>
       <c r="E50" s="22"/>
       <c r="F50" s="22"/>
@@ -4618,12 +4618,12 @@
       <c r="AC50" s="17"/>
       <c r="AD50" s="6"/>
       <c r="AE50" s="76"/>
-      <c r="AF50" s="63"/>
-      <c r="AG50" s="63"/>
-      <c r="AH50" s="63"/>
-      <c r="AI50" s="63"/>
-      <c r="AJ50" s="63"/>
-      <c r="AK50" s="63"/>
+      <c r="AF50" s="61"/>
+      <c r="AG50" s="61"/>
+      <c r="AH50" s="61"/>
+      <c r="AI50" s="61"/>
+      <c r="AJ50" s="61"/>
+      <c r="AK50" s="61"/>
       <c r="AL50" s="77"/>
     </row>
     <row r="51" spans="1:38" ht="15" customHeight="1">
@@ -4657,19 +4657,19 @@
       <c r="AC51" s="17"/>
       <c r="AD51" s="6"/>
       <c r="AE51" s="76"/>
-      <c r="AF51" s="63"/>
-      <c r="AG51" s="63"/>
-      <c r="AH51" s="63"/>
-      <c r="AI51" s="63"/>
-      <c r="AJ51" s="63"/>
-      <c r="AK51" s="63"/>
+      <c r="AF51" s="61"/>
+      <c r="AG51" s="61"/>
+      <c r="AH51" s="61"/>
+      <c r="AI51" s="61"/>
+      <c r="AJ51" s="61"/>
+      <c r="AK51" s="61"/>
       <c r="AL51" s="77"/>
     </row>
     <row r="52" spans="1:38" ht="15" customHeight="1">
-      <c r="A52" s="54" t="s">
+      <c r="A52" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="B52" s="57"/>
+      <c r="B52" s="54"/>
       <c r="D52" s="22"/>
       <c r="E52" s="22"/>
       <c r="F52" s="22"/>
@@ -4698,12 +4698,12 @@
       <c r="AC52" s="17"/>
       <c r="AD52" s="6"/>
       <c r="AE52" s="76"/>
-      <c r="AF52" s="63"/>
-      <c r="AG52" s="63"/>
-      <c r="AH52" s="63"/>
-      <c r="AI52" s="63"/>
-      <c r="AJ52" s="63"/>
-      <c r="AK52" s="63"/>
+      <c r="AF52" s="61"/>
+      <c r="AG52" s="61"/>
+      <c r="AH52" s="61"/>
+      <c r="AI52" s="61"/>
+      <c r="AJ52" s="61"/>
+      <c r="AK52" s="61"/>
       <c r="AL52" s="77"/>
     </row>
     <row r="53" spans="1:38" ht="15" customHeight="1">
@@ -4737,19 +4737,19 @@
       <c r="AC53" s="17"/>
       <c r="AD53" s="6"/>
       <c r="AE53" s="76"/>
-      <c r="AF53" s="63"/>
-      <c r="AG53" s="63"/>
-      <c r="AH53" s="63"/>
-      <c r="AI53" s="63"/>
-      <c r="AJ53" s="63"/>
-      <c r="AK53" s="63"/>
+      <c r="AF53" s="61"/>
+      <c r="AG53" s="61"/>
+      <c r="AH53" s="61"/>
+      <c r="AI53" s="61"/>
+      <c r="AJ53" s="61"/>
+      <c r="AK53" s="61"/>
       <c r="AL53" s="77"/>
     </row>
     <row r="54" spans="1:38" ht="15" customHeight="1">
-      <c r="A54" s="54" t="s">
+      <c r="A54" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="B54" s="57"/>
+      <c r="B54" s="54"/>
       <c r="D54" s="22"/>
       <c r="E54" s="22"/>
       <c r="F54" s="22"/>
@@ -4778,12 +4778,12 @@
       <c r="AC54" s="17"/>
       <c r="AD54" s="6"/>
       <c r="AE54" s="76"/>
-      <c r="AF54" s="63"/>
-      <c r="AG54" s="63"/>
-      <c r="AH54" s="63"/>
-      <c r="AI54" s="63"/>
-      <c r="AJ54" s="63"/>
-      <c r="AK54" s="63"/>
+      <c r="AF54" s="61"/>
+      <c r="AG54" s="61"/>
+      <c r="AH54" s="61"/>
+      <c r="AI54" s="61"/>
+      <c r="AJ54" s="61"/>
+      <c r="AK54" s="61"/>
       <c r="AL54" s="77"/>
     </row>
     <row r="55" spans="1:38" ht="15" customHeight="1">
@@ -4817,19 +4817,19 @@
       <c r="AC55" s="17"/>
       <c r="AD55" s="6"/>
       <c r="AE55" s="76"/>
-      <c r="AF55" s="63"/>
-      <c r="AG55" s="63"/>
-      <c r="AH55" s="63"/>
-      <c r="AI55" s="63"/>
-      <c r="AJ55" s="63"/>
-      <c r="AK55" s="63"/>
+      <c r="AF55" s="61"/>
+      <c r="AG55" s="61"/>
+      <c r="AH55" s="61"/>
+      <c r="AI55" s="61"/>
+      <c r="AJ55" s="61"/>
+      <c r="AK55" s="61"/>
       <c r="AL55" s="77"/>
     </row>
     <row r="56" spans="1:38" ht="15" customHeight="1">
-      <c r="A56" s="54" t="s">
+      <c r="A56" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="B56" s="57"/>
+      <c r="B56" s="54"/>
       <c r="D56" s="22"/>
       <c r="E56" s="22"/>
       <c r="F56" s="22"/>
@@ -4908,10 +4908,10 @@
       <c r="AL57" s="38"/>
     </row>
     <row r="58" spans="1:38" ht="15" customHeight="1">
-      <c r="A58" s="54" t="s">
+      <c r="A58" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="B58" s="57"/>
+      <c r="B58" s="54"/>
       <c r="D58" s="22"/>
       <c r="E58" s="22"/>
       <c r="F58" s="22"/>
@@ -4992,8 +4992,8 @@
       <c r="AL59" s="38"/>
     </row>
     <row r="60" spans="1:38" ht="15" customHeight="1">
-      <c r="A60" s="81"/>
-      <c r="B60" s="81"/>
+      <c r="A60" s="83"/>
+      <c r="B60" s="83"/>
       <c r="D60" s="22"/>
       <c r="E60" s="22"/>
       <c r="F60" s="22"/>
@@ -5074,8 +5074,8 @@
       <c r="AL61" s="38"/>
     </row>
     <row r="62" spans="1:38" ht="15" customHeight="1">
-      <c r="A62" s="81"/>
-      <c r="B62" s="81"/>
+      <c r="A62" s="83"/>
+      <c r="B62" s="83"/>
       <c r="D62" s="22"/>
       <c r="E62" s="22"/>
       <c r="F62" s="22"/>
@@ -5154,8 +5154,8 @@
       <c r="AL63" s="38"/>
     </row>
     <row r="64" spans="1:38" ht="15" customHeight="1">
-      <c r="A64" s="81"/>
-      <c r="B64" s="81"/>
+      <c r="A64" s="83"/>
+      <c r="B64" s="83"/>
       <c r="D64" s="22"/>
       <c r="E64" s="22"/>
       <c r="F64" s="22"/>
@@ -8074,13 +8074,20 @@
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="A48:A49"/>
     <mergeCell ref="A50:A51"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A40:A41"/>
     <mergeCell ref="A42:A43"/>
     <mergeCell ref="A44:A45"/>
     <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A52:A53"/>
     <mergeCell ref="A54:A55"/>
     <mergeCell ref="A56:A57"/>
@@ -8108,12 +8115,17 @@
     <mergeCell ref="B50:B51"/>
     <mergeCell ref="B52:B53"/>
     <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B46:B47"/>
     <mergeCell ref="Z1:AC1"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="B40:B41"/>
     <mergeCell ref="B42:B43"/>
     <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
     <mergeCell ref="B48:B49"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:B25"/>
@@ -8126,19 +8138,7 @@
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A48:A49"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="86" orientation="portrait"/>
@@ -8154,8 +8154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AK1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC5" sqref="AC5"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32:B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -8200,12 +8200,12 @@
       <c r="X1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="Y1" s="59">
+      <c r="Y1" s="57">
         <v>2026</v>
       </c>
-      <c r="Z1" s="60"/>
-      <c r="AA1" s="60"/>
-      <c r="AB1" s="61"/>
+      <c r="Z1" s="58"/>
+      <c r="AA1" s="58"/>
+      <c r="AB1" s="59"/>
       <c r="AC1" s="6"/>
       <c r="AD1" s="4" t="s">
         <v>2</v>
@@ -8360,12 +8360,12 @@
       <c r="AB4" s="12"/>
       <c r="AC4" s="6"/>
       <c r="AD4" s="67"/>
-      <c r="AE4" s="63"/>
-      <c r="AF4" s="63"/>
-      <c r="AG4" s="63"/>
-      <c r="AH4" s="63"/>
-      <c r="AI4" s="63"/>
-      <c r="AJ4" s="63"/>
+      <c r="AE4" s="61"/>
+      <c r="AF4" s="61"/>
+      <c r="AG4" s="61"/>
+      <c r="AH4" s="61"/>
+      <c r="AI4" s="61"/>
+      <c r="AJ4" s="61"/>
       <c r="AK4" s="68"/>
     </row>
     <row r="5" spans="1:37" ht="14.25" customHeight="1">
@@ -8413,16 +8413,16 @@
       <c r="AB5" s="16"/>
       <c r="AC5" s="6"/>
       <c r="AD5" s="67"/>
-      <c r="AE5" s="63"/>
-      <c r="AF5" s="63"/>
-      <c r="AG5" s="63"/>
-      <c r="AH5" s="63"/>
-      <c r="AI5" s="63"/>
-      <c r="AJ5" s="63"/>
+      <c r="AE5" s="61"/>
+      <c r="AF5" s="61"/>
+      <c r="AG5" s="61"/>
+      <c r="AH5" s="61"/>
+      <c r="AI5" s="61"/>
+      <c r="AJ5" s="61"/>
       <c r="AK5" s="68"/>
     </row>
     <row r="6" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="56" t="s">
         <v>63</v>
       </c>
       <c r="B6" s="86" t="s">
@@ -8458,12 +8458,12 @@
       <c r="AB6" s="17"/>
       <c r="AC6" s="6"/>
       <c r="AD6" s="67"/>
-      <c r="AE6" s="63"/>
-      <c r="AF6" s="63"/>
-      <c r="AG6" s="63"/>
-      <c r="AH6" s="63"/>
-      <c r="AI6" s="63"/>
-      <c r="AJ6" s="63"/>
+      <c r="AE6" s="61"/>
+      <c r="AF6" s="61"/>
+      <c r="AG6" s="61"/>
+      <c r="AH6" s="61"/>
+      <c r="AI6" s="61"/>
+      <c r="AJ6" s="61"/>
       <c r="AK6" s="68"/>
     </row>
     <row r="7" spans="1:37" ht="14.25" customHeight="1">
@@ -8505,16 +8505,16 @@
       <c r="AB7" s="17"/>
       <c r="AC7" s="6"/>
       <c r="AD7" s="67"/>
-      <c r="AE7" s="63"/>
-      <c r="AF7" s="63"/>
-      <c r="AG7" s="63"/>
-      <c r="AH7" s="63"/>
-      <c r="AI7" s="63"/>
-      <c r="AJ7" s="63"/>
+      <c r="AE7" s="61"/>
+      <c r="AF7" s="61"/>
+      <c r="AG7" s="61"/>
+      <c r="AH7" s="61"/>
+      <c r="AI7" s="61"/>
+      <c r="AJ7" s="61"/>
       <c r="AK7" s="68"/>
     </row>
     <row r="8" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="56" t="s">
         <v>52</v>
       </c>
       <c r="B8" s="84" t="s">
@@ -8550,12 +8550,12 @@
       <c r="AB8" s="17"/>
       <c r="AC8" s="6"/>
       <c r="AD8" s="67"/>
-      <c r="AE8" s="63"/>
-      <c r="AF8" s="63"/>
-      <c r="AG8" s="63"/>
-      <c r="AH8" s="63"/>
-      <c r="AI8" s="63"/>
-      <c r="AJ8" s="63"/>
+      <c r="AE8" s="61"/>
+      <c r="AF8" s="61"/>
+      <c r="AG8" s="61"/>
+      <c r="AH8" s="61"/>
+      <c r="AI8" s="61"/>
+      <c r="AJ8" s="61"/>
       <c r="AK8" s="68"/>
     </row>
     <row r="9" spans="1:37" ht="14.25" customHeight="1">
@@ -8572,7 +8572,7 @@
       </c>
       <c r="H9" s="40"/>
       <c r="I9" s="40"/>
-      <c r="J9" s="17"/>
+      <c r="J9" s="40"/>
       <c r="K9" s="17"/>
       <c r="L9" s="18"/>
       <c r="M9" s="18"/>
@@ -8593,16 +8593,16 @@
       <c r="AB9" s="17"/>
       <c r="AC9" s="6"/>
       <c r="AD9" s="67"/>
-      <c r="AE9" s="63"/>
-      <c r="AF9" s="63"/>
-      <c r="AG9" s="63"/>
-      <c r="AH9" s="63"/>
-      <c r="AI9" s="63"/>
-      <c r="AJ9" s="63"/>
+      <c r="AE9" s="61"/>
+      <c r="AF9" s="61"/>
+      <c r="AG9" s="61"/>
+      <c r="AH9" s="61"/>
+      <c r="AI9" s="61"/>
+      <c r="AJ9" s="61"/>
       <c r="AK9" s="68"/>
     </row>
     <row r="10" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="56" t="s">
         <v>53</v>
       </c>
       <c r="B10" s="84" t="s">
@@ -8638,12 +8638,12 @@
       <c r="AB10" s="17"/>
       <c r="AC10" s="6"/>
       <c r="AD10" s="67"/>
-      <c r="AE10" s="63"/>
-      <c r="AF10" s="63"/>
-      <c r="AG10" s="63"/>
-      <c r="AH10" s="63"/>
-      <c r="AI10" s="63"/>
-      <c r="AJ10" s="63"/>
+      <c r="AE10" s="61"/>
+      <c r="AF10" s="61"/>
+      <c r="AG10" s="61"/>
+      <c r="AH10" s="61"/>
+      <c r="AI10" s="61"/>
+      <c r="AJ10" s="61"/>
       <c r="AK10" s="68"/>
     </row>
     <row r="11" spans="1:37" ht="14.25" customHeight="1">
@@ -8660,7 +8660,7 @@
       </c>
       <c r="H11" s="17"/>
       <c r="I11" s="40"/>
-      <c r="J11" s="17"/>
+      <c r="J11" s="40"/>
       <c r="K11" s="17"/>
       <c r="L11" s="18"/>
       <c r="M11" s="18"/>
@@ -8681,16 +8681,16 @@
       <c r="AB11" s="17"/>
       <c r="AC11" s="6"/>
       <c r="AD11" s="67"/>
-      <c r="AE11" s="63"/>
-      <c r="AF11" s="63"/>
-      <c r="AG11" s="63"/>
-      <c r="AH11" s="63"/>
-      <c r="AI11" s="63"/>
-      <c r="AJ11" s="63"/>
+      <c r="AE11" s="61"/>
+      <c r="AF11" s="61"/>
+      <c r="AG11" s="61"/>
+      <c r="AH11" s="61"/>
+      <c r="AI11" s="61"/>
+      <c r="AJ11" s="61"/>
       <c r="AK11" s="68"/>
     </row>
     <row r="12" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="56" t="s">
         <v>54</v>
       </c>
       <c r="B12" s="84" t="s">
@@ -8726,12 +8726,12 @@
       <c r="AB12" s="17"/>
       <c r="AC12" s="6"/>
       <c r="AD12" s="67"/>
-      <c r="AE12" s="63"/>
-      <c r="AF12" s="63"/>
-      <c r="AG12" s="63"/>
-      <c r="AH12" s="63"/>
-      <c r="AI12" s="63"/>
-      <c r="AJ12" s="63"/>
+      <c r="AE12" s="61"/>
+      <c r="AF12" s="61"/>
+      <c r="AG12" s="61"/>
+      <c r="AH12" s="61"/>
+      <c r="AI12" s="61"/>
+      <c r="AJ12" s="61"/>
       <c r="AK12" s="68"/>
     </row>
     <row r="13" spans="1:37" ht="17.25" customHeight="1">
@@ -8748,7 +8748,7 @@
       </c>
       <c r="H13" s="17"/>
       <c r="I13" s="40"/>
-      <c r="J13" s="17"/>
+      <c r="J13" s="40"/>
       <c r="K13" s="17"/>
       <c r="L13" s="18"/>
       <c r="M13" s="18"/>
@@ -8769,16 +8769,16 @@
       <c r="AB13" s="17"/>
       <c r="AC13" s="6"/>
       <c r="AD13" s="67"/>
-      <c r="AE13" s="63"/>
-      <c r="AF13" s="63"/>
-      <c r="AG13" s="63"/>
-      <c r="AH13" s="63"/>
-      <c r="AI13" s="63"/>
-      <c r="AJ13" s="63"/>
+      <c r="AE13" s="61"/>
+      <c r="AF13" s="61"/>
+      <c r="AG13" s="61"/>
+      <c r="AH13" s="61"/>
+      <c r="AI13" s="61"/>
+      <c r="AJ13" s="61"/>
       <c r="AK13" s="68"/>
     </row>
     <row r="14" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A14" s="54" t="s">
+      <c r="A14" s="56" t="s">
         <v>55</v>
       </c>
       <c r="B14" s="84" t="s">
@@ -8814,12 +8814,12 @@
       <c r="AB14" s="17"/>
       <c r="AC14" s="6"/>
       <c r="AD14" s="67"/>
-      <c r="AE14" s="63"/>
-      <c r="AF14" s="63"/>
-      <c r="AG14" s="63"/>
-      <c r="AH14" s="63"/>
-      <c r="AI14" s="63"/>
-      <c r="AJ14" s="63"/>
+      <c r="AE14" s="61"/>
+      <c r="AF14" s="61"/>
+      <c r="AG14" s="61"/>
+      <c r="AH14" s="61"/>
+      <c r="AI14" s="61"/>
+      <c r="AJ14" s="61"/>
       <c r="AK14" s="68"/>
     </row>
     <row r="15" spans="1:37" ht="17.25" customHeight="1">
@@ -8836,7 +8836,7 @@
       </c>
       <c r="H15" s="17"/>
       <c r="I15" s="40"/>
-      <c r="J15" s="17"/>
+      <c r="J15" s="40"/>
       <c r="K15" s="17"/>
       <c r="L15" s="18"/>
       <c r="M15" s="18"/>
@@ -8857,16 +8857,16 @@
       <c r="AB15" s="17"/>
       <c r="AC15" s="6"/>
       <c r="AD15" s="67"/>
-      <c r="AE15" s="63"/>
-      <c r="AF15" s="63"/>
-      <c r="AG15" s="63"/>
-      <c r="AH15" s="63"/>
-      <c r="AI15" s="63"/>
-      <c r="AJ15" s="63"/>
+      <c r="AE15" s="61"/>
+      <c r="AF15" s="61"/>
+      <c r="AG15" s="61"/>
+      <c r="AH15" s="61"/>
+      <c r="AI15" s="61"/>
+      <c r="AJ15" s="61"/>
       <c r="AK15" s="68"/>
     </row>
     <row r="16" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A16" s="54" t="s">
+      <c r="A16" s="56" t="s">
         <v>56</v>
       </c>
       <c r="B16" s="84" t="s">
@@ -8902,12 +8902,12 @@
       <c r="AB16" s="17"/>
       <c r="AC16" s="6"/>
       <c r="AD16" s="67"/>
-      <c r="AE16" s="63"/>
-      <c r="AF16" s="63"/>
-      <c r="AG16" s="63"/>
-      <c r="AH16" s="63"/>
-      <c r="AI16" s="63"/>
-      <c r="AJ16" s="63"/>
+      <c r="AE16" s="61"/>
+      <c r="AF16" s="61"/>
+      <c r="AG16" s="61"/>
+      <c r="AH16" s="61"/>
+      <c r="AI16" s="61"/>
+      <c r="AJ16" s="61"/>
       <c r="AK16" s="68"/>
     </row>
     <row r="17" spans="1:37" ht="17.25" customHeight="1">
@@ -8945,16 +8945,16 @@
       <c r="AB17" s="17"/>
       <c r="AC17" s="6"/>
       <c r="AD17" s="67"/>
-      <c r="AE17" s="63"/>
-      <c r="AF17" s="63"/>
-      <c r="AG17" s="63"/>
-      <c r="AH17" s="63"/>
-      <c r="AI17" s="63"/>
-      <c r="AJ17" s="63"/>
+      <c r="AE17" s="61"/>
+      <c r="AF17" s="61"/>
+      <c r="AG17" s="61"/>
+      <c r="AH17" s="61"/>
+      <c r="AI17" s="61"/>
+      <c r="AJ17" s="61"/>
       <c r="AK17" s="68"/>
     </row>
     <row r="18" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A18" s="54" t="s">
+      <c r="A18" s="56" t="s">
         <v>58</v>
       </c>
       <c r="B18" s="85" t="s">
@@ -8990,12 +8990,12 @@
       <c r="AB18" s="17"/>
       <c r="AC18" s="6"/>
       <c r="AD18" s="67"/>
-      <c r="AE18" s="63"/>
-      <c r="AF18" s="63"/>
-      <c r="AG18" s="63"/>
-      <c r="AH18" s="63"/>
-      <c r="AI18" s="63"/>
-      <c r="AJ18" s="63"/>
+      <c r="AE18" s="61"/>
+      <c r="AF18" s="61"/>
+      <c r="AG18" s="61"/>
+      <c r="AH18" s="61"/>
+      <c r="AI18" s="61"/>
+      <c r="AJ18" s="61"/>
       <c r="AK18" s="68"/>
     </row>
     <row r="19" spans="1:37" ht="14.25" customHeight="1">
@@ -9033,16 +9033,16 @@
       <c r="AB19" s="17"/>
       <c r="AC19" s="6"/>
       <c r="AD19" s="67"/>
-      <c r="AE19" s="63"/>
-      <c r="AF19" s="63"/>
-      <c r="AG19" s="63"/>
-      <c r="AH19" s="63"/>
-      <c r="AI19" s="63"/>
-      <c r="AJ19" s="63"/>
+      <c r="AE19" s="61"/>
+      <c r="AF19" s="61"/>
+      <c r="AG19" s="61"/>
+      <c r="AH19" s="61"/>
+      <c r="AI19" s="61"/>
+      <c r="AJ19" s="61"/>
       <c r="AK19" s="68"/>
     </row>
     <row r="20" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A20" s="54" t="s">
+      <c r="A20" s="56" t="s">
         <v>72</v>
       </c>
       <c r="B20" s="85" t="s">
@@ -9078,12 +9078,12 @@
       <c r="AB20" s="17"/>
       <c r="AC20" s="6"/>
       <c r="AD20" s="67"/>
-      <c r="AE20" s="63"/>
-      <c r="AF20" s="63"/>
-      <c r="AG20" s="63"/>
-      <c r="AH20" s="63"/>
-      <c r="AI20" s="63"/>
-      <c r="AJ20" s="63"/>
+      <c r="AE20" s="61"/>
+      <c r="AF20" s="61"/>
+      <c r="AG20" s="61"/>
+      <c r="AH20" s="61"/>
+      <c r="AI20" s="61"/>
+      <c r="AJ20" s="61"/>
       <c r="AK20" s="68"/>
     </row>
     <row r="21" spans="1:37" ht="14.25" customHeight="1">
@@ -9100,7 +9100,7 @@
       </c>
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
+      <c r="J21" s="40"/>
       <c r="K21" s="17"/>
       <c r="L21" s="28"/>
       <c r="M21" s="28"/>
@@ -9121,16 +9121,16 @@
       <c r="AB21" s="17"/>
       <c r="AC21" s="6"/>
       <c r="AD21" s="67"/>
-      <c r="AE21" s="63"/>
-      <c r="AF21" s="63"/>
-      <c r="AG21" s="63"/>
-      <c r="AH21" s="63"/>
-      <c r="AI21" s="63"/>
-      <c r="AJ21" s="63"/>
+      <c r="AE21" s="61"/>
+      <c r="AF21" s="61"/>
+      <c r="AG21" s="61"/>
+      <c r="AH21" s="61"/>
+      <c r="AI21" s="61"/>
+      <c r="AJ21" s="61"/>
       <c r="AK21" s="68"/>
     </row>
     <row r="22" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A22" s="54" t="s">
+      <c r="A22" s="56" t="s">
         <v>74</v>
       </c>
       <c r="B22" s="84" t="s">
@@ -9166,12 +9166,12 @@
       <c r="AB22" s="17"/>
       <c r="AC22" s="6"/>
       <c r="AD22" s="67"/>
-      <c r="AE22" s="63"/>
-      <c r="AF22" s="63"/>
-      <c r="AG22" s="63"/>
-      <c r="AH22" s="63"/>
-      <c r="AI22" s="63"/>
-      <c r="AJ22" s="63"/>
+      <c r="AE22" s="61"/>
+      <c r="AF22" s="61"/>
+      <c r="AG22" s="61"/>
+      <c r="AH22" s="61"/>
+      <c r="AI22" s="61"/>
+      <c r="AJ22" s="61"/>
       <c r="AK22" s="68"/>
     </row>
     <row r="23" spans="1:37" ht="14.25" customHeight="1">
@@ -9188,7 +9188,7 @@
       </c>
       <c r="H23" s="17"/>
       <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
+      <c r="J23" s="40"/>
       <c r="K23" s="17"/>
       <c r="L23" s="31"/>
       <c r="M23" s="31"/>
@@ -9209,16 +9209,16 @@
       <c r="AB23" s="17"/>
       <c r="AC23" s="6"/>
       <c r="AD23" s="67"/>
-      <c r="AE23" s="63"/>
-      <c r="AF23" s="63"/>
-      <c r="AG23" s="63"/>
-      <c r="AH23" s="63"/>
-      <c r="AI23" s="63"/>
-      <c r="AJ23" s="63"/>
+      <c r="AE23" s="61"/>
+      <c r="AF23" s="61"/>
+      <c r="AG23" s="61"/>
+      <c r="AH23" s="61"/>
+      <c r="AI23" s="61"/>
+      <c r="AJ23" s="61"/>
       <c r="AK23" s="68"/>
     </row>
     <row r="24" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A24" s="54" t="s">
+      <c r="A24" s="56" t="s">
         <v>76</v>
       </c>
       <c r="B24" s="85" t="s">
@@ -9254,12 +9254,12 @@
       <c r="AB24" s="17"/>
       <c r="AC24" s="6"/>
       <c r="AD24" s="67"/>
-      <c r="AE24" s="63"/>
-      <c r="AF24" s="63"/>
-      <c r="AG24" s="63"/>
-      <c r="AH24" s="63"/>
-      <c r="AI24" s="63"/>
-      <c r="AJ24" s="63"/>
+      <c r="AE24" s="61"/>
+      <c r="AF24" s="61"/>
+      <c r="AG24" s="61"/>
+      <c r="AH24" s="61"/>
+      <c r="AI24" s="61"/>
+      <c r="AJ24" s="61"/>
       <c r="AK24" s="68"/>
     </row>
     <row r="25" spans="1:37" ht="14.25" customHeight="1">
@@ -9297,16 +9297,16 @@
       <c r="AB25" s="17"/>
       <c r="AC25" s="6"/>
       <c r="AD25" s="67"/>
-      <c r="AE25" s="63"/>
-      <c r="AF25" s="63"/>
-      <c r="AG25" s="63"/>
-      <c r="AH25" s="63"/>
-      <c r="AI25" s="63"/>
-      <c r="AJ25" s="63"/>
+      <c r="AE25" s="61"/>
+      <c r="AF25" s="61"/>
+      <c r="AG25" s="61"/>
+      <c r="AH25" s="61"/>
+      <c r="AI25" s="61"/>
+      <c r="AJ25" s="61"/>
       <c r="AK25" s="68"/>
     </row>
     <row r="26" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A26" s="54" t="s">
+      <c r="A26" s="56" t="s">
         <v>78</v>
       </c>
       <c r="B26" s="84" t="s">
@@ -9342,12 +9342,12 @@
       <c r="AB26" s="17"/>
       <c r="AC26" s="6"/>
       <c r="AD26" s="67"/>
-      <c r="AE26" s="63"/>
-      <c r="AF26" s="63"/>
-      <c r="AG26" s="63"/>
-      <c r="AH26" s="63"/>
-      <c r="AI26" s="63"/>
-      <c r="AJ26" s="63"/>
+      <c r="AE26" s="61"/>
+      <c r="AF26" s="61"/>
+      <c r="AG26" s="61"/>
+      <c r="AH26" s="61"/>
+      <c r="AI26" s="61"/>
+      <c r="AJ26" s="61"/>
       <c r="AK26" s="68"/>
     </row>
     <row r="27" spans="1:37" ht="17.25" customHeight="1">
@@ -9385,16 +9385,16 @@
       <c r="AB27" s="17"/>
       <c r="AC27" s="6"/>
       <c r="AD27" s="67"/>
-      <c r="AE27" s="63"/>
-      <c r="AF27" s="63"/>
-      <c r="AG27" s="63"/>
-      <c r="AH27" s="63"/>
-      <c r="AI27" s="63"/>
-      <c r="AJ27" s="63"/>
+      <c r="AE27" s="61"/>
+      <c r="AF27" s="61"/>
+      <c r="AG27" s="61"/>
+      <c r="AH27" s="61"/>
+      <c r="AI27" s="61"/>
+      <c r="AJ27" s="61"/>
       <c r="AK27" s="68"/>
     </row>
     <row r="28" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A28" s="54" t="s">
+      <c r="A28" s="56" t="s">
         <v>79</v>
       </c>
       <c r="B28" s="85" t="s">
@@ -9430,12 +9430,12 @@
       <c r="AB28" s="17"/>
       <c r="AC28" s="6"/>
       <c r="AD28" s="67"/>
-      <c r="AE28" s="63"/>
-      <c r="AF28" s="63"/>
-      <c r="AG28" s="63"/>
-      <c r="AH28" s="63"/>
-      <c r="AI28" s="63"/>
-      <c r="AJ28" s="63"/>
+      <c r="AE28" s="61"/>
+      <c r="AF28" s="61"/>
+      <c r="AG28" s="61"/>
+      <c r="AH28" s="61"/>
+      <c r="AI28" s="61"/>
+      <c r="AJ28" s="61"/>
       <c r="AK28" s="68"/>
     </row>
     <row r="29" spans="1:37" ht="14.25" customHeight="1">
@@ -9473,16 +9473,16 @@
       <c r="AB29" s="17"/>
       <c r="AC29" s="6"/>
       <c r="AD29" s="67"/>
-      <c r="AE29" s="63"/>
-      <c r="AF29" s="63"/>
-      <c r="AG29" s="63"/>
-      <c r="AH29" s="63"/>
-      <c r="AI29" s="63"/>
-      <c r="AJ29" s="63"/>
+      <c r="AE29" s="61"/>
+      <c r="AF29" s="61"/>
+      <c r="AG29" s="61"/>
+      <c r="AH29" s="61"/>
+      <c r="AI29" s="61"/>
+      <c r="AJ29" s="61"/>
       <c r="AK29" s="68"/>
     </row>
     <row r="30" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A30" s="54" t="s">
+      <c r="A30" s="56" t="s">
         <v>81</v>
       </c>
       <c r="B30" s="84" t="s">
@@ -9518,12 +9518,12 @@
       <c r="AB30" s="17"/>
       <c r="AC30" s="6"/>
       <c r="AD30" s="67"/>
-      <c r="AE30" s="63"/>
-      <c r="AF30" s="63"/>
-      <c r="AG30" s="63"/>
-      <c r="AH30" s="63"/>
-      <c r="AI30" s="63"/>
-      <c r="AJ30" s="63"/>
+      <c r="AE30" s="61"/>
+      <c r="AF30" s="61"/>
+      <c r="AG30" s="61"/>
+      <c r="AH30" s="61"/>
+      <c r="AI30" s="61"/>
+      <c r="AJ30" s="61"/>
       <c r="AK30" s="68"/>
     </row>
     <row r="31" spans="1:37" ht="14.25" customHeight="1">
@@ -9570,7 +9570,7 @@
       <c r="AK31" s="71"/>
     </row>
     <row r="32" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A32" s="54" t="s">
+      <c r="A32" s="56" t="s">
         <v>82</v>
       </c>
       <c r="B32" s="85" t="s">
@@ -9658,7 +9658,7 @@
       <c r="AK33" s="52"/>
     </row>
     <row r="34" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A34" s="54" t="s">
+      <c r="A34" s="56" t="s">
         <v>84</v>
       </c>
       <c r="B34" s="84" t="s">
@@ -9737,16 +9737,16 @@
       <c r="AB35" s="17"/>
       <c r="AC35" s="6"/>
       <c r="AD35" s="76"/>
-      <c r="AE35" s="63"/>
-      <c r="AF35" s="63"/>
-      <c r="AG35" s="63"/>
-      <c r="AH35" s="63"/>
-      <c r="AI35" s="63"/>
-      <c r="AJ35" s="63"/>
+      <c r="AE35" s="61"/>
+      <c r="AF35" s="61"/>
+      <c r="AG35" s="61"/>
+      <c r="AH35" s="61"/>
+      <c r="AI35" s="61"/>
+      <c r="AJ35" s="61"/>
       <c r="AK35" s="77"/>
     </row>
     <row r="36" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A36" s="54" t="s">
+      <c r="A36" s="56" t="s">
         <v>85</v>
       </c>
       <c r="B36" s="85" t="s">
@@ -9782,12 +9782,12 @@
       <c r="AB36" s="17"/>
       <c r="AC36" s="6"/>
       <c r="AD36" s="76"/>
-      <c r="AE36" s="63"/>
-      <c r="AF36" s="63"/>
-      <c r="AG36" s="63"/>
-      <c r="AH36" s="63"/>
-      <c r="AI36" s="63"/>
-      <c r="AJ36" s="63"/>
+      <c r="AE36" s="61"/>
+      <c r="AF36" s="61"/>
+      <c r="AG36" s="61"/>
+      <c r="AH36" s="61"/>
+      <c r="AI36" s="61"/>
+      <c r="AJ36" s="61"/>
       <c r="AK36" s="77"/>
     </row>
     <row r="37" spans="1:37" ht="14.25" customHeight="1">
@@ -9825,16 +9825,16 @@
       <c r="AB37" s="17"/>
       <c r="AC37" s="6"/>
       <c r="AD37" s="76"/>
-      <c r="AE37" s="63"/>
-      <c r="AF37" s="63"/>
-      <c r="AG37" s="63"/>
-      <c r="AH37" s="63"/>
-      <c r="AI37" s="63"/>
-      <c r="AJ37" s="63"/>
+      <c r="AE37" s="61"/>
+      <c r="AF37" s="61"/>
+      <c r="AG37" s="61"/>
+      <c r="AH37" s="61"/>
+      <c r="AI37" s="61"/>
+      <c r="AJ37" s="61"/>
       <c r="AK37" s="77"/>
     </row>
     <row r="38" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A38" s="54" t="s">
+      <c r="A38" s="56" t="s">
         <v>86</v>
       </c>
       <c r="B38" s="84" t="s">
@@ -9870,12 +9870,12 @@
       <c r="AB38" s="17"/>
       <c r="AC38" s="6"/>
       <c r="AD38" s="76"/>
-      <c r="AE38" s="63"/>
-      <c r="AF38" s="63"/>
-      <c r="AG38" s="63"/>
-      <c r="AH38" s="63"/>
-      <c r="AI38" s="63"/>
-      <c r="AJ38" s="63"/>
+      <c r="AE38" s="61"/>
+      <c r="AF38" s="61"/>
+      <c r="AG38" s="61"/>
+      <c r="AH38" s="61"/>
+      <c r="AI38" s="61"/>
+      <c r="AJ38" s="61"/>
       <c r="AK38" s="77"/>
     </row>
     <row r="39" spans="1:37" ht="14.25" customHeight="1">
@@ -9913,16 +9913,16 @@
       <c r="AB39" s="17"/>
       <c r="AC39" s="6"/>
       <c r="AD39" s="76"/>
-      <c r="AE39" s="63"/>
-      <c r="AF39" s="63"/>
-      <c r="AG39" s="63"/>
-      <c r="AH39" s="63"/>
-      <c r="AI39" s="63"/>
-      <c r="AJ39" s="63"/>
+      <c r="AE39" s="61"/>
+      <c r="AF39" s="61"/>
+      <c r="AG39" s="61"/>
+      <c r="AH39" s="61"/>
+      <c r="AI39" s="61"/>
+      <c r="AJ39" s="61"/>
       <c r="AK39" s="77"/>
     </row>
     <row r="40" spans="1:37" ht="15" customHeight="1">
-      <c r="A40" s="54" t="s">
+      <c r="A40" s="56" t="s">
         <v>87</v>
       </c>
       <c r="B40" s="85" t="s">
@@ -9958,12 +9958,12 @@
       <c r="AB40" s="17"/>
       <c r="AC40" s="6"/>
       <c r="AD40" s="76"/>
-      <c r="AE40" s="63"/>
-      <c r="AF40" s="63"/>
-      <c r="AG40" s="63"/>
-      <c r="AH40" s="63"/>
-      <c r="AI40" s="63"/>
-      <c r="AJ40" s="63"/>
+      <c r="AE40" s="61"/>
+      <c r="AF40" s="61"/>
+      <c r="AG40" s="61"/>
+      <c r="AH40" s="61"/>
+      <c r="AI40" s="61"/>
+      <c r="AJ40" s="61"/>
       <c r="AK40" s="77"/>
     </row>
     <row r="41" spans="1:37" ht="15" customHeight="1">
@@ -10001,16 +10001,16 @@
       <c r="AB41" s="17"/>
       <c r="AC41" s="6"/>
       <c r="AD41" s="76"/>
-      <c r="AE41" s="63"/>
-      <c r="AF41" s="63"/>
-      <c r="AG41" s="63"/>
-      <c r="AH41" s="63"/>
-      <c r="AI41" s="63"/>
-      <c r="AJ41" s="63"/>
+      <c r="AE41" s="61"/>
+      <c r="AF41" s="61"/>
+      <c r="AG41" s="61"/>
+      <c r="AH41" s="61"/>
+      <c r="AI41" s="61"/>
+      <c r="AJ41" s="61"/>
       <c r="AK41" s="77"/>
     </row>
     <row r="42" spans="1:37" ht="15" customHeight="1">
-      <c r="A42" s="54" t="s">
+      <c r="A42" s="56" t="s">
         <v>88</v>
       </c>
       <c r="B42" s="84" t="s">
@@ -10046,12 +10046,12 @@
       <c r="AB42" s="17"/>
       <c r="AC42" s="6"/>
       <c r="AD42" s="76"/>
-      <c r="AE42" s="63"/>
-      <c r="AF42" s="63"/>
-      <c r="AG42" s="63"/>
-      <c r="AH42" s="63"/>
-      <c r="AI42" s="63"/>
-      <c r="AJ42" s="63"/>
+      <c r="AE42" s="61"/>
+      <c r="AF42" s="61"/>
+      <c r="AG42" s="61"/>
+      <c r="AH42" s="61"/>
+      <c r="AI42" s="61"/>
+      <c r="AJ42" s="61"/>
       <c r="AK42" s="77"/>
     </row>
     <row r="43" spans="1:37" ht="15" customHeight="1">
@@ -10089,16 +10089,16 @@
       <c r="AB43" s="17"/>
       <c r="AC43" s="6"/>
       <c r="AD43" s="76"/>
-      <c r="AE43" s="63"/>
-      <c r="AF43" s="63"/>
-      <c r="AG43" s="63"/>
-      <c r="AH43" s="63"/>
-      <c r="AI43" s="63"/>
-      <c r="AJ43" s="63"/>
+      <c r="AE43" s="61"/>
+      <c r="AF43" s="61"/>
+      <c r="AG43" s="61"/>
+      <c r="AH43" s="61"/>
+      <c r="AI43" s="61"/>
+      <c r="AJ43" s="61"/>
       <c r="AK43" s="77"/>
     </row>
     <row r="44" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A44" s="54" t="s">
+      <c r="A44" s="56" t="s">
         <v>89</v>
       </c>
       <c r="B44" s="85" t="s">
@@ -10134,12 +10134,12 @@
       <c r="AB44" s="17"/>
       <c r="AC44" s="6"/>
       <c r="AD44" s="76"/>
-      <c r="AE44" s="63"/>
-      <c r="AF44" s="63"/>
-      <c r="AG44" s="63"/>
-      <c r="AH44" s="63"/>
-      <c r="AI44" s="63"/>
-      <c r="AJ44" s="63"/>
+      <c r="AE44" s="61"/>
+      <c r="AF44" s="61"/>
+      <c r="AG44" s="61"/>
+      <c r="AH44" s="61"/>
+      <c r="AI44" s="61"/>
+      <c r="AJ44" s="61"/>
       <c r="AK44" s="77"/>
     </row>
     <row r="45" spans="1:37" ht="14.25" customHeight="1">
@@ -10177,16 +10177,16 @@
       <c r="AB45" s="17"/>
       <c r="AC45" s="6"/>
       <c r="AD45" s="76"/>
-      <c r="AE45" s="63"/>
-      <c r="AF45" s="63"/>
-      <c r="AG45" s="63"/>
-      <c r="AH45" s="63"/>
-      <c r="AI45" s="63"/>
-      <c r="AJ45" s="63"/>
+      <c r="AE45" s="61"/>
+      <c r="AF45" s="61"/>
+      <c r="AG45" s="61"/>
+      <c r="AH45" s="61"/>
+      <c r="AI45" s="61"/>
+      <c r="AJ45" s="61"/>
       <c r="AK45" s="77"/>
     </row>
     <row r="46" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A46" s="54" t="s">
+      <c r="A46" s="56" t="s">
         <v>91</v>
       </c>
       <c r="B46" s="84" t="s">
@@ -10222,12 +10222,12 @@
       <c r="AB46" s="17"/>
       <c r="AC46" s="6"/>
       <c r="AD46" s="76"/>
-      <c r="AE46" s="63"/>
-      <c r="AF46" s="63"/>
-      <c r="AG46" s="63"/>
-      <c r="AH46" s="63"/>
-      <c r="AI46" s="63"/>
-      <c r="AJ46" s="63"/>
+      <c r="AE46" s="61"/>
+      <c r="AF46" s="61"/>
+      <c r="AG46" s="61"/>
+      <c r="AH46" s="61"/>
+      <c r="AI46" s="61"/>
+      <c r="AJ46" s="61"/>
       <c r="AK46" s="77"/>
     </row>
     <row r="47" spans="1:37" ht="14.25" customHeight="1">
@@ -10265,16 +10265,16 @@
       <c r="AB47" s="17"/>
       <c r="AC47" s="6"/>
       <c r="AD47" s="76"/>
-      <c r="AE47" s="63"/>
-      <c r="AF47" s="63"/>
-      <c r="AG47" s="63"/>
-      <c r="AH47" s="63"/>
-      <c r="AI47" s="63"/>
-      <c r="AJ47" s="63"/>
+      <c r="AE47" s="61"/>
+      <c r="AF47" s="61"/>
+      <c r="AG47" s="61"/>
+      <c r="AH47" s="61"/>
+      <c r="AI47" s="61"/>
+      <c r="AJ47" s="61"/>
       <c r="AK47" s="77"/>
     </row>
     <row r="48" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A48" s="54" t="s">
+      <c r="A48" s="56" t="s">
         <v>92</v>
       </c>
       <c r="B48" s="85" t="s">
@@ -10364,7 +10364,7 @@
       <c r="AK49" s="38"/>
     </row>
     <row r="50" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A50" s="54" t="s">
+      <c r="A50" s="56" t="s">
         <v>94</v>
       </c>
       <c r="B50" s="85" t="s">
@@ -10456,7 +10456,7 @@
       <c r="AK51" s="38"/>
     </row>
     <row r="52" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A52" s="54" t="s">
+      <c r="A52" s="56" t="s">
         <v>96</v>
       </c>
       <c r="B52" s="85" t="s">
@@ -10548,7 +10548,7 @@
       <c r="AK53" s="38"/>
     </row>
     <row r="54" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A54" s="54" t="s">
+      <c r="A54" s="56" t="s">
         <v>98</v>
       </c>
       <c r="B54" s="85" t="s">
@@ -10638,7 +10638,7 @@
       <c r="AK55" s="38"/>
     </row>
     <row r="56" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A56" s="54" t="s">
+      <c r="A56" s="56" t="s">
         <v>100</v>
       </c>
       <c r="B56" s="85" t="s">
@@ -10718,7 +10718,7 @@
       <c r="AC57" s="6"/>
     </row>
     <row r="58" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A58" s="54" t="s">
+      <c r="A58" s="56" t="s">
         <v>102</v>
       </c>
       <c r="B58" s="85" t="s">
@@ -10791,7 +10791,7 @@
       <c r="AC59" s="6"/>
     </row>
     <row r="60" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A60" s="54" t="s">
+      <c r="A60" s="56" t="s">
         <v>104</v>
       </c>
       <c r="B60" s="85" t="s">
@@ -10868,7 +10868,7 @@
       <c r="AC61" s="6"/>
     </row>
     <row r="62" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A62" s="54" t="s">
+      <c r="A62" s="56" t="s">
         <v>106</v>
       </c>
       <c r="B62" s="85" t="s">
@@ -10942,7 +10942,7 @@
       <c r="AC63" s="6"/>
     </row>
     <row r="64" spans="1:37" ht="14.25" customHeight="1">
-      <c r="A64" s="54" t="s">
+      <c r="A64" s="56" t="s">
         <v>108</v>
       </c>
       <c r="B64" s="85" t="s">
@@ -11018,7 +11018,7 @@
       <c r="AC65" s="6"/>
     </row>
     <row r="66" spans="1:29" ht="14.25" customHeight="1">
-      <c r="A66" s="54" t="s">
+      <c r="A66" s="56" t="s">
         <v>110</v>
       </c>
       <c r="B66" s="85" t="s">
@@ -13950,22 +13950,23 @@
     <mergeCell ref="B44:B45"/>
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="B48:B49"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
     <mergeCell ref="AD3:AK31"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B18:B19"/>
     <mergeCell ref="Y1:AB1"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="B32:B33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="A22:A23"/>
@@ -13977,7 +13978,6 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="86" orientation="portrait"/>
@@ -14035,12 +14035,12 @@
       <c r="Z1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="AA1" s="59">
+      <c r="AA1" s="57">
         <v>2024</v>
       </c>
-      <c r="AB1" s="60"/>
-      <c r="AC1" s="60"/>
-      <c r="AD1" s="61"/>
+      <c r="AB1" s="58"/>
+      <c r="AC1" s="58"/>
+      <c r="AD1" s="59"/>
       <c r="AE1" s="6"/>
       <c r="AF1" s="4" t="s">
         <v>2</v>
@@ -14096,10 +14096,10 @@
       <c r="A3" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="D3" s="62"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
       <c r="J3" s="13" t="s">
         <v>5</v>
       </c>
@@ -14176,10 +14176,10 @@
       <c r="AM3" s="66"/>
     </row>
     <row r="4" spans="1:39" ht="14.25" customHeight="1">
-      <c r="D4" s="62"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
@@ -14203,12 +14203,12 @@
       <c r="AD4" s="12"/>
       <c r="AE4" s="6"/>
       <c r="AF4" s="67"/>
-      <c r="AG4" s="63"/>
-      <c r="AH4" s="63"/>
-      <c r="AI4" s="63"/>
-      <c r="AJ4" s="63"/>
-      <c r="AK4" s="63"/>
-      <c r="AL4" s="63"/>
+      <c r="AG4" s="61"/>
+      <c r="AH4" s="61"/>
+      <c r="AI4" s="61"/>
+      <c r="AJ4" s="61"/>
+      <c r="AK4" s="61"/>
+      <c r="AL4" s="61"/>
       <c r="AM4" s="68"/>
     </row>
     <row r="5" spans="1:39" ht="14.25" customHeight="1">
@@ -14262,16 +14262,16 @@
       <c r="AD5" s="16"/>
       <c r="AE5" s="6"/>
       <c r="AF5" s="67"/>
-      <c r="AG5" s="63"/>
-      <c r="AH5" s="63"/>
-      <c r="AI5" s="63"/>
-      <c r="AJ5" s="63"/>
-      <c r="AK5" s="63"/>
-      <c r="AL5" s="63"/>
+      <c r="AG5" s="61"/>
+      <c r="AH5" s="61"/>
+      <c r="AI5" s="61"/>
+      <c r="AJ5" s="61"/>
+      <c r="AK5" s="61"/>
+      <c r="AL5" s="61"/>
       <c r="AM5" s="68"/>
     </row>
     <row r="6" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="56" t="s">
         <v>63</v>
       </c>
       <c r="B6" s="72"/>
@@ -14307,12 +14307,12 @@
       <c r="AD6" s="17"/>
       <c r="AE6" s="6"/>
       <c r="AF6" s="67"/>
-      <c r="AG6" s="63"/>
-      <c r="AH6" s="63"/>
-      <c r="AI6" s="63"/>
-      <c r="AJ6" s="63"/>
-      <c r="AK6" s="63"/>
-      <c r="AL6" s="63"/>
+      <c r="AG6" s="61"/>
+      <c r="AH6" s="61"/>
+      <c r="AI6" s="61"/>
+      <c r="AJ6" s="61"/>
+      <c r="AK6" s="61"/>
+      <c r="AL6" s="61"/>
       <c r="AM6" s="68"/>
     </row>
     <row r="7" spans="1:39" ht="14.25" customHeight="1">
@@ -14350,19 +14350,19 @@
       <c r="AD7" s="17"/>
       <c r="AE7" s="6"/>
       <c r="AF7" s="67"/>
-      <c r="AG7" s="63"/>
-      <c r="AH7" s="63"/>
-      <c r="AI7" s="63"/>
-      <c r="AJ7" s="63"/>
-      <c r="AK7" s="63"/>
-      <c r="AL7" s="63"/>
+      <c r="AG7" s="61"/>
+      <c r="AH7" s="61"/>
+      <c r="AI7" s="61"/>
+      <c r="AJ7" s="61"/>
+      <c r="AK7" s="61"/>
+      <c r="AL7" s="61"/>
       <c r="AM7" s="68"/>
     </row>
     <row r="8" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="B8" s="56"/>
+      <c r="B8" s="63"/>
       <c r="D8" s="22"/>
       <c r="E8" s="22"/>
       <c r="F8" s="22"/>
@@ -14395,12 +14395,12 @@
       <c r="AD8" s="17"/>
       <c r="AE8" s="6"/>
       <c r="AF8" s="67"/>
-      <c r="AG8" s="63"/>
-      <c r="AH8" s="63"/>
-      <c r="AI8" s="63"/>
-      <c r="AJ8" s="63"/>
-      <c r="AK8" s="63"/>
-      <c r="AL8" s="63"/>
+      <c r="AG8" s="61"/>
+      <c r="AH8" s="61"/>
+      <c r="AI8" s="61"/>
+      <c r="AJ8" s="61"/>
+      <c r="AK8" s="61"/>
+      <c r="AL8" s="61"/>
       <c r="AM8" s="68"/>
     </row>
     <row r="9" spans="1:39" ht="14.25" customHeight="1">
@@ -14438,19 +14438,19 @@
       <c r="AD9" s="17"/>
       <c r="AE9" s="6"/>
       <c r="AF9" s="67"/>
-      <c r="AG9" s="63"/>
-      <c r="AH9" s="63"/>
-      <c r="AI9" s="63"/>
-      <c r="AJ9" s="63"/>
-      <c r="AK9" s="63"/>
-      <c r="AL9" s="63"/>
+      <c r="AG9" s="61"/>
+      <c r="AH9" s="61"/>
+      <c r="AI9" s="61"/>
+      <c r="AJ9" s="61"/>
+      <c r="AK9" s="61"/>
+      <c r="AL9" s="61"/>
       <c r="AM9" s="68"/>
     </row>
     <row r="10" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="B10" s="56"/>
+      <c r="B10" s="63"/>
       <c r="D10" s="22"/>
       <c r="E10" s="22"/>
       <c r="F10" s="22"/>
@@ -14483,12 +14483,12 @@
       <c r="AD10" s="17"/>
       <c r="AE10" s="6"/>
       <c r="AF10" s="67"/>
-      <c r="AG10" s="63"/>
-      <c r="AH10" s="63"/>
-      <c r="AI10" s="63"/>
-      <c r="AJ10" s="63"/>
-      <c r="AK10" s="63"/>
-      <c r="AL10" s="63"/>
+      <c r="AG10" s="61"/>
+      <c r="AH10" s="61"/>
+      <c r="AI10" s="61"/>
+      <c r="AJ10" s="61"/>
+      <c r="AK10" s="61"/>
+      <c r="AL10" s="61"/>
       <c r="AM10" s="68"/>
     </row>
     <row r="11" spans="1:39" ht="14.25" customHeight="1">
@@ -14526,19 +14526,19 @@
       <c r="AD11" s="17"/>
       <c r="AE11" s="6"/>
       <c r="AF11" s="67"/>
-      <c r="AG11" s="63"/>
-      <c r="AH11" s="63"/>
-      <c r="AI11" s="63"/>
-      <c r="AJ11" s="63"/>
-      <c r="AK11" s="63"/>
-      <c r="AL11" s="63"/>
+      <c r="AG11" s="61"/>
+      <c r="AH11" s="61"/>
+      <c r="AI11" s="61"/>
+      <c r="AJ11" s="61"/>
+      <c r="AK11" s="61"/>
+      <c r="AL11" s="61"/>
       <c r="AM11" s="68"/>
     </row>
     <row r="12" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="56" t="s">
         <v>122</v>
       </c>
-      <c r="B12" s="56"/>
+      <c r="B12" s="63"/>
       <c r="D12" s="22"/>
       <c r="E12" s="22"/>
       <c r="F12" s="22"/>
@@ -14571,12 +14571,12 @@
       <c r="AD12" s="17"/>
       <c r="AE12" s="6"/>
       <c r="AF12" s="67"/>
-      <c r="AG12" s="63"/>
-      <c r="AH12" s="63"/>
-      <c r="AI12" s="63"/>
-      <c r="AJ12" s="63"/>
-      <c r="AK12" s="63"/>
-      <c r="AL12" s="63"/>
+      <c r="AG12" s="61"/>
+      <c r="AH12" s="61"/>
+      <c r="AI12" s="61"/>
+      <c r="AJ12" s="61"/>
+      <c r="AK12" s="61"/>
+      <c r="AL12" s="61"/>
       <c r="AM12" s="68"/>
     </row>
     <row r="13" spans="1:39" ht="14.25" customHeight="1">
@@ -14614,19 +14614,19 @@
       <c r="AD13" s="17"/>
       <c r="AE13" s="6"/>
       <c r="AF13" s="67"/>
-      <c r="AG13" s="63"/>
-      <c r="AH13" s="63"/>
-      <c r="AI13" s="63"/>
-      <c r="AJ13" s="63"/>
-      <c r="AK13" s="63"/>
-      <c r="AL13" s="63"/>
+      <c r="AG13" s="61"/>
+      <c r="AH13" s="61"/>
+      <c r="AI13" s="61"/>
+      <c r="AJ13" s="61"/>
+      <c r="AK13" s="61"/>
+      <c r="AL13" s="61"/>
       <c r="AM13" s="68"/>
     </row>
     <row r="14" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A14" s="54" t="s">
+      <c r="A14" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="56"/>
+      <c r="B14" s="63"/>
       <c r="D14" s="22"/>
       <c r="E14" s="22"/>
       <c r="F14" s="22"/>
@@ -14659,12 +14659,12 @@
       <c r="AD14" s="17"/>
       <c r="AE14" s="6"/>
       <c r="AF14" s="67"/>
-      <c r="AG14" s="63"/>
-      <c r="AH14" s="63"/>
-      <c r="AI14" s="63"/>
-      <c r="AJ14" s="63"/>
-      <c r="AK14" s="63"/>
-      <c r="AL14" s="63"/>
+      <c r="AG14" s="61"/>
+      <c r="AH14" s="61"/>
+      <c r="AI14" s="61"/>
+      <c r="AJ14" s="61"/>
+      <c r="AK14" s="61"/>
+      <c r="AL14" s="61"/>
       <c r="AM14" s="68"/>
     </row>
     <row r="15" spans="1:39" ht="17.25" customHeight="1">
@@ -14702,19 +14702,19 @@
       <c r="AD15" s="17"/>
       <c r="AE15" s="6"/>
       <c r="AF15" s="67"/>
-      <c r="AG15" s="63"/>
-      <c r="AH15" s="63"/>
-      <c r="AI15" s="63"/>
-      <c r="AJ15" s="63"/>
-      <c r="AK15" s="63"/>
-      <c r="AL15" s="63"/>
+      <c r="AG15" s="61"/>
+      <c r="AH15" s="61"/>
+      <c r="AI15" s="61"/>
+      <c r="AJ15" s="61"/>
+      <c r="AK15" s="61"/>
+      <c r="AL15" s="61"/>
       <c r="AM15" s="68"/>
     </row>
     <row r="16" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A16" s="54" t="s">
+      <c r="A16" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="56"/>
+      <c r="B16" s="63"/>
       <c r="D16" s="22"/>
       <c r="E16" s="22"/>
       <c r="F16" s="22"/>
@@ -14747,12 +14747,12 @@
       <c r="AD16" s="17"/>
       <c r="AE16" s="6"/>
       <c r="AF16" s="67"/>
-      <c r="AG16" s="63"/>
-      <c r="AH16" s="63"/>
-      <c r="AI16" s="63"/>
-      <c r="AJ16" s="63"/>
-      <c r="AK16" s="63"/>
-      <c r="AL16" s="63"/>
+      <c r="AG16" s="61"/>
+      <c r="AH16" s="61"/>
+      <c r="AI16" s="61"/>
+      <c r="AJ16" s="61"/>
+      <c r="AK16" s="61"/>
+      <c r="AL16" s="61"/>
       <c r="AM16" s="68"/>
     </row>
     <row r="17" spans="1:39" ht="17.25" customHeight="1">
@@ -14790,19 +14790,19 @@
       <c r="AD17" s="17"/>
       <c r="AE17" s="6"/>
       <c r="AF17" s="67"/>
-      <c r="AG17" s="63"/>
-      <c r="AH17" s="63"/>
-      <c r="AI17" s="63"/>
-      <c r="AJ17" s="63"/>
-      <c r="AK17" s="63"/>
-      <c r="AL17" s="63"/>
+      <c r="AG17" s="61"/>
+      <c r="AH17" s="61"/>
+      <c r="AI17" s="61"/>
+      <c r="AJ17" s="61"/>
+      <c r="AK17" s="61"/>
+      <c r="AL17" s="61"/>
       <c r="AM17" s="68"/>
     </row>
     <row r="18" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A18" s="54" t="s">
+      <c r="A18" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="56"/>
+      <c r="B18" s="63"/>
       <c r="D18" s="22"/>
       <c r="E18" s="22"/>
       <c r="F18" s="22"/>
@@ -14835,12 +14835,12 @@
       <c r="AD18" s="17"/>
       <c r="AE18" s="6"/>
       <c r="AF18" s="67"/>
-      <c r="AG18" s="63"/>
-      <c r="AH18" s="63"/>
-      <c r="AI18" s="63"/>
-      <c r="AJ18" s="63"/>
-      <c r="AK18" s="63"/>
-      <c r="AL18" s="63"/>
+      <c r="AG18" s="61"/>
+      <c r="AH18" s="61"/>
+      <c r="AI18" s="61"/>
+      <c r="AJ18" s="61"/>
+      <c r="AK18" s="61"/>
+      <c r="AL18" s="61"/>
       <c r="AM18" s="68"/>
     </row>
     <row r="19" spans="1:39" ht="17.25" customHeight="1">
@@ -14878,19 +14878,19 @@
       <c r="AD19" s="17"/>
       <c r="AE19" s="6"/>
       <c r="AF19" s="67"/>
-      <c r="AG19" s="63"/>
-      <c r="AH19" s="63"/>
-      <c r="AI19" s="63"/>
-      <c r="AJ19" s="63"/>
-      <c r="AK19" s="63"/>
-      <c r="AL19" s="63"/>
+      <c r="AG19" s="61"/>
+      <c r="AH19" s="61"/>
+      <c r="AI19" s="61"/>
+      <c r="AJ19" s="61"/>
+      <c r="AK19" s="61"/>
+      <c r="AL19" s="61"/>
       <c r="AM19" s="68"/>
     </row>
     <row r="20" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A20" s="54" t="s">
+      <c r="A20" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="57"/>
+      <c r="B20" s="54"/>
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
@@ -14923,12 +14923,12 @@
       <c r="AD20" s="17"/>
       <c r="AE20" s="6"/>
       <c r="AF20" s="67"/>
-      <c r="AG20" s="63"/>
-      <c r="AH20" s="63"/>
-      <c r="AI20" s="63"/>
-      <c r="AJ20" s="63"/>
-      <c r="AK20" s="63"/>
-      <c r="AL20" s="63"/>
+      <c r="AG20" s="61"/>
+      <c r="AH20" s="61"/>
+      <c r="AI20" s="61"/>
+      <c r="AJ20" s="61"/>
+      <c r="AK20" s="61"/>
+      <c r="AL20" s="61"/>
       <c r="AM20" s="68"/>
     </row>
     <row r="21" spans="1:39" ht="14.25" customHeight="1">
@@ -14966,19 +14966,19 @@
       <c r="AD21" s="17"/>
       <c r="AE21" s="6"/>
       <c r="AF21" s="67"/>
-      <c r="AG21" s="63"/>
-      <c r="AH21" s="63"/>
-      <c r="AI21" s="63"/>
-      <c r="AJ21" s="63"/>
-      <c r="AK21" s="63"/>
-      <c r="AL21" s="63"/>
+      <c r="AG21" s="61"/>
+      <c r="AH21" s="61"/>
+      <c r="AI21" s="61"/>
+      <c r="AJ21" s="61"/>
+      <c r="AK21" s="61"/>
+      <c r="AL21" s="61"/>
       <c r="AM21" s="68"/>
     </row>
     <row r="22" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A22" s="54" t="s">
+      <c r="A22" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="57"/>
+      <c r="B22" s="54"/>
       <c r="D22" s="22"/>
       <c r="E22" s="22"/>
       <c r="F22" s="22"/>
@@ -15011,12 +15011,12 @@
       <c r="AD22" s="17"/>
       <c r="AE22" s="6"/>
       <c r="AF22" s="67"/>
-      <c r="AG22" s="63"/>
-      <c r="AH22" s="63"/>
-      <c r="AI22" s="63"/>
-      <c r="AJ22" s="63"/>
-      <c r="AK22" s="63"/>
-      <c r="AL22" s="63"/>
+      <c r="AG22" s="61"/>
+      <c r="AH22" s="61"/>
+      <c r="AI22" s="61"/>
+      <c r="AJ22" s="61"/>
+      <c r="AK22" s="61"/>
+      <c r="AL22" s="61"/>
       <c r="AM22" s="68"/>
     </row>
     <row r="23" spans="1:39" ht="14.25" customHeight="1">
@@ -15054,19 +15054,19 @@
       <c r="AD23" s="17"/>
       <c r="AE23" s="6"/>
       <c r="AF23" s="67"/>
-      <c r="AG23" s="63"/>
-      <c r="AH23" s="63"/>
-      <c r="AI23" s="63"/>
-      <c r="AJ23" s="63"/>
-      <c r="AK23" s="63"/>
-      <c r="AL23" s="63"/>
+      <c r="AG23" s="61"/>
+      <c r="AH23" s="61"/>
+      <c r="AI23" s="61"/>
+      <c r="AJ23" s="61"/>
+      <c r="AK23" s="61"/>
+      <c r="AL23" s="61"/>
       <c r="AM23" s="68"/>
     </row>
     <row r="24" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A24" s="54" t="s">
+      <c r="A24" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="82"/>
+      <c r="B24" s="81"/>
       <c r="D24" s="22"/>
       <c r="E24" s="22"/>
       <c r="F24" s="22"/>
@@ -15099,12 +15099,12 @@
       <c r="AD24" s="17"/>
       <c r="AE24" s="6"/>
       <c r="AF24" s="67"/>
-      <c r="AG24" s="63"/>
-      <c r="AH24" s="63"/>
-      <c r="AI24" s="63"/>
-      <c r="AJ24" s="63"/>
-      <c r="AK24" s="63"/>
-      <c r="AL24" s="63"/>
+      <c r="AG24" s="61"/>
+      <c r="AH24" s="61"/>
+      <c r="AI24" s="61"/>
+      <c r="AJ24" s="61"/>
+      <c r="AK24" s="61"/>
+      <c r="AL24" s="61"/>
       <c r="AM24" s="68"/>
     </row>
     <row r="25" spans="1:39" ht="14.25" customHeight="1">
@@ -15142,19 +15142,19 @@
       <c r="AD25" s="17"/>
       <c r="AE25" s="6"/>
       <c r="AF25" s="67"/>
-      <c r="AG25" s="63"/>
-      <c r="AH25" s="63"/>
-      <c r="AI25" s="63"/>
-      <c r="AJ25" s="63"/>
-      <c r="AK25" s="63"/>
-      <c r="AL25" s="63"/>
+      <c r="AG25" s="61"/>
+      <c r="AH25" s="61"/>
+      <c r="AI25" s="61"/>
+      <c r="AJ25" s="61"/>
+      <c r="AK25" s="61"/>
+      <c r="AL25" s="61"/>
       <c r="AM25" s="68"/>
     </row>
     <row r="26" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A26" s="54" t="s">
+      <c r="A26" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="82"/>
+      <c r="B26" s="81"/>
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>
       <c r="F26" s="22"/>
@@ -15187,12 +15187,12 @@
       <c r="AD26" s="17"/>
       <c r="AE26" s="6"/>
       <c r="AF26" s="67"/>
-      <c r="AG26" s="63"/>
-      <c r="AH26" s="63"/>
-      <c r="AI26" s="63"/>
-      <c r="AJ26" s="63"/>
-      <c r="AK26" s="63"/>
-      <c r="AL26" s="63"/>
+      <c r="AG26" s="61"/>
+      <c r="AH26" s="61"/>
+      <c r="AI26" s="61"/>
+      <c r="AJ26" s="61"/>
+      <c r="AK26" s="61"/>
+      <c r="AL26" s="61"/>
       <c r="AM26" s="68"/>
     </row>
     <row r="27" spans="1:39" ht="14.25" customHeight="1">
@@ -15230,19 +15230,19 @@
       <c r="AD27" s="17"/>
       <c r="AE27" s="6"/>
       <c r="AF27" s="67"/>
-      <c r="AG27" s="63"/>
-      <c r="AH27" s="63"/>
-      <c r="AI27" s="63"/>
-      <c r="AJ27" s="63"/>
-      <c r="AK27" s="63"/>
-      <c r="AL27" s="63"/>
+      <c r="AG27" s="61"/>
+      <c r="AH27" s="61"/>
+      <c r="AI27" s="61"/>
+      <c r="AJ27" s="61"/>
+      <c r="AK27" s="61"/>
+      <c r="AL27" s="61"/>
       <c r="AM27" s="68"/>
     </row>
     <row r="28" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A28" s="54" t="s">
+      <c r="A28" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="82"/>
+      <c r="B28" s="81"/>
       <c r="D28" s="22"/>
       <c r="E28" s="22"/>
       <c r="F28" s="22"/>
@@ -15275,12 +15275,12 @@
       <c r="AD28" s="17"/>
       <c r="AE28" s="6"/>
       <c r="AF28" s="67"/>
-      <c r="AG28" s="63"/>
-      <c r="AH28" s="63"/>
-      <c r="AI28" s="63"/>
-      <c r="AJ28" s="63"/>
-      <c r="AK28" s="63"/>
-      <c r="AL28" s="63"/>
+      <c r="AG28" s="61"/>
+      <c r="AH28" s="61"/>
+      <c r="AI28" s="61"/>
+      <c r="AJ28" s="61"/>
+      <c r="AK28" s="61"/>
+      <c r="AL28" s="61"/>
       <c r="AM28" s="68"/>
     </row>
     <row r="29" spans="1:39" ht="14.25" customHeight="1">
@@ -15318,19 +15318,19 @@
       <c r="AD29" s="17"/>
       <c r="AE29" s="6"/>
       <c r="AF29" s="67"/>
-      <c r="AG29" s="63"/>
-      <c r="AH29" s="63"/>
-      <c r="AI29" s="63"/>
-      <c r="AJ29" s="63"/>
-      <c r="AK29" s="63"/>
-      <c r="AL29" s="63"/>
+      <c r="AG29" s="61"/>
+      <c r="AH29" s="61"/>
+      <c r="AI29" s="61"/>
+      <c r="AJ29" s="61"/>
+      <c r="AK29" s="61"/>
+      <c r="AL29" s="61"/>
       <c r="AM29" s="68"/>
     </row>
     <row r="30" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A30" s="54" t="s">
+      <c r="A30" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="83"/>
+      <c r="B30" s="82"/>
       <c r="D30" s="22"/>
       <c r="E30" s="22"/>
       <c r="F30" s="22"/>
@@ -15363,12 +15363,12 @@
       <c r="AD30" s="17"/>
       <c r="AE30" s="6"/>
       <c r="AF30" s="67"/>
-      <c r="AG30" s="63"/>
-      <c r="AH30" s="63"/>
-      <c r="AI30" s="63"/>
-      <c r="AJ30" s="63"/>
-      <c r="AK30" s="63"/>
-      <c r="AL30" s="63"/>
+      <c r="AG30" s="61"/>
+      <c r="AH30" s="61"/>
+      <c r="AI30" s="61"/>
+      <c r="AJ30" s="61"/>
+      <c r="AK30" s="61"/>
+      <c r="AL30" s="61"/>
       <c r="AM30" s="68"/>
     </row>
     <row r="31" spans="1:39" ht="14.25" customHeight="1">
@@ -15406,19 +15406,19 @@
       <c r="AD31" s="17"/>
       <c r="AE31" s="6"/>
       <c r="AF31" s="67"/>
-      <c r="AG31" s="63"/>
-      <c r="AH31" s="63"/>
-      <c r="AI31" s="63"/>
-      <c r="AJ31" s="63"/>
-      <c r="AK31" s="63"/>
-      <c r="AL31" s="63"/>
+      <c r="AG31" s="61"/>
+      <c r="AH31" s="61"/>
+      <c r="AI31" s="61"/>
+      <c r="AJ31" s="61"/>
+      <c r="AK31" s="61"/>
+      <c r="AL31" s="61"/>
       <c r="AM31" s="68"/>
     </row>
     <row r="32" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A32" s="54" t="s">
+      <c r="A32" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="83"/>
+      <c r="B32" s="82"/>
       <c r="D32" s="22"/>
       <c r="E32" s="22"/>
       <c r="F32" s="22"/>
@@ -15451,12 +15451,12 @@
       <c r="AD32" s="17"/>
       <c r="AE32" s="6"/>
       <c r="AF32" s="67"/>
-      <c r="AG32" s="63"/>
-      <c r="AH32" s="63"/>
-      <c r="AI32" s="63"/>
-      <c r="AJ32" s="63"/>
-      <c r="AK32" s="63"/>
-      <c r="AL32" s="63"/>
+      <c r="AG32" s="61"/>
+      <c r="AH32" s="61"/>
+      <c r="AI32" s="61"/>
+      <c r="AJ32" s="61"/>
+      <c r="AK32" s="61"/>
+      <c r="AL32" s="61"/>
       <c r="AM32" s="68"/>
     </row>
     <row r="33" spans="1:39" ht="14.25" customHeight="1">
@@ -15494,19 +15494,19 @@
       <c r="AD33" s="17"/>
       <c r="AE33" s="6"/>
       <c r="AF33" s="67"/>
-      <c r="AG33" s="63"/>
-      <c r="AH33" s="63"/>
-      <c r="AI33" s="63"/>
-      <c r="AJ33" s="63"/>
-      <c r="AK33" s="63"/>
-      <c r="AL33" s="63"/>
+      <c r="AG33" s="61"/>
+      <c r="AH33" s="61"/>
+      <c r="AI33" s="61"/>
+      <c r="AJ33" s="61"/>
+      <c r="AK33" s="61"/>
+      <c r="AL33" s="61"/>
       <c r="AM33" s="68"/>
     </row>
     <row r="34" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A34" s="54" t="s">
+      <c r="A34" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="83"/>
+      <c r="B34" s="82"/>
       <c r="D34" s="22"/>
       <c r="E34" s="22"/>
       <c r="F34" s="22"/>
@@ -15539,12 +15539,12 @@
       <c r="AD34" s="17"/>
       <c r="AE34" s="6"/>
       <c r="AF34" s="67"/>
-      <c r="AG34" s="63"/>
-      <c r="AH34" s="63"/>
-      <c r="AI34" s="63"/>
-      <c r="AJ34" s="63"/>
-      <c r="AK34" s="63"/>
-      <c r="AL34" s="63"/>
+      <c r="AG34" s="61"/>
+      <c r="AH34" s="61"/>
+      <c r="AI34" s="61"/>
+      <c r="AJ34" s="61"/>
+      <c r="AK34" s="61"/>
+      <c r="AL34" s="61"/>
       <c r="AM34" s="68"/>
     </row>
     <row r="35" spans="1:39" ht="14.25" customHeight="1">
@@ -15582,19 +15582,19 @@
       <c r="AD35" s="17"/>
       <c r="AE35" s="6"/>
       <c r="AF35" s="67"/>
-      <c r="AG35" s="63"/>
-      <c r="AH35" s="63"/>
-      <c r="AI35" s="63"/>
-      <c r="AJ35" s="63"/>
-      <c r="AK35" s="63"/>
-      <c r="AL35" s="63"/>
+      <c r="AG35" s="61"/>
+      <c r="AH35" s="61"/>
+      <c r="AI35" s="61"/>
+      <c r="AJ35" s="61"/>
+      <c r="AK35" s="61"/>
+      <c r="AL35" s="61"/>
       <c r="AM35" s="68"/>
     </row>
     <row r="36" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A36" s="54" t="s">
+      <c r="A36" s="56" t="s">
         <v>123</v>
       </c>
-      <c r="B36" s="83"/>
+      <c r="B36" s="82"/>
       <c r="D36" s="22"/>
       <c r="E36" s="22"/>
       <c r="F36" s="22"/>
@@ -15627,12 +15627,12 @@
       <c r="AD36" s="17"/>
       <c r="AE36" s="6"/>
       <c r="AF36" s="67"/>
-      <c r="AG36" s="63"/>
-      <c r="AH36" s="63"/>
-      <c r="AI36" s="63"/>
-      <c r="AJ36" s="63"/>
-      <c r="AK36" s="63"/>
-      <c r="AL36" s="63"/>
+      <c r="AG36" s="61"/>
+      <c r="AH36" s="61"/>
+      <c r="AI36" s="61"/>
+      <c r="AJ36" s="61"/>
+      <c r="AK36" s="61"/>
+      <c r="AL36" s="61"/>
       <c r="AM36" s="68"/>
     </row>
     <row r="37" spans="1:39" ht="14.25" customHeight="1">
@@ -15679,10 +15679,10 @@
       <c r="AM37" s="71"/>
     </row>
     <row r="38" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A38" s="54" t="s">
+      <c r="A38" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="B38" s="83"/>
+      <c r="B38" s="82"/>
       <c r="D38" s="22"/>
       <c r="E38" s="22"/>
       <c r="F38" s="22"/>
@@ -15767,10 +15767,10 @@
       <c r="AM39" s="52"/>
     </row>
     <row r="40" spans="1:39" ht="17.25" customHeight="1">
-      <c r="A40" s="54" t="s">
+      <c r="A40" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="B40" s="83"/>
+      <c r="B40" s="82"/>
       <c r="D40" s="22"/>
       <c r="E40" s="22"/>
       <c r="F40" s="22"/>
@@ -15855,10 +15855,10 @@
       <c r="AM41" s="52"/>
     </row>
     <row r="42" spans="1:39" ht="17.25" customHeight="1">
-      <c r="A42" s="54" t="s">
+      <c r="A42" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="B42" s="83"/>
+      <c r="B42" s="82"/>
       <c r="D42" s="22"/>
       <c r="E42" s="22"/>
       <c r="F42" s="22"/>
@@ -15943,10 +15943,10 @@
       <c r="AM43" s="52"/>
     </row>
     <row r="44" spans="1:39" ht="17.25" customHeight="1">
-      <c r="A44" s="54" t="s">
+      <c r="A44" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="B44" s="83"/>
+      <c r="B44" s="82"/>
       <c r="D44" s="22"/>
       <c r="E44" s="22"/>
       <c r="F44" s="22"/>
@@ -16022,19 +16022,19 @@
       <c r="AD45" s="17"/>
       <c r="AE45" s="6"/>
       <c r="AF45" s="76"/>
-      <c r="AG45" s="63"/>
-      <c r="AH45" s="63"/>
-      <c r="AI45" s="63"/>
-      <c r="AJ45" s="63"/>
-      <c r="AK45" s="63"/>
-      <c r="AL45" s="63"/>
+      <c r="AG45" s="61"/>
+      <c r="AH45" s="61"/>
+      <c r="AI45" s="61"/>
+      <c r="AJ45" s="61"/>
+      <c r="AK45" s="61"/>
+      <c r="AL45" s="61"/>
       <c r="AM45" s="77"/>
     </row>
     <row r="46" spans="1:39" ht="17.25" customHeight="1">
-      <c r="A46" s="54" t="s">
+      <c r="A46" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="B46" s="83"/>
+      <c r="B46" s="82"/>
       <c r="D46" s="22"/>
       <c r="E46" s="22"/>
       <c r="F46" s="22"/>
@@ -16067,12 +16067,12 @@
       <c r="AD46" s="17"/>
       <c r="AE46" s="6"/>
       <c r="AF46" s="76"/>
-      <c r="AG46" s="63"/>
-      <c r="AH46" s="63"/>
-      <c r="AI46" s="63"/>
-      <c r="AJ46" s="63"/>
-      <c r="AK46" s="63"/>
-      <c r="AL46" s="63"/>
+      <c r="AG46" s="61"/>
+      <c r="AH46" s="61"/>
+      <c r="AI46" s="61"/>
+      <c r="AJ46" s="61"/>
+      <c r="AK46" s="61"/>
+      <c r="AL46" s="61"/>
       <c r="AM46" s="77"/>
     </row>
     <row r="47" spans="1:39" ht="18" customHeight="1">
@@ -16110,19 +16110,19 @@
       <c r="AD47" s="17"/>
       <c r="AE47" s="6"/>
       <c r="AF47" s="76"/>
-      <c r="AG47" s="63"/>
-      <c r="AH47" s="63"/>
-      <c r="AI47" s="63"/>
-      <c r="AJ47" s="63"/>
-      <c r="AK47" s="63"/>
-      <c r="AL47" s="63"/>
+      <c r="AG47" s="61"/>
+      <c r="AH47" s="61"/>
+      <c r="AI47" s="61"/>
+      <c r="AJ47" s="61"/>
+      <c r="AK47" s="61"/>
+      <c r="AL47" s="61"/>
       <c r="AM47" s="77"/>
     </row>
     <row r="48" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A48" s="54" t="s">
+      <c r="A48" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="B48" s="83"/>
+      <c r="B48" s="82"/>
       <c r="D48" s="22"/>
       <c r="E48" s="22"/>
       <c r="F48" s="22"/>
@@ -16155,12 +16155,12 @@
       <c r="AD48" s="17"/>
       <c r="AE48" s="6"/>
       <c r="AF48" s="76"/>
-      <c r="AG48" s="63"/>
-      <c r="AH48" s="63"/>
-      <c r="AI48" s="63"/>
-      <c r="AJ48" s="63"/>
-      <c r="AK48" s="63"/>
-      <c r="AL48" s="63"/>
+      <c r="AG48" s="61"/>
+      <c r="AH48" s="61"/>
+      <c r="AI48" s="61"/>
+      <c r="AJ48" s="61"/>
+      <c r="AK48" s="61"/>
+      <c r="AL48" s="61"/>
       <c r="AM48" s="77"/>
     </row>
     <row r="49" spans="1:39" ht="14.25" customHeight="1">
@@ -16198,19 +16198,19 @@
       <c r="AD49" s="17"/>
       <c r="AE49" s="6"/>
       <c r="AF49" s="76"/>
-      <c r="AG49" s="63"/>
-      <c r="AH49" s="63"/>
-      <c r="AI49" s="63"/>
-      <c r="AJ49" s="63"/>
-      <c r="AK49" s="63"/>
-      <c r="AL49" s="63"/>
+      <c r="AG49" s="61"/>
+      <c r="AH49" s="61"/>
+      <c r="AI49" s="61"/>
+      <c r="AJ49" s="61"/>
+      <c r="AK49" s="61"/>
+      <c r="AL49" s="61"/>
       <c r="AM49" s="77"/>
     </row>
     <row r="50" spans="1:39" ht="17.25" customHeight="1">
-      <c r="A50" s="54" t="s">
+      <c r="A50" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="B50" s="83"/>
+      <c r="B50" s="82"/>
       <c r="D50" s="22"/>
       <c r="E50" s="22"/>
       <c r="F50" s="22"/>
@@ -16243,12 +16243,12 @@
       <c r="AD50" s="17"/>
       <c r="AE50" s="6"/>
       <c r="AF50" s="76"/>
-      <c r="AG50" s="63"/>
-      <c r="AH50" s="63"/>
-      <c r="AI50" s="63"/>
-      <c r="AJ50" s="63"/>
-      <c r="AK50" s="63"/>
-      <c r="AL50" s="63"/>
+      <c r="AG50" s="61"/>
+      <c r="AH50" s="61"/>
+      <c r="AI50" s="61"/>
+      <c r="AJ50" s="61"/>
+      <c r="AK50" s="61"/>
+      <c r="AL50" s="61"/>
       <c r="AM50" s="77"/>
     </row>
     <row r="51" spans="1:39" ht="18" customHeight="1">
@@ -16286,19 +16286,19 @@
       <c r="AD51" s="17"/>
       <c r="AE51" s="6"/>
       <c r="AF51" s="76"/>
-      <c r="AG51" s="63"/>
-      <c r="AH51" s="63"/>
-      <c r="AI51" s="63"/>
-      <c r="AJ51" s="63"/>
-      <c r="AK51" s="63"/>
-      <c r="AL51" s="63"/>
+      <c r="AG51" s="61"/>
+      <c r="AH51" s="61"/>
+      <c r="AI51" s="61"/>
+      <c r="AJ51" s="61"/>
+      <c r="AK51" s="61"/>
+      <c r="AL51" s="61"/>
       <c r="AM51" s="77"/>
     </row>
     <row r="52" spans="1:39" ht="17.25" customHeight="1">
-      <c r="A52" s="54" t="s">
+      <c r="A52" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="B52" s="83"/>
+      <c r="B52" s="82"/>
       <c r="D52" s="22"/>
       <c r="E52" s="22"/>
       <c r="F52" s="22"/>
@@ -16331,12 +16331,12 @@
       <c r="AD52" s="17"/>
       <c r="AE52" s="6"/>
       <c r="AF52" s="76"/>
-      <c r="AG52" s="63"/>
-      <c r="AH52" s="63"/>
-      <c r="AI52" s="63"/>
-      <c r="AJ52" s="63"/>
-      <c r="AK52" s="63"/>
-      <c r="AL52" s="63"/>
+      <c r="AG52" s="61"/>
+      <c r="AH52" s="61"/>
+      <c r="AI52" s="61"/>
+      <c r="AJ52" s="61"/>
+      <c r="AK52" s="61"/>
+      <c r="AL52" s="61"/>
       <c r="AM52" s="77"/>
     </row>
     <row r="53" spans="1:39" ht="18" customHeight="1">
@@ -16374,19 +16374,19 @@
       <c r="AD53" s="17"/>
       <c r="AE53" s="6"/>
       <c r="AF53" s="76"/>
-      <c r="AG53" s="63"/>
-      <c r="AH53" s="63"/>
-      <c r="AI53" s="63"/>
-      <c r="AJ53" s="63"/>
-      <c r="AK53" s="63"/>
-      <c r="AL53" s="63"/>
+      <c r="AG53" s="61"/>
+      <c r="AH53" s="61"/>
+      <c r="AI53" s="61"/>
+      <c r="AJ53" s="61"/>
+      <c r="AK53" s="61"/>
+      <c r="AL53" s="61"/>
       <c r="AM53" s="77"/>
     </row>
     <row r="54" spans="1:39" ht="17.25" customHeight="1">
-      <c r="A54" s="54" t="s">
+      <c r="A54" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="B54" s="83"/>
+      <c r="B54" s="82"/>
       <c r="D54" s="22"/>
       <c r="E54" s="22"/>
       <c r="F54" s="22"/>
@@ -16419,12 +16419,12 @@
       <c r="AD54" s="17"/>
       <c r="AE54" s="6"/>
       <c r="AF54" s="76"/>
-      <c r="AG54" s="63"/>
-      <c r="AH54" s="63"/>
-      <c r="AI54" s="63"/>
-      <c r="AJ54" s="63"/>
-      <c r="AK54" s="63"/>
-      <c r="AL54" s="63"/>
+      <c r="AG54" s="61"/>
+      <c r="AH54" s="61"/>
+      <c r="AI54" s="61"/>
+      <c r="AJ54" s="61"/>
+      <c r="AK54" s="61"/>
+      <c r="AL54" s="61"/>
       <c r="AM54" s="77"/>
     </row>
     <row r="55" spans="1:39" ht="18" customHeight="1">
@@ -16462,19 +16462,19 @@
       <c r="AD55" s="17"/>
       <c r="AE55" s="6"/>
       <c r="AF55" s="76"/>
-      <c r="AG55" s="63"/>
-      <c r="AH55" s="63"/>
-      <c r="AI55" s="63"/>
-      <c r="AJ55" s="63"/>
-      <c r="AK55" s="63"/>
-      <c r="AL55" s="63"/>
+      <c r="AG55" s="61"/>
+      <c r="AH55" s="61"/>
+      <c r="AI55" s="61"/>
+      <c r="AJ55" s="61"/>
+      <c r="AK55" s="61"/>
+      <c r="AL55" s="61"/>
       <c r="AM55" s="77"/>
     </row>
     <row r="56" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A56" s="54" t="s">
+      <c r="A56" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="B56" s="83"/>
+      <c r="B56" s="82"/>
       <c r="D56" s="22"/>
       <c r="E56" s="22"/>
       <c r="F56" s="22"/>
@@ -16507,12 +16507,12 @@
       <c r="AD56" s="17"/>
       <c r="AE56" s="6"/>
       <c r="AF56" s="76"/>
-      <c r="AG56" s="63"/>
-      <c r="AH56" s="63"/>
-      <c r="AI56" s="63"/>
-      <c r="AJ56" s="63"/>
-      <c r="AK56" s="63"/>
-      <c r="AL56" s="63"/>
+      <c r="AG56" s="61"/>
+      <c r="AH56" s="61"/>
+      <c r="AI56" s="61"/>
+      <c r="AJ56" s="61"/>
+      <c r="AK56" s="61"/>
+      <c r="AL56" s="61"/>
       <c r="AM56" s="77"/>
     </row>
     <row r="57" spans="1:39" ht="14.25" customHeight="1">
@@ -16550,19 +16550,19 @@
       <c r="AD57" s="17"/>
       <c r="AE57" s="6"/>
       <c r="AF57" s="76"/>
-      <c r="AG57" s="63"/>
-      <c r="AH57" s="63"/>
-      <c r="AI57" s="63"/>
-      <c r="AJ57" s="63"/>
-      <c r="AK57" s="63"/>
-      <c r="AL57" s="63"/>
+      <c r="AG57" s="61"/>
+      <c r="AH57" s="61"/>
+      <c r="AI57" s="61"/>
+      <c r="AJ57" s="61"/>
+      <c r="AK57" s="61"/>
+      <c r="AL57" s="61"/>
       <c r="AM57" s="77"/>
     </row>
     <row r="58" spans="1:39" ht="17.25" customHeight="1">
-      <c r="A58" s="54" t="s">
+      <c r="A58" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="B58" s="83"/>
+      <c r="B58" s="82"/>
       <c r="D58" s="22"/>
       <c r="E58" s="22"/>
       <c r="F58" s="22"/>
@@ -16595,12 +16595,12 @@
       <c r="AD58" s="17"/>
       <c r="AE58" s="6"/>
       <c r="AF58" s="76"/>
-      <c r="AG58" s="63"/>
-      <c r="AH58" s="63"/>
-      <c r="AI58" s="63"/>
-      <c r="AJ58" s="63"/>
-      <c r="AK58" s="63"/>
-      <c r="AL58" s="63"/>
+      <c r="AG58" s="61"/>
+      <c r="AH58" s="61"/>
+      <c r="AI58" s="61"/>
+      <c r="AJ58" s="61"/>
+      <c r="AK58" s="61"/>
+      <c r="AL58" s="61"/>
       <c r="AM58" s="77"/>
     </row>
     <row r="59" spans="1:39" ht="18" customHeight="1">
@@ -16638,19 +16638,19 @@
       <c r="AD59" s="17"/>
       <c r="AE59" s="6"/>
       <c r="AF59" s="76"/>
-      <c r="AG59" s="63"/>
-      <c r="AH59" s="63"/>
-      <c r="AI59" s="63"/>
-      <c r="AJ59" s="63"/>
-      <c r="AK59" s="63"/>
-      <c r="AL59" s="63"/>
+      <c r="AG59" s="61"/>
+      <c r="AH59" s="61"/>
+      <c r="AI59" s="61"/>
+      <c r="AJ59" s="61"/>
+      <c r="AK59" s="61"/>
+      <c r="AL59" s="61"/>
       <c r="AM59" s="77"/>
     </row>
     <row r="60" spans="1:39" ht="17.25" customHeight="1">
-      <c r="A60" s="54" t="s">
+      <c r="A60" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="B60" s="83"/>
+      <c r="B60" s="82"/>
       <c r="D60" s="22"/>
       <c r="E60" s="22"/>
       <c r="F60" s="22"/>
@@ -16683,12 +16683,12 @@
       <c r="AD60" s="17"/>
       <c r="AE60" s="6"/>
       <c r="AF60" s="76"/>
-      <c r="AG60" s="63"/>
-      <c r="AH60" s="63"/>
-      <c r="AI60" s="63"/>
-      <c r="AJ60" s="63"/>
-      <c r="AK60" s="63"/>
-      <c r="AL60" s="63"/>
+      <c r="AG60" s="61"/>
+      <c r="AH60" s="61"/>
+      <c r="AI60" s="61"/>
+      <c r="AJ60" s="61"/>
+      <c r="AK60" s="61"/>
+      <c r="AL60" s="61"/>
       <c r="AM60" s="77"/>
     </row>
     <row r="61" spans="1:39" ht="18" customHeight="1">
@@ -16726,19 +16726,19 @@
       <c r="AD61" s="17"/>
       <c r="AE61" s="6"/>
       <c r="AF61" s="76"/>
-      <c r="AG61" s="63"/>
-      <c r="AH61" s="63"/>
-      <c r="AI61" s="63"/>
-      <c r="AJ61" s="63"/>
-      <c r="AK61" s="63"/>
-      <c r="AL61" s="63"/>
+      <c r="AG61" s="61"/>
+      <c r="AH61" s="61"/>
+      <c r="AI61" s="61"/>
+      <c r="AJ61" s="61"/>
+      <c r="AK61" s="61"/>
+      <c r="AL61" s="61"/>
       <c r="AM61" s="77"/>
     </row>
     <row r="62" spans="1:39" ht="17.25" customHeight="1">
-      <c r="A62" s="54" t="s">
+      <c r="A62" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B62" s="83"/>
+      <c r="B62" s="82"/>
       <c r="D62" s="22"/>
       <c r="E62" s="22"/>
       <c r="F62" s="22"/>
@@ -16771,12 +16771,12 @@
       <c r="AD62" s="17"/>
       <c r="AE62" s="6"/>
       <c r="AF62" s="76"/>
-      <c r="AG62" s="63"/>
-      <c r="AH62" s="63"/>
-      <c r="AI62" s="63"/>
-      <c r="AJ62" s="63"/>
-      <c r="AK62" s="63"/>
-      <c r="AL62" s="63"/>
+      <c r="AG62" s="61"/>
+      <c r="AH62" s="61"/>
+      <c r="AI62" s="61"/>
+      <c r="AJ62" s="61"/>
+      <c r="AK62" s="61"/>
+      <c r="AL62" s="61"/>
       <c r="AM62" s="77"/>
     </row>
     <row r="63" spans="1:39" ht="18" customHeight="1">
@@ -16814,19 +16814,19 @@
       <c r="AD63" s="32"/>
       <c r="AE63" s="6"/>
       <c r="AF63" s="76"/>
-      <c r="AG63" s="63"/>
-      <c r="AH63" s="63"/>
-      <c r="AI63" s="63"/>
-      <c r="AJ63" s="63"/>
-      <c r="AK63" s="63"/>
-      <c r="AL63" s="63"/>
+      <c r="AG63" s="61"/>
+      <c r="AH63" s="61"/>
+      <c r="AI63" s="61"/>
+      <c r="AJ63" s="61"/>
+      <c r="AK63" s="61"/>
+      <c r="AL63" s="61"/>
       <c r="AM63" s="77"/>
     </row>
     <row r="64" spans="1:39" ht="17.25" customHeight="1">
-      <c r="A64" s="54" t="s">
+      <c r="A64" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="B64" s="83"/>
+      <c r="B64" s="82"/>
       <c r="D64" s="22"/>
       <c r="E64" s="22"/>
       <c r="F64" s="22"/>
@@ -16859,12 +16859,12 @@
       <c r="AD64" s="32"/>
       <c r="AE64" s="6"/>
       <c r="AF64" s="76"/>
-      <c r="AG64" s="63"/>
-      <c r="AH64" s="63"/>
-      <c r="AI64" s="63"/>
-      <c r="AJ64" s="63"/>
-      <c r="AK64" s="63"/>
-      <c r="AL64" s="63"/>
+      <c r="AG64" s="61"/>
+      <c r="AH64" s="61"/>
+      <c r="AI64" s="61"/>
+      <c r="AJ64" s="61"/>
+      <c r="AK64" s="61"/>
+      <c r="AL64" s="61"/>
       <c r="AM64" s="77"/>
     </row>
     <row r="65" spans="1:39" ht="18" customHeight="1">
@@ -16902,19 +16902,19 @@
       <c r="AD65" s="32"/>
       <c r="AE65" s="6"/>
       <c r="AF65" s="76"/>
-      <c r="AG65" s="63"/>
-      <c r="AH65" s="63"/>
-      <c r="AI65" s="63"/>
-      <c r="AJ65" s="63"/>
-      <c r="AK65" s="63"/>
-      <c r="AL65" s="63"/>
+      <c r="AG65" s="61"/>
+      <c r="AH65" s="61"/>
+      <c r="AI65" s="61"/>
+      <c r="AJ65" s="61"/>
+      <c r="AK65" s="61"/>
+      <c r="AL65" s="61"/>
       <c r="AM65" s="77"/>
     </row>
     <row r="66" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A66" s="54" t="s">
+      <c r="A66" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="B66" s="57"/>
+      <c r="B66" s="54"/>
       <c r="D66" s="22"/>
       <c r="E66" s="22"/>
       <c r="F66" s="22"/>
@@ -16947,12 +16947,12 @@
       <c r="AD66" s="17"/>
       <c r="AE66" s="6"/>
       <c r="AF66" s="76"/>
-      <c r="AG66" s="63"/>
-      <c r="AH66" s="63"/>
-      <c r="AI66" s="63"/>
-      <c r="AJ66" s="63"/>
-      <c r="AK66" s="63"/>
-      <c r="AL66" s="63"/>
+      <c r="AG66" s="61"/>
+      <c r="AH66" s="61"/>
+      <c r="AI66" s="61"/>
+      <c r="AJ66" s="61"/>
+      <c r="AK66" s="61"/>
+      <c r="AL66" s="61"/>
       <c r="AM66" s="77"/>
     </row>
     <row r="67" spans="1:39" ht="14.25" customHeight="1">
@@ -16990,19 +16990,19 @@
       <c r="AD67" s="17"/>
       <c r="AE67" s="6"/>
       <c r="AF67" s="76"/>
-      <c r="AG67" s="63"/>
-      <c r="AH67" s="63"/>
-      <c r="AI67" s="63"/>
-      <c r="AJ67" s="63"/>
-      <c r="AK67" s="63"/>
-      <c r="AL67" s="63"/>
+      <c r="AG67" s="61"/>
+      <c r="AH67" s="61"/>
+      <c r="AI67" s="61"/>
+      <c r="AJ67" s="61"/>
+      <c r="AK67" s="61"/>
+      <c r="AL67" s="61"/>
       <c r="AM67" s="77"/>
     </row>
     <row r="68" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A68" s="54" t="s">
+      <c r="A68" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="B68" s="57"/>
+      <c r="B68" s="54"/>
       <c r="D68" s="22"/>
       <c r="E68" s="22"/>
       <c r="F68" s="22"/>
@@ -17035,12 +17035,12 @@
       <c r="AD68" s="17"/>
       <c r="AE68" s="6"/>
       <c r="AF68" s="76"/>
-      <c r="AG68" s="63"/>
-      <c r="AH68" s="63"/>
-      <c r="AI68" s="63"/>
-      <c r="AJ68" s="63"/>
-      <c r="AK68" s="63"/>
-      <c r="AL68" s="63"/>
+      <c r="AG68" s="61"/>
+      <c r="AH68" s="61"/>
+      <c r="AI68" s="61"/>
+      <c r="AJ68" s="61"/>
+      <c r="AK68" s="61"/>
+      <c r="AL68" s="61"/>
       <c r="AM68" s="77"/>
     </row>
     <row r="69" spans="1:39" ht="14.25" customHeight="1">
@@ -17078,19 +17078,19 @@
       <c r="AD69" s="17"/>
       <c r="AE69" s="6"/>
       <c r="AF69" s="76"/>
-      <c r="AG69" s="63"/>
-      <c r="AH69" s="63"/>
-      <c r="AI69" s="63"/>
-      <c r="AJ69" s="63"/>
-      <c r="AK69" s="63"/>
-      <c r="AL69" s="63"/>
+      <c r="AG69" s="61"/>
+      <c r="AH69" s="61"/>
+      <c r="AI69" s="61"/>
+      <c r="AJ69" s="61"/>
+      <c r="AK69" s="61"/>
+      <c r="AL69" s="61"/>
       <c r="AM69" s="77"/>
     </row>
     <row r="70" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A70" s="54" t="s">
+      <c r="A70" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="B70" s="57"/>
+      <c r="B70" s="54"/>
       <c r="D70" s="22"/>
       <c r="E70" s="22"/>
       <c r="F70" s="22"/>
@@ -17123,12 +17123,12 @@
       <c r="AD70" s="17"/>
       <c r="AE70" s="6"/>
       <c r="AF70" s="76"/>
-      <c r="AG70" s="63"/>
-      <c r="AH70" s="63"/>
-      <c r="AI70" s="63"/>
-      <c r="AJ70" s="63"/>
-      <c r="AK70" s="63"/>
-      <c r="AL70" s="63"/>
+      <c r="AG70" s="61"/>
+      <c r="AH70" s="61"/>
+      <c r="AI70" s="61"/>
+      <c r="AJ70" s="61"/>
+      <c r="AK70" s="61"/>
+      <c r="AL70" s="61"/>
       <c r="AM70" s="77"/>
     </row>
     <row r="71" spans="1:39" ht="14.25" customHeight="1">
@@ -17166,19 +17166,19 @@
       <c r="AD71" s="17"/>
       <c r="AE71" s="6"/>
       <c r="AF71" s="76"/>
-      <c r="AG71" s="63"/>
-      <c r="AH71" s="63"/>
-      <c r="AI71" s="63"/>
-      <c r="AJ71" s="63"/>
-      <c r="AK71" s="63"/>
-      <c r="AL71" s="63"/>
+      <c r="AG71" s="61"/>
+      <c r="AH71" s="61"/>
+      <c r="AI71" s="61"/>
+      <c r="AJ71" s="61"/>
+      <c r="AK71" s="61"/>
+      <c r="AL71" s="61"/>
       <c r="AM71" s="77"/>
     </row>
     <row r="72" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A72" s="54" t="s">
+      <c r="A72" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="B72" s="57"/>
+      <c r="B72" s="54"/>
       <c r="D72" s="22"/>
       <c r="E72" s="22"/>
       <c r="F72" s="22"/>
@@ -17265,10 +17265,10 @@
       <c r="AM73" s="38"/>
     </row>
     <row r="74" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A74" s="54" t="s">
+      <c r="A74" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="B74" s="57"/>
+      <c r="B74" s="54"/>
       <c r="D74" s="22"/>
       <c r="E74" s="22"/>
       <c r="F74" s="22"/>
@@ -17357,8 +17357,8 @@
       <c r="AM75" s="38"/>
     </row>
     <row r="76" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A76" s="81"/>
-      <c r="B76" s="81"/>
+      <c r="A76" s="83"/>
+      <c r="B76" s="83"/>
       <c r="D76" s="22"/>
       <c r="E76" s="22"/>
       <c r="F76" s="22"/>
@@ -17447,8 +17447,8 @@
       <c r="AM77" s="38"/>
     </row>
     <row r="78" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A78" s="81"/>
-      <c r="B78" s="81"/>
+      <c r="A78" s="83"/>
+      <c r="B78" s="83"/>
       <c r="D78" s="22"/>
       <c r="E78" s="22"/>
       <c r="F78" s="22"/>
@@ -17535,8 +17535,8 @@
       <c r="AM79" s="38"/>
     </row>
     <row r="80" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A80" s="81"/>
-      <c r="B80" s="81"/>
+      <c r="A80" s="83"/>
+      <c r="B80" s="83"/>
       <c r="D80" s="22"/>
       <c r="E80" s="22"/>
       <c r="F80" s="22"/>
@@ -18580,9 +18580,6 @@
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="A68:A69"/>
     <mergeCell ref="A70:A71"/>
     <mergeCell ref="B80:B81"/>
     <mergeCell ref="A72:A73"/>
@@ -18590,32 +18587,22 @@
     <mergeCell ref="A76:A77"/>
     <mergeCell ref="A78:A79"/>
     <mergeCell ref="A80:A81"/>
-    <mergeCell ref="B64:B65"/>
     <mergeCell ref="B72:B73"/>
     <mergeCell ref="B74:B75"/>
     <mergeCell ref="B76:B77"/>
     <mergeCell ref="B78:B79"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A62:A63"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A46:A47"/>
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="A50:A51"/>
     <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="AA1:AD1"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="AF3:AM37"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A15"/>
     <mergeCell ref="AF44:AM72"/>
     <mergeCell ref="B70:B71"/>
     <mergeCell ref="B46:B47"/>
@@ -18624,37 +18611,50 @@
     <mergeCell ref="B52:B53"/>
     <mergeCell ref="B54:B55"/>
     <mergeCell ref="B56:B57"/>
-    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="AA1:AD1"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="AF3:AM37"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
     <mergeCell ref="B32:B33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
     <mergeCell ref="A42:A43"/>
     <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A68:A69"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="A40:A41"/>
     <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B44:B45"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="B30:B31"/>
-    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="B16:B17"/>
